--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\SE_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\SE_my _script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3097,7 +3097,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3302,6 +3302,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4042,7 +4050,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4815,6 +4823,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4857,7 +4868,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5253,12 +5264,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -5313,12 +5324,12 @@
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
       <c r="F6" s="150"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
@@ -5808,12 +5819,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5853,12 +5864,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6214,12 +6225,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6259,12 +6270,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6683,12 +6694,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6728,12 +6739,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -7056,12 +7067,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7120,12 +7131,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="329"/>
-      <c r="D7" s="329"/>
-      <c r="E7" s="336"/>
+      <c r="B7" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="337"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="124" t="s">
@@ -7507,12 +7518,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7552,12 +7563,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -7865,12 +7876,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7917,12 +7928,12 @@
       <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -8245,12 +8256,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8318,12 +8329,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="W6">
         <v>210</v>
       </c>
@@ -8823,12 +8834,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8898,12 +8909,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -9448,12 +9459,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -9523,12 +9534,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -10164,12 +10175,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -10220,12 +10231,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -11349,12 +11360,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -11405,12 +11416,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12005,12 +12016,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12061,12 +12072,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12745,12 +12756,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12801,12 +12812,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -13464,12 +13475,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -13520,12 +13531,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14196,12 +14207,12 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -14250,12 +14261,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14897,12 +14908,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -14951,12 +14962,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -15537,12 +15548,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -15591,12 +15602,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -16201,12 +16212,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -16255,12 +16266,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -16967,12 +16978,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17005,12 +17016,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -17574,12 +17585,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17612,12 +17623,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -18125,16 +18136,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="330" t="s">
+      <c r="E1" s="331" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="333"/>
     </row>
     <row r="2" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
@@ -18585,12 +18596,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -18623,12 +18634,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -19149,12 +19160,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19187,12 +19198,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -19647,12 +19658,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19685,12 +19696,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20093,12 +20104,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20131,12 +20142,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20494,12 +20505,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20532,12 +20543,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20905,12 +20916,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20941,12 +20952,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="338"/>
-      <c r="D6" s="338"/>
-      <c r="E6" s="339"/>
+      <c r="B6" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -21272,11 +21283,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AAO52"/>
+  <dimension ref="B1:AAP52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="ZX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AAQ11" sqref="AAQ11"/>
+      <selection pane="topRight" activeCell="AAK13" sqref="AAK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21660,861 +21671,862 @@
     <col min="709" max="709" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="714" max="714" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="717" max="717" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="718" max="718" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:717" x14ac:dyDescent="0.25">
-      <c r="E1" s="330" t="s">
+    <row r="1" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="E1" s="331" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="330" t="s">
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
-      <c r="R1" s="331"/>
-      <c r="S1" s="331"/>
-      <c r="T1" s="332"/>
-      <c r="U1" s="330" t="s">
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="333"/>
+      <c r="U1" s="331" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="331"/>
-      <c r="W1" s="331"/>
-      <c r="X1" s="331"/>
-      <c r="Y1" s="331"/>
-      <c r="Z1" s="331"/>
-      <c r="AA1" s="331"/>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="330" t="s">
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="332"/>
+      <c r="Y1" s="332"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="332"/>
+      <c r="AB1" s="333"/>
+      <c r="AC1" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="331"/>
-      <c r="AE1" s="331"/>
-      <c r="AF1" s="331"/>
-      <c r="AG1" s="331"/>
-      <c r="AH1" s="331"/>
-      <c r="AI1" s="331"/>
-      <c r="AJ1" s="332"/>
-      <c r="AK1" s="330" t="s">
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+      <c r="AH1" s="332"/>
+      <c r="AI1" s="332"/>
+      <c r="AJ1" s="333"/>
+      <c r="AK1" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="331"/>
-      <c r="AM1" s="331"/>
-      <c r="AN1" s="331"/>
-      <c r="AO1" s="331"/>
-      <c r="AP1" s="331"/>
-      <c r="AQ1" s="331"/>
-      <c r="AR1" s="332"/>
-      <c r="AS1" s="330" t="s">
+      <c r="AL1" s="332"/>
+      <c r="AM1" s="332"/>
+      <c r="AN1" s="332"/>
+      <c r="AO1" s="332"/>
+      <c r="AP1" s="332"/>
+      <c r="AQ1" s="332"/>
+      <c r="AR1" s="333"/>
+      <c r="AS1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="AT1" s="331"/>
-      <c r="AU1" s="331"/>
-      <c r="AV1" s="331"/>
-      <c r="AW1" s="331"/>
-      <c r="AX1" s="331"/>
-      <c r="AY1" s="331"/>
-      <c r="AZ1" s="332"/>
-      <c r="BA1" s="330" t="s">
+      <c r="AT1" s="332"/>
+      <c r="AU1" s="332"/>
+      <c r="AV1" s="332"/>
+      <c r="AW1" s="332"/>
+      <c r="AX1" s="332"/>
+      <c r="AY1" s="332"/>
+      <c r="AZ1" s="333"/>
+      <c r="BA1" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="331"/>
-      <c r="BC1" s="331"/>
-      <c r="BD1" s="331"/>
-      <c r="BE1" s="331"/>
-      <c r="BF1" s="331"/>
-      <c r="BG1" s="331"/>
-      <c r="BH1" s="332"/>
-      <c r="BI1" s="330" t="s">
+      <c r="BB1" s="332"/>
+      <c r="BC1" s="332"/>
+      <c r="BD1" s="332"/>
+      <c r="BE1" s="332"/>
+      <c r="BF1" s="332"/>
+      <c r="BG1" s="332"/>
+      <c r="BH1" s="333"/>
+      <c r="BI1" s="331" t="s">
         <v>113</v>
       </c>
-      <c r="BJ1" s="331"/>
-      <c r="BK1" s="331"/>
-      <c r="BL1" s="331"/>
-      <c r="BM1" s="331"/>
-      <c r="BN1" s="331"/>
-      <c r="BO1" s="331"/>
-      <c r="BP1" s="332"/>
-      <c r="BQ1" s="330" t="s">
+      <c r="BJ1" s="332"/>
+      <c r="BK1" s="332"/>
+      <c r="BL1" s="332"/>
+      <c r="BM1" s="332"/>
+      <c r="BN1" s="332"/>
+      <c r="BO1" s="332"/>
+      <c r="BP1" s="333"/>
+      <c r="BQ1" s="331" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="331"/>
-      <c r="BS1" s="331"/>
-      <c r="BT1" s="331"/>
-      <c r="BU1" s="331"/>
-      <c r="BV1" s="331"/>
-      <c r="BW1" s="331"/>
-      <c r="BX1" s="332"/>
-      <c r="BY1" s="330" t="s">
+      <c r="BR1" s="332"/>
+      <c r="BS1" s="332"/>
+      <c r="BT1" s="332"/>
+      <c r="BU1" s="332"/>
+      <c r="BV1" s="332"/>
+      <c r="BW1" s="332"/>
+      <c r="BX1" s="333"/>
+      <c r="BY1" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" s="331"/>
-      <c r="CA1" s="331"/>
-      <c r="CB1" s="331"/>
-      <c r="CC1" s="331"/>
-      <c r="CD1" s="331"/>
-      <c r="CE1" s="331"/>
-      <c r="CF1" s="332"/>
-      <c r="CI1" s="330" t="s">
+      <c r="BZ1" s="332"/>
+      <c r="CA1" s="332"/>
+      <c r="CB1" s="332"/>
+      <c r="CC1" s="332"/>
+      <c r="CD1" s="332"/>
+      <c r="CE1" s="332"/>
+      <c r="CF1" s="333"/>
+      <c r="CI1" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="CJ1" s="331"/>
-      <c r="CK1" s="331"/>
-      <c r="CL1" s="331"/>
-      <c r="CM1" s="331"/>
-      <c r="CN1" s="331"/>
-      <c r="CO1" s="331"/>
-      <c r="CP1" s="332"/>
-      <c r="CQ1" s="330" t="s">
+      <c r="CJ1" s="332"/>
+      <c r="CK1" s="332"/>
+      <c r="CL1" s="332"/>
+      <c r="CM1" s="332"/>
+      <c r="CN1" s="332"/>
+      <c r="CO1" s="332"/>
+      <c r="CP1" s="333"/>
+      <c r="CQ1" s="331" t="s">
         <v>143</v>
       </c>
-      <c r="CR1" s="331"/>
-      <c r="CS1" s="331"/>
-      <c r="CT1" s="331"/>
-      <c r="CU1" s="331"/>
-      <c r="CV1" s="331"/>
-      <c r="CW1" s="331"/>
-      <c r="CX1" s="332"/>
-      <c r="CY1" s="330" t="s">
+      <c r="CR1" s="332"/>
+      <c r="CS1" s="332"/>
+      <c r="CT1" s="332"/>
+      <c r="CU1" s="332"/>
+      <c r="CV1" s="332"/>
+      <c r="CW1" s="332"/>
+      <c r="CX1" s="333"/>
+      <c r="CY1" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="CZ1" s="331"/>
-      <c r="DA1" s="331"/>
-      <c r="DB1" s="331"/>
-      <c r="DC1" s="331"/>
-      <c r="DD1" s="331"/>
-      <c r="DE1" s="331"/>
-      <c r="DF1" s="332"/>
-      <c r="DG1" s="330" t="s">
+      <c r="CZ1" s="332"/>
+      <c r="DA1" s="332"/>
+      <c r="DB1" s="332"/>
+      <c r="DC1" s="332"/>
+      <c r="DD1" s="332"/>
+      <c r="DE1" s="332"/>
+      <c r="DF1" s="333"/>
+      <c r="DG1" s="331" t="s">
         <v>151</v>
       </c>
-      <c r="DH1" s="331"/>
-      <c r="DI1" s="331"/>
-      <c r="DJ1" s="331"/>
-      <c r="DK1" s="331"/>
-      <c r="DL1" s="331"/>
-      <c r="DM1" s="331"/>
-      <c r="DN1" s="332"/>
-      <c r="DO1" s="330" t="s">
+      <c r="DH1" s="332"/>
+      <c r="DI1" s="332"/>
+      <c r="DJ1" s="332"/>
+      <c r="DK1" s="332"/>
+      <c r="DL1" s="332"/>
+      <c r="DM1" s="332"/>
+      <c r="DN1" s="333"/>
+      <c r="DO1" s="331" t="s">
         <v>153</v>
       </c>
-      <c r="DP1" s="331"/>
-      <c r="DQ1" s="331"/>
-      <c r="DR1" s="331"/>
-      <c r="DS1" s="331"/>
-      <c r="DT1" s="331"/>
-      <c r="DU1" s="331"/>
-      <c r="DV1" s="332"/>
-      <c r="DW1" s="330" t="s">
+      <c r="DP1" s="332"/>
+      <c r="DQ1" s="332"/>
+      <c r="DR1" s="332"/>
+      <c r="DS1" s="332"/>
+      <c r="DT1" s="332"/>
+      <c r="DU1" s="332"/>
+      <c r="DV1" s="333"/>
+      <c r="DW1" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="DX1" s="331"/>
-      <c r="DY1" s="331"/>
-      <c r="DZ1" s="331"/>
-      <c r="EA1" s="331"/>
-      <c r="EB1" s="331"/>
-      <c r="EC1" s="331"/>
-      <c r="ED1" s="332"/>
-      <c r="EE1" s="330" t="s">
+      <c r="DX1" s="332"/>
+      <c r="DY1" s="332"/>
+      <c r="DZ1" s="332"/>
+      <c r="EA1" s="332"/>
+      <c r="EB1" s="332"/>
+      <c r="EC1" s="332"/>
+      <c r="ED1" s="333"/>
+      <c r="EE1" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="EF1" s="331"/>
-      <c r="EG1" s="331"/>
-      <c r="EH1" s="331"/>
-      <c r="EI1" s="331"/>
-      <c r="EJ1" s="331"/>
-      <c r="EK1" s="331"/>
-      <c r="EL1" s="332"/>
-      <c r="EM1" s="330" t="s">
+      <c r="EF1" s="332"/>
+      <c r="EG1" s="332"/>
+      <c r="EH1" s="332"/>
+      <c r="EI1" s="332"/>
+      <c r="EJ1" s="332"/>
+      <c r="EK1" s="332"/>
+      <c r="EL1" s="333"/>
+      <c r="EM1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="EN1" s="331"/>
-      <c r="EO1" s="331"/>
-      <c r="EP1" s="331"/>
-      <c r="EQ1" s="331"/>
-      <c r="ER1" s="331"/>
-      <c r="ES1" s="331"/>
-      <c r="ET1" s="332"/>
-      <c r="EU1" s="330" t="s">
+      <c r="EN1" s="332"/>
+      <c r="EO1" s="332"/>
+      <c r="EP1" s="332"/>
+      <c r="EQ1" s="332"/>
+      <c r="ER1" s="332"/>
+      <c r="ES1" s="332"/>
+      <c r="ET1" s="333"/>
+      <c r="EU1" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="EV1" s="331"/>
-      <c r="EW1" s="331"/>
-      <c r="EX1" s="331"/>
-      <c r="EY1" s="331"/>
-      <c r="EZ1" s="331"/>
-      <c r="FA1" s="331"/>
-      <c r="FB1" s="332"/>
-      <c r="FC1" s="330" t="s">
+      <c r="EV1" s="332"/>
+      <c r="EW1" s="332"/>
+      <c r="EX1" s="332"/>
+      <c r="EY1" s="332"/>
+      <c r="EZ1" s="332"/>
+      <c r="FA1" s="332"/>
+      <c r="FB1" s="333"/>
+      <c r="FC1" s="331" t="s">
         <v>173</v>
       </c>
-      <c r="FD1" s="331"/>
-      <c r="FE1" s="331"/>
-      <c r="FF1" s="331"/>
-      <c r="FG1" s="331"/>
-      <c r="FH1" s="331"/>
-      <c r="FI1" s="331"/>
-      <c r="FJ1" s="332"/>
-      <c r="FK1" s="330" t="s">
+      <c r="FD1" s="332"/>
+      <c r="FE1" s="332"/>
+      <c r="FF1" s="332"/>
+      <c r="FG1" s="332"/>
+      <c r="FH1" s="332"/>
+      <c r="FI1" s="332"/>
+      <c r="FJ1" s="333"/>
+      <c r="FK1" s="331" t="s">
         <v>174</v>
       </c>
-      <c r="FL1" s="331"/>
-      <c r="FM1" s="331"/>
-      <c r="FN1" s="331"/>
-      <c r="FO1" s="331"/>
-      <c r="FP1" s="331"/>
-      <c r="FQ1" s="331"/>
-      <c r="FR1" s="332"/>
-      <c r="FS1" s="330" t="s">
+      <c r="FL1" s="332"/>
+      <c r="FM1" s="332"/>
+      <c r="FN1" s="332"/>
+      <c r="FO1" s="332"/>
+      <c r="FP1" s="332"/>
+      <c r="FQ1" s="332"/>
+      <c r="FR1" s="333"/>
+      <c r="FS1" s="331" t="s">
         <v>199</v>
       </c>
-      <c r="FT1" s="331"/>
-      <c r="FU1" s="331"/>
-      <c r="FV1" s="331"/>
-      <c r="FW1" s="331"/>
-      <c r="FX1" s="331"/>
-      <c r="FY1" s="331"/>
-      <c r="FZ1" s="332"/>
-      <c r="GA1" s="330" t="s">
+      <c r="FT1" s="332"/>
+      <c r="FU1" s="332"/>
+      <c r="FV1" s="332"/>
+      <c r="FW1" s="332"/>
+      <c r="FX1" s="332"/>
+      <c r="FY1" s="332"/>
+      <c r="FZ1" s="333"/>
+      <c r="GA1" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="GB1" s="331"/>
-      <c r="GC1" s="331"/>
-      <c r="GD1" s="331"/>
-      <c r="GE1" s="331"/>
-      <c r="GF1" s="331"/>
-      <c r="GG1" s="331"/>
-      <c r="GH1" s="332"/>
-      <c r="GI1" s="330" t="s">
+      <c r="GB1" s="332"/>
+      <c r="GC1" s="332"/>
+      <c r="GD1" s="332"/>
+      <c r="GE1" s="332"/>
+      <c r="GF1" s="332"/>
+      <c r="GG1" s="332"/>
+      <c r="GH1" s="333"/>
+      <c r="GI1" s="331" t="s">
         <v>143</v>
       </c>
-      <c r="GJ1" s="331"/>
-      <c r="GK1" s="331"/>
-      <c r="GL1" s="331"/>
-      <c r="GM1" s="331"/>
-      <c r="GN1" s="331"/>
-      <c r="GO1" s="331"/>
-      <c r="GP1" s="332"/>
-      <c r="GQ1" s="330" t="s">
+      <c r="GJ1" s="332"/>
+      <c r="GK1" s="332"/>
+      <c r="GL1" s="332"/>
+      <c r="GM1" s="332"/>
+      <c r="GN1" s="332"/>
+      <c r="GO1" s="332"/>
+      <c r="GP1" s="333"/>
+      <c r="GQ1" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="GR1" s="331"/>
-      <c r="GS1" s="331"/>
-      <c r="GT1" s="331"/>
-      <c r="GU1" s="331"/>
-      <c r="GV1" s="331"/>
-      <c r="GW1" s="331"/>
-      <c r="GX1" s="332"/>
-      <c r="GY1" s="330" t="s">
+      <c r="GR1" s="332"/>
+      <c r="GS1" s="332"/>
+      <c r="GT1" s="332"/>
+      <c r="GU1" s="332"/>
+      <c r="GV1" s="332"/>
+      <c r="GW1" s="332"/>
+      <c r="GX1" s="333"/>
+      <c r="GY1" s="331" t="s">
         <v>151</v>
       </c>
-      <c r="GZ1" s="331"/>
-      <c r="HA1" s="331"/>
-      <c r="HB1" s="331"/>
-      <c r="HC1" s="331"/>
-      <c r="HD1" s="331"/>
-      <c r="HE1" s="331"/>
-      <c r="HF1" s="332"/>
-      <c r="HG1" s="330" t="s">
+      <c r="GZ1" s="332"/>
+      <c r="HA1" s="332"/>
+      <c r="HB1" s="332"/>
+      <c r="HC1" s="332"/>
+      <c r="HD1" s="332"/>
+      <c r="HE1" s="332"/>
+      <c r="HF1" s="333"/>
+      <c r="HG1" s="331" t="s">
         <v>153</v>
       </c>
-      <c r="HH1" s="331"/>
-      <c r="HI1" s="331"/>
-      <c r="HJ1" s="331"/>
-      <c r="HK1" s="331"/>
-      <c r="HL1" s="331"/>
-      <c r="HM1" s="331"/>
-      <c r="HN1" s="332"/>
-      <c r="HO1" s="330" t="s">
+      <c r="HH1" s="332"/>
+      <c r="HI1" s="332"/>
+      <c r="HJ1" s="332"/>
+      <c r="HK1" s="332"/>
+      <c r="HL1" s="332"/>
+      <c r="HM1" s="332"/>
+      <c r="HN1" s="333"/>
+      <c r="HO1" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="HP1" s="331"/>
-      <c r="HQ1" s="331"/>
-      <c r="HR1" s="331"/>
-      <c r="HS1" s="331"/>
-      <c r="HT1" s="331"/>
-      <c r="HU1" s="331"/>
-      <c r="HV1" s="332"/>
-      <c r="HW1" s="330" t="s">
+      <c r="HP1" s="332"/>
+      <c r="HQ1" s="332"/>
+      <c r="HR1" s="332"/>
+      <c r="HS1" s="332"/>
+      <c r="HT1" s="332"/>
+      <c r="HU1" s="332"/>
+      <c r="HV1" s="333"/>
+      <c r="HW1" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="HX1" s="331"/>
-      <c r="HY1" s="331"/>
-      <c r="HZ1" s="331"/>
-      <c r="IA1" s="331"/>
-      <c r="IB1" s="331"/>
-      <c r="IC1" s="331"/>
-      <c r="ID1" s="332"/>
-      <c r="IE1" s="330" t="s">
+      <c r="HX1" s="332"/>
+      <c r="HY1" s="332"/>
+      <c r="HZ1" s="332"/>
+      <c r="IA1" s="332"/>
+      <c r="IB1" s="332"/>
+      <c r="IC1" s="332"/>
+      <c r="ID1" s="333"/>
+      <c r="IE1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="IF1" s="331"/>
-      <c r="IG1" s="331"/>
-      <c r="IH1" s="331"/>
-      <c r="II1" s="331"/>
-      <c r="IJ1" s="331"/>
-      <c r="IK1" s="331"/>
-      <c r="IL1" s="332"/>
-      <c r="IM1" s="330" t="s">
+      <c r="IF1" s="332"/>
+      <c r="IG1" s="332"/>
+      <c r="IH1" s="332"/>
+      <c r="II1" s="332"/>
+      <c r="IJ1" s="332"/>
+      <c r="IK1" s="332"/>
+      <c r="IL1" s="333"/>
+      <c r="IM1" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="IN1" s="331"/>
-      <c r="IO1" s="331"/>
-      <c r="IP1" s="331"/>
-      <c r="IQ1" s="331"/>
-      <c r="IR1" s="331"/>
-      <c r="IS1" s="331"/>
-      <c r="IT1" s="332"/>
-      <c r="IU1" s="330" t="s">
+      <c r="IN1" s="332"/>
+      <c r="IO1" s="332"/>
+      <c r="IP1" s="332"/>
+      <c r="IQ1" s="332"/>
+      <c r="IR1" s="332"/>
+      <c r="IS1" s="332"/>
+      <c r="IT1" s="333"/>
+      <c r="IU1" s="331" t="s">
         <v>113</v>
       </c>
-      <c r="IV1" s="331"/>
-      <c r="IW1" s="331"/>
-      <c r="IX1" s="331"/>
-      <c r="IY1" s="331"/>
-      <c r="IZ1" s="331"/>
-      <c r="JA1" s="331"/>
-      <c r="JB1" s="332"/>
-      <c r="JC1" s="330" t="s">
+      <c r="IV1" s="332"/>
+      <c r="IW1" s="332"/>
+      <c r="IX1" s="332"/>
+      <c r="IY1" s="332"/>
+      <c r="IZ1" s="332"/>
+      <c r="JA1" s="332"/>
+      <c r="JB1" s="333"/>
+      <c r="JC1" s="331" t="s">
         <v>120</v>
       </c>
-      <c r="JD1" s="331"/>
-      <c r="JE1" s="331"/>
-      <c r="JF1" s="331"/>
-      <c r="JG1" s="331"/>
-      <c r="JH1" s="331"/>
-      <c r="JI1" s="331"/>
-      <c r="JJ1" s="332"/>
-      <c r="JK1" s="330" t="s">
+      <c r="JD1" s="332"/>
+      <c r="JE1" s="332"/>
+      <c r="JF1" s="332"/>
+      <c r="JG1" s="332"/>
+      <c r="JH1" s="332"/>
+      <c r="JI1" s="332"/>
+      <c r="JJ1" s="333"/>
+      <c r="JK1" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="JL1" s="331"/>
-      <c r="JM1" s="331"/>
-      <c r="JN1" s="331"/>
-      <c r="JO1" s="331"/>
-      <c r="JP1" s="331"/>
-      <c r="JQ1" s="331"/>
-      <c r="JR1" s="332"/>
-      <c r="JS1" s="330" t="s">
+      <c r="JL1" s="332"/>
+      <c r="JM1" s="332"/>
+      <c r="JN1" s="332"/>
+      <c r="JO1" s="332"/>
+      <c r="JP1" s="332"/>
+      <c r="JQ1" s="332"/>
+      <c r="JR1" s="333"/>
+      <c r="JS1" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="JT1" s="331"/>
-      <c r="JU1" s="331"/>
-      <c r="JV1" s="331"/>
-      <c r="JW1" s="331"/>
-      <c r="JX1" s="331"/>
-      <c r="JY1" s="331"/>
-      <c r="JZ1" s="332"/>
-      <c r="KA1" s="330" t="s">
+      <c r="JT1" s="332"/>
+      <c r="JU1" s="332"/>
+      <c r="JV1" s="332"/>
+      <c r="JW1" s="332"/>
+      <c r="JX1" s="332"/>
+      <c r="JY1" s="332"/>
+      <c r="JZ1" s="333"/>
+      <c r="KA1" s="331" t="s">
         <v>224</v>
       </c>
-      <c r="KB1" s="331"/>
-      <c r="KC1" s="331"/>
-      <c r="KD1" s="331"/>
-      <c r="KE1" s="331"/>
-      <c r="KF1" s="331"/>
-      <c r="KG1" s="331"/>
-      <c r="KH1" s="332"/>
-      <c r="KI1" s="330" t="s">
+      <c r="KB1" s="332"/>
+      <c r="KC1" s="332"/>
+      <c r="KD1" s="332"/>
+      <c r="KE1" s="332"/>
+      <c r="KF1" s="332"/>
+      <c r="KG1" s="332"/>
+      <c r="KH1" s="333"/>
+      <c r="KI1" s="331" t="s">
         <v>54</v>
       </c>
-      <c r="KJ1" s="331"/>
-      <c r="KK1" s="331"/>
-      <c r="KL1" s="331"/>
-      <c r="KM1" s="331"/>
-      <c r="KN1" s="331"/>
-      <c r="KO1" s="331"/>
-      <c r="KP1" s="332"/>
-      <c r="KQ1" s="330" t="s">
+      <c r="KJ1" s="332"/>
+      <c r="KK1" s="332"/>
+      <c r="KL1" s="332"/>
+      <c r="KM1" s="332"/>
+      <c r="KN1" s="332"/>
+      <c r="KO1" s="332"/>
+      <c r="KP1" s="333"/>
+      <c r="KQ1" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="KR1" s="331"/>
-      <c r="KS1" s="331"/>
-      <c r="KT1" s="331"/>
-      <c r="KU1" s="331"/>
-      <c r="KV1" s="331"/>
-      <c r="KW1" s="331"/>
-      <c r="KX1" s="332"/>
-      <c r="KY1" s="330" t="s">
+      <c r="KR1" s="332"/>
+      <c r="KS1" s="332"/>
+      <c r="KT1" s="332"/>
+      <c r="KU1" s="332"/>
+      <c r="KV1" s="332"/>
+      <c r="KW1" s="332"/>
+      <c r="KX1" s="333"/>
+      <c r="KY1" s="331" t="s">
         <v>66</v>
       </c>
-      <c r="KZ1" s="331"/>
-      <c r="LA1" s="331"/>
-      <c r="LB1" s="331"/>
-      <c r="LC1" s="331"/>
-      <c r="LD1" s="331"/>
-      <c r="LE1" s="331"/>
-      <c r="LF1" s="332"/>
-      <c r="LG1" s="330" t="s">
+      <c r="KZ1" s="332"/>
+      <c r="LA1" s="332"/>
+      <c r="LB1" s="332"/>
+      <c r="LC1" s="332"/>
+      <c r="LD1" s="332"/>
+      <c r="LE1" s="332"/>
+      <c r="LF1" s="333"/>
+      <c r="LG1" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="LH1" s="331"/>
-      <c r="LI1" s="331"/>
-      <c r="LJ1" s="331"/>
-      <c r="LK1" s="331"/>
-      <c r="LL1" s="331"/>
-      <c r="LM1" s="331"/>
-      <c r="LN1" s="332"/>
-      <c r="LO1" s="330" t="s">
+      <c r="LH1" s="332"/>
+      <c r="LI1" s="332"/>
+      <c r="LJ1" s="332"/>
+      <c r="LK1" s="332"/>
+      <c r="LL1" s="332"/>
+      <c r="LM1" s="332"/>
+      <c r="LN1" s="333"/>
+      <c r="LO1" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="LP1" s="331"/>
-      <c r="LQ1" s="331"/>
-      <c r="LR1" s="331"/>
-      <c r="LS1" s="331"/>
-      <c r="LT1" s="331"/>
-      <c r="LU1" s="331"/>
-      <c r="LV1" s="332"/>
-      <c r="LW1" s="330" t="s">
+      <c r="LP1" s="332"/>
+      <c r="LQ1" s="332"/>
+      <c r="LR1" s="332"/>
+      <c r="LS1" s="332"/>
+      <c r="LT1" s="332"/>
+      <c r="LU1" s="332"/>
+      <c r="LV1" s="333"/>
+      <c r="LW1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="LX1" s="331"/>
-      <c r="LY1" s="331"/>
-      <c r="LZ1" s="331"/>
-      <c r="MA1" s="331"/>
-      <c r="MB1" s="331"/>
-      <c r="MC1" s="331"/>
-      <c r="MD1" s="332"/>
-      <c r="MF1" s="330" t="s">
+      <c r="LX1" s="332"/>
+      <c r="LY1" s="332"/>
+      <c r="LZ1" s="332"/>
+      <c r="MA1" s="332"/>
+      <c r="MB1" s="332"/>
+      <c r="MC1" s="332"/>
+      <c r="MD1" s="333"/>
+      <c r="MF1" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="MG1" s="331"/>
-      <c r="MH1" s="331"/>
-      <c r="MI1" s="331"/>
-      <c r="MJ1" s="331"/>
-      <c r="MK1" s="331"/>
-      <c r="ML1" s="331"/>
-      <c r="MM1" s="332"/>
-      <c r="MN1" s="330" t="s">
+      <c r="MG1" s="332"/>
+      <c r="MH1" s="332"/>
+      <c r="MI1" s="332"/>
+      <c r="MJ1" s="332"/>
+      <c r="MK1" s="332"/>
+      <c r="ML1" s="332"/>
+      <c r="MM1" s="333"/>
+      <c r="MN1" s="331" t="s">
         <v>233</v>
       </c>
-      <c r="MO1" s="331"/>
-      <c r="MP1" s="331"/>
-      <c r="MQ1" s="331"/>
-      <c r="MR1" s="331"/>
-      <c r="MS1" s="331"/>
-      <c r="MT1" s="331"/>
-      <c r="MU1" s="332"/>
-      <c r="MV1" s="330" t="s">
+      <c r="MO1" s="332"/>
+      <c r="MP1" s="332"/>
+      <c r="MQ1" s="332"/>
+      <c r="MR1" s="332"/>
+      <c r="MS1" s="332"/>
+      <c r="MT1" s="332"/>
+      <c r="MU1" s="333"/>
+      <c r="MV1" s="331" t="s">
         <v>120</v>
       </c>
-      <c r="MW1" s="331"/>
-      <c r="MX1" s="331"/>
-      <c r="MY1" s="331"/>
-      <c r="MZ1" s="331"/>
-      <c r="NA1" s="331"/>
-      <c r="NB1" s="331"/>
-      <c r="NC1" s="332"/>
-      <c r="ND1" s="330" t="s">
+      <c r="MW1" s="332"/>
+      <c r="MX1" s="332"/>
+      <c r="MY1" s="332"/>
+      <c r="MZ1" s="332"/>
+      <c r="NA1" s="332"/>
+      <c r="NB1" s="332"/>
+      <c r="NC1" s="333"/>
+      <c r="ND1" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="NE1" s="331"/>
-      <c r="NF1" s="331"/>
-      <c r="NG1" s="331"/>
-      <c r="NH1" s="331"/>
-      <c r="NI1" s="331"/>
-      <c r="NJ1" s="331"/>
-      <c r="NK1" s="332"/>
-      <c r="NL1" s="330" t="s">
+      <c r="NE1" s="332"/>
+      <c r="NF1" s="332"/>
+      <c r="NG1" s="332"/>
+      <c r="NH1" s="332"/>
+      <c r="NI1" s="332"/>
+      <c r="NJ1" s="332"/>
+      <c r="NK1" s="333"/>
+      <c r="NL1" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="NM1" s="331"/>
-      <c r="NN1" s="331"/>
-      <c r="NO1" s="331"/>
-      <c r="NP1" s="331"/>
-      <c r="NQ1" s="331"/>
-      <c r="NR1" s="331"/>
-      <c r="NS1" s="332"/>
-      <c r="NT1" s="330" t="s">
+      <c r="NM1" s="332"/>
+      <c r="NN1" s="332"/>
+      <c r="NO1" s="332"/>
+      <c r="NP1" s="332"/>
+      <c r="NQ1" s="332"/>
+      <c r="NR1" s="332"/>
+      <c r="NS1" s="333"/>
+      <c r="NT1" s="331" t="s">
         <v>235</v>
       </c>
-      <c r="NU1" s="331"/>
-      <c r="NV1" s="331"/>
-      <c r="NW1" s="331"/>
-      <c r="NX1" s="331"/>
-      <c r="NY1" s="331"/>
-      <c r="NZ1" s="331"/>
-      <c r="OA1" s="332"/>
-      <c r="OB1" s="330" t="s">
+      <c r="NU1" s="332"/>
+      <c r="NV1" s="332"/>
+      <c r="NW1" s="332"/>
+      <c r="NX1" s="332"/>
+      <c r="NY1" s="332"/>
+      <c r="NZ1" s="332"/>
+      <c r="OA1" s="333"/>
+      <c r="OB1" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="OC1" s="331"/>
-      <c r="OD1" s="331"/>
-      <c r="OE1" s="331"/>
-      <c r="OF1" s="331"/>
-      <c r="OG1" s="331"/>
-      <c r="OH1" s="331"/>
-      <c r="OI1" s="332"/>
-      <c r="OJ1" s="330" t="s">
+      <c r="OC1" s="332"/>
+      <c r="OD1" s="332"/>
+      <c r="OE1" s="332"/>
+      <c r="OF1" s="332"/>
+      <c r="OG1" s="332"/>
+      <c r="OH1" s="332"/>
+      <c r="OI1" s="333"/>
+      <c r="OJ1" s="331" t="s">
         <v>153</v>
       </c>
-      <c r="OK1" s="331"/>
-      <c r="OL1" s="331"/>
-      <c r="OM1" s="331"/>
-      <c r="ON1" s="331"/>
-      <c r="OO1" s="331"/>
-      <c r="OP1" s="331"/>
-      <c r="OQ1" s="332"/>
-      <c r="OR1" s="330" t="s">
+      <c r="OK1" s="332"/>
+      <c r="OL1" s="332"/>
+      <c r="OM1" s="332"/>
+      <c r="ON1" s="332"/>
+      <c r="OO1" s="332"/>
+      <c r="OP1" s="332"/>
+      <c r="OQ1" s="333"/>
+      <c r="OR1" s="331" t="s">
         <v>84</v>
       </c>
-      <c r="OS1" s="331"/>
-      <c r="OT1" s="331"/>
-      <c r="OU1" s="331"/>
-      <c r="OV1" s="331"/>
-      <c r="OW1" s="331"/>
-      <c r="OX1" s="331"/>
-      <c r="OY1" s="332"/>
-      <c r="OZ1" s="330" t="s">
+      <c r="OS1" s="332"/>
+      <c r="OT1" s="332"/>
+      <c r="OU1" s="332"/>
+      <c r="OV1" s="332"/>
+      <c r="OW1" s="332"/>
+      <c r="OX1" s="332"/>
+      <c r="OY1" s="333"/>
+      <c r="OZ1" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="PA1" s="331"/>
-      <c r="PB1" s="331"/>
-      <c r="PC1" s="331"/>
-      <c r="PD1" s="331"/>
-      <c r="PE1" s="331"/>
-      <c r="PF1" s="331"/>
-      <c r="PG1" s="332"/>
-      <c r="PH1" s="330" t="s">
+      <c r="PA1" s="332"/>
+      <c r="PB1" s="332"/>
+      <c r="PC1" s="332"/>
+      <c r="PD1" s="332"/>
+      <c r="PE1" s="332"/>
+      <c r="PF1" s="332"/>
+      <c r="PG1" s="333"/>
+      <c r="PH1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="PI1" s="331"/>
-      <c r="PJ1" s="331"/>
-      <c r="PK1" s="331"/>
-      <c r="PL1" s="331"/>
-      <c r="PM1" s="331"/>
-      <c r="PN1" s="331"/>
-      <c r="PO1" s="332"/>
-      <c r="PP1" s="330" t="s">
+      <c r="PI1" s="332"/>
+      <c r="PJ1" s="332"/>
+      <c r="PK1" s="332"/>
+      <c r="PL1" s="332"/>
+      <c r="PM1" s="332"/>
+      <c r="PN1" s="332"/>
+      <c r="PO1" s="333"/>
+      <c r="PP1" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="PQ1" s="331"/>
-      <c r="PR1" s="331"/>
-      <c r="PS1" s="331"/>
-      <c r="PT1" s="331"/>
-      <c r="PU1" s="331"/>
-      <c r="PV1" s="331"/>
-      <c r="PW1" s="332"/>
-      <c r="PY1" s="330" t="s">
+      <c r="PQ1" s="332"/>
+      <c r="PR1" s="332"/>
+      <c r="PS1" s="332"/>
+      <c r="PT1" s="332"/>
+      <c r="PU1" s="332"/>
+      <c r="PV1" s="332"/>
+      <c r="PW1" s="333"/>
+      <c r="PY1" s="331" t="s">
         <v>173</v>
       </c>
-      <c r="PZ1" s="331"/>
-      <c r="QA1" s="331"/>
-      <c r="QB1" s="331"/>
-      <c r="QC1" s="331"/>
-      <c r="QD1" s="331"/>
-      <c r="QE1" s="331"/>
-      <c r="QF1" s="332"/>
-      <c r="QG1" s="330" t="s">
+      <c r="PZ1" s="332"/>
+      <c r="QA1" s="332"/>
+      <c r="QB1" s="332"/>
+      <c r="QC1" s="332"/>
+      <c r="QD1" s="332"/>
+      <c r="QE1" s="332"/>
+      <c r="QF1" s="333"/>
+      <c r="QG1" s="331" t="s">
         <v>174</v>
       </c>
-      <c r="QH1" s="331"/>
-      <c r="QI1" s="331"/>
-      <c r="QJ1" s="331"/>
-      <c r="QK1" s="331"/>
-      <c r="QL1" s="331"/>
-      <c r="QM1" s="331"/>
-      <c r="QN1" s="332"/>
-      <c r="QP1" s="330" t="s">
+      <c r="QH1" s="332"/>
+      <c r="QI1" s="332"/>
+      <c r="QJ1" s="332"/>
+      <c r="QK1" s="332"/>
+      <c r="QL1" s="332"/>
+      <c r="QM1" s="332"/>
+      <c r="QN1" s="333"/>
+      <c r="QP1" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="QQ1" s="331"/>
-      <c r="QR1" s="331"/>
-      <c r="QS1" s="331"/>
-      <c r="QT1" s="331"/>
-      <c r="QU1" s="331"/>
-      <c r="QV1" s="331"/>
-      <c r="QW1" s="332"/>
-      <c r="QX1" s="333">
+      <c r="QQ1" s="332"/>
+      <c r="QR1" s="332"/>
+      <c r="QS1" s="332"/>
+      <c r="QT1" s="332"/>
+      <c r="QU1" s="332"/>
+      <c r="QV1" s="332"/>
+      <c r="QW1" s="333"/>
+      <c r="QX1" s="334">
         <v>44682</v>
       </c>
-      <c r="QY1" s="331"/>
-      <c r="QZ1" s="331"/>
-      <c r="RA1" s="331"/>
-      <c r="RB1" s="331"/>
-      <c r="RC1" s="331"/>
-      <c r="RD1" s="331"/>
-      <c r="RE1" s="332"/>
-      <c r="RG1" s="333">
+      <c r="QY1" s="332"/>
+      <c r="QZ1" s="332"/>
+      <c r="RA1" s="332"/>
+      <c r="RB1" s="332"/>
+      <c r="RC1" s="332"/>
+      <c r="RD1" s="332"/>
+      <c r="RE1" s="333"/>
+      <c r="RG1" s="334">
         <v>44713</v>
       </c>
-      <c r="RH1" s="331"/>
-      <c r="RI1" s="331"/>
-      <c r="RJ1" s="331"/>
-      <c r="RK1" s="331"/>
-      <c r="RL1" s="331"/>
-      <c r="RM1" s="331"/>
-      <c r="RN1" s="332"/>
-      <c r="RP1" s="333">
+      <c r="RH1" s="332"/>
+      <c r="RI1" s="332"/>
+      <c r="RJ1" s="332"/>
+      <c r="RK1" s="332"/>
+      <c r="RL1" s="332"/>
+      <c r="RM1" s="332"/>
+      <c r="RN1" s="333"/>
+      <c r="RP1" s="334">
         <v>44743</v>
       </c>
-      <c r="RQ1" s="331"/>
-      <c r="RR1" s="331"/>
-      <c r="RS1" s="331"/>
-      <c r="RT1" s="331"/>
-      <c r="RU1" s="331"/>
-      <c r="RV1" s="331"/>
-      <c r="RW1" s="332"/>
-      <c r="RY1" s="333">
+      <c r="RQ1" s="332"/>
+      <c r="RR1" s="332"/>
+      <c r="RS1" s="332"/>
+      <c r="RT1" s="332"/>
+      <c r="RU1" s="332"/>
+      <c r="RV1" s="332"/>
+      <c r="RW1" s="333"/>
+      <c r="RY1" s="334">
         <v>44774</v>
       </c>
-      <c r="RZ1" s="331"/>
-      <c r="SA1" s="331"/>
-      <c r="SB1" s="331"/>
-      <c r="SC1" s="331"/>
-      <c r="SD1" s="331"/>
-      <c r="SE1" s="331"/>
-      <c r="SF1" s="332"/>
-      <c r="SH1" s="333">
+      <c r="RZ1" s="332"/>
+      <c r="SA1" s="332"/>
+      <c r="SB1" s="332"/>
+      <c r="SC1" s="332"/>
+      <c r="SD1" s="332"/>
+      <c r="SE1" s="332"/>
+      <c r="SF1" s="333"/>
+      <c r="SH1" s="334">
         <v>44805</v>
       </c>
-      <c r="SI1" s="331"/>
-      <c r="SJ1" s="331"/>
-      <c r="SK1" s="331"/>
-      <c r="SL1" s="331"/>
-      <c r="SM1" s="331"/>
-      <c r="SN1" s="331"/>
-      <c r="SO1" s="332"/>
-      <c r="SQ1" s="333">
+      <c r="SI1" s="332"/>
+      <c r="SJ1" s="332"/>
+      <c r="SK1" s="332"/>
+      <c r="SL1" s="332"/>
+      <c r="SM1" s="332"/>
+      <c r="SN1" s="332"/>
+      <c r="SO1" s="333"/>
+      <c r="SQ1" s="334">
         <v>44835</v>
       </c>
-      <c r="SR1" s="331"/>
-      <c r="SS1" s="331"/>
-      <c r="ST1" s="331"/>
-      <c r="SU1" s="331"/>
-      <c r="SV1" s="331"/>
-      <c r="SW1" s="331"/>
-      <c r="SX1" s="332"/>
-      <c r="SZ1" s="333">
+      <c r="SR1" s="332"/>
+      <c r="SS1" s="332"/>
+      <c r="ST1" s="332"/>
+      <c r="SU1" s="332"/>
+      <c r="SV1" s="332"/>
+      <c r="SW1" s="332"/>
+      <c r="SX1" s="333"/>
+      <c r="SZ1" s="334">
         <v>44866</v>
       </c>
-      <c r="TA1" s="331"/>
-      <c r="TB1" s="331"/>
-      <c r="TC1" s="331"/>
-      <c r="TD1" s="331"/>
-      <c r="TE1" s="331"/>
-      <c r="TF1" s="331"/>
-      <c r="TG1" s="332"/>
-      <c r="TI1" s="333">
+      <c r="TA1" s="332"/>
+      <c r="TB1" s="332"/>
+      <c r="TC1" s="332"/>
+      <c r="TD1" s="332"/>
+      <c r="TE1" s="332"/>
+      <c r="TF1" s="332"/>
+      <c r="TG1" s="333"/>
+      <c r="TI1" s="334">
         <v>44896</v>
       </c>
-      <c r="TJ1" s="331"/>
-      <c r="TK1" s="331"/>
-      <c r="TL1" s="331"/>
-      <c r="TM1" s="331"/>
-      <c r="TN1" s="331"/>
-      <c r="TO1" s="331"/>
-      <c r="TP1" s="332"/>
-      <c r="TR1" s="333">
+      <c r="TJ1" s="332"/>
+      <c r="TK1" s="332"/>
+      <c r="TL1" s="332"/>
+      <c r="TM1" s="332"/>
+      <c r="TN1" s="332"/>
+      <c r="TO1" s="332"/>
+      <c r="TP1" s="333"/>
+      <c r="TR1" s="334">
         <v>44927</v>
       </c>
-      <c r="TS1" s="331"/>
-      <c r="TT1" s="331"/>
-      <c r="TU1" s="331"/>
-      <c r="TV1" s="331"/>
-      <c r="TW1" s="331"/>
-      <c r="TX1" s="331"/>
-      <c r="TY1" s="332"/>
-      <c r="UA1" s="333">
+      <c r="TS1" s="332"/>
+      <c r="TT1" s="332"/>
+      <c r="TU1" s="332"/>
+      <c r="TV1" s="332"/>
+      <c r="TW1" s="332"/>
+      <c r="TX1" s="332"/>
+      <c r="TY1" s="333"/>
+      <c r="UA1" s="334">
         <v>44958</v>
       </c>
-      <c r="UB1" s="331"/>
-      <c r="UC1" s="331"/>
-      <c r="UD1" s="331"/>
-      <c r="UE1" s="331"/>
-      <c r="UF1" s="331"/>
-      <c r="UG1" s="331"/>
-      <c r="UH1" s="332"/>
-      <c r="UJ1" s="333">
+      <c r="UB1" s="332"/>
+      <c r="UC1" s="332"/>
+      <c r="UD1" s="332"/>
+      <c r="UE1" s="332"/>
+      <c r="UF1" s="332"/>
+      <c r="UG1" s="332"/>
+      <c r="UH1" s="333"/>
+      <c r="UJ1" s="334">
         <v>44986</v>
       </c>
-      <c r="UK1" s="331"/>
-      <c r="UL1" s="331"/>
-      <c r="UM1" s="331"/>
-      <c r="UN1" s="331"/>
-      <c r="UO1" s="331"/>
-      <c r="UP1" s="331"/>
-      <c r="UQ1" s="332"/>
-      <c r="US1" s="333">
+      <c r="UK1" s="332"/>
+      <c r="UL1" s="332"/>
+      <c r="UM1" s="332"/>
+      <c r="UN1" s="332"/>
+      <c r="UO1" s="332"/>
+      <c r="UP1" s="332"/>
+      <c r="UQ1" s="333"/>
+      <c r="US1" s="334">
         <v>45017</v>
       </c>
-      <c r="UT1" s="331"/>
-      <c r="UU1" s="331"/>
-      <c r="UV1" s="331"/>
-      <c r="UW1" s="331"/>
-      <c r="UX1" s="331"/>
-      <c r="UY1" s="331"/>
-      <c r="UZ1" s="332"/>
-      <c r="VB1" s="333">
+      <c r="UT1" s="332"/>
+      <c r="UU1" s="332"/>
+      <c r="UV1" s="332"/>
+      <c r="UW1" s="332"/>
+      <c r="UX1" s="332"/>
+      <c r="UY1" s="332"/>
+      <c r="UZ1" s="333"/>
+      <c r="VB1" s="334">
         <v>45047</v>
       </c>
-      <c r="VC1" s="331"/>
-      <c r="VD1" s="331"/>
-      <c r="VE1" s="331"/>
-      <c r="VF1" s="331"/>
-      <c r="VG1" s="331"/>
-      <c r="VH1" s="331"/>
-      <c r="VI1" s="332"/>
-      <c r="VK1" s="333">
+      <c r="VC1" s="332"/>
+      <c r="VD1" s="332"/>
+      <c r="VE1" s="332"/>
+      <c r="VF1" s="332"/>
+      <c r="VG1" s="332"/>
+      <c r="VH1" s="332"/>
+      <c r="VI1" s="333"/>
+      <c r="VK1" s="334">
         <v>45078</v>
       </c>
-      <c r="VL1" s="331"/>
-      <c r="VM1" s="331"/>
-      <c r="VN1" s="331"/>
-      <c r="VO1" s="331"/>
-      <c r="VP1" s="331"/>
-      <c r="VQ1" s="331"/>
-      <c r="VR1" s="332"/>
-      <c r="VT1" s="333">
+      <c r="VL1" s="332"/>
+      <c r="VM1" s="332"/>
+      <c r="VN1" s="332"/>
+      <c r="VO1" s="332"/>
+      <c r="VP1" s="332"/>
+      <c r="VQ1" s="332"/>
+      <c r="VR1" s="333"/>
+      <c r="VT1" s="334">
         <v>45108</v>
       </c>
-      <c r="VU1" s="331"/>
-      <c r="VV1" s="331"/>
-      <c r="VW1" s="331"/>
-      <c r="VX1" s="331"/>
-      <c r="VY1" s="331"/>
-      <c r="VZ1" s="331"/>
-      <c r="WA1" s="332"/>
-      <c r="WC1" s="333">
+      <c r="VU1" s="332"/>
+      <c r="VV1" s="332"/>
+      <c r="VW1" s="332"/>
+      <c r="VX1" s="332"/>
+      <c r="VY1" s="332"/>
+      <c r="VZ1" s="332"/>
+      <c r="WA1" s="333"/>
+      <c r="WC1" s="334">
         <v>45139</v>
       </c>
-      <c r="WD1" s="331"/>
-      <c r="WE1" s="331"/>
-      <c r="WF1" s="331"/>
-      <c r="WG1" s="331"/>
-      <c r="WH1" s="331"/>
-      <c r="WI1" s="331"/>
-      <c r="WJ1" s="332"/>
-      <c r="WL1" s="333">
+      <c r="WD1" s="332"/>
+      <c r="WE1" s="332"/>
+      <c r="WF1" s="332"/>
+      <c r="WG1" s="332"/>
+      <c r="WH1" s="332"/>
+      <c r="WI1" s="332"/>
+      <c r="WJ1" s="333"/>
+      <c r="WL1" s="334">
         <v>45170</v>
       </c>
-      <c r="WM1" s="331"/>
-      <c r="WN1" s="331"/>
-      <c r="WO1" s="331"/>
-      <c r="WP1" s="331"/>
-      <c r="WQ1" s="331"/>
-      <c r="WR1" s="331"/>
-      <c r="WS1" s="332"/>
-      <c r="WU1" s="333">
+      <c r="WM1" s="332"/>
+      <c r="WN1" s="332"/>
+      <c r="WO1" s="332"/>
+      <c r="WP1" s="332"/>
+      <c r="WQ1" s="332"/>
+      <c r="WR1" s="332"/>
+      <c r="WS1" s="333"/>
+      <c r="WU1" s="334">
         <v>45200</v>
       </c>
-      <c r="WV1" s="331"/>
-      <c r="WW1" s="331"/>
-      <c r="WX1" s="331"/>
-      <c r="WY1" s="331"/>
-      <c r="WZ1" s="331"/>
-      <c r="XA1" s="331"/>
-      <c r="XB1" s="332"/>
-      <c r="XD1" s="333">
+      <c r="WV1" s="332"/>
+      <c r="WW1" s="332"/>
+      <c r="WX1" s="332"/>
+      <c r="WY1" s="332"/>
+      <c r="WZ1" s="332"/>
+      <c r="XA1" s="332"/>
+      <c r="XB1" s="333"/>
+      <c r="XD1" s="334">
         <v>45231</v>
       </c>
-      <c r="XE1" s="331"/>
-      <c r="XF1" s="331"/>
-      <c r="XG1" s="331"/>
-      <c r="XH1" s="331"/>
-      <c r="XI1" s="331"/>
-      <c r="XJ1" s="331"/>
-      <c r="XK1" s="332"/>
-      <c r="XM1" s="333">
+      <c r="XE1" s="332"/>
+      <c r="XF1" s="332"/>
+      <c r="XG1" s="332"/>
+      <c r="XH1" s="332"/>
+      <c r="XI1" s="332"/>
+      <c r="XJ1" s="332"/>
+      <c r="XK1" s="333"/>
+      <c r="XM1" s="334">
         <v>45261</v>
       </c>
-      <c r="XN1" s="331"/>
-      <c r="XO1" s="331"/>
-      <c r="XP1" s="331"/>
-      <c r="XQ1" s="331"/>
-      <c r="XR1" s="331"/>
-      <c r="XS1" s="331"/>
-      <c r="XT1" s="332"/>
-      <c r="XV1" s="333">
+      <c r="XN1" s="332"/>
+      <c r="XO1" s="332"/>
+      <c r="XP1" s="332"/>
+      <c r="XQ1" s="332"/>
+      <c r="XR1" s="332"/>
+      <c r="XS1" s="332"/>
+      <c r="XT1" s="333"/>
+      <c r="XV1" s="334">
         <v>45292</v>
       </c>
-      <c r="XW1" s="331"/>
-      <c r="XX1" s="331"/>
-      <c r="XY1" s="331"/>
-      <c r="XZ1" s="331"/>
-      <c r="YA1" s="331"/>
-      <c r="YB1" s="331"/>
-      <c r="YC1" s="332"/>
-      <c r="YE1" s="333">
+      <c r="XW1" s="332"/>
+      <c r="XX1" s="332"/>
+      <c r="XY1" s="332"/>
+      <c r="XZ1" s="332"/>
+      <c r="YA1" s="332"/>
+      <c r="YB1" s="332"/>
+      <c r="YC1" s="333"/>
+      <c r="YE1" s="334">
         <v>45323</v>
       </c>
-      <c r="YF1" s="331"/>
-      <c r="YG1" s="331"/>
-      <c r="YH1" s="331"/>
-      <c r="YI1" s="331"/>
-      <c r="YJ1" s="331"/>
-      <c r="YK1" s="331"/>
-      <c r="YL1" s="332"/>
-      <c r="YN1" s="333">
+      <c r="YF1" s="332"/>
+      <c r="YG1" s="332"/>
+      <c r="YH1" s="332"/>
+      <c r="YI1" s="332"/>
+      <c r="YJ1" s="332"/>
+      <c r="YK1" s="332"/>
+      <c r="YL1" s="333"/>
+      <c r="YN1" s="334">
         <v>45352</v>
       </c>
-      <c r="YO1" s="331"/>
-      <c r="YP1" s="331"/>
-      <c r="YQ1" s="331"/>
-      <c r="YR1" s="331"/>
-      <c r="YS1" s="331"/>
-      <c r="YT1" s="331"/>
-      <c r="YU1" s="332"/>
-      <c r="YW1" s="333">
+      <c r="YO1" s="332"/>
+      <c r="YP1" s="332"/>
+      <c r="YQ1" s="332"/>
+      <c r="YR1" s="332"/>
+      <c r="YS1" s="332"/>
+      <c r="YT1" s="332"/>
+      <c r="YU1" s="333"/>
+      <c r="YW1" s="334">
         <v>45383</v>
       </c>
-      <c r="YX1" s="331"/>
-      <c r="YY1" s="331"/>
-      <c r="YZ1" s="331"/>
-      <c r="ZA1" s="331"/>
-      <c r="ZB1" s="331"/>
-      <c r="ZC1" s="331"/>
-      <c r="ZD1" s="332"/>
-      <c r="ZF1" s="333">
+      <c r="YX1" s="332"/>
+      <c r="YY1" s="332"/>
+      <c r="YZ1" s="332"/>
+      <c r="ZA1" s="332"/>
+      <c r="ZB1" s="332"/>
+      <c r="ZC1" s="332"/>
+      <c r="ZD1" s="333"/>
+      <c r="ZF1" s="334">
         <v>45413</v>
       </c>
-      <c r="ZG1" s="331"/>
-      <c r="ZH1" s="331"/>
-      <c r="ZI1" s="331"/>
-      <c r="ZJ1" s="331"/>
-      <c r="ZK1" s="331"/>
-      <c r="ZL1" s="331"/>
-      <c r="ZM1" s="332"/>
-      <c r="ZP1" s="333">
+      <c r="ZG1" s="332"/>
+      <c r="ZH1" s="332"/>
+      <c r="ZI1" s="332"/>
+      <c r="ZJ1" s="332"/>
+      <c r="ZK1" s="332"/>
+      <c r="ZL1" s="332"/>
+      <c r="ZM1" s="333"/>
+      <c r="ZP1" s="334">
         <v>45444</v>
       </c>
-      <c r="ZQ1" s="331"/>
-      <c r="ZR1" s="331"/>
-      <c r="ZS1" s="331"/>
-      <c r="ZT1" s="331"/>
-      <c r="ZU1" s="331"/>
-      <c r="ZV1" s="331"/>
-      <c r="ZW1" s="332"/>
-      <c r="ZY1" s="333">
+      <c r="ZQ1" s="332"/>
+      <c r="ZR1" s="332"/>
+      <c r="ZS1" s="332"/>
+      <c r="ZT1" s="332"/>
+      <c r="ZU1" s="332"/>
+      <c r="ZV1" s="332"/>
+      <c r="ZW1" s="333"/>
+      <c r="ZY1" s="334">
         <v>45474</v>
       </c>
-      <c r="ZZ1" s="331"/>
-      <c r="AAA1" s="331"/>
-      <c r="AAB1" s="331"/>
-      <c r="AAC1" s="331"/>
-      <c r="AAD1" s="331"/>
-      <c r="AAE1" s="331"/>
-      <c r="AAF1" s="332"/>
-      <c r="AAH1" s="333">
+      <c r="ZZ1" s="332"/>
+      <c r="AAA1" s="332"/>
+      <c r="AAB1" s="332"/>
+      <c r="AAC1" s="332"/>
+      <c r="AAD1" s="332"/>
+      <c r="AAE1" s="332"/>
+      <c r="AAF1" s="333"/>
+      <c r="AAH1" s="334">
         <v>45474</v>
       </c>
-      <c r="AAI1" s="331"/>
-      <c r="AAJ1" s="331"/>
-      <c r="AAK1" s="331"/>
-      <c r="AAL1" s="331"/>
-      <c r="AAM1" s="331"/>
-      <c r="AAN1" s="331"/>
-      <c r="AAO1" s="332"/>
-    </row>
-    <row r="2" spans="2:717" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAI1" s="332"/>
+      <c r="AAJ1" s="332"/>
+      <c r="AAK1" s="332"/>
+      <c r="AAL1" s="332"/>
+      <c r="AAM1" s="332"/>
+      <c r="AAN1" s="332"/>
+      <c r="AAO1" s="333"/>
+    </row>
+    <row r="2" spans="2:718" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24565,7 +24577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:717" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:718" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -26785,7 +26797,7 @@
         <v>345.048</v>
       </c>
     </row>
-    <row r="4" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -28831,7 +28843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:717" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:718" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -30349,7 +30361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31152,7 +31164,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="7" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -32593,7 +32605,7 @@
       </c>
       <c r="AAO7" s="75"/>
     </row>
-    <row r="8" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -33429,7 +33441,7 @@
         <v>451.5</v>
       </c>
     </row>
-    <row r="9" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -35682,21 +35694,21 @@
       <c r="AAK9" s="48">
         <v>4.32</v>
       </c>
-      <c r="AAL9" s="340">
+      <c r="AAL9" s="326">
         <f>AAJ9*AAK9</f>
         <v>1110.24</v>
       </c>
       <c r="AAM9" s="98"/>
       <c r="AAN9" s="306">
         <f>AAL11</f>
-        <v>0</v>
+        <v>543.56000000000006</v>
       </c>
       <c r="AAO9" s="321">
         <f>AAL11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:717" x14ac:dyDescent="0.25">
+        <v>543.56000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -37078,8 +37090,12 @@
       <c r="AAM10" s="49"/>
       <c r="AAN10" s="306"/>
       <c r="AAO10" s="75"/>
-    </row>
-    <row r="11" spans="2:717" x14ac:dyDescent="0.25">
+      <c r="AAP10" s="287">
+        <f>AAL9-AAL10</f>
+        <v>543.56000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -38441,12 +38457,15 @@
       <c r="AAI11" s="278"/>
       <c r="AAJ11" s="286"/>
       <c r="AAK11" s="48"/>
-      <c r="AAL11" s="300"/>
+      <c r="AAL11" s="341">
+        <f>AAL9-AAL10</f>
+        <v>543.56000000000006</v>
+      </c>
       <c r="AAM11" s="49"/>
       <c r="AAN11" s="306"/>
       <c r="AAO11" s="75"/>
     </row>
-    <row r="12" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -39806,7 +39825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:717" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:718" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -40834,7 +40853,7 @@
       <c r="AAN13" s="306"/>
       <c r="AAO13" s="75"/>
     </row>
-    <row r="14" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -43070,7 +43089,7 @@
         <v>87.53</v>
       </c>
     </row>
-    <row r="15" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -44000,7 +44019,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="16" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:718" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -46015,6 +46034,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="ZY1:AAF1"/>
+    <mergeCell ref="ZF1:ZM1"/>
+    <mergeCell ref="YN1:YU1"/>
+    <mergeCell ref="XV1:YC1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
+    <mergeCell ref="WU1:XB1"/>
+    <mergeCell ref="YW1:ZD1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="ND1:NK1"/>
+    <mergeCell ref="KA1:KH1"/>
+    <mergeCell ref="MV1:NC1"/>
+    <mergeCell ref="MF1:MM1"/>
+    <mergeCell ref="LW1:MD1"/>
+    <mergeCell ref="LO1:LV1"/>
+    <mergeCell ref="KY1:LF1"/>
+    <mergeCell ref="MN1:MU1"/>
+    <mergeCell ref="CI1:CP1"/>
+    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="DO1:DV1"/>
+    <mergeCell ref="DG1:DN1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
     <mergeCell ref="AAH1:AAO1"/>
     <mergeCell ref="OB1:OI1"/>
     <mergeCell ref="TI1:TP1"/>
@@ -46031,75 +46119,6 @@
     <mergeCell ref="RP1:RW1"/>
     <mergeCell ref="PP1:PW1"/>
     <mergeCell ref="SQ1:SX1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="ND1:NK1"/>
-    <mergeCell ref="KA1:KH1"/>
-    <mergeCell ref="MV1:NC1"/>
-    <mergeCell ref="MF1:MM1"/>
-    <mergeCell ref="LW1:MD1"/>
-    <mergeCell ref="LO1:LV1"/>
-    <mergeCell ref="KY1:LF1"/>
-    <mergeCell ref="MN1:MU1"/>
-    <mergeCell ref="CI1:CP1"/>
-    <mergeCell ref="DW1:ED1"/>
-    <mergeCell ref="DO1:DV1"/>
-    <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="VB1:VI1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
-    <mergeCell ref="WU1:XB1"/>
-    <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="ZY1:AAF1"/>
-    <mergeCell ref="ZF1:ZM1"/>
-    <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
@@ -46203,12 +46222,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
       <c r="F3" s="201"/>
       <c r="G3" s="201"/>
       <c r="I3" s="74"/>
@@ -46273,12 +46292,12 @@
       <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
       <c r="F6" s="207"/>
       <c r="G6" s="207"/>
       <c r="I6" s="74"/>
@@ -46951,12 +46970,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -46995,12 +47014,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -47538,12 +47557,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -47583,12 +47602,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -47975,12 +47994,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="335"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="336"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -48020,12 +48039,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="336"/>
+      <c r="B6" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="337"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$AAP$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$AAZ$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2366,12 +2366,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="AAU10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>edik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАПЛАТИЛ ПО ИНФОРМАЦИИ НА САЙТЕ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AAW10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -4050,7 +4100,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4826,6 +4876,9 @@
     <xf numFmtId="165" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4868,9 +4921,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="4" builtinId="21"/>
@@ -5264,12 +5315,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -5324,12 +5375,12 @@
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
       <c r="F6" s="150"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
@@ -5819,12 +5870,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5864,12 +5915,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6225,12 +6276,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6270,12 +6321,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6694,12 +6745,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6739,12 +6790,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -7067,12 +7118,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7131,12 +7182,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="337"/>
+      <c r="B7" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="338"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="124" t="s">
@@ -7518,12 +7569,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7563,12 +7614,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -7876,12 +7927,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7928,12 +7979,12 @@
       <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -8256,12 +8307,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8329,12 +8380,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="W6">
         <v>210</v>
       </c>
@@ -8834,12 +8885,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8909,12 +8960,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -9459,12 +9510,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -9534,12 +9585,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -10175,12 +10226,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -10231,12 +10282,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -11360,12 +11411,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -11416,12 +11467,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12016,12 +12067,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12072,12 +12123,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12756,12 +12807,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12812,12 +12863,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -13475,12 +13526,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -13531,12 +13582,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14207,12 +14258,12 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -14261,12 +14312,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14908,12 +14959,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -14962,12 +15013,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -15548,12 +15599,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -15602,12 +15653,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -16212,12 +16263,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -16266,12 +16317,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -16978,12 +17029,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17016,12 +17067,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -17585,12 +17636,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17623,12 +17674,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -18136,16 +18187,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="331" t="s">
+      <c r="E1" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="334"/>
     </row>
     <row r="2" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
@@ -18596,12 +18647,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -18634,12 +18685,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -19160,12 +19211,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19198,12 +19249,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -19658,12 +19709,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19696,12 +19747,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20104,12 +20155,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20142,12 +20193,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20505,12 +20556,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20543,12 +20594,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20916,12 +20967,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20952,12 +21003,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="340"/>
+      <c r="B6" s="339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="341"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -21283,11 +21334,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AAP52"/>
+  <dimension ref="B1:AAX52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ZX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AAK13" sqref="AAK13"/>
+      <pane xSplit="3" topLeftCell="AAI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AAY9" sqref="AAY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21670,863 +21721,875 @@
     <col min="708" max="708" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="709" max="709" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="714" max="714" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="718" max="718" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:718" x14ac:dyDescent="0.25">
-      <c r="E1" s="331" t="s">
+    <row r="1" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="E1" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="331" t="s">
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="332"/>
-      <c r="R1" s="332"/>
-      <c r="S1" s="332"/>
-      <c r="T1" s="333"/>
-      <c r="U1" s="331" t="s">
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
+      <c r="R1" s="333"/>
+      <c r="S1" s="333"/>
+      <c r="T1" s="334"/>
+      <c r="U1" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="332"/>
-      <c r="W1" s="332"/>
-      <c r="X1" s="332"/>
-      <c r="Y1" s="332"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="332"/>
-      <c r="AB1" s="333"/>
-      <c r="AC1" s="331" t="s">
+      <c r="V1" s="333"/>
+      <c r="W1" s="333"/>
+      <c r="X1" s="333"/>
+      <c r="Y1" s="333"/>
+      <c r="Z1" s="333"/>
+      <c r="AA1" s="333"/>
+      <c r="AB1" s="334"/>
+      <c r="AC1" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
-      <c r="AI1" s="332"/>
-      <c r="AJ1" s="333"/>
-      <c r="AK1" s="331" t="s">
+      <c r="AD1" s="333"/>
+      <c r="AE1" s="333"/>
+      <c r="AF1" s="333"/>
+      <c r="AG1" s="333"/>
+      <c r="AH1" s="333"/>
+      <c r="AI1" s="333"/>
+      <c r="AJ1" s="334"/>
+      <c r="AK1" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="332"/>
-      <c r="AM1" s="332"/>
-      <c r="AN1" s="332"/>
-      <c r="AO1" s="332"/>
-      <c r="AP1" s="332"/>
-      <c r="AQ1" s="332"/>
-      <c r="AR1" s="333"/>
-      <c r="AS1" s="331" t="s">
+      <c r="AL1" s="333"/>
+      <c r="AM1" s="333"/>
+      <c r="AN1" s="333"/>
+      <c r="AO1" s="333"/>
+      <c r="AP1" s="333"/>
+      <c r="AQ1" s="333"/>
+      <c r="AR1" s="334"/>
+      <c r="AS1" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="AT1" s="332"/>
-      <c r="AU1" s="332"/>
-      <c r="AV1" s="332"/>
-      <c r="AW1" s="332"/>
-      <c r="AX1" s="332"/>
-      <c r="AY1" s="332"/>
-      <c r="AZ1" s="333"/>
-      <c r="BA1" s="331" t="s">
+      <c r="AT1" s="333"/>
+      <c r="AU1" s="333"/>
+      <c r="AV1" s="333"/>
+      <c r="AW1" s="333"/>
+      <c r="AX1" s="333"/>
+      <c r="AY1" s="333"/>
+      <c r="AZ1" s="334"/>
+      <c r="BA1" s="332" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="332"/>
-      <c r="BC1" s="332"/>
-      <c r="BD1" s="332"/>
-      <c r="BE1" s="332"/>
-      <c r="BF1" s="332"/>
-      <c r="BG1" s="332"/>
-      <c r="BH1" s="333"/>
-      <c r="BI1" s="331" t="s">
+      <c r="BB1" s="333"/>
+      <c r="BC1" s="333"/>
+      <c r="BD1" s="333"/>
+      <c r="BE1" s="333"/>
+      <c r="BF1" s="333"/>
+      <c r="BG1" s="333"/>
+      <c r="BH1" s="334"/>
+      <c r="BI1" s="332" t="s">
         <v>113</v>
       </c>
-      <c r="BJ1" s="332"/>
-      <c r="BK1" s="332"/>
-      <c r="BL1" s="332"/>
-      <c r="BM1" s="332"/>
-      <c r="BN1" s="332"/>
-      <c r="BO1" s="332"/>
-      <c r="BP1" s="333"/>
-      <c r="BQ1" s="331" t="s">
+      <c r="BJ1" s="333"/>
+      <c r="BK1" s="333"/>
+      <c r="BL1" s="333"/>
+      <c r="BM1" s="333"/>
+      <c r="BN1" s="333"/>
+      <c r="BO1" s="333"/>
+      <c r="BP1" s="334"/>
+      <c r="BQ1" s="332" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="332"/>
-      <c r="BS1" s="332"/>
-      <c r="BT1" s="332"/>
-      <c r="BU1" s="332"/>
-      <c r="BV1" s="332"/>
-      <c r="BW1" s="332"/>
-      <c r="BX1" s="333"/>
-      <c r="BY1" s="331" t="s">
+      <c r="BR1" s="333"/>
+      <c r="BS1" s="333"/>
+      <c r="BT1" s="333"/>
+      <c r="BU1" s="333"/>
+      <c r="BV1" s="333"/>
+      <c r="BW1" s="333"/>
+      <c r="BX1" s="334"/>
+      <c r="BY1" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" s="332"/>
-      <c r="CA1" s="332"/>
-      <c r="CB1" s="332"/>
-      <c r="CC1" s="332"/>
-      <c r="CD1" s="332"/>
-      <c r="CE1" s="332"/>
-      <c r="CF1" s="333"/>
-      <c r="CI1" s="331" t="s">
+      <c r="BZ1" s="333"/>
+      <c r="CA1" s="333"/>
+      <c r="CB1" s="333"/>
+      <c r="CC1" s="333"/>
+      <c r="CD1" s="333"/>
+      <c r="CE1" s="333"/>
+      <c r="CF1" s="334"/>
+      <c r="CI1" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="CJ1" s="332"/>
-      <c r="CK1" s="332"/>
-      <c r="CL1" s="332"/>
-      <c r="CM1" s="332"/>
-      <c r="CN1" s="332"/>
-      <c r="CO1" s="332"/>
-      <c r="CP1" s="333"/>
-      <c r="CQ1" s="331" t="s">
+      <c r="CJ1" s="333"/>
+      <c r="CK1" s="333"/>
+      <c r="CL1" s="333"/>
+      <c r="CM1" s="333"/>
+      <c r="CN1" s="333"/>
+      <c r="CO1" s="333"/>
+      <c r="CP1" s="334"/>
+      <c r="CQ1" s="332" t="s">
         <v>143</v>
       </c>
-      <c r="CR1" s="332"/>
-      <c r="CS1" s="332"/>
-      <c r="CT1" s="332"/>
-      <c r="CU1" s="332"/>
-      <c r="CV1" s="332"/>
-      <c r="CW1" s="332"/>
-      <c r="CX1" s="333"/>
-      <c r="CY1" s="331" t="s">
+      <c r="CR1" s="333"/>
+      <c r="CS1" s="333"/>
+      <c r="CT1" s="333"/>
+      <c r="CU1" s="333"/>
+      <c r="CV1" s="333"/>
+      <c r="CW1" s="333"/>
+      <c r="CX1" s="334"/>
+      <c r="CY1" s="332" t="s">
         <v>144</v>
       </c>
-      <c r="CZ1" s="332"/>
-      <c r="DA1" s="332"/>
-      <c r="DB1" s="332"/>
-      <c r="DC1" s="332"/>
-      <c r="DD1" s="332"/>
-      <c r="DE1" s="332"/>
-      <c r="DF1" s="333"/>
-      <c r="DG1" s="331" t="s">
+      <c r="CZ1" s="333"/>
+      <c r="DA1" s="333"/>
+      <c r="DB1" s="333"/>
+      <c r="DC1" s="333"/>
+      <c r="DD1" s="333"/>
+      <c r="DE1" s="333"/>
+      <c r="DF1" s="334"/>
+      <c r="DG1" s="332" t="s">
         <v>151</v>
       </c>
-      <c r="DH1" s="332"/>
-      <c r="DI1" s="332"/>
-      <c r="DJ1" s="332"/>
-      <c r="DK1" s="332"/>
-      <c r="DL1" s="332"/>
-      <c r="DM1" s="332"/>
-      <c r="DN1" s="333"/>
-      <c r="DO1" s="331" t="s">
+      <c r="DH1" s="333"/>
+      <c r="DI1" s="333"/>
+      <c r="DJ1" s="333"/>
+      <c r="DK1" s="333"/>
+      <c r="DL1" s="333"/>
+      <c r="DM1" s="333"/>
+      <c r="DN1" s="334"/>
+      <c r="DO1" s="332" t="s">
         <v>153</v>
       </c>
-      <c r="DP1" s="332"/>
-      <c r="DQ1" s="332"/>
-      <c r="DR1" s="332"/>
-      <c r="DS1" s="332"/>
-      <c r="DT1" s="332"/>
-      <c r="DU1" s="332"/>
-      <c r="DV1" s="333"/>
-      <c r="DW1" s="331" t="s">
+      <c r="DP1" s="333"/>
+      <c r="DQ1" s="333"/>
+      <c r="DR1" s="333"/>
+      <c r="DS1" s="333"/>
+      <c r="DT1" s="333"/>
+      <c r="DU1" s="333"/>
+      <c r="DV1" s="334"/>
+      <c r="DW1" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="DX1" s="332"/>
-      <c r="DY1" s="332"/>
-      <c r="DZ1" s="332"/>
-      <c r="EA1" s="332"/>
-      <c r="EB1" s="332"/>
-      <c r="EC1" s="332"/>
-      <c r="ED1" s="333"/>
-      <c r="EE1" s="331" t="s">
+      <c r="DX1" s="333"/>
+      <c r="DY1" s="333"/>
+      <c r="DZ1" s="333"/>
+      <c r="EA1" s="333"/>
+      <c r="EB1" s="333"/>
+      <c r="EC1" s="333"/>
+      <c r="ED1" s="334"/>
+      <c r="EE1" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="EF1" s="332"/>
-      <c r="EG1" s="332"/>
-      <c r="EH1" s="332"/>
-      <c r="EI1" s="332"/>
-      <c r="EJ1" s="332"/>
-      <c r="EK1" s="332"/>
-      <c r="EL1" s="333"/>
-      <c r="EM1" s="331" t="s">
+      <c r="EF1" s="333"/>
+      <c r="EG1" s="333"/>
+      <c r="EH1" s="333"/>
+      <c r="EI1" s="333"/>
+      <c r="EJ1" s="333"/>
+      <c r="EK1" s="333"/>
+      <c r="EL1" s="334"/>
+      <c r="EM1" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="EN1" s="332"/>
-      <c r="EO1" s="332"/>
-      <c r="EP1" s="332"/>
-      <c r="EQ1" s="332"/>
-      <c r="ER1" s="332"/>
-      <c r="ES1" s="332"/>
-      <c r="ET1" s="333"/>
-      <c r="EU1" s="331" t="s">
+      <c r="EN1" s="333"/>
+      <c r="EO1" s="333"/>
+      <c r="EP1" s="333"/>
+      <c r="EQ1" s="333"/>
+      <c r="ER1" s="333"/>
+      <c r="ES1" s="333"/>
+      <c r="ET1" s="334"/>
+      <c r="EU1" s="332" t="s">
         <v>106</v>
       </c>
-      <c r="EV1" s="332"/>
-      <c r="EW1" s="332"/>
-      <c r="EX1" s="332"/>
-      <c r="EY1" s="332"/>
-      <c r="EZ1" s="332"/>
-      <c r="FA1" s="332"/>
-      <c r="FB1" s="333"/>
-      <c r="FC1" s="331" t="s">
+      <c r="EV1" s="333"/>
+      <c r="EW1" s="333"/>
+      <c r="EX1" s="333"/>
+      <c r="EY1" s="333"/>
+      <c r="EZ1" s="333"/>
+      <c r="FA1" s="333"/>
+      <c r="FB1" s="334"/>
+      <c r="FC1" s="332" t="s">
         <v>173</v>
       </c>
-      <c r="FD1" s="332"/>
-      <c r="FE1" s="332"/>
-      <c r="FF1" s="332"/>
-      <c r="FG1" s="332"/>
-      <c r="FH1" s="332"/>
-      <c r="FI1" s="332"/>
-      <c r="FJ1" s="333"/>
-      <c r="FK1" s="331" t="s">
+      <c r="FD1" s="333"/>
+      <c r="FE1" s="333"/>
+      <c r="FF1" s="333"/>
+      <c r="FG1" s="333"/>
+      <c r="FH1" s="333"/>
+      <c r="FI1" s="333"/>
+      <c r="FJ1" s="334"/>
+      <c r="FK1" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="FL1" s="332"/>
-      <c r="FM1" s="332"/>
-      <c r="FN1" s="332"/>
-      <c r="FO1" s="332"/>
-      <c r="FP1" s="332"/>
-      <c r="FQ1" s="332"/>
-      <c r="FR1" s="333"/>
-      <c r="FS1" s="331" t="s">
+      <c r="FL1" s="333"/>
+      <c r="FM1" s="333"/>
+      <c r="FN1" s="333"/>
+      <c r="FO1" s="333"/>
+      <c r="FP1" s="333"/>
+      <c r="FQ1" s="333"/>
+      <c r="FR1" s="334"/>
+      <c r="FS1" s="332" t="s">
         <v>199</v>
       </c>
-      <c r="FT1" s="332"/>
-      <c r="FU1" s="332"/>
-      <c r="FV1" s="332"/>
-      <c r="FW1" s="332"/>
-      <c r="FX1" s="332"/>
-      <c r="FY1" s="332"/>
-      <c r="FZ1" s="333"/>
-      <c r="GA1" s="331" t="s">
+      <c r="FT1" s="333"/>
+      <c r="FU1" s="333"/>
+      <c r="FV1" s="333"/>
+      <c r="FW1" s="333"/>
+      <c r="FX1" s="333"/>
+      <c r="FY1" s="333"/>
+      <c r="FZ1" s="334"/>
+      <c r="GA1" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="GB1" s="332"/>
-      <c r="GC1" s="332"/>
-      <c r="GD1" s="332"/>
-      <c r="GE1" s="332"/>
-      <c r="GF1" s="332"/>
-      <c r="GG1" s="332"/>
-      <c r="GH1" s="333"/>
-      <c r="GI1" s="331" t="s">
+      <c r="GB1" s="333"/>
+      <c r="GC1" s="333"/>
+      <c r="GD1" s="333"/>
+      <c r="GE1" s="333"/>
+      <c r="GF1" s="333"/>
+      <c r="GG1" s="333"/>
+      <c r="GH1" s="334"/>
+      <c r="GI1" s="332" t="s">
         <v>143</v>
       </c>
-      <c r="GJ1" s="332"/>
-      <c r="GK1" s="332"/>
-      <c r="GL1" s="332"/>
-      <c r="GM1" s="332"/>
-      <c r="GN1" s="332"/>
-      <c r="GO1" s="332"/>
-      <c r="GP1" s="333"/>
-      <c r="GQ1" s="331" t="s">
+      <c r="GJ1" s="333"/>
+      <c r="GK1" s="333"/>
+      <c r="GL1" s="333"/>
+      <c r="GM1" s="333"/>
+      <c r="GN1" s="333"/>
+      <c r="GO1" s="333"/>
+      <c r="GP1" s="334"/>
+      <c r="GQ1" s="332" t="s">
         <v>144</v>
       </c>
-      <c r="GR1" s="332"/>
-      <c r="GS1" s="332"/>
-      <c r="GT1" s="332"/>
-      <c r="GU1" s="332"/>
-      <c r="GV1" s="332"/>
-      <c r="GW1" s="332"/>
-      <c r="GX1" s="333"/>
-      <c r="GY1" s="331" t="s">
+      <c r="GR1" s="333"/>
+      <c r="GS1" s="333"/>
+      <c r="GT1" s="333"/>
+      <c r="GU1" s="333"/>
+      <c r="GV1" s="333"/>
+      <c r="GW1" s="333"/>
+      <c r="GX1" s="334"/>
+      <c r="GY1" s="332" t="s">
         <v>151</v>
       </c>
-      <c r="GZ1" s="332"/>
-      <c r="HA1" s="332"/>
-      <c r="HB1" s="332"/>
-      <c r="HC1" s="332"/>
-      <c r="HD1" s="332"/>
-      <c r="HE1" s="332"/>
-      <c r="HF1" s="333"/>
-      <c r="HG1" s="331" t="s">
+      <c r="GZ1" s="333"/>
+      <c r="HA1" s="333"/>
+      <c r="HB1" s="333"/>
+      <c r="HC1" s="333"/>
+      <c r="HD1" s="333"/>
+      <c r="HE1" s="333"/>
+      <c r="HF1" s="334"/>
+      <c r="HG1" s="332" t="s">
         <v>153</v>
       </c>
-      <c r="HH1" s="332"/>
-      <c r="HI1" s="332"/>
-      <c r="HJ1" s="332"/>
-      <c r="HK1" s="332"/>
-      <c r="HL1" s="332"/>
-      <c r="HM1" s="332"/>
-      <c r="HN1" s="333"/>
-      <c r="HO1" s="331" t="s">
+      <c r="HH1" s="333"/>
+      <c r="HI1" s="333"/>
+      <c r="HJ1" s="333"/>
+      <c r="HK1" s="333"/>
+      <c r="HL1" s="333"/>
+      <c r="HM1" s="333"/>
+      <c r="HN1" s="334"/>
+      <c r="HO1" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="HP1" s="332"/>
-      <c r="HQ1" s="332"/>
-      <c r="HR1" s="332"/>
-      <c r="HS1" s="332"/>
-      <c r="HT1" s="332"/>
-      <c r="HU1" s="332"/>
-      <c r="HV1" s="333"/>
-      <c r="HW1" s="331" t="s">
+      <c r="HP1" s="333"/>
+      <c r="HQ1" s="333"/>
+      <c r="HR1" s="333"/>
+      <c r="HS1" s="333"/>
+      <c r="HT1" s="333"/>
+      <c r="HU1" s="333"/>
+      <c r="HV1" s="334"/>
+      <c r="HW1" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="HX1" s="332"/>
-      <c r="HY1" s="332"/>
-      <c r="HZ1" s="332"/>
-      <c r="IA1" s="332"/>
-      <c r="IB1" s="332"/>
-      <c r="IC1" s="332"/>
-      <c r="ID1" s="333"/>
-      <c r="IE1" s="331" t="s">
+      <c r="HX1" s="333"/>
+      <c r="HY1" s="333"/>
+      <c r="HZ1" s="333"/>
+      <c r="IA1" s="333"/>
+      <c r="IB1" s="333"/>
+      <c r="IC1" s="333"/>
+      <c r="ID1" s="334"/>
+      <c r="IE1" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="IF1" s="332"/>
-      <c r="IG1" s="332"/>
-      <c r="IH1" s="332"/>
-      <c r="II1" s="332"/>
-      <c r="IJ1" s="332"/>
-      <c r="IK1" s="332"/>
-      <c r="IL1" s="333"/>
-      <c r="IM1" s="331" t="s">
+      <c r="IF1" s="333"/>
+      <c r="IG1" s="333"/>
+      <c r="IH1" s="333"/>
+      <c r="II1" s="333"/>
+      <c r="IJ1" s="333"/>
+      <c r="IK1" s="333"/>
+      <c r="IL1" s="334"/>
+      <c r="IM1" s="332" t="s">
         <v>106</v>
       </c>
-      <c r="IN1" s="332"/>
-      <c r="IO1" s="332"/>
-      <c r="IP1" s="332"/>
-      <c r="IQ1" s="332"/>
-      <c r="IR1" s="332"/>
-      <c r="IS1" s="332"/>
-      <c r="IT1" s="333"/>
-      <c r="IU1" s="331" t="s">
+      <c r="IN1" s="333"/>
+      <c r="IO1" s="333"/>
+      <c r="IP1" s="333"/>
+      <c r="IQ1" s="333"/>
+      <c r="IR1" s="333"/>
+      <c r="IS1" s="333"/>
+      <c r="IT1" s="334"/>
+      <c r="IU1" s="332" t="s">
         <v>113</v>
       </c>
-      <c r="IV1" s="332"/>
-      <c r="IW1" s="332"/>
-      <c r="IX1" s="332"/>
-      <c r="IY1" s="332"/>
-      <c r="IZ1" s="332"/>
-      <c r="JA1" s="332"/>
-      <c r="JB1" s="333"/>
-      <c r="JC1" s="331" t="s">
+      <c r="IV1" s="333"/>
+      <c r="IW1" s="333"/>
+      <c r="IX1" s="333"/>
+      <c r="IY1" s="333"/>
+      <c r="IZ1" s="333"/>
+      <c r="JA1" s="333"/>
+      <c r="JB1" s="334"/>
+      <c r="JC1" s="332" t="s">
         <v>120</v>
       </c>
-      <c r="JD1" s="332"/>
-      <c r="JE1" s="332"/>
-      <c r="JF1" s="332"/>
-      <c r="JG1" s="332"/>
-      <c r="JH1" s="332"/>
-      <c r="JI1" s="332"/>
-      <c r="JJ1" s="333"/>
-      <c r="JK1" s="331" t="s">
+      <c r="JD1" s="333"/>
+      <c r="JE1" s="333"/>
+      <c r="JF1" s="333"/>
+      <c r="JG1" s="333"/>
+      <c r="JH1" s="333"/>
+      <c r="JI1" s="333"/>
+      <c r="JJ1" s="334"/>
+      <c r="JK1" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="JL1" s="332"/>
-      <c r="JM1" s="332"/>
-      <c r="JN1" s="332"/>
-      <c r="JO1" s="332"/>
-      <c r="JP1" s="332"/>
-      <c r="JQ1" s="332"/>
-      <c r="JR1" s="333"/>
-      <c r="JS1" s="331" t="s">
+      <c r="JL1" s="333"/>
+      <c r="JM1" s="333"/>
+      <c r="JN1" s="333"/>
+      <c r="JO1" s="333"/>
+      <c r="JP1" s="333"/>
+      <c r="JQ1" s="333"/>
+      <c r="JR1" s="334"/>
+      <c r="JS1" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="JT1" s="332"/>
-      <c r="JU1" s="332"/>
-      <c r="JV1" s="332"/>
-      <c r="JW1" s="332"/>
-      <c r="JX1" s="332"/>
-      <c r="JY1" s="332"/>
-      <c r="JZ1" s="333"/>
-      <c r="KA1" s="331" t="s">
+      <c r="JT1" s="333"/>
+      <c r="JU1" s="333"/>
+      <c r="JV1" s="333"/>
+      <c r="JW1" s="333"/>
+      <c r="JX1" s="333"/>
+      <c r="JY1" s="333"/>
+      <c r="JZ1" s="334"/>
+      <c r="KA1" s="332" t="s">
         <v>224</v>
       </c>
-      <c r="KB1" s="332"/>
-      <c r="KC1" s="332"/>
-      <c r="KD1" s="332"/>
-      <c r="KE1" s="332"/>
-      <c r="KF1" s="332"/>
-      <c r="KG1" s="332"/>
-      <c r="KH1" s="333"/>
-      <c r="KI1" s="331" t="s">
+      <c r="KB1" s="333"/>
+      <c r="KC1" s="333"/>
+      <c r="KD1" s="333"/>
+      <c r="KE1" s="333"/>
+      <c r="KF1" s="333"/>
+      <c r="KG1" s="333"/>
+      <c r="KH1" s="334"/>
+      <c r="KI1" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="KJ1" s="332"/>
-      <c r="KK1" s="332"/>
-      <c r="KL1" s="332"/>
-      <c r="KM1" s="332"/>
-      <c r="KN1" s="332"/>
-      <c r="KO1" s="332"/>
-      <c r="KP1" s="333"/>
-      <c r="KQ1" s="331" t="s">
+      <c r="KJ1" s="333"/>
+      <c r="KK1" s="333"/>
+      <c r="KL1" s="333"/>
+      <c r="KM1" s="333"/>
+      <c r="KN1" s="333"/>
+      <c r="KO1" s="333"/>
+      <c r="KP1" s="334"/>
+      <c r="KQ1" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="KR1" s="332"/>
-      <c r="KS1" s="332"/>
-      <c r="KT1" s="332"/>
-      <c r="KU1" s="332"/>
-      <c r="KV1" s="332"/>
-      <c r="KW1" s="332"/>
-      <c r="KX1" s="333"/>
-      <c r="KY1" s="331" t="s">
+      <c r="KR1" s="333"/>
+      <c r="KS1" s="333"/>
+      <c r="KT1" s="333"/>
+      <c r="KU1" s="333"/>
+      <c r="KV1" s="333"/>
+      <c r="KW1" s="333"/>
+      <c r="KX1" s="334"/>
+      <c r="KY1" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="KZ1" s="332"/>
-      <c r="LA1" s="332"/>
-      <c r="LB1" s="332"/>
-      <c r="LC1" s="332"/>
-      <c r="LD1" s="332"/>
-      <c r="LE1" s="332"/>
-      <c r="LF1" s="333"/>
-      <c r="LG1" s="331" t="s">
+      <c r="KZ1" s="333"/>
+      <c r="LA1" s="333"/>
+      <c r="LB1" s="333"/>
+      <c r="LC1" s="333"/>
+      <c r="LD1" s="333"/>
+      <c r="LE1" s="333"/>
+      <c r="LF1" s="334"/>
+      <c r="LG1" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="LH1" s="332"/>
-      <c r="LI1" s="332"/>
-      <c r="LJ1" s="332"/>
-      <c r="LK1" s="332"/>
-      <c r="LL1" s="332"/>
-      <c r="LM1" s="332"/>
-      <c r="LN1" s="333"/>
-      <c r="LO1" s="331" t="s">
+      <c r="LH1" s="333"/>
+      <c r="LI1" s="333"/>
+      <c r="LJ1" s="333"/>
+      <c r="LK1" s="333"/>
+      <c r="LL1" s="333"/>
+      <c r="LM1" s="333"/>
+      <c r="LN1" s="334"/>
+      <c r="LO1" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="LP1" s="332"/>
-      <c r="LQ1" s="332"/>
-      <c r="LR1" s="332"/>
-      <c r="LS1" s="332"/>
-      <c r="LT1" s="332"/>
-      <c r="LU1" s="332"/>
-      <c r="LV1" s="333"/>
-      <c r="LW1" s="331" t="s">
+      <c r="LP1" s="333"/>
+      <c r="LQ1" s="333"/>
+      <c r="LR1" s="333"/>
+      <c r="LS1" s="333"/>
+      <c r="LT1" s="333"/>
+      <c r="LU1" s="333"/>
+      <c r="LV1" s="334"/>
+      <c r="LW1" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="LX1" s="332"/>
-      <c r="LY1" s="332"/>
-      <c r="LZ1" s="332"/>
-      <c r="MA1" s="332"/>
-      <c r="MB1" s="332"/>
-      <c r="MC1" s="332"/>
-      <c r="MD1" s="333"/>
-      <c r="MF1" s="331" t="s">
+      <c r="LX1" s="333"/>
+      <c r="LY1" s="333"/>
+      <c r="LZ1" s="333"/>
+      <c r="MA1" s="333"/>
+      <c r="MB1" s="333"/>
+      <c r="MC1" s="333"/>
+      <c r="MD1" s="334"/>
+      <c r="MF1" s="332" t="s">
         <v>106</v>
       </c>
-      <c r="MG1" s="332"/>
-      <c r="MH1" s="332"/>
-      <c r="MI1" s="332"/>
-      <c r="MJ1" s="332"/>
-      <c r="MK1" s="332"/>
-      <c r="ML1" s="332"/>
-      <c r="MM1" s="333"/>
-      <c r="MN1" s="331" t="s">
+      <c r="MG1" s="333"/>
+      <c r="MH1" s="333"/>
+      <c r="MI1" s="333"/>
+      <c r="MJ1" s="333"/>
+      <c r="MK1" s="333"/>
+      <c r="ML1" s="333"/>
+      <c r="MM1" s="334"/>
+      <c r="MN1" s="332" t="s">
         <v>233</v>
       </c>
-      <c r="MO1" s="332"/>
-      <c r="MP1" s="332"/>
-      <c r="MQ1" s="332"/>
-      <c r="MR1" s="332"/>
-      <c r="MS1" s="332"/>
-      <c r="MT1" s="332"/>
-      <c r="MU1" s="333"/>
-      <c r="MV1" s="331" t="s">
+      <c r="MO1" s="333"/>
+      <c r="MP1" s="333"/>
+      <c r="MQ1" s="333"/>
+      <c r="MR1" s="333"/>
+      <c r="MS1" s="333"/>
+      <c r="MT1" s="333"/>
+      <c r="MU1" s="334"/>
+      <c r="MV1" s="332" t="s">
         <v>120</v>
       </c>
-      <c r="MW1" s="332"/>
-      <c r="MX1" s="332"/>
-      <c r="MY1" s="332"/>
-      <c r="MZ1" s="332"/>
-      <c r="NA1" s="332"/>
-      <c r="NB1" s="332"/>
-      <c r="NC1" s="333"/>
-      <c r="ND1" s="331" t="s">
+      <c r="MW1" s="333"/>
+      <c r="MX1" s="333"/>
+      <c r="MY1" s="333"/>
+      <c r="MZ1" s="333"/>
+      <c r="NA1" s="333"/>
+      <c r="NB1" s="333"/>
+      <c r="NC1" s="334"/>
+      <c r="ND1" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="NE1" s="332"/>
-      <c r="NF1" s="332"/>
-      <c r="NG1" s="332"/>
-      <c r="NH1" s="332"/>
-      <c r="NI1" s="332"/>
-      <c r="NJ1" s="332"/>
-      <c r="NK1" s="333"/>
-      <c r="NL1" s="331" t="s">
+      <c r="NE1" s="333"/>
+      <c r="NF1" s="333"/>
+      <c r="NG1" s="333"/>
+      <c r="NH1" s="333"/>
+      <c r="NI1" s="333"/>
+      <c r="NJ1" s="333"/>
+      <c r="NK1" s="334"/>
+      <c r="NL1" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="NM1" s="332"/>
-      <c r="NN1" s="332"/>
-      <c r="NO1" s="332"/>
-      <c r="NP1" s="332"/>
-      <c r="NQ1" s="332"/>
-      <c r="NR1" s="332"/>
-      <c r="NS1" s="333"/>
-      <c r="NT1" s="331" t="s">
+      <c r="NM1" s="333"/>
+      <c r="NN1" s="333"/>
+      <c r="NO1" s="333"/>
+      <c r="NP1" s="333"/>
+      <c r="NQ1" s="333"/>
+      <c r="NR1" s="333"/>
+      <c r="NS1" s="334"/>
+      <c r="NT1" s="332" t="s">
         <v>235</v>
       </c>
-      <c r="NU1" s="332"/>
-      <c r="NV1" s="332"/>
-      <c r="NW1" s="332"/>
-      <c r="NX1" s="332"/>
-      <c r="NY1" s="332"/>
-      <c r="NZ1" s="332"/>
-      <c r="OA1" s="333"/>
-      <c r="OB1" s="331" t="s">
+      <c r="NU1" s="333"/>
+      <c r="NV1" s="333"/>
+      <c r="NW1" s="333"/>
+      <c r="NX1" s="333"/>
+      <c r="NY1" s="333"/>
+      <c r="NZ1" s="333"/>
+      <c r="OA1" s="334"/>
+      <c r="OB1" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="OC1" s="332"/>
-      <c r="OD1" s="332"/>
-      <c r="OE1" s="332"/>
-      <c r="OF1" s="332"/>
-      <c r="OG1" s="332"/>
-      <c r="OH1" s="332"/>
-      <c r="OI1" s="333"/>
-      <c r="OJ1" s="331" t="s">
+      <c r="OC1" s="333"/>
+      <c r="OD1" s="333"/>
+      <c r="OE1" s="333"/>
+      <c r="OF1" s="333"/>
+      <c r="OG1" s="333"/>
+      <c r="OH1" s="333"/>
+      <c r="OI1" s="334"/>
+      <c r="OJ1" s="332" t="s">
         <v>153</v>
       </c>
-      <c r="OK1" s="332"/>
-      <c r="OL1" s="332"/>
-      <c r="OM1" s="332"/>
-      <c r="ON1" s="332"/>
-      <c r="OO1" s="332"/>
-      <c r="OP1" s="332"/>
-      <c r="OQ1" s="333"/>
-      <c r="OR1" s="331" t="s">
+      <c r="OK1" s="333"/>
+      <c r="OL1" s="333"/>
+      <c r="OM1" s="333"/>
+      <c r="ON1" s="333"/>
+      <c r="OO1" s="333"/>
+      <c r="OP1" s="333"/>
+      <c r="OQ1" s="334"/>
+      <c r="OR1" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="OS1" s="332"/>
-      <c r="OT1" s="332"/>
-      <c r="OU1" s="332"/>
-      <c r="OV1" s="332"/>
-      <c r="OW1" s="332"/>
-      <c r="OX1" s="332"/>
-      <c r="OY1" s="333"/>
-      <c r="OZ1" s="331" t="s">
+      <c r="OS1" s="333"/>
+      <c r="OT1" s="333"/>
+      <c r="OU1" s="333"/>
+      <c r="OV1" s="333"/>
+      <c r="OW1" s="333"/>
+      <c r="OX1" s="333"/>
+      <c r="OY1" s="334"/>
+      <c r="OZ1" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="PA1" s="332"/>
-      <c r="PB1" s="332"/>
-      <c r="PC1" s="332"/>
-      <c r="PD1" s="332"/>
-      <c r="PE1" s="332"/>
-      <c r="PF1" s="332"/>
-      <c r="PG1" s="333"/>
-      <c r="PH1" s="331" t="s">
+      <c r="PA1" s="333"/>
+      <c r="PB1" s="333"/>
+      <c r="PC1" s="333"/>
+      <c r="PD1" s="333"/>
+      <c r="PE1" s="333"/>
+      <c r="PF1" s="333"/>
+      <c r="PG1" s="334"/>
+      <c r="PH1" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="PI1" s="332"/>
-      <c r="PJ1" s="332"/>
-      <c r="PK1" s="332"/>
-      <c r="PL1" s="332"/>
-      <c r="PM1" s="332"/>
-      <c r="PN1" s="332"/>
-      <c r="PO1" s="333"/>
-      <c r="PP1" s="331" t="s">
+      <c r="PI1" s="333"/>
+      <c r="PJ1" s="333"/>
+      <c r="PK1" s="333"/>
+      <c r="PL1" s="333"/>
+      <c r="PM1" s="333"/>
+      <c r="PN1" s="333"/>
+      <c r="PO1" s="334"/>
+      <c r="PP1" s="332" t="s">
         <v>106</v>
       </c>
-      <c r="PQ1" s="332"/>
-      <c r="PR1" s="332"/>
-      <c r="PS1" s="332"/>
-      <c r="PT1" s="332"/>
-      <c r="PU1" s="332"/>
-      <c r="PV1" s="332"/>
-      <c r="PW1" s="333"/>
-      <c r="PY1" s="331" t="s">
+      <c r="PQ1" s="333"/>
+      <c r="PR1" s="333"/>
+      <c r="PS1" s="333"/>
+      <c r="PT1" s="333"/>
+      <c r="PU1" s="333"/>
+      <c r="PV1" s="333"/>
+      <c r="PW1" s="334"/>
+      <c r="PY1" s="332" t="s">
         <v>173</v>
       </c>
-      <c r="PZ1" s="332"/>
-      <c r="QA1" s="332"/>
-      <c r="QB1" s="332"/>
-      <c r="QC1" s="332"/>
-      <c r="QD1" s="332"/>
-      <c r="QE1" s="332"/>
-      <c r="QF1" s="333"/>
-      <c r="QG1" s="331" t="s">
+      <c r="PZ1" s="333"/>
+      <c r="QA1" s="333"/>
+      <c r="QB1" s="333"/>
+      <c r="QC1" s="333"/>
+      <c r="QD1" s="333"/>
+      <c r="QE1" s="333"/>
+      <c r="QF1" s="334"/>
+      <c r="QG1" s="332" t="s">
         <v>174</v>
       </c>
-      <c r="QH1" s="332"/>
-      <c r="QI1" s="332"/>
-      <c r="QJ1" s="332"/>
-      <c r="QK1" s="332"/>
-      <c r="QL1" s="332"/>
-      <c r="QM1" s="332"/>
-      <c r="QN1" s="333"/>
-      <c r="QP1" s="331" t="s">
+      <c r="QH1" s="333"/>
+      <c r="QI1" s="333"/>
+      <c r="QJ1" s="333"/>
+      <c r="QK1" s="333"/>
+      <c r="QL1" s="333"/>
+      <c r="QM1" s="333"/>
+      <c r="QN1" s="334"/>
+      <c r="QP1" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="QQ1" s="332"/>
-      <c r="QR1" s="332"/>
-      <c r="QS1" s="332"/>
-      <c r="QT1" s="332"/>
-      <c r="QU1" s="332"/>
-      <c r="QV1" s="332"/>
-      <c r="QW1" s="333"/>
-      <c r="QX1" s="334">
+      <c r="QQ1" s="333"/>
+      <c r="QR1" s="333"/>
+      <c r="QS1" s="333"/>
+      <c r="QT1" s="333"/>
+      <c r="QU1" s="333"/>
+      <c r="QV1" s="333"/>
+      <c r="QW1" s="334"/>
+      <c r="QX1" s="335">
         <v>44682</v>
       </c>
-      <c r="QY1" s="332"/>
-      <c r="QZ1" s="332"/>
-      <c r="RA1" s="332"/>
-      <c r="RB1" s="332"/>
-      <c r="RC1" s="332"/>
-      <c r="RD1" s="332"/>
-      <c r="RE1" s="333"/>
-      <c r="RG1" s="334">
+      <c r="QY1" s="333"/>
+      <c r="QZ1" s="333"/>
+      <c r="RA1" s="333"/>
+      <c r="RB1" s="333"/>
+      <c r="RC1" s="333"/>
+      <c r="RD1" s="333"/>
+      <c r="RE1" s="334"/>
+      <c r="RG1" s="335">
         <v>44713</v>
       </c>
-      <c r="RH1" s="332"/>
-      <c r="RI1" s="332"/>
-      <c r="RJ1" s="332"/>
-      <c r="RK1" s="332"/>
-      <c r="RL1" s="332"/>
-      <c r="RM1" s="332"/>
-      <c r="RN1" s="333"/>
-      <c r="RP1" s="334">
+      <c r="RH1" s="333"/>
+      <c r="RI1" s="333"/>
+      <c r="RJ1" s="333"/>
+      <c r="RK1" s="333"/>
+      <c r="RL1" s="333"/>
+      <c r="RM1" s="333"/>
+      <c r="RN1" s="334"/>
+      <c r="RP1" s="335">
         <v>44743</v>
       </c>
-      <c r="RQ1" s="332"/>
-      <c r="RR1" s="332"/>
-      <c r="RS1" s="332"/>
-      <c r="RT1" s="332"/>
-      <c r="RU1" s="332"/>
-      <c r="RV1" s="332"/>
-      <c r="RW1" s="333"/>
-      <c r="RY1" s="334">
+      <c r="RQ1" s="333"/>
+      <c r="RR1" s="333"/>
+      <c r="RS1" s="333"/>
+      <c r="RT1" s="333"/>
+      <c r="RU1" s="333"/>
+      <c r="RV1" s="333"/>
+      <c r="RW1" s="334"/>
+      <c r="RY1" s="335">
         <v>44774</v>
       </c>
-      <c r="RZ1" s="332"/>
-      <c r="SA1" s="332"/>
-      <c r="SB1" s="332"/>
-      <c r="SC1" s="332"/>
-      <c r="SD1" s="332"/>
-      <c r="SE1" s="332"/>
-      <c r="SF1" s="333"/>
-      <c r="SH1" s="334">
+      <c r="RZ1" s="333"/>
+      <c r="SA1" s="333"/>
+      <c r="SB1" s="333"/>
+      <c r="SC1" s="333"/>
+      <c r="SD1" s="333"/>
+      <c r="SE1" s="333"/>
+      <c r="SF1" s="334"/>
+      <c r="SH1" s="335">
         <v>44805</v>
       </c>
-      <c r="SI1" s="332"/>
-      <c r="SJ1" s="332"/>
-      <c r="SK1" s="332"/>
-      <c r="SL1" s="332"/>
-      <c r="SM1" s="332"/>
-      <c r="SN1" s="332"/>
-      <c r="SO1" s="333"/>
-      <c r="SQ1" s="334">
+      <c r="SI1" s="333"/>
+      <c r="SJ1" s="333"/>
+      <c r="SK1" s="333"/>
+      <c r="SL1" s="333"/>
+      <c r="SM1" s="333"/>
+      <c r="SN1" s="333"/>
+      <c r="SO1" s="334"/>
+      <c r="SQ1" s="335">
         <v>44835</v>
       </c>
-      <c r="SR1" s="332"/>
-      <c r="SS1" s="332"/>
-      <c r="ST1" s="332"/>
-      <c r="SU1" s="332"/>
-      <c r="SV1" s="332"/>
-      <c r="SW1" s="332"/>
-      <c r="SX1" s="333"/>
-      <c r="SZ1" s="334">
+      <c r="SR1" s="333"/>
+      <c r="SS1" s="333"/>
+      <c r="ST1" s="333"/>
+      <c r="SU1" s="333"/>
+      <c r="SV1" s="333"/>
+      <c r="SW1" s="333"/>
+      <c r="SX1" s="334"/>
+      <c r="SZ1" s="335">
         <v>44866</v>
       </c>
-      <c r="TA1" s="332"/>
-      <c r="TB1" s="332"/>
-      <c r="TC1" s="332"/>
-      <c r="TD1" s="332"/>
-      <c r="TE1" s="332"/>
-      <c r="TF1" s="332"/>
-      <c r="TG1" s="333"/>
-      <c r="TI1" s="334">
+      <c r="TA1" s="333"/>
+      <c r="TB1" s="333"/>
+      <c r="TC1" s="333"/>
+      <c r="TD1" s="333"/>
+      <c r="TE1" s="333"/>
+      <c r="TF1" s="333"/>
+      <c r="TG1" s="334"/>
+      <c r="TI1" s="335">
         <v>44896</v>
       </c>
-      <c r="TJ1" s="332"/>
-      <c r="TK1" s="332"/>
-      <c r="TL1" s="332"/>
-      <c r="TM1" s="332"/>
-      <c r="TN1" s="332"/>
-      <c r="TO1" s="332"/>
-      <c r="TP1" s="333"/>
-      <c r="TR1" s="334">
+      <c r="TJ1" s="333"/>
+      <c r="TK1" s="333"/>
+      <c r="TL1" s="333"/>
+      <c r="TM1" s="333"/>
+      <c r="TN1" s="333"/>
+      <c r="TO1" s="333"/>
+      <c r="TP1" s="334"/>
+      <c r="TR1" s="335">
         <v>44927</v>
       </c>
-      <c r="TS1" s="332"/>
-      <c r="TT1" s="332"/>
-      <c r="TU1" s="332"/>
-      <c r="TV1" s="332"/>
-      <c r="TW1" s="332"/>
-      <c r="TX1" s="332"/>
-      <c r="TY1" s="333"/>
-      <c r="UA1" s="334">
+      <c r="TS1" s="333"/>
+      <c r="TT1" s="333"/>
+      <c r="TU1" s="333"/>
+      <c r="TV1" s="333"/>
+      <c r="TW1" s="333"/>
+      <c r="TX1" s="333"/>
+      <c r="TY1" s="334"/>
+      <c r="UA1" s="335">
         <v>44958</v>
       </c>
-      <c r="UB1" s="332"/>
-      <c r="UC1" s="332"/>
-      <c r="UD1" s="332"/>
-      <c r="UE1" s="332"/>
-      <c r="UF1" s="332"/>
-      <c r="UG1" s="332"/>
-      <c r="UH1" s="333"/>
-      <c r="UJ1" s="334">
+      <c r="UB1" s="333"/>
+      <c r="UC1" s="333"/>
+      <c r="UD1" s="333"/>
+      <c r="UE1" s="333"/>
+      <c r="UF1" s="333"/>
+      <c r="UG1" s="333"/>
+      <c r="UH1" s="334"/>
+      <c r="UJ1" s="335">
         <v>44986</v>
       </c>
-      <c r="UK1" s="332"/>
-      <c r="UL1" s="332"/>
-      <c r="UM1" s="332"/>
-      <c r="UN1" s="332"/>
-      <c r="UO1" s="332"/>
-      <c r="UP1" s="332"/>
-      <c r="UQ1" s="333"/>
-      <c r="US1" s="334">
+      <c r="UK1" s="333"/>
+      <c r="UL1" s="333"/>
+      <c r="UM1" s="333"/>
+      <c r="UN1" s="333"/>
+      <c r="UO1" s="333"/>
+      <c r="UP1" s="333"/>
+      <c r="UQ1" s="334"/>
+      <c r="US1" s="335">
         <v>45017</v>
       </c>
-      <c r="UT1" s="332"/>
-      <c r="UU1" s="332"/>
-      <c r="UV1" s="332"/>
-      <c r="UW1" s="332"/>
-      <c r="UX1" s="332"/>
-      <c r="UY1" s="332"/>
-      <c r="UZ1" s="333"/>
-      <c r="VB1" s="334">
+      <c r="UT1" s="333"/>
+      <c r="UU1" s="333"/>
+      <c r="UV1" s="333"/>
+      <c r="UW1" s="333"/>
+      <c r="UX1" s="333"/>
+      <c r="UY1" s="333"/>
+      <c r="UZ1" s="334"/>
+      <c r="VB1" s="335">
         <v>45047</v>
       </c>
-      <c r="VC1" s="332"/>
-      <c r="VD1" s="332"/>
-      <c r="VE1" s="332"/>
-      <c r="VF1" s="332"/>
-      <c r="VG1" s="332"/>
-      <c r="VH1" s="332"/>
-      <c r="VI1" s="333"/>
-      <c r="VK1" s="334">
+      <c r="VC1" s="333"/>
+      <c r="VD1" s="333"/>
+      <c r="VE1" s="333"/>
+      <c r="VF1" s="333"/>
+      <c r="VG1" s="333"/>
+      <c r="VH1" s="333"/>
+      <c r="VI1" s="334"/>
+      <c r="VK1" s="335">
         <v>45078</v>
       </c>
-      <c r="VL1" s="332"/>
-      <c r="VM1" s="332"/>
-      <c r="VN1" s="332"/>
-      <c r="VO1" s="332"/>
-      <c r="VP1" s="332"/>
-      <c r="VQ1" s="332"/>
-      <c r="VR1" s="333"/>
-      <c r="VT1" s="334">
+      <c r="VL1" s="333"/>
+      <c r="VM1" s="333"/>
+      <c r="VN1" s="333"/>
+      <c r="VO1" s="333"/>
+      <c r="VP1" s="333"/>
+      <c r="VQ1" s="333"/>
+      <c r="VR1" s="334"/>
+      <c r="VT1" s="335">
         <v>45108</v>
       </c>
-      <c r="VU1" s="332"/>
-      <c r="VV1" s="332"/>
-      <c r="VW1" s="332"/>
-      <c r="VX1" s="332"/>
-      <c r="VY1" s="332"/>
-      <c r="VZ1" s="332"/>
-      <c r="WA1" s="333"/>
-      <c r="WC1" s="334">
+      <c r="VU1" s="333"/>
+      <c r="VV1" s="333"/>
+      <c r="VW1" s="333"/>
+      <c r="VX1" s="333"/>
+      <c r="VY1" s="333"/>
+      <c r="VZ1" s="333"/>
+      <c r="WA1" s="334"/>
+      <c r="WC1" s="335">
         <v>45139</v>
       </c>
-      <c r="WD1" s="332"/>
-      <c r="WE1" s="332"/>
-      <c r="WF1" s="332"/>
-      <c r="WG1" s="332"/>
-      <c r="WH1" s="332"/>
-      <c r="WI1" s="332"/>
-      <c r="WJ1" s="333"/>
-      <c r="WL1" s="334">
+      <c r="WD1" s="333"/>
+      <c r="WE1" s="333"/>
+      <c r="WF1" s="333"/>
+      <c r="WG1" s="333"/>
+      <c r="WH1" s="333"/>
+      <c r="WI1" s="333"/>
+      <c r="WJ1" s="334"/>
+      <c r="WL1" s="335">
         <v>45170</v>
       </c>
-      <c r="WM1" s="332"/>
-      <c r="WN1" s="332"/>
-      <c r="WO1" s="332"/>
-      <c r="WP1" s="332"/>
-      <c r="WQ1" s="332"/>
-      <c r="WR1" s="332"/>
-      <c r="WS1" s="333"/>
-      <c r="WU1" s="334">
+      <c r="WM1" s="333"/>
+      <c r="WN1" s="333"/>
+      <c r="WO1" s="333"/>
+      <c r="WP1" s="333"/>
+      <c r="WQ1" s="333"/>
+      <c r="WR1" s="333"/>
+      <c r="WS1" s="334"/>
+      <c r="WU1" s="335">
         <v>45200</v>
       </c>
-      <c r="WV1" s="332"/>
-      <c r="WW1" s="332"/>
-      <c r="WX1" s="332"/>
-      <c r="WY1" s="332"/>
-      <c r="WZ1" s="332"/>
-      <c r="XA1" s="332"/>
-      <c r="XB1" s="333"/>
-      <c r="XD1" s="334">
+      <c r="WV1" s="333"/>
+      <c r="WW1" s="333"/>
+      <c r="WX1" s="333"/>
+      <c r="WY1" s="333"/>
+      <c r="WZ1" s="333"/>
+      <c r="XA1" s="333"/>
+      <c r="XB1" s="334"/>
+      <c r="XD1" s="335">
         <v>45231</v>
       </c>
-      <c r="XE1" s="332"/>
-      <c r="XF1" s="332"/>
-      <c r="XG1" s="332"/>
-      <c r="XH1" s="332"/>
-      <c r="XI1" s="332"/>
-      <c r="XJ1" s="332"/>
-      <c r="XK1" s="333"/>
-      <c r="XM1" s="334">
+      <c r="XE1" s="333"/>
+      <c r="XF1" s="333"/>
+      <c r="XG1" s="333"/>
+      <c r="XH1" s="333"/>
+      <c r="XI1" s="333"/>
+      <c r="XJ1" s="333"/>
+      <c r="XK1" s="334"/>
+      <c r="XM1" s="335">
         <v>45261</v>
       </c>
-      <c r="XN1" s="332"/>
-      <c r="XO1" s="332"/>
-      <c r="XP1" s="332"/>
-      <c r="XQ1" s="332"/>
-      <c r="XR1" s="332"/>
-      <c r="XS1" s="332"/>
-      <c r="XT1" s="333"/>
-      <c r="XV1" s="334">
+      <c r="XN1" s="333"/>
+      <c r="XO1" s="333"/>
+      <c r="XP1" s="333"/>
+      <c r="XQ1" s="333"/>
+      <c r="XR1" s="333"/>
+      <c r="XS1" s="333"/>
+      <c r="XT1" s="334"/>
+      <c r="XV1" s="335">
         <v>45292</v>
       </c>
-      <c r="XW1" s="332"/>
-      <c r="XX1" s="332"/>
-      <c r="XY1" s="332"/>
-      <c r="XZ1" s="332"/>
-      <c r="YA1" s="332"/>
-      <c r="YB1" s="332"/>
-      <c r="YC1" s="333"/>
-      <c r="YE1" s="334">
+      <c r="XW1" s="333"/>
+      <c r="XX1" s="333"/>
+      <c r="XY1" s="333"/>
+      <c r="XZ1" s="333"/>
+      <c r="YA1" s="333"/>
+      <c r="YB1" s="333"/>
+      <c r="YC1" s="334"/>
+      <c r="YE1" s="335">
         <v>45323</v>
       </c>
-      <c r="YF1" s="332"/>
-      <c r="YG1" s="332"/>
-      <c r="YH1" s="332"/>
-      <c r="YI1" s="332"/>
-      <c r="YJ1" s="332"/>
-      <c r="YK1" s="332"/>
-      <c r="YL1" s="333"/>
-      <c r="YN1" s="334">
+      <c r="YF1" s="333"/>
+      <c r="YG1" s="333"/>
+      <c r="YH1" s="333"/>
+      <c r="YI1" s="333"/>
+      <c r="YJ1" s="333"/>
+      <c r="YK1" s="333"/>
+      <c r="YL1" s="334"/>
+      <c r="YN1" s="335">
         <v>45352</v>
       </c>
-      <c r="YO1" s="332"/>
-      <c r="YP1" s="332"/>
-      <c r="YQ1" s="332"/>
-      <c r="YR1" s="332"/>
-      <c r="YS1" s="332"/>
-      <c r="YT1" s="332"/>
-      <c r="YU1" s="333"/>
-      <c r="YW1" s="334">
+      <c r="YO1" s="333"/>
+      <c r="YP1" s="333"/>
+      <c r="YQ1" s="333"/>
+      <c r="YR1" s="333"/>
+      <c r="YS1" s="333"/>
+      <c r="YT1" s="333"/>
+      <c r="YU1" s="334"/>
+      <c r="YW1" s="335">
         <v>45383</v>
       </c>
-      <c r="YX1" s="332"/>
-      <c r="YY1" s="332"/>
-      <c r="YZ1" s="332"/>
-      <c r="ZA1" s="332"/>
-      <c r="ZB1" s="332"/>
-      <c r="ZC1" s="332"/>
-      <c r="ZD1" s="333"/>
-      <c r="ZF1" s="334">
+      <c r="YX1" s="333"/>
+      <c r="YY1" s="333"/>
+      <c r="YZ1" s="333"/>
+      <c r="ZA1" s="333"/>
+      <c r="ZB1" s="333"/>
+      <c r="ZC1" s="333"/>
+      <c r="ZD1" s="334"/>
+      <c r="ZF1" s="335">
         <v>45413</v>
       </c>
-      <c r="ZG1" s="332"/>
-      <c r="ZH1" s="332"/>
-      <c r="ZI1" s="332"/>
-      <c r="ZJ1" s="332"/>
-      <c r="ZK1" s="332"/>
-      <c r="ZL1" s="332"/>
-      <c r="ZM1" s="333"/>
-      <c r="ZP1" s="334">
+      <c r="ZG1" s="333"/>
+      <c r="ZH1" s="333"/>
+      <c r="ZI1" s="333"/>
+      <c r="ZJ1" s="333"/>
+      <c r="ZK1" s="333"/>
+      <c r="ZL1" s="333"/>
+      <c r="ZM1" s="334"/>
+      <c r="ZP1" s="335">
         <v>45444</v>
       </c>
-      <c r="ZQ1" s="332"/>
-      <c r="ZR1" s="332"/>
-      <c r="ZS1" s="332"/>
-      <c r="ZT1" s="332"/>
-      <c r="ZU1" s="332"/>
-      <c r="ZV1" s="332"/>
-      <c r="ZW1" s="333"/>
-      <c r="ZY1" s="334">
+      <c r="ZQ1" s="333"/>
+      <c r="ZR1" s="333"/>
+      <c r="ZS1" s="333"/>
+      <c r="ZT1" s="333"/>
+      <c r="ZU1" s="333"/>
+      <c r="ZV1" s="333"/>
+      <c r="ZW1" s="334"/>
+      <c r="ZY1" s="335">
         <v>45474</v>
       </c>
-      <c r="ZZ1" s="332"/>
-      <c r="AAA1" s="332"/>
-      <c r="AAB1" s="332"/>
-      <c r="AAC1" s="332"/>
-      <c r="AAD1" s="332"/>
-      <c r="AAE1" s="332"/>
-      <c r="AAF1" s="333"/>
-      <c r="AAH1" s="334">
-        <v>45474</v>
-      </c>
-      <c r="AAI1" s="332"/>
-      <c r="AAJ1" s="332"/>
-      <c r="AAK1" s="332"/>
-      <c r="AAL1" s="332"/>
-      <c r="AAM1" s="332"/>
-      <c r="AAN1" s="332"/>
-      <c r="AAO1" s="333"/>
-    </row>
-    <row r="2" spans="2:718" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ZZ1" s="333"/>
+      <c r="AAA1" s="333"/>
+      <c r="AAB1" s="333"/>
+      <c r="AAC1" s="333"/>
+      <c r="AAD1" s="333"/>
+      <c r="AAE1" s="333"/>
+      <c r="AAF1" s="334"/>
+      <c r="AAH1" s="335">
+        <v>45505</v>
+      </c>
+      <c r="AAI1" s="333"/>
+      <c r="AAJ1" s="333"/>
+      <c r="AAK1" s="333"/>
+      <c r="AAL1" s="333"/>
+      <c r="AAM1" s="333"/>
+      <c r="AAN1" s="333"/>
+      <c r="AAO1" s="334"/>
+      <c r="AAQ1" s="335">
+        <v>45536</v>
+      </c>
+      <c r="AAR1" s="333"/>
+      <c r="AAS1" s="333"/>
+      <c r="AAT1" s="333"/>
+      <c r="AAU1" s="333"/>
+      <c r="AAV1" s="333"/>
+      <c r="AAW1" s="333"/>
+      <c r="AAX1" s="334"/>
+    </row>
+    <row r="2" spans="2:726" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24576,8 +24639,32 @@
       <c r="AAO2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:718" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAQ2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="AAR2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="AAS2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="AAT2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="AAU2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="AAV2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="AAW2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="AAX2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:726" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -26796,8 +26883,34 @@
         <f>AAN3</f>
         <v>345.048</v>
       </c>
-    </row>
-    <row r="4" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ3" s="279">
+        <v>1028</v>
+      </c>
+      <c r="AAR3" s="279">
+        <v>1016</v>
+      </c>
+      <c r="AAS3" s="135">
+        <f>AAQ3-AAR3</f>
+        <v>12</v>
+      </c>
+      <c r="AAT3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="AAU3" s="136">
+        <f>AAS3*AAT3</f>
+        <v>376.416</v>
+      </c>
+      <c r="AAV3" s="137"/>
+      <c r="AAW3" s="315">
+        <f>AAU3+AAU4</f>
+        <v>501.88799999999998</v>
+      </c>
+      <c r="AAX3" s="322">
+        <f>AAW3</f>
+        <v>501.88799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -28842,8 +28955,32 @@
       <c r="AAO4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:718" ht="30" x14ac:dyDescent="0.25">
+      <c r="AAQ4" s="280">
+        <v>550</v>
+      </c>
+      <c r="AAR4" s="280">
+        <v>546</v>
+      </c>
+      <c r="AAS4" s="46">
+        <f>AAQ4-AAR4</f>
+        <v>4</v>
+      </c>
+      <c r="AAT4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="AAU4" s="48">
+        <f>AAS4*AAT4</f>
+        <v>125.47199999999999</v>
+      </c>
+      <c r="AAV4" s="49"/>
+      <c r="AAW4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="AAX4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:726" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -30360,8 +30497,27 @@
         <f>AAN5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ5" s="281"/>
+      <c r="AAR5" s="281"/>
+      <c r="AAS5" s="46">
+        <f t="shared" ref="AAS5" si="150">AAQ5-AAR5</f>
+        <v>0</v>
+      </c>
+      <c r="AAT5" s="74"/>
+      <c r="AAU5" s="48">
+        <f t="shared" ref="AAU5" si="151">AAS5*AAT5</f>
+        <v>0</v>
+      </c>
+      <c r="AAV5" s="179"/>
+      <c r="AAW5" s="195">
+        <v>0</v>
+      </c>
+      <c r="AAX5" s="319">
+        <f>AAW5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31163,8 +31319,20 @@
       <c r="AAO6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ6" s="281"/>
+      <c r="AAR6" s="281"/>
+      <c r="AAS6" s="46"/>
+      <c r="AAT6" s="74"/>
+      <c r="AAU6" s="48"/>
+      <c r="AAV6" s="179"/>
+      <c r="AAW6" s="195">
+        <v>0</v>
+      </c>
+      <c r="AAX6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -31286,7 +31454,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="150">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="152">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -31308,7 +31476,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="151">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="153">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -31330,7 +31498,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="152">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="154">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -32201,7 +32369,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="153">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="155">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -32215,7 +32383,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="154">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="156">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -32229,7 +32397,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="155">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="157">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -32243,7 +32411,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="156">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="158">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -32257,7 +32425,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="157">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="159">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -32271,7 +32439,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="158">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="160">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -32285,7 +32453,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="159">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="161">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -32299,7 +32467,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="160">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="162">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -32313,7 +32481,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="161">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="163">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -32327,7 +32495,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="162">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="164">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -32341,7 +32509,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="163">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="165">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -32355,7 +32523,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="164">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="166">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -32369,7 +32537,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="165">US7-UT7</f>
+        <f t="shared" ref="UU7" si="167">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -32383,7 +32551,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="166">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="168">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -32397,7 +32565,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="167">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="169">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -32411,7 +32579,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="168">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="170">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -32425,7 +32593,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="169">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="171">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -32439,7 +32607,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="170">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="172">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -32453,7 +32621,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="171">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="173">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -32467,7 +32635,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="172">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="174">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -32481,7 +32649,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="173">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="175">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -32495,7 +32663,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="174">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="176">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -32509,7 +32677,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="175">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="177">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -32523,7 +32691,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="176">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="178">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -32537,7 +32705,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="177">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="179">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -32551,7 +32719,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="178">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="180">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -32565,7 +32733,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="179">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="181">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -32579,7 +32747,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="180">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="182">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -32593,7 +32761,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="181">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="183">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -32604,8 +32772,22 @@
         <v>0</v>
       </c>
       <c r="AAO7" s="75"/>
-    </row>
-    <row r="8" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ7" s="278"/>
+      <c r="AAR7" s="278"/>
+      <c r="AAS7" s="46">
+        <f t="shared" ref="AAS7" si="184">AAQ7-AAR7</f>
+        <v>0</v>
+      </c>
+      <c r="AAT7" s="48"/>
+      <c r="AAU7" s="311"/>
+      <c r="AAV7" s="312"/>
+      <c r="AAW7" s="306">
+        <f>AAV7</f>
+        <v>0</v>
+      </c>
+      <c r="AAX7" s="75"/>
+    </row>
+    <row r="8" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -33440,8 +33622,20 @@
       <c r="AAO8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ8" s="278"/>
+      <c r="AAR8" s="278"/>
+      <c r="AAS8" s="46"/>
+      <c r="AAT8" s="48"/>
+      <c r="AAU8" s="311"/>
+      <c r="AAV8" s="312"/>
+      <c r="AAW8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="AAX8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -33586,7 +33780,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -33613,7 +33807,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -33640,7 +33834,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -34033,7 +34227,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="182">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="185">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -34057,7 +34251,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="183">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="186">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -34079,7 +34273,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="184">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="187">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -34106,7 +34300,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="185">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="188">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -34133,7 +34327,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="186">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="189">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -34157,7 +34351,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="187">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="190">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -34185,7 +34379,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="188">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="191">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -34213,7 +34407,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="189">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="192">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -34241,7 +34435,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="190">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="193">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -34269,7 +34463,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="191">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="194">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -34297,7 +34491,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="192">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="195">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -34325,7 +34519,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="193">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="196">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -34353,7 +34547,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="194">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="197">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -34381,7 +34575,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="195">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="198">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -34409,7 +34603,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="196">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="199">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -34437,7 +34631,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="197">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="200">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -34465,7 +34659,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="198">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="201">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -34492,7 +34686,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="199">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="202">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -34520,7 +34714,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="200">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="203">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -34548,7 +34742,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="201">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="204">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -34577,7 +34771,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="202">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="205">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -34606,7 +34800,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="203">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="206">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -34635,7 +34829,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="204">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="207">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -34664,7 +34858,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="205">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="208">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -34693,7 +34887,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="206">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="209">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -34722,7 +34916,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="207">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="210">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -34751,7 +34945,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="208">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="211">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -34780,7 +34974,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="209">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="212">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -34808,7 +35002,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="210">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="213">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -34836,7 +35030,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="211">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="214">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -34892,7 +35086,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="212">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="215">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -34924,7 +35118,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="213">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="216">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -34951,7 +35145,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="214">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="217">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -34978,7 +35172,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="215">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="218">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -35005,7 +35199,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="216">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="219">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -35032,7 +35226,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="217">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="220">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -35059,7 +35253,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="218">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="221">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -35084,7 +35278,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="219">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="222">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -35109,7 +35303,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="220">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="223">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -35134,7 +35328,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="221">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="224">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -35159,7 +35353,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="222">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="225">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -35184,7 +35378,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="223">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="226">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -35209,7 +35403,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="224">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="227">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -35234,7 +35428,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="225">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="228">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -35259,7 +35453,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="226">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="229">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -35284,7 +35478,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="227">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="230">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -35309,7 +35503,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="228">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="231">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -35334,7 +35528,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="229">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="232">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -35359,7 +35553,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="230">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="233">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -35384,7 +35578,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="231">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="234">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -35409,7 +35603,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="232">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="235">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -35434,7 +35628,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="233">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="236">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -35459,7 +35653,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="234">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="237">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -35484,7 +35678,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="235">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="238">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -35509,7 +35703,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="236">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="239">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -35534,7 +35728,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="237">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="240">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -35559,7 +35753,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="238">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="241">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -35584,7 +35778,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="239">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="242">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -35609,7 +35803,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="240">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="243">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -35703,12 +35897,38 @@
         <f>AAL11</f>
         <v>543.56000000000006</v>
       </c>
-      <c r="AAO9" s="321">
-        <f>AAL11</f>
-        <v>543.56000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAO9" s="342">
+        <f>AAL9</f>
+        <v>1110.24</v>
+      </c>
+      <c r="AAQ9" s="280">
+        <v>54585</v>
+      </c>
+      <c r="AAR9" s="280">
+        <v>54307</v>
+      </c>
+      <c r="AAS9" s="46">
+        <f>AAQ9-AAR9</f>
+        <v>278</v>
+      </c>
+      <c r="AAT9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="AAU9" s="326">
+        <f>AAS9*AAT9</f>
+        <v>1200.96</v>
+      </c>
+      <c r="AAV9" s="98"/>
+      <c r="AAW9" s="306">
+        <f>AAU11</f>
+        <v>0</v>
+      </c>
+      <c r="AAX9" s="342">
+        <f>AAU9</f>
+        <v>1200.96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -35802,7 +36022,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -35820,7 +36040,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -35838,7 +36058,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -35856,7 +36076,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="241">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="244">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -35874,7 +36094,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="242">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="245">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -35892,7 +36112,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="243">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="246">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -35910,7 +36130,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="244">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="247">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -35928,7 +36148,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="245">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="248">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -35946,7 +36166,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="246">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="249">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -35964,7 +36184,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="247">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="250">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -35982,7 +36202,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="248">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="251">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -36000,7 +36220,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="249">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="252">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -36018,7 +36238,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="250">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="253">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -36036,7 +36256,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="251">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="254">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -36054,7 +36274,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="252">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="255">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -36072,7 +36292,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="253">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="256">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -36090,7 +36310,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="254">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="257">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -36102,13 +36322,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="255">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="258">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -36120,13 +36340,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="256">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="259">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -36138,13 +36358,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="257">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="260">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -36156,13 +36376,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="258">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="261">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -36174,13 +36394,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="259">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="262">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -36192,13 +36412,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="260">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="263">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -36210,13 +36430,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="261">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="264">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -36228,13 +36448,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="262">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="265">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -36246,13 +36466,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="263">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="266">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -36264,13 +36484,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="264">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="267">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -36282,13 +36502,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="265">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="268">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -36300,13 +36520,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="266">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="269">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -36318,13 +36538,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="267">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="270">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -36336,13 +36556,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="268">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="271">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -36354,13 +36574,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="269">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="272">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -36372,13 +36592,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="270">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="273">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -36390,13 +36610,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="271">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="274">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -36414,7 +36634,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="272">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="275">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -36432,7 +36652,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="273">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="276">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -36450,7 +36670,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="274">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="277">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -36461,7 +36681,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="275">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="278">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -36472,7 +36692,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="276">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="279">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -36483,7 +36703,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="277">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="280">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -36494,7 +36714,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="278">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="281">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -36505,7 +36725,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="279">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="282">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -36516,7 +36736,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="280">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="283">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -36527,7 +36747,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="281">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="284">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -36538,7 +36758,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="282">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="285">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -36550,13 +36770,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="283">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="286">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="284">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="287">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -36569,13 +36789,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="285">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="288">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -36588,13 +36808,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="286">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="289">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="287">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="290">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -36607,13 +36827,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="288">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="291">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -36626,7 +36846,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -36642,7 +36862,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -36658,7 +36878,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -36674,7 +36894,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -36690,7 +36910,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -36706,7 +36926,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -36722,7 +36942,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -36738,7 +36958,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -36754,7 +36974,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -36770,7 +36990,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -36786,7 +37006,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -36802,7 +37022,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -36818,7 +37038,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -36834,7 +37054,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -36850,7 +37070,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -36866,7 +37086,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -36882,7 +37102,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -36898,7 +37118,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -36914,7 +37134,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -36930,7 +37150,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -36946,7 +37166,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -36962,7 +37182,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -36978,7 +37198,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -36994,7 +37214,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -37010,7 +37230,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -37026,7 +37246,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -37042,7 +37262,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -37058,7 +37278,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -37094,8 +37314,16 @@
         <f>AAL9-AAL10</f>
         <v>543.56000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ10" s="278"/>
+      <c r="AAR10" s="278"/>
+      <c r="AAS10" s="46"/>
+      <c r="AAT10" s="48"/>
+      <c r="AAU10" s="300"/>
+      <c r="AAV10" s="49"/>
+      <c r="AAW10" s="306"/>
+      <c r="AAX10" s="75"/>
+    </row>
+    <row r="11" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -37194,7 +37422,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -37213,7 +37441,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -37232,7 +37460,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -37251,7 +37479,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -37270,7 +37498,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -37289,7 +37517,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -37308,7 +37536,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -37327,7 +37555,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -37346,7 +37574,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -37365,7 +37593,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -37384,7 +37612,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -37403,7 +37631,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -37422,7 +37650,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -37441,7 +37669,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -37460,7 +37688,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -37479,7 +37707,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -37498,7 +37726,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -37511,13 +37739,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -37530,13 +37758,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -37549,13 +37777,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -37568,13 +37796,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -37587,13 +37815,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -37606,13 +37834,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -37625,13 +37853,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -37644,13 +37872,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -37663,203 +37891,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="289">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="292">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="264"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="290">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="293">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="265"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="291">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="294">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="266"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="292">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="295">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="293">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="296">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="294">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="297">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="269"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="295">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="298">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="270"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="296">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="299">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="271"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="297">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="300">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="298">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="301">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="299">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="302">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -37870,7 +38098,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="274"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -37881,7 +38109,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="275"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -37892,7 +38120,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="276"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -37903,7 +38131,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="277"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -37914,7 +38142,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -37925,7 +38153,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="279"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -37936,7 +38164,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="280"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -37947,7 +38175,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="281"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -37958,7 +38186,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="282"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -37969,7 +38197,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -37983,7 +38211,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="285"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -37997,7 +38225,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="287"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -38011,7 +38239,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="288"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -38457,15 +38685,23 @@
       <c r="AAI11" s="278"/>
       <c r="AAJ11" s="286"/>
       <c r="AAK11" s="48"/>
-      <c r="AAL11" s="341">
+      <c r="AAL11" s="327">
         <f>AAL9-AAL10</f>
         <v>543.56000000000006</v>
       </c>
       <c r="AAM11" s="49"/>
       <c r="AAN11" s="306"/>
       <c r="AAO11" s="75"/>
-    </row>
-    <row r="12" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ11" s="278"/>
+      <c r="AAR11" s="278"/>
+      <c r="AAS11" s="286"/>
+      <c r="AAT11" s="48"/>
+      <c r="AAU11" s="327"/>
+      <c r="AAV11" s="49"/>
+      <c r="AAW11" s="306"/>
+      <c r="AAX11" s="75"/>
+    </row>
+    <row r="12" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -38574,7 +38810,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -38595,7 +38831,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -38616,7 +38852,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -38905,7 +39141,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -38925,7 +39161,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -38945,7 +39181,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -38965,7 +39201,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -38985,7 +39221,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -39005,7 +39241,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -39025,7 +39261,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -39045,7 +39281,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -39065,7 +39301,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -39078,14 +39314,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -39098,14 +39334,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -39118,14 +39354,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -39138,14 +39374,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -39158,14 +39394,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -39178,14 +39414,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -39198,14 +39434,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -39218,14 +39454,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -39238,14 +39474,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -39258,14 +39494,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -39824,8 +40060,21 @@
         <f>AAN12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:718" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="AAQ12" s="278"/>
+      <c r="AAR12" s="278"/>
+      <c r="AAS12" s="46"/>
+      <c r="AAT12" s="48"/>
+      <c r="AAU12" s="48"/>
+      <c r="AAV12" s="49"/>
+      <c r="AAW12" s="306">
+        <v>35</v>
+      </c>
+      <c r="AAX12" s="324">
+        <f>AAW12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:726" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -39926,7 +40175,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -39945,7 +40194,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -39964,7 +40213,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -39983,7 +40232,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -40206,7 +40455,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -40222,7 +40471,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -40238,7 +40487,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -40254,7 +40503,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -40270,7 +40519,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -40286,7 +40535,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -40302,7 +40551,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -40318,7 +40567,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -40334,7 +40583,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -40343,14 +40592,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -40359,14 +40608,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -40375,14 +40624,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -40391,14 +40640,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -40407,14 +40656,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -40423,14 +40672,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -40439,14 +40688,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -40455,14 +40704,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -40471,14 +40720,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -40487,14 +40736,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -40852,8 +41101,16 @@
       <c r="AAM13" s="49"/>
       <c r="AAN13" s="306"/>
       <c r="AAO13" s="75"/>
-    </row>
-    <row r="14" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ13" s="278"/>
+      <c r="AAR13" s="278"/>
+      <c r="AAS13" s="46"/>
+      <c r="AAT13" s="48"/>
+      <c r="AAU13" s="48"/>
+      <c r="AAV13" s="49"/>
+      <c r="AAW13" s="306"/>
+      <c r="AAX13" s="75"/>
+    </row>
+    <row r="14" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -40987,7 +41244,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -41013,7 +41270,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -41039,7 +41296,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -41065,7 +41322,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -41091,7 +41348,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="300">CE14</f>
+        <f t="shared" ref="CF14" si="303">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -41117,7 +41374,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="301">CO14</f>
+        <f t="shared" ref="CP14" si="304">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -41143,7 +41400,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="302">CW14</f>
+        <f t="shared" ref="CX14" si="305">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -41169,7 +41426,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="303">DE14</f>
+        <f t="shared" ref="DF14" si="306">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -41195,7 +41452,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="304">DM14</f>
+        <f t="shared" ref="DN14" si="307">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -41221,7 +41478,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="305">DU14</f>
+        <f t="shared" ref="DV14" si="308">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -41408,7 +41665,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -41433,7 +41690,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -41458,7 +41715,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -41483,7 +41740,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -41508,7 +41765,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -41533,7 +41790,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -41555,7 +41812,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -41577,7 +41834,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -41601,7 +41858,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -41618,14 +41875,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -41642,14 +41899,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -41664,14 +41921,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -41689,14 +41946,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -41714,14 +41971,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -41739,14 +41996,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -41764,14 +42021,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -41789,14 +42046,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -41814,14 +42071,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -41839,14 +42096,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -41864,7 +42121,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="306">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="309">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -41889,7 +42146,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="307">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="310">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -43088,8 +43345,36 @@
       <c r="AAO14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ14" s="280">
+        <v>1112</v>
+      </c>
+      <c r="AAR14" s="280">
+        <v>1112</v>
+      </c>
+      <c r="AAS14" s="46">
+        <f>AAQ14-AAR14</f>
+        <v>0</v>
+      </c>
+      <c r="AAT14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="AAU14" s="48">
+        <f>AAS14*AAT14</f>
+        <v>0</v>
+      </c>
+      <c r="AAV14" s="49">
+        <f>AAU14</f>
+        <v>0</v>
+      </c>
+      <c r="AAW14" s="306">
+        <f>AAV14</f>
+        <v>0</v>
+      </c>
+      <c r="AAX14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -44018,8 +44303,20 @@
       <c r="AAO15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:718" x14ac:dyDescent="0.25">
+      <c r="AAQ15" s="152"/>
+      <c r="AAR15" s="313"/>
+      <c r="AAS15" s="46"/>
+      <c r="AAT15" s="48"/>
+      <c r="AAU15" s="48"/>
+      <c r="AAV15" s="49"/>
+      <c r="AAW15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="AAX15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -44835,8 +45132,16 @@
       <c r="AAM16" s="49"/>
       <c r="AAN16" s="306"/>
       <c r="AAO16" s="75"/>
-    </row>
-    <row r="17" spans="2:717" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAQ16" s="152"/>
+      <c r="AAR16" s="313"/>
+      <c r="AAS16" s="46"/>
+      <c r="AAT16" s="48"/>
+      <c r="AAU16" s="48"/>
+      <c r="AAV16" s="49"/>
+      <c r="AAW16" s="306"/>
+      <c r="AAX16" s="75"/>
+    </row>
+    <row r="17" spans="2:726" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -44899,7 +45204,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -44910,7 +45215,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -44921,7 +45226,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -44932,7 +45237,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -45631,8 +45936,16 @@
       <c r="AAM17" s="72"/>
       <c r="AAN17" s="317"/>
       <c r="AAO17" s="318"/>
-    </row>
-    <row r="18" spans="2:717" x14ac:dyDescent="0.25">
+      <c r="AAQ17" s="69"/>
+      <c r="AAR17" s="70"/>
+      <c r="AAS17" s="70"/>
+      <c r="AAT17" s="71"/>
+      <c r="AAU17" s="71"/>
+      <c r="AAV17" s="72"/>
+      <c r="AAW17" s="317"/>
+      <c r="AAX17" s="318"/>
+    </row>
+    <row r="18" spans="2:726" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -45930,7 +46243,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:726" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -45959,7 +46272,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:726" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -45971,7 +46284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:726" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -45989,7 +46302,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:726" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -46007,7 +46320,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:717" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:726" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -46033,28 +46346,56 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="ZY1:AAF1"/>
-    <mergeCell ref="ZF1:ZM1"/>
-    <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
-    <mergeCell ref="WU1:XB1"/>
-    <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="VB1:VI1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
+  <mergeCells count="86">
+    <mergeCell ref="AAQ1:AAX1"/>
+    <mergeCell ref="AAH1:AAO1"/>
+    <mergeCell ref="OB1:OI1"/>
+    <mergeCell ref="TI1:TP1"/>
+    <mergeCell ref="VK1:VR1"/>
+    <mergeCell ref="UJ1:UQ1"/>
+    <mergeCell ref="US1:UZ1"/>
+    <mergeCell ref="OR1:OY1"/>
+    <mergeCell ref="RG1:RN1"/>
+    <mergeCell ref="RY1:SF1"/>
+    <mergeCell ref="OZ1:PG1"/>
+    <mergeCell ref="UA1:UH1"/>
+    <mergeCell ref="SZ1:TG1"/>
+    <mergeCell ref="SH1:SO1"/>
+    <mergeCell ref="RP1:RW1"/>
+    <mergeCell ref="PP1:PW1"/>
+    <mergeCell ref="SQ1:SX1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
     <mergeCell ref="BA1:BH1"/>
     <mergeCell ref="BY1:CF1"/>
     <mergeCell ref="BQ1:BX1"/>
@@ -46071,54 +46412,27 @@
     <mergeCell ref="DW1:ED1"/>
     <mergeCell ref="DO1:DV1"/>
     <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="AAH1:AAO1"/>
-    <mergeCell ref="OB1:OI1"/>
-    <mergeCell ref="TI1:TP1"/>
-    <mergeCell ref="VK1:VR1"/>
-    <mergeCell ref="UJ1:UQ1"/>
-    <mergeCell ref="US1:UZ1"/>
-    <mergeCell ref="OR1:OY1"/>
-    <mergeCell ref="RG1:RN1"/>
-    <mergeCell ref="RY1:SF1"/>
-    <mergeCell ref="OZ1:PG1"/>
-    <mergeCell ref="UA1:UH1"/>
-    <mergeCell ref="SZ1:TG1"/>
-    <mergeCell ref="SH1:SO1"/>
-    <mergeCell ref="RP1:RW1"/>
-    <mergeCell ref="PP1:PW1"/>
-    <mergeCell ref="SQ1:SX1"/>
+    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
+    <mergeCell ref="WU1:XB1"/>
+    <mergeCell ref="YW1:ZD1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="ZY1:AAF1"/>
+    <mergeCell ref="ZF1:ZM1"/>
+    <mergeCell ref="YN1:YU1"/>
+    <mergeCell ref="XV1:YC1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
@@ -46222,12 +46536,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
       <c r="F3" s="201"/>
       <c r="G3" s="201"/>
       <c r="I3" s="74"/>
@@ -46292,12 +46606,12 @@
       <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
       <c r="F6" s="207"/>
       <c r="G6" s="207"/>
       <c r="I6" s="74"/>
@@ -46970,12 +47284,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -47014,12 +47328,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -47557,12 +47871,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -47602,12 +47916,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -47994,12 +48308,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -48039,12 +48353,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="337"/>
+      <c r="B6" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="338"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$AAZ$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ABQ$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2416,12 +2416,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="ABD10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>edik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАПЛАТИЛ ПО ИНФОРМАЦИИ НА САЙТЕ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ABF10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ABM10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ABO10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -4100,7 +4190,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4879,6 +4969,8 @@
     <xf numFmtId="165" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4921,7 +5013,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="4" builtinId="21"/>
@@ -5315,12 +5406,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -5375,12 +5466,12 @@
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
       <c r="F6" s="150"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
@@ -5870,12 +5961,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5915,12 +6006,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6276,12 +6367,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6321,12 +6412,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -6745,12 +6836,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -6790,12 +6881,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
@@ -7118,12 +7209,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7182,12 +7273,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="338"/>
+      <c r="B7" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="340"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="124" t="s">
@@ -7569,12 +7660,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7614,12 +7705,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -7927,12 +8018,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7979,12 +8070,12 @@
       <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -8307,12 +8398,12 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8380,12 +8471,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="W6">
         <v>210</v>
       </c>
@@ -8885,12 +8976,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8960,12 +9051,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -9510,12 +9601,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -9585,12 +9676,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="X6">
         <v>210</v>
       </c>
@@ -10226,12 +10317,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -10282,12 +10373,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -11411,12 +11502,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -11467,12 +11558,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12067,12 +12158,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12123,12 +12214,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -12807,12 +12898,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -12863,12 +12954,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -13526,12 +13617,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -13582,12 +13673,12 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14258,12 +14349,12 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -14312,12 +14403,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -14959,12 +15050,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -15013,12 +15104,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -15599,12 +15690,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -15653,12 +15744,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -16263,12 +16354,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -16317,12 +16408,12 @@
       <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -17029,12 +17120,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17067,12 +17158,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -17636,12 +17727,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17674,12 +17765,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -18187,16 +18278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="332" t="s">
+      <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="334"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="336"/>
     </row>
     <row r="2" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
@@ -18647,12 +18738,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -18685,12 +18776,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -19211,12 +19302,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19249,12 +19340,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -19709,12 +19800,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -19747,12 +19838,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20155,12 +20246,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20193,12 +20284,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20556,12 +20647,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -20594,12 +20685,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -20967,12 +21058,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -21003,12 +21094,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="341"/>
+      <c r="B6" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -21334,11 +21425,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AAX52"/>
+  <dimension ref="B1:ABQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AAI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AAY9" sqref="AAY9"/>
+      <pane xSplit="3" topLeftCell="AAY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ABM10" sqref="ABM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21725,871 +21816,896 @@
     <col min="718" max="718" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="723" max="723" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="726" max="726" width="11.85546875" customWidth="1"/>
+    <col min="732" max="732" width="12.140625" customWidth="1"/>
+    <col min="735" max="735" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="736" max="736" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="14.5703125" customWidth="1"/>
+    <col min="744" max="744" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:726" x14ac:dyDescent="0.25">
-      <c r="E1" s="332" t="s">
+    <row r="1" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="332" t="s">
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="334" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="333"/>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="333"/>
-      <c r="S1" s="333"/>
-      <c r="T1" s="334"/>
-      <c r="U1" s="332" t="s">
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="336"/>
+      <c r="U1" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="333"/>
-      <c r="W1" s="333"/>
-      <c r="X1" s="333"/>
-      <c r="Y1" s="333"/>
-      <c r="Z1" s="333"/>
-      <c r="AA1" s="333"/>
-      <c r="AB1" s="334"/>
-      <c r="AC1" s="332" t="s">
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="333"/>
-      <c r="AF1" s="333"/>
-      <c r="AG1" s="333"/>
-      <c r="AH1" s="333"/>
-      <c r="AI1" s="333"/>
-      <c r="AJ1" s="334"/>
-      <c r="AK1" s="332" t="s">
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="335"/>
+      <c r="AH1" s="335"/>
+      <c r="AI1" s="335"/>
+      <c r="AJ1" s="336"/>
+      <c r="AK1" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="333"/>
-      <c r="AM1" s="333"/>
-      <c r="AN1" s="333"/>
-      <c r="AO1" s="333"/>
-      <c r="AP1" s="333"/>
-      <c r="AQ1" s="333"/>
-      <c r="AR1" s="334"/>
-      <c r="AS1" s="332" t="s">
+      <c r="AL1" s="335"/>
+      <c r="AM1" s="335"/>
+      <c r="AN1" s="335"/>
+      <c r="AO1" s="335"/>
+      <c r="AP1" s="335"/>
+      <c r="AQ1" s="335"/>
+      <c r="AR1" s="336"/>
+      <c r="AS1" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="AT1" s="333"/>
-      <c r="AU1" s="333"/>
-      <c r="AV1" s="333"/>
-      <c r="AW1" s="333"/>
-      <c r="AX1" s="333"/>
-      <c r="AY1" s="333"/>
-      <c r="AZ1" s="334"/>
-      <c r="BA1" s="332" t="s">
+      <c r="AT1" s="335"/>
+      <c r="AU1" s="335"/>
+      <c r="AV1" s="335"/>
+      <c r="AW1" s="335"/>
+      <c r="AX1" s="335"/>
+      <c r="AY1" s="335"/>
+      <c r="AZ1" s="336"/>
+      <c r="BA1" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="333"/>
-      <c r="BC1" s="333"/>
-      <c r="BD1" s="333"/>
-      <c r="BE1" s="333"/>
-      <c r="BF1" s="333"/>
-      <c r="BG1" s="333"/>
-      <c r="BH1" s="334"/>
-      <c r="BI1" s="332" t="s">
+      <c r="BB1" s="335"/>
+      <c r="BC1" s="335"/>
+      <c r="BD1" s="335"/>
+      <c r="BE1" s="335"/>
+      <c r="BF1" s="335"/>
+      <c r="BG1" s="335"/>
+      <c r="BH1" s="336"/>
+      <c r="BI1" s="334" t="s">
         <v>113</v>
       </c>
-      <c r="BJ1" s="333"/>
-      <c r="BK1" s="333"/>
-      <c r="BL1" s="333"/>
-      <c r="BM1" s="333"/>
-      <c r="BN1" s="333"/>
-      <c r="BO1" s="333"/>
-      <c r="BP1" s="334"/>
-      <c r="BQ1" s="332" t="s">
+      <c r="BJ1" s="335"/>
+      <c r="BK1" s="335"/>
+      <c r="BL1" s="335"/>
+      <c r="BM1" s="335"/>
+      <c r="BN1" s="335"/>
+      <c r="BO1" s="335"/>
+      <c r="BP1" s="336"/>
+      <c r="BQ1" s="334" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="333"/>
-      <c r="BS1" s="333"/>
-      <c r="BT1" s="333"/>
-      <c r="BU1" s="333"/>
-      <c r="BV1" s="333"/>
-      <c r="BW1" s="333"/>
-      <c r="BX1" s="334"/>
-      <c r="BY1" s="332" t="s">
+      <c r="BR1" s="335"/>
+      <c r="BS1" s="335"/>
+      <c r="BT1" s="335"/>
+      <c r="BU1" s="335"/>
+      <c r="BV1" s="335"/>
+      <c r="BW1" s="335"/>
+      <c r="BX1" s="336"/>
+      <c r="BY1" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" s="333"/>
-      <c r="CA1" s="333"/>
-      <c r="CB1" s="333"/>
-      <c r="CC1" s="333"/>
-      <c r="CD1" s="333"/>
-      <c r="CE1" s="333"/>
-      <c r="CF1" s="334"/>
-      <c r="CI1" s="332" t="s">
+      <c r="BZ1" s="335"/>
+      <c r="CA1" s="335"/>
+      <c r="CB1" s="335"/>
+      <c r="CC1" s="335"/>
+      <c r="CD1" s="335"/>
+      <c r="CE1" s="335"/>
+      <c r="CF1" s="336"/>
+      <c r="CI1" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="CJ1" s="333"/>
-      <c r="CK1" s="333"/>
-      <c r="CL1" s="333"/>
-      <c r="CM1" s="333"/>
-      <c r="CN1" s="333"/>
-      <c r="CO1" s="333"/>
-      <c r="CP1" s="334"/>
-      <c r="CQ1" s="332" t="s">
+      <c r="CJ1" s="335"/>
+      <c r="CK1" s="335"/>
+      <c r="CL1" s="335"/>
+      <c r="CM1" s="335"/>
+      <c r="CN1" s="335"/>
+      <c r="CO1" s="335"/>
+      <c r="CP1" s="336"/>
+      <c r="CQ1" s="334" t="s">
         <v>143</v>
       </c>
-      <c r="CR1" s="333"/>
-      <c r="CS1" s="333"/>
-      <c r="CT1" s="333"/>
-      <c r="CU1" s="333"/>
-      <c r="CV1" s="333"/>
-      <c r="CW1" s="333"/>
-      <c r="CX1" s="334"/>
-      <c r="CY1" s="332" t="s">
+      <c r="CR1" s="335"/>
+      <c r="CS1" s="335"/>
+      <c r="CT1" s="335"/>
+      <c r="CU1" s="335"/>
+      <c r="CV1" s="335"/>
+      <c r="CW1" s="335"/>
+      <c r="CX1" s="336"/>
+      <c r="CY1" s="334" t="s">
         <v>144</v>
       </c>
-      <c r="CZ1" s="333"/>
-      <c r="DA1" s="333"/>
-      <c r="DB1" s="333"/>
-      <c r="DC1" s="333"/>
-      <c r="DD1" s="333"/>
-      <c r="DE1" s="333"/>
-      <c r="DF1" s="334"/>
-      <c r="DG1" s="332" t="s">
+      <c r="CZ1" s="335"/>
+      <c r="DA1" s="335"/>
+      <c r="DB1" s="335"/>
+      <c r="DC1" s="335"/>
+      <c r="DD1" s="335"/>
+      <c r="DE1" s="335"/>
+      <c r="DF1" s="336"/>
+      <c r="DG1" s="334" t="s">
         <v>151</v>
       </c>
-      <c r="DH1" s="333"/>
-      <c r="DI1" s="333"/>
-      <c r="DJ1" s="333"/>
-      <c r="DK1" s="333"/>
-      <c r="DL1" s="333"/>
-      <c r="DM1" s="333"/>
-      <c r="DN1" s="334"/>
-      <c r="DO1" s="332" t="s">
+      <c r="DH1" s="335"/>
+      <c r="DI1" s="335"/>
+      <c r="DJ1" s="335"/>
+      <c r="DK1" s="335"/>
+      <c r="DL1" s="335"/>
+      <c r="DM1" s="335"/>
+      <c r="DN1" s="336"/>
+      <c r="DO1" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="DP1" s="333"/>
-      <c r="DQ1" s="333"/>
-      <c r="DR1" s="333"/>
-      <c r="DS1" s="333"/>
-      <c r="DT1" s="333"/>
-      <c r="DU1" s="333"/>
-      <c r="DV1" s="334"/>
-      <c r="DW1" s="332" t="s">
+      <c r="DP1" s="335"/>
+      <c r="DQ1" s="335"/>
+      <c r="DR1" s="335"/>
+      <c r="DS1" s="335"/>
+      <c r="DT1" s="335"/>
+      <c r="DU1" s="335"/>
+      <c r="DV1" s="336"/>
+      <c r="DW1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="DX1" s="333"/>
-      <c r="DY1" s="333"/>
-      <c r="DZ1" s="333"/>
-      <c r="EA1" s="333"/>
-      <c r="EB1" s="333"/>
-      <c r="EC1" s="333"/>
-      <c r="ED1" s="334"/>
-      <c r="EE1" s="332" t="s">
+      <c r="DX1" s="335"/>
+      <c r="DY1" s="335"/>
+      <c r="DZ1" s="335"/>
+      <c r="EA1" s="335"/>
+      <c r="EB1" s="335"/>
+      <c r="EC1" s="335"/>
+      <c r="ED1" s="336"/>
+      <c r="EE1" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="EF1" s="333"/>
-      <c r="EG1" s="333"/>
-      <c r="EH1" s="333"/>
-      <c r="EI1" s="333"/>
-      <c r="EJ1" s="333"/>
-      <c r="EK1" s="333"/>
-      <c r="EL1" s="334"/>
-      <c r="EM1" s="332" t="s">
+      <c r="EF1" s="335"/>
+      <c r="EG1" s="335"/>
+      <c r="EH1" s="335"/>
+      <c r="EI1" s="335"/>
+      <c r="EJ1" s="335"/>
+      <c r="EK1" s="335"/>
+      <c r="EL1" s="336"/>
+      <c r="EM1" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="EN1" s="333"/>
-      <c r="EO1" s="333"/>
-      <c r="EP1" s="333"/>
-      <c r="EQ1" s="333"/>
-      <c r="ER1" s="333"/>
-      <c r="ES1" s="333"/>
-      <c r="ET1" s="334"/>
-      <c r="EU1" s="332" t="s">
+      <c r="EN1" s="335"/>
+      <c r="EO1" s="335"/>
+      <c r="EP1" s="335"/>
+      <c r="EQ1" s="335"/>
+      <c r="ER1" s="335"/>
+      <c r="ES1" s="335"/>
+      <c r="ET1" s="336"/>
+      <c r="EU1" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="EV1" s="333"/>
-      <c r="EW1" s="333"/>
-      <c r="EX1" s="333"/>
-      <c r="EY1" s="333"/>
-      <c r="EZ1" s="333"/>
-      <c r="FA1" s="333"/>
-      <c r="FB1" s="334"/>
-      <c r="FC1" s="332" t="s">
+      <c r="EV1" s="335"/>
+      <c r="EW1" s="335"/>
+      <c r="EX1" s="335"/>
+      <c r="EY1" s="335"/>
+      <c r="EZ1" s="335"/>
+      <c r="FA1" s="335"/>
+      <c r="FB1" s="336"/>
+      <c r="FC1" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="FD1" s="333"/>
-      <c r="FE1" s="333"/>
-      <c r="FF1" s="333"/>
-      <c r="FG1" s="333"/>
-      <c r="FH1" s="333"/>
-      <c r="FI1" s="333"/>
-      <c r="FJ1" s="334"/>
-      <c r="FK1" s="332" t="s">
+      <c r="FD1" s="335"/>
+      <c r="FE1" s="335"/>
+      <c r="FF1" s="335"/>
+      <c r="FG1" s="335"/>
+      <c r="FH1" s="335"/>
+      <c r="FI1" s="335"/>
+      <c r="FJ1" s="336"/>
+      <c r="FK1" s="334" t="s">
         <v>174</v>
       </c>
-      <c r="FL1" s="333"/>
-      <c r="FM1" s="333"/>
-      <c r="FN1" s="333"/>
-      <c r="FO1" s="333"/>
-      <c r="FP1" s="333"/>
-      <c r="FQ1" s="333"/>
-      <c r="FR1" s="334"/>
-      <c r="FS1" s="332" t="s">
+      <c r="FL1" s="335"/>
+      <c r="FM1" s="335"/>
+      <c r="FN1" s="335"/>
+      <c r="FO1" s="335"/>
+      <c r="FP1" s="335"/>
+      <c r="FQ1" s="335"/>
+      <c r="FR1" s="336"/>
+      <c r="FS1" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="FT1" s="333"/>
-      <c r="FU1" s="333"/>
-      <c r="FV1" s="333"/>
-      <c r="FW1" s="333"/>
-      <c r="FX1" s="333"/>
-      <c r="FY1" s="333"/>
-      <c r="FZ1" s="334"/>
-      <c r="GA1" s="332" t="s">
+      <c r="FT1" s="335"/>
+      <c r="FU1" s="335"/>
+      <c r="FV1" s="335"/>
+      <c r="FW1" s="335"/>
+      <c r="FX1" s="335"/>
+      <c r="FY1" s="335"/>
+      <c r="FZ1" s="336"/>
+      <c r="GA1" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="GB1" s="333"/>
-      <c r="GC1" s="333"/>
-      <c r="GD1" s="333"/>
-      <c r="GE1" s="333"/>
-      <c r="GF1" s="333"/>
-      <c r="GG1" s="333"/>
-      <c r="GH1" s="334"/>
-      <c r="GI1" s="332" t="s">
+      <c r="GB1" s="335"/>
+      <c r="GC1" s="335"/>
+      <c r="GD1" s="335"/>
+      <c r="GE1" s="335"/>
+      <c r="GF1" s="335"/>
+      <c r="GG1" s="335"/>
+      <c r="GH1" s="336"/>
+      <c r="GI1" s="334" t="s">
         <v>143</v>
       </c>
-      <c r="GJ1" s="333"/>
-      <c r="GK1" s="333"/>
-      <c r="GL1" s="333"/>
-      <c r="GM1" s="333"/>
-      <c r="GN1" s="333"/>
-      <c r="GO1" s="333"/>
-      <c r="GP1" s="334"/>
-      <c r="GQ1" s="332" t="s">
+      <c r="GJ1" s="335"/>
+      <c r="GK1" s="335"/>
+      <c r="GL1" s="335"/>
+      <c r="GM1" s="335"/>
+      <c r="GN1" s="335"/>
+      <c r="GO1" s="335"/>
+      <c r="GP1" s="336"/>
+      <c r="GQ1" s="334" t="s">
         <v>144</v>
       </c>
-      <c r="GR1" s="333"/>
-      <c r="GS1" s="333"/>
-      <c r="GT1" s="333"/>
-      <c r="GU1" s="333"/>
-      <c r="GV1" s="333"/>
-      <c r="GW1" s="333"/>
-      <c r="GX1" s="334"/>
-      <c r="GY1" s="332" t="s">
+      <c r="GR1" s="335"/>
+      <c r="GS1" s="335"/>
+      <c r="GT1" s="335"/>
+      <c r="GU1" s="335"/>
+      <c r="GV1" s="335"/>
+      <c r="GW1" s="335"/>
+      <c r="GX1" s="336"/>
+      <c r="GY1" s="334" t="s">
         <v>151</v>
       </c>
-      <c r="GZ1" s="333"/>
-      <c r="HA1" s="333"/>
-      <c r="HB1" s="333"/>
-      <c r="HC1" s="333"/>
-      <c r="HD1" s="333"/>
-      <c r="HE1" s="333"/>
-      <c r="HF1" s="334"/>
-      <c r="HG1" s="332" t="s">
+      <c r="GZ1" s="335"/>
+      <c r="HA1" s="335"/>
+      <c r="HB1" s="335"/>
+      <c r="HC1" s="335"/>
+      <c r="HD1" s="335"/>
+      <c r="HE1" s="335"/>
+      <c r="HF1" s="336"/>
+      <c r="HG1" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="HH1" s="333"/>
-      <c r="HI1" s="333"/>
-      <c r="HJ1" s="333"/>
-      <c r="HK1" s="333"/>
-      <c r="HL1" s="333"/>
-      <c r="HM1" s="333"/>
-      <c r="HN1" s="334"/>
-      <c r="HO1" s="332" t="s">
+      <c r="HH1" s="335"/>
+      <c r="HI1" s="335"/>
+      <c r="HJ1" s="335"/>
+      <c r="HK1" s="335"/>
+      <c r="HL1" s="335"/>
+      <c r="HM1" s="335"/>
+      <c r="HN1" s="336"/>
+      <c r="HO1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="HP1" s="333"/>
-      <c r="HQ1" s="333"/>
-      <c r="HR1" s="333"/>
-      <c r="HS1" s="333"/>
-      <c r="HT1" s="333"/>
-      <c r="HU1" s="333"/>
-      <c r="HV1" s="334"/>
-      <c r="HW1" s="332" t="s">
+      <c r="HP1" s="335"/>
+      <c r="HQ1" s="335"/>
+      <c r="HR1" s="335"/>
+      <c r="HS1" s="335"/>
+      <c r="HT1" s="335"/>
+      <c r="HU1" s="335"/>
+      <c r="HV1" s="336"/>
+      <c r="HW1" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="HX1" s="333"/>
-      <c r="HY1" s="333"/>
-      <c r="HZ1" s="333"/>
-      <c r="IA1" s="333"/>
-      <c r="IB1" s="333"/>
-      <c r="IC1" s="333"/>
-      <c r="ID1" s="334"/>
-      <c r="IE1" s="332" t="s">
+      <c r="HX1" s="335"/>
+      <c r="HY1" s="335"/>
+      <c r="HZ1" s="335"/>
+      <c r="IA1" s="335"/>
+      <c r="IB1" s="335"/>
+      <c r="IC1" s="335"/>
+      <c r="ID1" s="336"/>
+      <c r="IE1" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="IF1" s="333"/>
-      <c r="IG1" s="333"/>
-      <c r="IH1" s="333"/>
-      <c r="II1" s="333"/>
-      <c r="IJ1" s="333"/>
-      <c r="IK1" s="333"/>
-      <c r="IL1" s="334"/>
-      <c r="IM1" s="332" t="s">
+      <c r="IF1" s="335"/>
+      <c r="IG1" s="335"/>
+      <c r="IH1" s="335"/>
+      <c r="II1" s="335"/>
+      <c r="IJ1" s="335"/>
+      <c r="IK1" s="335"/>
+      <c r="IL1" s="336"/>
+      <c r="IM1" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="IN1" s="333"/>
-      <c r="IO1" s="333"/>
-      <c r="IP1" s="333"/>
-      <c r="IQ1" s="333"/>
-      <c r="IR1" s="333"/>
-      <c r="IS1" s="333"/>
-      <c r="IT1" s="334"/>
-      <c r="IU1" s="332" t="s">
+      <c r="IN1" s="335"/>
+      <c r="IO1" s="335"/>
+      <c r="IP1" s="335"/>
+      <c r="IQ1" s="335"/>
+      <c r="IR1" s="335"/>
+      <c r="IS1" s="335"/>
+      <c r="IT1" s="336"/>
+      <c r="IU1" s="334" t="s">
         <v>113</v>
       </c>
-      <c r="IV1" s="333"/>
-      <c r="IW1" s="333"/>
-      <c r="IX1" s="333"/>
-      <c r="IY1" s="333"/>
-      <c r="IZ1" s="333"/>
-      <c r="JA1" s="333"/>
-      <c r="JB1" s="334"/>
-      <c r="JC1" s="332" t="s">
+      <c r="IV1" s="335"/>
+      <c r="IW1" s="335"/>
+      <c r="IX1" s="335"/>
+      <c r="IY1" s="335"/>
+      <c r="IZ1" s="335"/>
+      <c r="JA1" s="335"/>
+      <c r="JB1" s="336"/>
+      <c r="JC1" s="334" t="s">
         <v>120</v>
       </c>
-      <c r="JD1" s="333"/>
-      <c r="JE1" s="333"/>
-      <c r="JF1" s="333"/>
-      <c r="JG1" s="333"/>
-      <c r="JH1" s="333"/>
-      <c r="JI1" s="333"/>
-      <c r="JJ1" s="334"/>
-      <c r="JK1" s="332" t="s">
+      <c r="JD1" s="335"/>
+      <c r="JE1" s="335"/>
+      <c r="JF1" s="335"/>
+      <c r="JG1" s="335"/>
+      <c r="JH1" s="335"/>
+      <c r="JI1" s="335"/>
+      <c r="JJ1" s="336"/>
+      <c r="JK1" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="JL1" s="333"/>
-      <c r="JM1" s="333"/>
-      <c r="JN1" s="333"/>
-      <c r="JO1" s="333"/>
-      <c r="JP1" s="333"/>
-      <c r="JQ1" s="333"/>
-      <c r="JR1" s="334"/>
-      <c r="JS1" s="332" t="s">
+      <c r="JL1" s="335"/>
+      <c r="JM1" s="335"/>
+      <c r="JN1" s="335"/>
+      <c r="JO1" s="335"/>
+      <c r="JP1" s="335"/>
+      <c r="JQ1" s="335"/>
+      <c r="JR1" s="336"/>
+      <c r="JS1" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="JT1" s="333"/>
-      <c r="JU1" s="333"/>
-      <c r="JV1" s="333"/>
-      <c r="JW1" s="333"/>
-      <c r="JX1" s="333"/>
-      <c r="JY1" s="333"/>
-      <c r="JZ1" s="334"/>
-      <c r="KA1" s="332" t="s">
+      <c r="JT1" s="335"/>
+      <c r="JU1" s="335"/>
+      <c r="JV1" s="335"/>
+      <c r="JW1" s="335"/>
+      <c r="JX1" s="335"/>
+      <c r="JY1" s="335"/>
+      <c r="JZ1" s="336"/>
+      <c r="KA1" s="334" t="s">
         <v>224</v>
       </c>
-      <c r="KB1" s="333"/>
-      <c r="KC1" s="333"/>
-      <c r="KD1" s="333"/>
-      <c r="KE1" s="333"/>
-      <c r="KF1" s="333"/>
-      <c r="KG1" s="333"/>
-      <c r="KH1" s="334"/>
-      <c r="KI1" s="332" t="s">
+      <c r="KB1" s="335"/>
+      <c r="KC1" s="335"/>
+      <c r="KD1" s="335"/>
+      <c r="KE1" s="335"/>
+      <c r="KF1" s="335"/>
+      <c r="KG1" s="335"/>
+      <c r="KH1" s="336"/>
+      <c r="KI1" s="334" t="s">
         <v>54</v>
       </c>
-      <c r="KJ1" s="333"/>
-      <c r="KK1" s="333"/>
-      <c r="KL1" s="333"/>
-      <c r="KM1" s="333"/>
-      <c r="KN1" s="333"/>
-      <c r="KO1" s="333"/>
-      <c r="KP1" s="334"/>
-      <c r="KQ1" s="332" t="s">
+      <c r="KJ1" s="335"/>
+      <c r="KK1" s="335"/>
+      <c r="KL1" s="335"/>
+      <c r="KM1" s="335"/>
+      <c r="KN1" s="335"/>
+      <c r="KO1" s="335"/>
+      <c r="KP1" s="336"/>
+      <c r="KQ1" s="334" t="s">
         <v>55</v>
       </c>
-      <c r="KR1" s="333"/>
-      <c r="KS1" s="333"/>
-      <c r="KT1" s="333"/>
-      <c r="KU1" s="333"/>
-      <c r="KV1" s="333"/>
-      <c r="KW1" s="333"/>
-      <c r="KX1" s="334"/>
-      <c r="KY1" s="332" t="s">
+      <c r="KR1" s="335"/>
+      <c r="KS1" s="335"/>
+      <c r="KT1" s="335"/>
+      <c r="KU1" s="335"/>
+      <c r="KV1" s="335"/>
+      <c r="KW1" s="335"/>
+      <c r="KX1" s="336"/>
+      <c r="KY1" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="KZ1" s="333"/>
-      <c r="LA1" s="333"/>
-      <c r="LB1" s="333"/>
-      <c r="LC1" s="333"/>
-      <c r="LD1" s="333"/>
-      <c r="LE1" s="333"/>
-      <c r="LF1" s="334"/>
-      <c r="LG1" s="332" t="s">
+      <c r="KZ1" s="335"/>
+      <c r="LA1" s="335"/>
+      <c r="LB1" s="335"/>
+      <c r="LC1" s="335"/>
+      <c r="LD1" s="335"/>
+      <c r="LE1" s="335"/>
+      <c r="LF1" s="336"/>
+      <c r="LG1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="LH1" s="333"/>
-      <c r="LI1" s="333"/>
-      <c r="LJ1" s="333"/>
-      <c r="LK1" s="333"/>
-      <c r="LL1" s="333"/>
-      <c r="LM1" s="333"/>
-      <c r="LN1" s="334"/>
-      <c r="LO1" s="332" t="s">
+      <c r="LH1" s="335"/>
+      <c r="LI1" s="335"/>
+      <c r="LJ1" s="335"/>
+      <c r="LK1" s="335"/>
+      <c r="LL1" s="335"/>
+      <c r="LM1" s="335"/>
+      <c r="LN1" s="336"/>
+      <c r="LO1" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="LP1" s="333"/>
-      <c r="LQ1" s="333"/>
-      <c r="LR1" s="333"/>
-      <c r="LS1" s="333"/>
-      <c r="LT1" s="333"/>
-      <c r="LU1" s="333"/>
-      <c r="LV1" s="334"/>
-      <c r="LW1" s="332" t="s">
+      <c r="LP1" s="335"/>
+      <c r="LQ1" s="335"/>
+      <c r="LR1" s="335"/>
+      <c r="LS1" s="335"/>
+      <c r="LT1" s="335"/>
+      <c r="LU1" s="335"/>
+      <c r="LV1" s="336"/>
+      <c r="LW1" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="LX1" s="333"/>
-      <c r="LY1" s="333"/>
-      <c r="LZ1" s="333"/>
-      <c r="MA1" s="333"/>
-      <c r="MB1" s="333"/>
-      <c r="MC1" s="333"/>
-      <c r="MD1" s="334"/>
-      <c r="MF1" s="332" t="s">
+      <c r="LX1" s="335"/>
+      <c r="LY1" s="335"/>
+      <c r="LZ1" s="335"/>
+      <c r="MA1" s="335"/>
+      <c r="MB1" s="335"/>
+      <c r="MC1" s="335"/>
+      <c r="MD1" s="336"/>
+      <c r="MF1" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="MG1" s="333"/>
-      <c r="MH1" s="333"/>
-      <c r="MI1" s="333"/>
-      <c r="MJ1" s="333"/>
-      <c r="MK1" s="333"/>
-      <c r="ML1" s="333"/>
-      <c r="MM1" s="334"/>
-      <c r="MN1" s="332" t="s">
+      <c r="MG1" s="335"/>
+      <c r="MH1" s="335"/>
+      <c r="MI1" s="335"/>
+      <c r="MJ1" s="335"/>
+      <c r="MK1" s="335"/>
+      <c r="ML1" s="335"/>
+      <c r="MM1" s="336"/>
+      <c r="MN1" s="334" t="s">
         <v>233</v>
       </c>
-      <c r="MO1" s="333"/>
-      <c r="MP1" s="333"/>
-      <c r="MQ1" s="333"/>
-      <c r="MR1" s="333"/>
-      <c r="MS1" s="333"/>
-      <c r="MT1" s="333"/>
-      <c r="MU1" s="334"/>
-      <c r="MV1" s="332" t="s">
+      <c r="MO1" s="335"/>
+      <c r="MP1" s="335"/>
+      <c r="MQ1" s="335"/>
+      <c r="MR1" s="335"/>
+      <c r="MS1" s="335"/>
+      <c r="MT1" s="335"/>
+      <c r="MU1" s="336"/>
+      <c r="MV1" s="334" t="s">
         <v>120</v>
       </c>
-      <c r="MW1" s="333"/>
-      <c r="MX1" s="333"/>
-      <c r="MY1" s="333"/>
-      <c r="MZ1" s="333"/>
-      <c r="NA1" s="333"/>
-      <c r="NB1" s="333"/>
-      <c r="NC1" s="334"/>
-      <c r="ND1" s="332" t="s">
+      <c r="MW1" s="335"/>
+      <c r="MX1" s="335"/>
+      <c r="MY1" s="335"/>
+      <c r="MZ1" s="335"/>
+      <c r="NA1" s="335"/>
+      <c r="NB1" s="335"/>
+      <c r="NC1" s="336"/>
+      <c r="ND1" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="NE1" s="333"/>
-      <c r="NF1" s="333"/>
-      <c r="NG1" s="333"/>
-      <c r="NH1" s="333"/>
-      <c r="NI1" s="333"/>
-      <c r="NJ1" s="333"/>
-      <c r="NK1" s="334"/>
-      <c r="NL1" s="332" t="s">
+      <c r="NE1" s="335"/>
+      <c r="NF1" s="335"/>
+      <c r="NG1" s="335"/>
+      <c r="NH1" s="335"/>
+      <c r="NI1" s="335"/>
+      <c r="NJ1" s="335"/>
+      <c r="NK1" s="336"/>
+      <c r="NL1" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="NM1" s="333"/>
-      <c r="NN1" s="333"/>
-      <c r="NO1" s="333"/>
-      <c r="NP1" s="333"/>
-      <c r="NQ1" s="333"/>
-      <c r="NR1" s="333"/>
-      <c r="NS1" s="334"/>
-      <c r="NT1" s="332" t="s">
+      <c r="NM1" s="335"/>
+      <c r="NN1" s="335"/>
+      <c r="NO1" s="335"/>
+      <c r="NP1" s="335"/>
+      <c r="NQ1" s="335"/>
+      <c r="NR1" s="335"/>
+      <c r="NS1" s="336"/>
+      <c r="NT1" s="334" t="s">
         <v>235</v>
       </c>
-      <c r="NU1" s="333"/>
-      <c r="NV1" s="333"/>
-      <c r="NW1" s="333"/>
-      <c r="NX1" s="333"/>
-      <c r="NY1" s="333"/>
-      <c r="NZ1" s="333"/>
-      <c r="OA1" s="334"/>
-      <c r="OB1" s="332" t="s">
+      <c r="NU1" s="335"/>
+      <c r="NV1" s="335"/>
+      <c r="NW1" s="335"/>
+      <c r="NX1" s="335"/>
+      <c r="NY1" s="335"/>
+      <c r="NZ1" s="335"/>
+      <c r="OA1" s="336"/>
+      <c r="OB1" s="334" t="s">
         <v>55</v>
       </c>
-      <c r="OC1" s="333"/>
-      <c r="OD1" s="333"/>
-      <c r="OE1" s="333"/>
-      <c r="OF1" s="333"/>
-      <c r="OG1" s="333"/>
-      <c r="OH1" s="333"/>
-      <c r="OI1" s="334"/>
-      <c r="OJ1" s="332" t="s">
+      <c r="OC1" s="335"/>
+      <c r="OD1" s="335"/>
+      <c r="OE1" s="335"/>
+      <c r="OF1" s="335"/>
+      <c r="OG1" s="335"/>
+      <c r="OH1" s="335"/>
+      <c r="OI1" s="336"/>
+      <c r="OJ1" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="OK1" s="333"/>
-      <c r="OL1" s="333"/>
-      <c r="OM1" s="333"/>
-      <c r="ON1" s="333"/>
-      <c r="OO1" s="333"/>
-      <c r="OP1" s="333"/>
-      <c r="OQ1" s="334"/>
-      <c r="OR1" s="332" t="s">
+      <c r="OK1" s="335"/>
+      <c r="OL1" s="335"/>
+      <c r="OM1" s="335"/>
+      <c r="ON1" s="335"/>
+      <c r="OO1" s="335"/>
+      <c r="OP1" s="335"/>
+      <c r="OQ1" s="336"/>
+      <c r="OR1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="OS1" s="333"/>
-      <c r="OT1" s="333"/>
-      <c r="OU1" s="333"/>
-      <c r="OV1" s="333"/>
-      <c r="OW1" s="333"/>
-      <c r="OX1" s="333"/>
-      <c r="OY1" s="334"/>
-      <c r="OZ1" s="332" t="s">
+      <c r="OS1" s="335"/>
+      <c r="OT1" s="335"/>
+      <c r="OU1" s="335"/>
+      <c r="OV1" s="335"/>
+      <c r="OW1" s="335"/>
+      <c r="OX1" s="335"/>
+      <c r="OY1" s="336"/>
+      <c r="OZ1" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="PA1" s="333"/>
-      <c r="PB1" s="333"/>
-      <c r="PC1" s="333"/>
-      <c r="PD1" s="333"/>
-      <c r="PE1" s="333"/>
-      <c r="PF1" s="333"/>
-      <c r="PG1" s="334"/>
-      <c r="PH1" s="332" t="s">
+      <c r="PA1" s="335"/>
+      <c r="PB1" s="335"/>
+      <c r="PC1" s="335"/>
+      <c r="PD1" s="335"/>
+      <c r="PE1" s="335"/>
+      <c r="PF1" s="335"/>
+      <c r="PG1" s="336"/>
+      <c r="PH1" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="PI1" s="333"/>
-      <c r="PJ1" s="333"/>
-      <c r="PK1" s="333"/>
-      <c r="PL1" s="333"/>
-      <c r="PM1" s="333"/>
-      <c r="PN1" s="333"/>
-      <c r="PO1" s="334"/>
-      <c r="PP1" s="332" t="s">
+      <c r="PI1" s="335"/>
+      <c r="PJ1" s="335"/>
+      <c r="PK1" s="335"/>
+      <c r="PL1" s="335"/>
+      <c r="PM1" s="335"/>
+      <c r="PN1" s="335"/>
+      <c r="PO1" s="336"/>
+      <c r="PP1" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="PQ1" s="333"/>
-      <c r="PR1" s="333"/>
-      <c r="PS1" s="333"/>
-      <c r="PT1" s="333"/>
-      <c r="PU1" s="333"/>
-      <c r="PV1" s="333"/>
-      <c r="PW1" s="334"/>
-      <c r="PY1" s="332" t="s">
+      <c r="PQ1" s="335"/>
+      <c r="PR1" s="335"/>
+      <c r="PS1" s="335"/>
+      <c r="PT1" s="335"/>
+      <c r="PU1" s="335"/>
+      <c r="PV1" s="335"/>
+      <c r="PW1" s="336"/>
+      <c r="PY1" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="PZ1" s="333"/>
-      <c r="QA1" s="333"/>
-      <c r="QB1" s="333"/>
-      <c r="QC1" s="333"/>
-      <c r="QD1" s="333"/>
-      <c r="QE1" s="333"/>
-      <c r="QF1" s="334"/>
-      <c r="QG1" s="332" t="s">
+      <c r="PZ1" s="335"/>
+      <c r="QA1" s="335"/>
+      <c r="QB1" s="335"/>
+      <c r="QC1" s="335"/>
+      <c r="QD1" s="335"/>
+      <c r="QE1" s="335"/>
+      <c r="QF1" s="336"/>
+      <c r="QG1" s="334" t="s">
         <v>174</v>
       </c>
-      <c r="QH1" s="333"/>
-      <c r="QI1" s="333"/>
-      <c r="QJ1" s="333"/>
-      <c r="QK1" s="333"/>
-      <c r="QL1" s="333"/>
-      <c r="QM1" s="333"/>
-      <c r="QN1" s="334"/>
-      <c r="QP1" s="332" t="s">
+      <c r="QH1" s="335"/>
+      <c r="QI1" s="335"/>
+      <c r="QJ1" s="335"/>
+      <c r="QK1" s="335"/>
+      <c r="QL1" s="335"/>
+      <c r="QM1" s="335"/>
+      <c r="QN1" s="336"/>
+      <c r="QP1" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="QQ1" s="333"/>
-      <c r="QR1" s="333"/>
-      <c r="QS1" s="333"/>
-      <c r="QT1" s="333"/>
-      <c r="QU1" s="333"/>
-      <c r="QV1" s="333"/>
-      <c r="QW1" s="334"/>
-      <c r="QX1" s="335">
+      <c r="QQ1" s="335"/>
+      <c r="QR1" s="335"/>
+      <c r="QS1" s="335"/>
+      <c r="QT1" s="335"/>
+      <c r="QU1" s="335"/>
+      <c r="QV1" s="335"/>
+      <c r="QW1" s="336"/>
+      <c r="QX1" s="337">
         <v>44682</v>
       </c>
-      <c r="QY1" s="333"/>
-      <c r="QZ1" s="333"/>
-      <c r="RA1" s="333"/>
-      <c r="RB1" s="333"/>
-      <c r="RC1" s="333"/>
-      <c r="RD1" s="333"/>
-      <c r="RE1" s="334"/>
-      <c r="RG1" s="335">
+      <c r="QY1" s="335"/>
+      <c r="QZ1" s="335"/>
+      <c r="RA1" s="335"/>
+      <c r="RB1" s="335"/>
+      <c r="RC1" s="335"/>
+      <c r="RD1" s="335"/>
+      <c r="RE1" s="336"/>
+      <c r="RG1" s="337">
         <v>44713</v>
       </c>
-      <c r="RH1" s="333"/>
-      <c r="RI1" s="333"/>
-      <c r="RJ1" s="333"/>
-      <c r="RK1" s="333"/>
-      <c r="RL1" s="333"/>
-      <c r="RM1" s="333"/>
-      <c r="RN1" s="334"/>
-      <c r="RP1" s="335">
+      <c r="RH1" s="335"/>
+      <c r="RI1" s="335"/>
+      <c r="RJ1" s="335"/>
+      <c r="RK1" s="335"/>
+      <c r="RL1" s="335"/>
+      <c r="RM1" s="335"/>
+      <c r="RN1" s="336"/>
+      <c r="RP1" s="337">
         <v>44743</v>
       </c>
-      <c r="RQ1" s="333"/>
-      <c r="RR1" s="333"/>
-      <c r="RS1" s="333"/>
-      <c r="RT1" s="333"/>
-      <c r="RU1" s="333"/>
-      <c r="RV1" s="333"/>
-      <c r="RW1" s="334"/>
-      <c r="RY1" s="335">
+      <c r="RQ1" s="335"/>
+      <c r="RR1" s="335"/>
+      <c r="RS1" s="335"/>
+      <c r="RT1" s="335"/>
+      <c r="RU1" s="335"/>
+      <c r="RV1" s="335"/>
+      <c r="RW1" s="336"/>
+      <c r="RY1" s="337">
         <v>44774</v>
       </c>
-      <c r="RZ1" s="333"/>
-      <c r="SA1" s="333"/>
-      <c r="SB1" s="333"/>
-      <c r="SC1" s="333"/>
-      <c r="SD1" s="333"/>
-      <c r="SE1" s="333"/>
-      <c r="SF1" s="334"/>
-      <c r="SH1" s="335">
+      <c r="RZ1" s="335"/>
+      <c r="SA1" s="335"/>
+      <c r="SB1" s="335"/>
+      <c r="SC1" s="335"/>
+      <c r="SD1" s="335"/>
+      <c r="SE1" s="335"/>
+      <c r="SF1" s="336"/>
+      <c r="SH1" s="337">
         <v>44805</v>
       </c>
-      <c r="SI1" s="333"/>
-      <c r="SJ1" s="333"/>
-      <c r="SK1" s="333"/>
-      <c r="SL1" s="333"/>
-      <c r="SM1" s="333"/>
-      <c r="SN1" s="333"/>
-      <c r="SO1" s="334"/>
-      <c r="SQ1" s="335">
+      <c r="SI1" s="335"/>
+      <c r="SJ1" s="335"/>
+      <c r="SK1" s="335"/>
+      <c r="SL1" s="335"/>
+      <c r="SM1" s="335"/>
+      <c r="SN1" s="335"/>
+      <c r="SO1" s="336"/>
+      <c r="SQ1" s="337">
         <v>44835</v>
       </c>
-      <c r="SR1" s="333"/>
-      <c r="SS1" s="333"/>
-      <c r="ST1" s="333"/>
-      <c r="SU1" s="333"/>
-      <c r="SV1" s="333"/>
-      <c r="SW1" s="333"/>
-      <c r="SX1" s="334"/>
-      <c r="SZ1" s="335">
+      <c r="SR1" s="335"/>
+      <c r="SS1" s="335"/>
+      <c r="ST1" s="335"/>
+      <c r="SU1" s="335"/>
+      <c r="SV1" s="335"/>
+      <c r="SW1" s="335"/>
+      <c r="SX1" s="336"/>
+      <c r="SZ1" s="337">
         <v>44866</v>
       </c>
-      <c r="TA1" s="333"/>
-      <c r="TB1" s="333"/>
-      <c r="TC1" s="333"/>
-      <c r="TD1" s="333"/>
-      <c r="TE1" s="333"/>
-      <c r="TF1" s="333"/>
-      <c r="TG1" s="334"/>
-      <c r="TI1" s="335">
+      <c r="TA1" s="335"/>
+      <c r="TB1" s="335"/>
+      <c r="TC1" s="335"/>
+      <c r="TD1" s="335"/>
+      <c r="TE1" s="335"/>
+      <c r="TF1" s="335"/>
+      <c r="TG1" s="336"/>
+      <c r="TI1" s="337">
         <v>44896</v>
       </c>
-      <c r="TJ1" s="333"/>
-      <c r="TK1" s="333"/>
-      <c r="TL1" s="333"/>
-      <c r="TM1" s="333"/>
-      <c r="TN1" s="333"/>
-      <c r="TO1" s="333"/>
-      <c r="TP1" s="334"/>
-      <c r="TR1" s="335">
+      <c r="TJ1" s="335"/>
+      <c r="TK1" s="335"/>
+      <c r="TL1" s="335"/>
+      <c r="TM1" s="335"/>
+      <c r="TN1" s="335"/>
+      <c r="TO1" s="335"/>
+      <c r="TP1" s="336"/>
+      <c r="TR1" s="337">
         <v>44927</v>
       </c>
-      <c r="TS1" s="333"/>
-      <c r="TT1" s="333"/>
-      <c r="TU1" s="333"/>
-      <c r="TV1" s="333"/>
-      <c r="TW1" s="333"/>
-      <c r="TX1" s="333"/>
-      <c r="TY1" s="334"/>
-      <c r="UA1" s="335">
+      <c r="TS1" s="335"/>
+      <c r="TT1" s="335"/>
+      <c r="TU1" s="335"/>
+      <c r="TV1" s="335"/>
+      <c r="TW1" s="335"/>
+      <c r="TX1" s="335"/>
+      <c r="TY1" s="336"/>
+      <c r="UA1" s="337">
         <v>44958</v>
       </c>
-      <c r="UB1" s="333"/>
-      <c r="UC1" s="333"/>
-      <c r="UD1" s="333"/>
-      <c r="UE1" s="333"/>
-      <c r="UF1" s="333"/>
-      <c r="UG1" s="333"/>
-      <c r="UH1" s="334"/>
-      <c r="UJ1" s="335">
+      <c r="UB1" s="335"/>
+      <c r="UC1" s="335"/>
+      <c r="UD1" s="335"/>
+      <c r="UE1" s="335"/>
+      <c r="UF1" s="335"/>
+      <c r="UG1" s="335"/>
+      <c r="UH1" s="336"/>
+      <c r="UJ1" s="337">
         <v>44986</v>
       </c>
-      <c r="UK1" s="333"/>
-      <c r="UL1" s="333"/>
-      <c r="UM1" s="333"/>
-      <c r="UN1" s="333"/>
-      <c r="UO1" s="333"/>
-      <c r="UP1" s="333"/>
-      <c r="UQ1" s="334"/>
-      <c r="US1" s="335">
+      <c r="UK1" s="335"/>
+      <c r="UL1" s="335"/>
+      <c r="UM1" s="335"/>
+      <c r="UN1" s="335"/>
+      <c r="UO1" s="335"/>
+      <c r="UP1" s="335"/>
+      <c r="UQ1" s="336"/>
+      <c r="US1" s="337">
         <v>45017</v>
       </c>
-      <c r="UT1" s="333"/>
-      <c r="UU1" s="333"/>
-      <c r="UV1" s="333"/>
-      <c r="UW1" s="333"/>
-      <c r="UX1" s="333"/>
-      <c r="UY1" s="333"/>
-      <c r="UZ1" s="334"/>
-      <c r="VB1" s="335">
+      <c r="UT1" s="335"/>
+      <c r="UU1" s="335"/>
+      <c r="UV1" s="335"/>
+      <c r="UW1" s="335"/>
+      <c r="UX1" s="335"/>
+      <c r="UY1" s="335"/>
+      <c r="UZ1" s="336"/>
+      <c r="VB1" s="337">
         <v>45047</v>
       </c>
-      <c r="VC1" s="333"/>
-      <c r="VD1" s="333"/>
-      <c r="VE1" s="333"/>
-      <c r="VF1" s="333"/>
-      <c r="VG1" s="333"/>
-      <c r="VH1" s="333"/>
-      <c r="VI1" s="334"/>
-      <c r="VK1" s="335">
+      <c r="VC1" s="335"/>
+      <c r="VD1" s="335"/>
+      <c r="VE1" s="335"/>
+      <c r="VF1" s="335"/>
+      <c r="VG1" s="335"/>
+      <c r="VH1" s="335"/>
+      <c r="VI1" s="336"/>
+      <c r="VK1" s="337">
         <v>45078</v>
       </c>
-      <c r="VL1" s="333"/>
-      <c r="VM1" s="333"/>
-      <c r="VN1" s="333"/>
-      <c r="VO1" s="333"/>
-      <c r="VP1" s="333"/>
-      <c r="VQ1" s="333"/>
-      <c r="VR1" s="334"/>
-      <c r="VT1" s="335">
+      <c r="VL1" s="335"/>
+      <c r="VM1" s="335"/>
+      <c r="VN1" s="335"/>
+      <c r="VO1" s="335"/>
+      <c r="VP1" s="335"/>
+      <c r="VQ1" s="335"/>
+      <c r="VR1" s="336"/>
+      <c r="VT1" s="337">
         <v>45108</v>
       </c>
-      <c r="VU1" s="333"/>
-      <c r="VV1" s="333"/>
-      <c r="VW1" s="333"/>
-      <c r="VX1" s="333"/>
-      <c r="VY1" s="333"/>
-      <c r="VZ1" s="333"/>
-      <c r="WA1" s="334"/>
-      <c r="WC1" s="335">
+      <c r="VU1" s="335"/>
+      <c r="VV1" s="335"/>
+      <c r="VW1" s="335"/>
+      <c r="VX1" s="335"/>
+      <c r="VY1" s="335"/>
+      <c r="VZ1" s="335"/>
+      <c r="WA1" s="336"/>
+      <c r="WC1" s="337">
         <v>45139</v>
       </c>
-      <c r="WD1" s="333"/>
-      <c r="WE1" s="333"/>
-      <c r="WF1" s="333"/>
-      <c r="WG1" s="333"/>
-      <c r="WH1" s="333"/>
-      <c r="WI1" s="333"/>
-      <c r="WJ1" s="334"/>
-      <c r="WL1" s="335">
+      <c r="WD1" s="335"/>
+      <c r="WE1" s="335"/>
+      <c r="WF1" s="335"/>
+      <c r="WG1" s="335"/>
+      <c r="WH1" s="335"/>
+      <c r="WI1" s="335"/>
+      <c r="WJ1" s="336"/>
+      <c r="WL1" s="337">
         <v>45170</v>
       </c>
-      <c r="WM1" s="333"/>
-      <c r="WN1" s="333"/>
-      <c r="WO1" s="333"/>
-      <c r="WP1" s="333"/>
-      <c r="WQ1" s="333"/>
-      <c r="WR1" s="333"/>
-      <c r="WS1" s="334"/>
-      <c r="WU1" s="335">
+      <c r="WM1" s="335"/>
+      <c r="WN1" s="335"/>
+      <c r="WO1" s="335"/>
+      <c r="WP1" s="335"/>
+      <c r="WQ1" s="335"/>
+      <c r="WR1" s="335"/>
+      <c r="WS1" s="336"/>
+      <c r="WU1" s="337">
         <v>45200</v>
       </c>
-      <c r="WV1" s="333"/>
-      <c r="WW1" s="333"/>
-      <c r="WX1" s="333"/>
-      <c r="WY1" s="333"/>
-      <c r="WZ1" s="333"/>
-      <c r="XA1" s="333"/>
-      <c r="XB1" s="334"/>
-      <c r="XD1" s="335">
+      <c r="WV1" s="335"/>
+      <c r="WW1" s="335"/>
+      <c r="WX1" s="335"/>
+      <c r="WY1" s="335"/>
+      <c r="WZ1" s="335"/>
+      <c r="XA1" s="335"/>
+      <c r="XB1" s="336"/>
+      <c r="XD1" s="337">
         <v>45231</v>
       </c>
-      <c r="XE1" s="333"/>
-      <c r="XF1" s="333"/>
-      <c r="XG1" s="333"/>
-      <c r="XH1" s="333"/>
-      <c r="XI1" s="333"/>
-      <c r="XJ1" s="333"/>
-      <c r="XK1" s="334"/>
-      <c r="XM1" s="335">
+      <c r="XE1" s="335"/>
+      <c r="XF1" s="335"/>
+      <c r="XG1" s="335"/>
+      <c r="XH1" s="335"/>
+      <c r="XI1" s="335"/>
+      <c r="XJ1" s="335"/>
+      <c r="XK1" s="336"/>
+      <c r="XM1" s="337">
         <v>45261</v>
       </c>
-      <c r="XN1" s="333"/>
-      <c r="XO1" s="333"/>
-      <c r="XP1" s="333"/>
-      <c r="XQ1" s="333"/>
-      <c r="XR1" s="333"/>
-      <c r="XS1" s="333"/>
-      <c r="XT1" s="334"/>
-      <c r="XV1" s="335">
+      <c r="XN1" s="335"/>
+      <c r="XO1" s="335"/>
+      <c r="XP1" s="335"/>
+      <c r="XQ1" s="335"/>
+      <c r="XR1" s="335"/>
+      <c r="XS1" s="335"/>
+      <c r="XT1" s="336"/>
+      <c r="XV1" s="337">
         <v>45292</v>
       </c>
-      <c r="XW1" s="333"/>
-      <c r="XX1" s="333"/>
-      <c r="XY1" s="333"/>
-      <c r="XZ1" s="333"/>
-      <c r="YA1" s="333"/>
-      <c r="YB1" s="333"/>
-      <c r="YC1" s="334"/>
-      <c r="YE1" s="335">
+      <c r="XW1" s="335"/>
+      <c r="XX1" s="335"/>
+      <c r="XY1" s="335"/>
+      <c r="XZ1" s="335"/>
+      <c r="YA1" s="335"/>
+      <c r="YB1" s="335"/>
+      <c r="YC1" s="336"/>
+      <c r="YE1" s="337">
         <v>45323</v>
       </c>
-      <c r="YF1" s="333"/>
-      <c r="YG1" s="333"/>
-      <c r="YH1" s="333"/>
-      <c r="YI1" s="333"/>
-      <c r="YJ1" s="333"/>
-      <c r="YK1" s="333"/>
-      <c r="YL1" s="334"/>
-      <c r="YN1" s="335">
+      <c r="YF1" s="335"/>
+      <c r="YG1" s="335"/>
+      <c r="YH1" s="335"/>
+      <c r="YI1" s="335"/>
+      <c r="YJ1" s="335"/>
+      <c r="YK1" s="335"/>
+      <c r="YL1" s="336"/>
+      <c r="YN1" s="337">
         <v>45352</v>
       </c>
-      <c r="YO1" s="333"/>
-      <c r="YP1" s="333"/>
-      <c r="YQ1" s="333"/>
-      <c r="YR1" s="333"/>
-      <c r="YS1" s="333"/>
-      <c r="YT1" s="333"/>
-      <c r="YU1" s="334"/>
-      <c r="YW1" s="335">
+      <c r="YO1" s="335"/>
+      <c r="YP1" s="335"/>
+      <c r="YQ1" s="335"/>
+      <c r="YR1" s="335"/>
+      <c r="YS1" s="335"/>
+      <c r="YT1" s="335"/>
+      <c r="YU1" s="336"/>
+      <c r="YW1" s="337">
         <v>45383</v>
       </c>
-      <c r="YX1" s="333"/>
-      <c r="YY1" s="333"/>
-      <c r="YZ1" s="333"/>
-      <c r="ZA1" s="333"/>
-      <c r="ZB1" s="333"/>
-      <c r="ZC1" s="333"/>
-      <c r="ZD1" s="334"/>
-      <c r="ZF1" s="335">
+      <c r="YX1" s="335"/>
+      <c r="YY1" s="335"/>
+      <c r="YZ1" s="335"/>
+      <c r="ZA1" s="335"/>
+      <c r="ZB1" s="335"/>
+      <c r="ZC1" s="335"/>
+      <c r="ZD1" s="336"/>
+      <c r="ZF1" s="337">
         <v>45413</v>
       </c>
-      <c r="ZG1" s="333"/>
-      <c r="ZH1" s="333"/>
-      <c r="ZI1" s="333"/>
-      <c r="ZJ1" s="333"/>
-      <c r="ZK1" s="333"/>
-      <c r="ZL1" s="333"/>
-      <c r="ZM1" s="334"/>
-      <c r="ZP1" s="335">
+      <c r="ZG1" s="335"/>
+      <c r="ZH1" s="335"/>
+      <c r="ZI1" s="335"/>
+      <c r="ZJ1" s="335"/>
+      <c r="ZK1" s="335"/>
+      <c r="ZL1" s="335"/>
+      <c r="ZM1" s="336"/>
+      <c r="ZP1" s="337">
         <v>45444</v>
       </c>
-      <c r="ZQ1" s="333"/>
-      <c r="ZR1" s="333"/>
-      <c r="ZS1" s="333"/>
-      <c r="ZT1" s="333"/>
-      <c r="ZU1" s="333"/>
-      <c r="ZV1" s="333"/>
-      <c r="ZW1" s="334"/>
-      <c r="ZY1" s="335">
+      <c r="ZQ1" s="335"/>
+      <c r="ZR1" s="335"/>
+      <c r="ZS1" s="335"/>
+      <c r="ZT1" s="335"/>
+      <c r="ZU1" s="335"/>
+      <c r="ZV1" s="335"/>
+      <c r="ZW1" s="336"/>
+      <c r="ZY1" s="337">
         <v>45474</v>
       </c>
-      <c r="ZZ1" s="333"/>
-      <c r="AAA1" s="333"/>
-      <c r="AAB1" s="333"/>
-      <c r="AAC1" s="333"/>
-      <c r="AAD1" s="333"/>
-      <c r="AAE1" s="333"/>
-      <c r="AAF1" s="334"/>
-      <c r="AAH1" s="335">
+      <c r="ZZ1" s="335"/>
+      <c r="AAA1" s="335"/>
+      <c r="AAB1" s="335"/>
+      <c r="AAC1" s="335"/>
+      <c r="AAD1" s="335"/>
+      <c r="AAE1" s="335"/>
+      <c r="AAF1" s="336"/>
+      <c r="AAH1" s="337">
         <v>45505</v>
       </c>
-      <c r="AAI1" s="333"/>
-      <c r="AAJ1" s="333"/>
-      <c r="AAK1" s="333"/>
-      <c r="AAL1" s="333"/>
-      <c r="AAM1" s="333"/>
-      <c r="AAN1" s="333"/>
-      <c r="AAO1" s="334"/>
-      <c r="AAQ1" s="335">
+      <c r="AAI1" s="335"/>
+      <c r="AAJ1" s="335"/>
+      <c r="AAK1" s="335"/>
+      <c r="AAL1" s="335"/>
+      <c r="AAM1" s="335"/>
+      <c r="AAN1" s="335"/>
+      <c r="AAO1" s="336"/>
+      <c r="AAQ1" s="337">
         <v>45536</v>
       </c>
-      <c r="AAR1" s="333"/>
-      <c r="AAS1" s="333"/>
-      <c r="AAT1" s="333"/>
-      <c r="AAU1" s="333"/>
-      <c r="AAV1" s="333"/>
-      <c r="AAW1" s="333"/>
-      <c r="AAX1" s="334"/>
-    </row>
-    <row r="2" spans="2:726" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAR1" s="335"/>
+      <c r="AAS1" s="335"/>
+      <c r="AAT1" s="335"/>
+      <c r="AAU1" s="335"/>
+      <c r="AAV1" s="335"/>
+      <c r="AAW1" s="335"/>
+      <c r="AAX1" s="336"/>
+      <c r="AAZ1" s="337">
+        <v>45566</v>
+      </c>
+      <c r="ABA1" s="335"/>
+      <c r="ABB1" s="335"/>
+      <c r="ABC1" s="335"/>
+      <c r="ABD1" s="335"/>
+      <c r="ABE1" s="335"/>
+      <c r="ABF1" s="335"/>
+      <c r="ABG1" s="336"/>
+      <c r="ABI1" s="337">
+        <v>45597</v>
+      </c>
+      <c r="ABJ1" s="335"/>
+      <c r="ABK1" s="335"/>
+      <c r="ABL1" s="335"/>
+      <c r="ABM1" s="335"/>
+      <c r="ABN1" s="335"/>
+      <c r="ABO1" s="335"/>
+      <c r="ABP1" s="336"/>
+    </row>
+    <row r="2" spans="2:745" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24663,8 +24779,56 @@
       <c r="AAX2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:726" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAZ2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ABA2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ABB2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ABC2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ABD2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ABE2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ABF2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ABG2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="ABI2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ABJ2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ABK2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ABL2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ABM2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ABN2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ABO2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ABP2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:745" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -26909,8 +27073,60 @@
         <f>AAW3</f>
         <v>501.88799999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ3" s="279">
+        <v>1042</v>
+      </c>
+      <c r="ABA3" s="279">
+        <v>1028</v>
+      </c>
+      <c r="ABB3" s="135">
+        <f>AAZ3-ABA3</f>
+        <v>14</v>
+      </c>
+      <c r="ABC3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABD3" s="136">
+        <f>ABB3*ABC3</f>
+        <v>439.15199999999999</v>
+      </c>
+      <c r="ABE3" s="137"/>
+      <c r="ABF3" s="315">
+        <f>ABD3+ABD4</f>
+        <v>564.62400000000002</v>
+      </c>
+      <c r="ABG3" s="322">
+        <f>ABF3</f>
+        <v>564.62400000000002</v>
+      </c>
+      <c r="ABI3" s="279">
+        <v>1052</v>
+      </c>
+      <c r="ABJ3" s="279">
+        <v>1042</v>
+      </c>
+      <c r="ABK3" s="135">
+        <f>ABI3-ABJ3</f>
+        <v>10</v>
+      </c>
+      <c r="ABL3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABM3" s="136">
+        <f>ABK3*ABL3</f>
+        <v>313.68</v>
+      </c>
+      <c r="ABN3" s="137"/>
+      <c r="ABO3" s="315">
+        <f>ABM3+ABM4</f>
+        <v>470.52</v>
+      </c>
+      <c r="ABP3" s="322">
+        <f>ABO3</f>
+        <v>470.52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -28979,8 +29195,56 @@
       <c r="AAX4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:726" ht="30" x14ac:dyDescent="0.25">
+      <c r="AAZ4" s="280">
+        <v>554</v>
+      </c>
+      <c r="ABA4" s="280">
+        <v>550</v>
+      </c>
+      <c r="ABB4" s="46">
+        <f>AAZ4-ABA4</f>
+        <v>4</v>
+      </c>
+      <c r="ABC4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABD4" s="48">
+        <f>ABB4*ABC4</f>
+        <v>125.47199999999999</v>
+      </c>
+      <c r="ABE4" s="49"/>
+      <c r="ABF4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ABG4" s="323">
+        <v>20</v>
+      </c>
+      <c r="ABI4" s="280">
+        <v>559</v>
+      </c>
+      <c r="ABJ4" s="280">
+        <v>554</v>
+      </c>
+      <c r="ABK4" s="46">
+        <f>ABI4-ABJ4</f>
+        <v>5</v>
+      </c>
+      <c r="ABL4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABM4" s="48">
+        <f>ABK4*ABL4</f>
+        <v>156.84</v>
+      </c>
+      <c r="ABN4" s="49"/>
+      <c r="ABO4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ABP4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:745" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -30516,8 +30780,46 @@
         <f>AAW5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ5" s="281"/>
+      <c r="ABA5" s="281"/>
+      <c r="ABB5" s="46">
+        <f t="shared" ref="ABB5" si="152">AAZ5-ABA5</f>
+        <v>0</v>
+      </c>
+      <c r="ABC5" s="74"/>
+      <c r="ABD5" s="48">
+        <f t="shared" ref="ABD5" si="153">ABB5*ABC5</f>
+        <v>0</v>
+      </c>
+      <c r="ABE5" s="179"/>
+      <c r="ABF5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABG5" s="319">
+        <f>ABF5</f>
+        <v>0</v>
+      </c>
+      <c r="ABI5" s="281"/>
+      <c r="ABJ5" s="281"/>
+      <c r="ABK5" s="46">
+        <f t="shared" ref="ABK5" si="154">ABI5-ABJ5</f>
+        <v>0</v>
+      </c>
+      <c r="ABL5" s="74"/>
+      <c r="ABM5" s="48">
+        <f t="shared" ref="ABM5" si="155">ABK5*ABL5</f>
+        <v>0</v>
+      </c>
+      <c r="ABN5" s="179"/>
+      <c r="ABO5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABP5" s="319">
+        <f>ABO5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31331,8 +31633,32 @@
       <c r="AAX6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ6" s="281"/>
+      <c r="ABA6" s="281"/>
+      <c r="ABB6" s="46"/>
+      <c r="ABC6" s="74"/>
+      <c r="ABD6" s="48"/>
+      <c r="ABE6" s="179"/>
+      <c r="ABF6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABG6" s="323">
+        <v>8.34</v>
+      </c>
+      <c r="ABI6" s="281"/>
+      <c r="ABJ6" s="281"/>
+      <c r="ABK6" s="46"/>
+      <c r="ABL6" s="74"/>
+      <c r="ABM6" s="48"/>
+      <c r="ABN6" s="179"/>
+      <c r="ABO6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABP6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -31454,7 +31780,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="152">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="156">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -31476,7 +31802,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="153">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="157">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -31498,7 +31824,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="154">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="158">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -32369,7 +32695,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="155">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="159">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -32383,7 +32709,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="156">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="160">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -32397,7 +32723,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="157">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="161">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -32411,7 +32737,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="158">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="162">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -32425,7 +32751,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="159">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="163">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -32439,7 +32765,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="160">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="164">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -32453,7 +32779,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="161">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="165">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -32467,7 +32793,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="162">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="166">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -32481,7 +32807,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="163">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="167">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -32495,7 +32821,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="164">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="168">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -32509,7 +32835,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="165">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="169">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -32523,7 +32849,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="166">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="170">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -32537,7 +32863,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="167">US7-UT7</f>
+        <f t="shared" ref="UU7" si="171">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -32551,7 +32877,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="168">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="172">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -32565,7 +32891,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="169">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="173">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -32579,7 +32905,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="170">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="174">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -32593,7 +32919,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="171">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="175">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -32607,7 +32933,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="172">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="176">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -32621,7 +32947,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="173">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="177">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -32635,7 +32961,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="174">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="178">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -32649,7 +32975,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="175">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="179">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -32663,7 +32989,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="176">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="180">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -32677,7 +33003,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="177">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="181">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -32691,7 +33017,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="178">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="182">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -32705,7 +33031,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="179">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="183">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -32719,7 +33045,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="180">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="184">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -32733,7 +33059,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="181">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="185">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -32747,7 +33073,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="182">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="186">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -32761,7 +33087,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="183">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="187">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -32775,7 +33101,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="184">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="188">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -32786,8 +33112,36 @@
         <v>0</v>
       </c>
       <c r="AAX7" s="75"/>
-    </row>
-    <row r="8" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ7" s="278"/>
+      <c r="ABA7" s="278"/>
+      <c r="ABB7" s="46">
+        <f t="shared" ref="ABB7" si="189">AAZ7-ABA7</f>
+        <v>0</v>
+      </c>
+      <c r="ABC7" s="48"/>
+      <c r="ABD7" s="311"/>
+      <c r="ABE7" s="312"/>
+      <c r="ABF7" s="306">
+        <f>ABE7</f>
+        <v>0</v>
+      </c>
+      <c r="ABG7" s="75"/>
+      <c r="ABI7" s="278"/>
+      <c r="ABJ7" s="278"/>
+      <c r="ABK7" s="46">
+        <f t="shared" ref="ABK7" si="190">ABI7-ABJ7</f>
+        <v>0</v>
+      </c>
+      <c r="ABL7" s="48"/>
+      <c r="ABM7" s="311"/>
+      <c r="ABN7" s="312"/>
+      <c r="ABO7" s="306">
+        <f>ABN7</f>
+        <v>0</v>
+      </c>
+      <c r="ABP7" s="75"/>
+    </row>
+    <row r="8" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -33634,8 +33988,32 @@
       <c r="AAX8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ8" s="278"/>
+      <c r="ABA8" s="278"/>
+      <c r="ABB8" s="46"/>
+      <c r="ABC8" s="48"/>
+      <c r="ABD8" s="311"/>
+      <c r="ABE8" s="312"/>
+      <c r="ABF8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ABG8" s="323">
+        <v>451.5</v>
+      </c>
+      <c r="ABI8" s="278"/>
+      <c r="ABJ8" s="278"/>
+      <c r="ABK8" s="46"/>
+      <c r="ABL8" s="48"/>
+      <c r="ABM8" s="311"/>
+      <c r="ABN8" s="312"/>
+      <c r="ABO8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ABP8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -33780,7 +34158,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -33807,7 +34185,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -33834,7 +34212,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -34227,7 +34605,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="185">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="191">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -34251,7 +34629,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="186">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="192">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -34273,7 +34651,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="187">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="193">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -34300,7 +34678,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="188">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="194">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -34327,7 +34705,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="189">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="195">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -34351,7 +34729,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="190">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="196">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -34379,7 +34757,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="191">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="197">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -34407,7 +34785,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="192">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="198">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -34435,7 +34813,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="193">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="199">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -34463,7 +34841,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="194">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="200">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -34491,7 +34869,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="195">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="201">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -34519,7 +34897,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="196">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="202">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -34547,7 +34925,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="197">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="203">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -34575,7 +34953,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="198">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="204">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -34603,7 +34981,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="199">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="205">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -34631,7 +35009,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="200">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="206">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -34659,7 +35037,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="201">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="207">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -34686,7 +35064,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="202">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="208">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -34714,7 +35092,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="203">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="209">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -34742,7 +35120,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="204">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="210">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -34771,7 +35149,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="205">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="211">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -34800,7 +35178,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="206">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="212">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -34829,7 +35207,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="207">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="213">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -34858,7 +35236,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="208">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="214">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -34887,7 +35265,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="209">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="215">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -34916,7 +35294,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="210">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="216">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -34945,7 +35323,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="211">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="217">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -34974,7 +35352,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="212">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="218">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -35002,7 +35380,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="213">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="219">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -35030,7 +35408,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="214">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="220">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -35086,7 +35464,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="215">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="221">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -35118,7 +35496,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="216">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="222">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -35145,7 +35523,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="217">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="223">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -35172,7 +35550,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="218">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="224">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -35199,7 +35577,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="219">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="225">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -35226,7 +35604,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="220">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="226">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -35253,7 +35631,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="221">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="227">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -35278,7 +35656,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="222">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="228">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -35303,7 +35681,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="223">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="229">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -35328,7 +35706,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="224">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="230">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -35353,7 +35731,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="225">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="231">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -35378,7 +35756,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="226">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="232">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -35403,7 +35781,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="227">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="233">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -35428,7 +35806,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="228">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="234">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -35453,7 +35831,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="229">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="235">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -35478,7 +35856,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="230">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="236">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -35503,7 +35881,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="231">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="237">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -35528,7 +35906,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="232">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="238">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -35553,7 +35931,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="233">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="239">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -35578,7 +35956,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="234">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="240">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -35603,7 +35981,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="235">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="241">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -35628,7 +36006,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="236">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="242">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -35653,7 +36031,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="237">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="243">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -35678,7 +36056,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="238">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="244">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -35703,7 +36081,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="239">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="245">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -35728,7 +36106,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="240">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="246">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -35753,7 +36131,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="241">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="247">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -35778,7 +36156,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="242">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="248">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -35803,7 +36181,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="243">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="249">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -35897,7 +36275,7 @@
         <f>AAL11</f>
         <v>543.56000000000006</v>
       </c>
-      <c r="AAO9" s="342">
+      <c r="AAO9" s="328">
         <f>AAL9</f>
         <v>1110.24</v>
       </c>
@@ -35923,12 +36301,68 @@
         <f>AAU11</f>
         <v>0</v>
       </c>
-      <c r="AAX9" s="342">
+      <c r="AAX9" s="328">
         <f>AAU9</f>
         <v>1200.96</v>
       </c>
-    </row>
-    <row r="10" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ9" s="280">
+        <v>55050</v>
+      </c>
+      <c r="ABA9" s="280">
+        <v>54585</v>
+      </c>
+      <c r="ABB9" s="46">
+        <f>AAZ9-ABA9</f>
+        <v>465</v>
+      </c>
+      <c r="ABC9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ABD9" s="326">
+        <f>ABB9*ABC9</f>
+        <v>2008.8000000000002</v>
+      </c>
+      <c r="ABE9" s="98"/>
+      <c r="ABF9" s="306">
+        <f>ABD11</f>
+        <v>0</v>
+      </c>
+      <c r="ABG9" s="328">
+        <f>ABD9</f>
+        <v>2008.8000000000002</v>
+      </c>
+      <c r="ABH9" s="329">
+        <v>1357.24</v>
+      </c>
+      <c r="ABI9" s="280">
+        <v>55490</v>
+      </c>
+      <c r="ABJ9" s="280">
+        <v>55050</v>
+      </c>
+      <c r="ABK9" s="46">
+        <f>ABI9-ABJ9</f>
+        <v>440</v>
+      </c>
+      <c r="ABL9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ABM9" s="326">
+        <f>ABK9*ABL9</f>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="ABN9" s="98"/>
+      <c r="ABO9" s="306">
+        <f>ABM11</f>
+        <v>0</v>
+      </c>
+      <c r="ABP9" s="328">
+        <f>ABM9</f>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="ABQ9" s="329"/>
+    </row>
+    <row r="10" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -36022,7 +36456,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -36040,7 +36474,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -36058,7 +36492,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -36076,7 +36510,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="244">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="250">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -36094,7 +36528,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="245">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="251">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -36112,7 +36546,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="246">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="252">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -36130,7 +36564,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="247">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="253">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -36148,7 +36582,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="248">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="254">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -36166,7 +36600,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="249">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="255">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -36184,7 +36618,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="250">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="256">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -36202,7 +36636,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="251">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="257">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -36220,7 +36654,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="252">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="258">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -36238,7 +36672,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="253">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="259">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -36256,7 +36690,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="254">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="260">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -36274,7 +36708,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="255">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="261">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -36292,7 +36726,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="256">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="262">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -36310,7 +36744,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="257">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="263">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -36322,13 +36756,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="258">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="264">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -36340,13 +36774,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="259">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="265">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -36358,13 +36792,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="260">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="266">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -36376,13 +36810,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="261">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="267">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -36394,13 +36828,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="262">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="268">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -36412,13 +36846,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="263">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="269">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -36430,13 +36864,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="197"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="264">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="270">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -36448,13 +36882,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="198"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="265">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="271">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -36466,13 +36900,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="266">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="272">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -36484,13 +36918,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="267">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="273">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -36502,13 +36936,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="268">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="274">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -36520,13 +36954,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="269">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="275">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -36538,13 +36972,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="270">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="276">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -36556,13 +36990,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="271">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="277">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -36574,13 +37008,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="272">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="278">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -36592,13 +37026,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="273">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="279">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -36610,13 +37044,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="274">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="280">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -36634,7 +37068,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="275">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="281">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -36652,7 +37086,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="276">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="282">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -36670,7 +37104,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="277">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="283">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -36681,7 +37115,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="278">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="284">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -36692,7 +37126,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="279">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="285">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -36703,7 +37137,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="280">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="286">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -36714,7 +37148,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="281">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="287">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -36725,7 +37159,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="282">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="288">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -36736,7 +37170,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="283">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="289">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -36747,7 +37181,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="284">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="290">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -36758,7 +37192,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="285">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="291">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -36770,13 +37204,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="286">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="292">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="287">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="293">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -36789,13 +37223,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="220"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="288">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="294">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -36808,13 +37242,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="289">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="295">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="290">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="296">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -36827,13 +37261,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="221"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="291">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="297">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -36846,7 +37280,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="222"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -36862,7 +37296,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="223"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -36878,7 +37312,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="224"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -36894,7 +37328,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="225"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -36910,7 +37344,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="226"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -36926,7 +37360,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="227"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -36942,7 +37376,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="228"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -36958,7 +37392,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="229"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -36974,7 +37408,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="230"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -36990,7 +37424,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="231"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -37006,7 +37440,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -37022,7 +37456,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="227"/>
+        <f t="shared" si="233"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -37038,7 +37472,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -37054,7 +37488,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="229"/>
+        <f t="shared" si="235"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -37070,7 +37504,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="230"/>
+        <f t="shared" si="236"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -37086,7 +37520,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="231"/>
+        <f t="shared" si="237"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -37102,7 +37536,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -37118,7 +37552,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -37134,7 +37568,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -37150,7 +37584,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -37166,7 +37600,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -37182,7 +37616,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="243"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -37198,7 +37632,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="244"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -37214,7 +37648,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="245"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -37230,7 +37664,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -37246,7 +37680,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -37262,7 +37696,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -37278,7 +37712,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="249"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -37322,8 +37756,31 @@
       <c r="AAV10" s="49"/>
       <c r="AAW10" s="306"/>
       <c r="AAX10" s="75"/>
-    </row>
-    <row r="11" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ10" s="278"/>
+      <c r="ABA10" s="278"/>
+      <c r="ABB10" s="46"/>
+      <c r="ABC10" s="48"/>
+      <c r="ABD10" s="300"/>
+      <c r="ABE10" s="49"/>
+      <c r="ABF10" s="306"/>
+      <c r="ABG10" s="75"/>
+      <c r="ABH10" s="287">
+        <f>ABG9-ABH9</f>
+        <v>651.56000000000017</v>
+      </c>
+      <c r="ABI10" s="278"/>
+      <c r="ABJ10" s="278"/>
+      <c r="ABK10" s="46"/>
+      <c r="ABL10" s="48"/>
+      <c r="ABM10" s="300">
+        <f>ABM9+ABH10</f>
+        <v>2552.3600000000006</v>
+      </c>
+      <c r="ABN10" s="49"/>
+      <c r="ABO10" s="306"/>
+      <c r="ABP10" s="75"/>
+    </row>
+    <row r="11" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -37422,7 +37879,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -37441,7 +37898,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -37460,7 +37917,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -37479,7 +37936,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -37498,7 +37955,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -37517,7 +37974,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -37536,7 +37993,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -37555,7 +38012,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="248"/>
+        <f t="shared" si="254"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -37574,7 +38031,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="249"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -37593,7 +38050,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="250"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -37612,7 +38069,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="251"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -37631,7 +38088,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="252"/>
+        <f t="shared" si="258"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -37650,7 +38107,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -37669,7 +38126,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -37688,7 +38145,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="255"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -37707,7 +38164,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="256"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -37726,7 +38183,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="257"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -37739,13 +38196,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="258"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -37758,13 +38215,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="259"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -37777,13 +38234,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="260"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -37796,13 +38253,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -37815,13 +38272,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -37834,13 +38291,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -37853,13 +38310,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="264"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -37872,13 +38329,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="265"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -37891,203 +38348,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="266"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="292">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="298">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="293">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="299">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="268"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="294">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="300">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="269"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="295">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="301">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="270"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="296">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="302">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="271"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="297">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="303">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="298">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="304">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="273"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="299">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="305">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="300">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="306">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="275"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="301">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="307">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="302">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="308">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -38098,7 +38555,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="277"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -38109,7 +38566,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="278"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -38120,7 +38577,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="279"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -38131,7 +38588,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="280"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -38142,7 +38599,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="281"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -38153,7 +38610,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -38164,7 +38621,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -38175,7 +38632,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="284"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -38186,7 +38643,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -38197,7 +38654,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="287"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -38211,7 +38668,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="288"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -38225,7 +38682,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -38239,7 +38696,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -38700,8 +39157,24 @@
       <c r="AAV11" s="49"/>
       <c r="AAW11" s="306"/>
       <c r="AAX11" s="75"/>
-    </row>
-    <row r="12" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ11" s="278"/>
+      <c r="ABA11" s="278"/>
+      <c r="ABB11" s="286"/>
+      <c r="ABC11" s="48"/>
+      <c r="ABD11" s="327"/>
+      <c r="ABE11" s="49"/>
+      <c r="ABF11" s="306"/>
+      <c r="ABG11" s="75"/>
+      <c r="ABI11" s="278"/>
+      <c r="ABJ11" s="278"/>
+      <c r="ABK11" s="286"/>
+      <c r="ABL11" s="48"/>
+      <c r="ABM11" s="327"/>
+      <c r="ABN11" s="49"/>
+      <c r="ABO11" s="306"/>
+      <c r="ABP11" s="75"/>
+    </row>
+    <row r="12" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -38810,7 +39283,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -38831,7 +39304,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -38852,7 +39325,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -39141,7 +39614,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -39161,7 +39634,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -39181,7 +39654,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -39201,7 +39674,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -39221,7 +39694,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -39241,7 +39714,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -39261,7 +39734,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -39281,7 +39754,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -39301,7 +39774,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -39314,14 +39787,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -39334,14 +39807,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -39354,14 +39827,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -39374,14 +39847,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -39394,14 +39867,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -39414,14 +39887,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -39434,14 +39907,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -39454,14 +39927,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -39474,14 +39947,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -39494,14 +39967,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -40073,8 +40546,34 @@
         <f>AAW12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:726" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="AAZ12" s="278"/>
+      <c r="ABA12" s="278"/>
+      <c r="ABB12" s="46"/>
+      <c r="ABC12" s="48"/>
+      <c r="ABD12" s="48"/>
+      <c r="ABE12" s="49"/>
+      <c r="ABF12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ABG12" s="324">
+        <f>ABF12</f>
+        <v>35</v>
+      </c>
+      <c r="ABI12" s="278"/>
+      <c r="ABJ12" s="278"/>
+      <c r="ABK12" s="46"/>
+      <c r="ABL12" s="48"/>
+      <c r="ABM12" s="48"/>
+      <c r="ABN12" s="49"/>
+      <c r="ABO12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ABP12" s="324">
+        <f>ABO12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:745" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -40175,7 +40674,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -40194,7 +40693,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -40213,7 +40712,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -40232,7 +40731,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -40455,7 +40954,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -40471,7 +40970,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -40487,7 +40986,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -40503,7 +41002,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -40519,7 +41018,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -40535,7 +41034,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -40551,7 +41050,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -40567,7 +41066,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -40583,7 +41082,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -40592,14 +41091,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -40608,14 +41107,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -40624,14 +41123,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -40640,14 +41139,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -40656,14 +41155,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -40672,14 +41171,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -40688,14 +41187,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -40704,14 +41203,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -40720,14 +41219,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -40736,14 +41235,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -41109,8 +41608,24 @@
       <c r="AAV13" s="49"/>
       <c r="AAW13" s="306"/>
       <c r="AAX13" s="75"/>
-    </row>
-    <row r="14" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ13" s="278"/>
+      <c r="ABA13" s="278"/>
+      <c r="ABB13" s="46"/>
+      <c r="ABC13" s="48"/>
+      <c r="ABD13" s="48"/>
+      <c r="ABE13" s="49"/>
+      <c r="ABF13" s="306"/>
+      <c r="ABG13" s="75"/>
+      <c r="ABI13" s="278"/>
+      <c r="ABJ13" s="278"/>
+      <c r="ABK13" s="46"/>
+      <c r="ABL13" s="48"/>
+      <c r="ABM13" s="48"/>
+      <c r="ABN13" s="49"/>
+      <c r="ABO13" s="306"/>
+      <c r="ABP13" s="75"/>
+    </row>
+    <row r="14" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -41244,7 +41759,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -41270,7 +41785,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -41296,7 +41811,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -41322,7 +41837,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -41348,7 +41863,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="303">CE14</f>
+        <f t="shared" ref="CF14" si="309">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -41374,7 +41889,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="304">CO14</f>
+        <f t="shared" ref="CP14" si="310">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -41400,7 +41915,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="305">CW14</f>
+        <f t="shared" ref="CX14" si="311">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -41426,7 +41941,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="306">DE14</f>
+        <f t="shared" ref="DF14" si="312">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -41452,7 +41967,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="307">DM14</f>
+        <f t="shared" ref="DN14" si="313">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -41478,7 +41993,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="308">DU14</f>
+        <f t="shared" ref="DV14" si="314">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -41665,7 +42180,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="185"/>
+        <f t="shared" si="191"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -41690,7 +42205,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="186"/>
+        <f t="shared" si="192"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -41715,7 +42230,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -41740,7 +42255,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="188"/>
+        <f t="shared" si="194"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -41765,7 +42280,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="189"/>
+        <f t="shared" si="195"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -41790,7 +42305,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -41812,7 +42327,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="197"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -41834,7 +42349,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="198"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -41858,7 +42373,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="199"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -41875,14 +42390,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="200"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -41899,14 +42414,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="201"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -41921,14 +42436,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="294"/>
+        <f t="shared" si="300"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="202"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -41946,14 +42461,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="295"/>
+        <f t="shared" si="301"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -41971,14 +42486,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="296"/>
+        <f t="shared" si="302"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -41996,14 +42511,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="297"/>
+        <f t="shared" si="303"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -42021,14 +42536,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="304"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -42046,14 +42561,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="305"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -42071,14 +42586,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="306"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -42096,14 +42611,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="307"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -42121,7 +42636,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="309">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="315">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -42146,7 +42661,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="310">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="316">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -43373,8 +43888,64 @@
       <c r="AAX14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ14" s="280">
+        <v>1132</v>
+      </c>
+      <c r="ABA14" s="280">
+        <v>1112</v>
+      </c>
+      <c r="ABB14" s="46">
+        <f>AAZ14-ABA14</f>
+        <v>20</v>
+      </c>
+      <c r="ABC14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ABD14" s="48">
+        <f>ABB14*ABC14</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="ABE14" s="49">
+        <f>ABD14</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="ABF14" s="306">
+        <f>ABE14</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="ABG14" s="324">
+        <v>87.53</v>
+      </c>
+      <c r="ABI14" s="280">
+        <v>1156</v>
+      </c>
+      <c r="ABJ14" s="280">
+        <v>1132</v>
+      </c>
+      <c r="ABK14" s="46">
+        <f>ABI14-ABJ14</f>
+        <v>24</v>
+      </c>
+      <c r="ABL14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ABM14" s="48">
+        <f>ABK14*ABL14</f>
+        <v>191.04</v>
+      </c>
+      <c r="ABN14" s="49">
+        <f>ABM14</f>
+        <v>191.04</v>
+      </c>
+      <c r="ABO14" s="306">
+        <f>ABN14</f>
+        <v>191.04</v>
+      </c>
+      <c r="ABP14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -44315,8 +44886,32 @@
       <c r="AAX15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ15" s="152"/>
+      <c r="ABA15" s="313"/>
+      <c r="ABB15" s="46"/>
+      <c r="ABC15" s="48"/>
+      <c r="ABD15" s="48"/>
+      <c r="ABE15" s="49"/>
+      <c r="ABF15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ABG15" s="323">
+        <v>6.67</v>
+      </c>
+      <c r="ABI15" s="152"/>
+      <c r="ABJ15" s="313"/>
+      <c r="ABK15" s="46"/>
+      <c r="ABL15" s="48"/>
+      <c r="ABM15" s="48"/>
+      <c r="ABN15" s="49"/>
+      <c r="ABO15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ABP15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:745" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -45140,8 +45735,24 @@
       <c r="AAV16" s="49"/>
       <c r="AAW16" s="306"/>
       <c r="AAX16" s="75"/>
-    </row>
-    <row r="17" spans="2:726" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AAZ16" s="152"/>
+      <c r="ABA16" s="313"/>
+      <c r="ABB16" s="46"/>
+      <c r="ABC16" s="48"/>
+      <c r="ABD16" s="48"/>
+      <c r="ABE16" s="49"/>
+      <c r="ABF16" s="306"/>
+      <c r="ABG16" s="75"/>
+      <c r="ABI16" s="152"/>
+      <c r="ABJ16" s="313"/>
+      <c r="ABK16" s="46"/>
+      <c r="ABL16" s="48"/>
+      <c r="ABM16" s="48"/>
+      <c r="ABN16" s="49"/>
+      <c r="ABO16" s="306"/>
+      <c r="ABP16" s="75"/>
+    </row>
+    <row r="17" spans="2:744" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -45204,7 +45815,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -45215,7 +45826,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -45226,7 +45837,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -45237,7 +45848,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -45944,8 +46555,24 @@
       <c r="AAV17" s="72"/>
       <c r="AAW17" s="317"/>
       <c r="AAX17" s="318"/>
-    </row>
-    <row r="18" spans="2:726" x14ac:dyDescent="0.25">
+      <c r="AAZ17" s="69"/>
+      <c r="ABA17" s="70"/>
+      <c r="ABB17" s="70"/>
+      <c r="ABC17" s="71"/>
+      <c r="ABD17" s="71"/>
+      <c r="ABE17" s="72"/>
+      <c r="ABF17" s="317"/>
+      <c r="ABG17" s="318"/>
+      <c r="ABI17" s="69"/>
+      <c r="ABJ17" s="70"/>
+      <c r="ABK17" s="70"/>
+      <c r="ABL17" s="71"/>
+      <c r="ABM17" s="71"/>
+      <c r="ABN17" s="72"/>
+      <c r="ABO17" s="317"/>
+      <c r="ABP17" s="318"/>
+    </row>
+    <row r="18" spans="2:744" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -46243,7 +46870,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:726" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:744" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -46272,7 +46899,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:726" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:744" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -46284,7 +46911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:726" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:744" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -46302,7 +46929,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:726" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:744" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -46320,7 +46947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:726" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:744" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -46346,56 +46973,32 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="88">
+    <mergeCell ref="ABI1:ABP1"/>
+    <mergeCell ref="AAZ1:ABG1"/>
+    <mergeCell ref="ZY1:AAF1"/>
+    <mergeCell ref="ZF1:ZM1"/>
+    <mergeCell ref="YN1:YU1"/>
+    <mergeCell ref="XV1:YC1"/>
     <mergeCell ref="AAQ1:AAX1"/>
     <mergeCell ref="AAH1:AAO1"/>
-    <mergeCell ref="OB1:OI1"/>
-    <mergeCell ref="TI1:TP1"/>
-    <mergeCell ref="VK1:VR1"/>
-    <mergeCell ref="UJ1:UQ1"/>
-    <mergeCell ref="US1:UZ1"/>
-    <mergeCell ref="OR1:OY1"/>
-    <mergeCell ref="RG1:RN1"/>
-    <mergeCell ref="RY1:SF1"/>
-    <mergeCell ref="OZ1:PG1"/>
-    <mergeCell ref="UA1:UH1"/>
-    <mergeCell ref="SZ1:TG1"/>
-    <mergeCell ref="SH1:SO1"/>
-    <mergeCell ref="RP1:RW1"/>
-    <mergeCell ref="PP1:PW1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
+    <mergeCell ref="WU1:XB1"/>
+    <mergeCell ref="YW1:ZD1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
     <mergeCell ref="SQ1:SX1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
     <mergeCell ref="BA1:BH1"/>
     <mergeCell ref="BY1:CF1"/>
     <mergeCell ref="BQ1:BX1"/>
@@ -46412,27 +47015,53 @@
     <mergeCell ref="DW1:ED1"/>
     <mergeCell ref="DO1:DV1"/>
     <mergeCell ref="DG1:DN1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="OB1:OI1"/>
+    <mergeCell ref="TI1:TP1"/>
+    <mergeCell ref="VK1:VR1"/>
+    <mergeCell ref="UJ1:UQ1"/>
+    <mergeCell ref="US1:UZ1"/>
+    <mergeCell ref="OR1:OY1"/>
+    <mergeCell ref="RG1:RN1"/>
+    <mergeCell ref="RY1:SF1"/>
+    <mergeCell ref="OZ1:PG1"/>
+    <mergeCell ref="UA1:UH1"/>
+    <mergeCell ref="SZ1:TG1"/>
+    <mergeCell ref="SH1:SO1"/>
+    <mergeCell ref="RP1:RW1"/>
+    <mergeCell ref="PP1:PW1"/>
     <mergeCell ref="VB1:VI1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
-    <mergeCell ref="WU1:XB1"/>
-    <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="ZY1:AAF1"/>
-    <mergeCell ref="ZF1:ZM1"/>
-    <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
@@ -46536,12 +47165,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
       <c r="F3" s="201"/>
       <c r="G3" s="201"/>
       <c r="I3" s="74"/>
@@ -46606,12 +47235,12 @@
       <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
       <c r="F6" s="207"/>
       <c r="G6" s="207"/>
       <c r="I6" s="74"/>
@@ -47284,12 +47913,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -47328,12 +47957,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -47871,12 +48500,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -47916,12 +48545,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
@@ -48308,12 +48937,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="337"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="339"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -48353,12 +48982,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="338"/>
+      <c r="B6" s="332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="340"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ABQ$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ACA$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2506,12 +2506,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="ABW10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ABY10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -21425,11 +21465,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ABQ52"/>
+  <dimension ref="B1:ABZ52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AAY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ABM10" sqref="ABM10"/>
+      <pane xSplit="3" topLeftCell="ABH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ABW9" sqref="ABW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21821,9 +21861,13 @@
     <col min="736" max="736" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="741" max="741" width="14.5703125" customWidth="1"/>
     <col min="744" max="744" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="746" max="746" width="10.85546875" customWidth="1"/>
+    <col min="751" max="751" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="754" max="754" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:745" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:754" x14ac:dyDescent="0.25">
       <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
@@ -22704,8 +22748,18 @@
       <c r="ABN1" s="335"/>
       <c r="ABO1" s="335"/>
       <c r="ABP1" s="336"/>
-    </row>
-    <row r="2" spans="2:745" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ABS1" s="337">
+        <v>45627</v>
+      </c>
+      <c r="ABT1" s="335"/>
+      <c r="ABU1" s="335"/>
+      <c r="ABV1" s="335"/>
+      <c r="ABW1" s="335"/>
+      <c r="ABX1" s="335"/>
+      <c r="ABY1" s="335"/>
+      <c r="ABZ1" s="336"/>
+    </row>
+    <row r="2" spans="2:754" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24827,8 +24881,32 @@
       <c r="ABP2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:745" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ABS2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ABT2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ABU2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ABV2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ABW2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ABX2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ABY2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ABZ2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:754" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -27125,8 +27203,34 @@
         <f>ABO3</f>
         <v>470.52</v>
       </c>
-    </row>
-    <row r="4" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS3" s="279">
+        <v>1064</v>
+      </c>
+      <c r="ABT3" s="279">
+        <v>1052</v>
+      </c>
+      <c r="ABU3" s="135">
+        <f>ABS3-ABT3</f>
+        <v>12</v>
+      </c>
+      <c r="ABV3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABW3" s="136">
+        <f>ABU3*ABV3</f>
+        <v>376.416</v>
+      </c>
+      <c r="ABX3" s="137"/>
+      <c r="ABY3" s="315">
+        <f>ABW3+ABW4</f>
+        <v>501.88799999999998</v>
+      </c>
+      <c r="ABZ3" s="322">
+        <f>ABY3</f>
+        <v>501.88799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -29243,8 +29347,32 @@
       <c r="ABP4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:745" ht="30" x14ac:dyDescent="0.25">
+      <c r="ABS4" s="280">
+        <v>563</v>
+      </c>
+      <c r="ABT4" s="280">
+        <v>559</v>
+      </c>
+      <c r="ABU4" s="46">
+        <f>ABS4-ABT4</f>
+        <v>4</v>
+      </c>
+      <c r="ABV4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ABW4" s="48">
+        <f>ABU4*ABV4</f>
+        <v>125.47199999999999</v>
+      </c>
+      <c r="ABX4" s="49"/>
+      <c r="ABY4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ABZ4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:754" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -30818,8 +30946,27 @@
         <f>ABO5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS5" s="281"/>
+      <c r="ABT5" s="281"/>
+      <c r="ABU5" s="46">
+        <f t="shared" ref="ABU5" si="156">ABS5-ABT5</f>
+        <v>0</v>
+      </c>
+      <c r="ABV5" s="74"/>
+      <c r="ABW5" s="48">
+        <f t="shared" ref="ABW5" si="157">ABU5*ABV5</f>
+        <v>0</v>
+      </c>
+      <c r="ABX5" s="179"/>
+      <c r="ABY5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABZ5" s="319">
+        <f>ABY5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31657,8 +31804,20 @@
       <c r="ABP6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS6" s="281"/>
+      <c r="ABT6" s="281"/>
+      <c r="ABU6" s="46"/>
+      <c r="ABV6" s="74"/>
+      <c r="ABW6" s="48"/>
+      <c r="ABX6" s="179"/>
+      <c r="ABY6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ABZ6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -31780,7 +31939,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="156">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="158">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -31802,7 +31961,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="157">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="159">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -31824,7 +31983,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="158">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="160">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -32695,7 +32854,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="159">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="161">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -32709,7 +32868,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="160">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="162">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -32723,7 +32882,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="161">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="163">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -32737,7 +32896,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="162">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="164">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -32751,7 +32910,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="163">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="165">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -32765,7 +32924,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="164">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="166">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -32779,7 +32938,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="165">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="167">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -32793,7 +32952,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="166">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="168">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -32807,7 +32966,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="167">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="169">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -32821,7 +32980,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="168">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="170">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -32835,7 +32994,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="169">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="171">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -32849,7 +33008,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="170">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="172">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -32863,7 +33022,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="171">US7-UT7</f>
+        <f t="shared" ref="UU7" si="173">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -32877,7 +33036,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="172">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="174">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -32891,7 +33050,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="173">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="175">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -32905,7 +33064,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="174">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="176">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -32919,7 +33078,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="175">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="177">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -32933,7 +33092,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="176">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="178">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -32947,7 +33106,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="177">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="179">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -32961,7 +33120,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="178">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="180">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -32975,7 +33134,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="179">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="181">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -32989,7 +33148,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="180">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="182">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -33003,7 +33162,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="181">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="183">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -33017,7 +33176,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="182">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="184">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -33031,7 +33190,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="183">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="185">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -33045,7 +33204,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="184">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="186">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -33059,7 +33218,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="185">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="187">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -33073,7 +33232,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="186">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="188">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -33087,7 +33246,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="187">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="189">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -33101,7 +33260,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="188">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="190">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -33115,7 +33274,7 @@
       <c r="AAZ7" s="278"/>
       <c r="ABA7" s="278"/>
       <c r="ABB7" s="46">
-        <f t="shared" ref="ABB7" si="189">AAZ7-ABA7</f>
+        <f t="shared" ref="ABB7" si="191">AAZ7-ABA7</f>
         <v>0</v>
       </c>
       <c r="ABC7" s="48"/>
@@ -33129,7 +33288,7 @@
       <c r="ABI7" s="278"/>
       <c r="ABJ7" s="278"/>
       <c r="ABK7" s="46">
-        <f t="shared" ref="ABK7" si="190">ABI7-ABJ7</f>
+        <f t="shared" ref="ABK7" si="192">ABI7-ABJ7</f>
         <v>0</v>
       </c>
       <c r="ABL7" s="48"/>
@@ -33140,8 +33299,22 @@
         <v>0</v>
       </c>
       <c r="ABP7" s="75"/>
-    </row>
-    <row r="8" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS7" s="278"/>
+      <c r="ABT7" s="278"/>
+      <c r="ABU7" s="46">
+        <f t="shared" ref="ABU7" si="193">ABS7-ABT7</f>
+        <v>0</v>
+      </c>
+      <c r="ABV7" s="48"/>
+      <c r="ABW7" s="311"/>
+      <c r="ABX7" s="312"/>
+      <c r="ABY7" s="306">
+        <f>ABX7</f>
+        <v>0</v>
+      </c>
+      <c r="ABZ7" s="75"/>
+    </row>
+    <row r="8" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -34012,8 +34185,20 @@
       <c r="ABP8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS8" s="278"/>
+      <c r="ABT8" s="278"/>
+      <c r="ABU8" s="46"/>
+      <c r="ABV8" s="48"/>
+      <c r="ABW8" s="311"/>
+      <c r="ABX8" s="312"/>
+      <c r="ABY8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ABZ8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -34158,7 +34343,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -34185,7 +34370,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -34212,7 +34397,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -34605,7 +34790,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="191">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="194">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -34629,7 +34814,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="192">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="195">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -34651,7 +34836,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="193">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="196">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -34678,7 +34863,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="194">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="197">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -34705,7 +34890,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="195">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="198">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -34729,7 +34914,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="196">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="199">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -34757,7 +34942,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="197">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="200">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -34785,7 +34970,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="198">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="201">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -34813,7 +34998,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="199">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="202">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -34841,7 +35026,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="200">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="203">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -34869,7 +35054,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="201">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="204">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -34897,7 +35082,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="202">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="205">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -34925,7 +35110,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="203">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="206">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -34953,7 +35138,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="204">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="207">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -34981,7 +35166,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="205">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="208">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -35009,7 +35194,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="206">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="209">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -35037,7 +35222,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="207">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="210">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -35064,7 +35249,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="208">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="211">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -35092,7 +35277,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="209">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="212">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -35120,7 +35305,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="210">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="213">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -35149,7 +35334,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="211">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="214">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -35178,7 +35363,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="212">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="215">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -35207,7 +35392,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="213">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="216">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -35236,7 +35421,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="214">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="217">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -35265,7 +35450,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="215">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="218">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -35294,7 +35479,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="216">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="219">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -35323,7 +35508,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="217">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="220">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -35352,7 +35537,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="218">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="221">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -35380,7 +35565,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="219">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="222">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -35408,7 +35593,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="220">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="223">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -35464,7 +35649,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="221">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="224">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -35496,7 +35681,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="222">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="225">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -35523,7 +35708,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="223">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="226">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -35550,7 +35735,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="224">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="227">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -35577,7 +35762,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="225">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="228">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -35604,7 +35789,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="226">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="229">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -35631,7 +35816,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="227">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="230">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -35656,7 +35841,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="228">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="231">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -35681,7 +35866,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="229">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="232">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -35706,7 +35891,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="230">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="233">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -35731,7 +35916,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="231">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="234">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -35756,7 +35941,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="232">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="235">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -35781,7 +35966,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="233">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="236">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -35806,7 +35991,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="234">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="237">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -35831,7 +36016,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="235">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="238">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -35856,7 +36041,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="236">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="239">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -35881,7 +36066,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="237">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="240">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -35906,7 +36091,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="238">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="241">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -35931,7 +36116,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="239">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="242">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -35956,7 +36141,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="240">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="243">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -35981,7 +36166,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="241">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="244">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -36006,7 +36191,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="242">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="245">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -36031,7 +36216,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="243">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="246">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -36056,7 +36241,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="244">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="247">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -36081,7 +36266,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="245">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="248">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -36106,7 +36291,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="246">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="249">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -36131,7 +36316,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="247">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="250">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -36156,7 +36341,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="248">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="251">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -36181,7 +36366,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="249">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="252">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -36361,8 +36546,34 @@
         <v>1900.8000000000002</v>
       </c>
       <c r="ABQ9" s="329"/>
-    </row>
-    <row r="10" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABR9" s="329">
+        <v>1357.24</v>
+      </c>
+      <c r="ABS9" s="280">
+        <v>56000</v>
+      </c>
+      <c r="ABT9" s="280">
+        <v>55490</v>
+      </c>
+      <c r="ABU9" s="46">
+        <f>ABS9-ABT9</f>
+        <v>510</v>
+      </c>
+      <c r="ABV9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ABW9" s="326">
+        <f>ABU9*ABV9</f>
+        <v>2203.2000000000003</v>
+      </c>
+      <c r="ABX9" s="98"/>
+      <c r="ABY9" s="306"/>
+      <c r="ABZ9" s="328">
+        <f>ABW9</f>
+        <v>2203.2000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -36456,7 +36667,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -36474,7 +36685,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -36492,7 +36703,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -36510,7 +36721,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="250">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="253">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -36528,7 +36739,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="251">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="254">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -36546,7 +36757,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="252">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="255">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -36564,7 +36775,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="253">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="256">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -36582,7 +36793,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="254">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="257">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -36600,7 +36811,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="255">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="258">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -36618,7 +36829,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="256">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="259">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -36636,7 +36847,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="257">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="260">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -36654,7 +36865,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="258">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="261">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -36672,7 +36883,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="259">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="262">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -36690,7 +36901,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="260">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="263">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -36708,7 +36919,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="261">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="264">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -36726,7 +36937,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="262">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="265">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -36744,7 +36955,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="263">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="266">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -36756,13 +36967,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="264">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="267">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -36774,13 +36985,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="265">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="268">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -36792,13 +37003,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="266">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="269">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -36810,13 +37021,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="267">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="270">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -36828,13 +37039,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="268">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="271">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -36846,13 +37057,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="269">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="272">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -36864,13 +37075,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="270">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="273">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -36882,13 +37093,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="271">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="274">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -36900,13 +37111,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="272">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="275">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -36918,13 +37129,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="273">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="276">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -36936,13 +37147,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="274">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="277">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -36954,13 +37165,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="275">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="278">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -36972,13 +37183,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="276">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="279">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -36990,13 +37201,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="277">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="280">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -37008,13 +37219,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="278">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="281">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -37026,13 +37237,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="279">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="282">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -37044,13 +37255,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="280">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="283">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -37068,7 +37279,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="281">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="284">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -37086,7 +37297,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="282">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="285">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -37104,7 +37315,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="283">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="286">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -37115,7 +37326,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="284">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="287">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -37126,7 +37337,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="285">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="288">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -37137,7 +37348,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="286">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="289">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -37148,7 +37359,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="287">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="290">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -37159,7 +37370,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="288">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="291">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -37170,7 +37381,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="289">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="292">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -37181,7 +37392,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="290">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="293">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -37192,7 +37403,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="291">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="294">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -37204,13 +37415,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="292">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="295">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="293">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="296">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -37223,13 +37434,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="294">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="297">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -37242,13 +37453,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="295">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="298">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="296">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="299">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -37261,13 +37472,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="297">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="300">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -37280,7 +37491,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -37296,7 +37507,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -37312,7 +37523,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -37328,7 +37539,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -37344,7 +37555,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -37360,7 +37571,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -37376,7 +37587,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -37392,7 +37603,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -37408,7 +37619,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -37424,7 +37635,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -37440,7 +37651,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -37456,7 +37667,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -37472,7 +37683,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -37488,7 +37699,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -37504,7 +37715,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -37520,7 +37731,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -37536,7 +37747,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -37552,7 +37763,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -37568,7 +37779,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -37584,7 +37795,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -37600,7 +37811,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -37616,7 +37827,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -37632,7 +37843,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -37648,7 +37859,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -37664,7 +37875,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -37680,7 +37891,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -37696,7 +37907,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -37712,7 +37923,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -37779,8 +37990,22 @@
       <c r="ABN10" s="49"/>
       <c r="ABO10" s="306"/>
       <c r="ABP10" s="75"/>
-    </row>
-    <row r="11" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABR10" s="287">
+        <f>ABQ9-ABR9</f>
+        <v>-1357.24</v>
+      </c>
+      <c r="ABS10" s="278"/>
+      <c r="ABT10" s="278"/>
+      <c r="ABU10" s="46"/>
+      <c r="ABV10" s="48"/>
+      <c r="ABW10" s="300">
+        <v>2769.88</v>
+      </c>
+      <c r="ABX10" s="49"/>
+      <c r="ABY10" s="306"/>
+      <c r="ABZ10" s="75"/>
+    </row>
+    <row r="11" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -37879,7 +38104,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -37898,7 +38123,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -37917,7 +38142,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -37936,7 +38161,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -37955,7 +38180,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -37974,7 +38199,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -37993,7 +38218,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -38012,7 +38237,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -38031,7 +38256,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -38050,7 +38275,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -38069,7 +38294,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -38088,7 +38313,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -38107,7 +38332,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -38126,7 +38351,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -38145,7 +38370,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -38164,7 +38389,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -38183,7 +38408,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -38196,13 +38421,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="264"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -38215,13 +38440,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="265"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -38234,13 +38459,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="266"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -38253,13 +38478,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -38272,13 +38497,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -38291,13 +38516,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="269"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -38310,13 +38535,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="270"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -38329,13 +38554,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="271"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -38348,203 +38573,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="298">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="301">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="299">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="302">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="274"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="300">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="303">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="275"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="301">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="304">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="276"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="302">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="305">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="277"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="303">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="306">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="304">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="307">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="279"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="305">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="308">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="280"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="306">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="309">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="281"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="307">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="310">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="308">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="311">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="282"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -38555,7 +38780,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="283"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -38566,7 +38791,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -38577,7 +38802,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="285"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -38588,7 +38813,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="286"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -38599,7 +38824,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="287"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -38610,7 +38835,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="288"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -38621,7 +38846,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -38632,7 +38857,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -38643,7 +38868,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -38654,7 +38879,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -38668,7 +38893,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -38682,7 +38907,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -38696,7 +38921,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -39173,8 +39398,19 @@
       <c r="ABN11" s="49"/>
       <c r="ABO11" s="306"/>
       <c r="ABP11" s="75"/>
-    </row>
-    <row r="12" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS11" s="278"/>
+      <c r="ABT11" s="278"/>
+      <c r="ABU11" s="286"/>
+      <c r="ABV11" s="48"/>
+      <c r="ABW11" s="327">
+        <f>ABW10-ABW9</f>
+        <v>566.67999999999984</v>
+      </c>
+      <c r="ABX11" s="49"/>
+      <c r="ABY11" s="306"/>
+      <c r="ABZ11" s="75"/>
+    </row>
+    <row r="12" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -39283,7 +39519,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -39304,7 +39540,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -39325,7 +39561,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -39614,7 +39850,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -39634,7 +39870,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -39654,7 +39890,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -39674,7 +39910,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -39694,7 +39930,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -39714,7 +39950,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -39734,7 +39970,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -39754,7 +39990,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -39774,7 +40010,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -39787,14 +40023,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -39807,14 +40043,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -39827,14 +40063,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -39847,14 +40083,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -39867,14 +40103,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -39887,14 +40123,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -39907,14 +40143,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -39927,14 +40163,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -39947,14 +40183,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -39967,14 +40203,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -40572,8 +40808,21 @@
         <f>ABO12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:745" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="ABS12" s="278"/>
+      <c r="ABT12" s="278"/>
+      <c r="ABU12" s="46"/>
+      <c r="ABV12" s="48"/>
+      <c r="ABW12" s="48"/>
+      <c r="ABX12" s="49"/>
+      <c r="ABY12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ABZ12" s="324">
+        <f>ABY12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:754" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -40674,7 +40923,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -40693,7 +40942,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -40712,7 +40961,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -40731,7 +40980,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -40954,7 +41203,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -40970,7 +41219,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -40986,7 +41235,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -41002,7 +41251,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -41018,7 +41267,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -41034,7 +41283,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -41050,7 +41299,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -41066,7 +41315,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -41082,7 +41331,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -41091,14 +41340,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -41107,14 +41356,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -41123,14 +41372,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -41139,14 +41388,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -41155,14 +41404,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -41171,14 +41420,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -41187,14 +41436,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -41203,14 +41452,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -41219,14 +41468,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -41235,14 +41484,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -41624,8 +41873,16 @@
       <c r="ABN13" s="49"/>
       <c r="ABO13" s="306"/>
       <c r="ABP13" s="75"/>
-    </row>
-    <row r="14" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS13" s="278"/>
+      <c r="ABT13" s="278"/>
+      <c r="ABU13" s="46"/>
+      <c r="ABV13" s="48"/>
+      <c r="ABW13" s="48"/>
+      <c r="ABX13" s="49"/>
+      <c r="ABY13" s="306"/>
+      <c r="ABZ13" s="75"/>
+    </row>
+    <row r="14" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -41759,7 +42016,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -41785,7 +42042,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -41811,7 +42068,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -41837,7 +42094,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -41863,7 +42120,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="309">CE14</f>
+        <f t="shared" ref="CF14" si="312">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -41889,7 +42146,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="310">CO14</f>
+        <f t="shared" ref="CP14" si="313">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -41915,7 +42172,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="311">CW14</f>
+        <f t="shared" ref="CX14" si="314">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -41941,7 +42198,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="312">DE14</f>
+        <f t="shared" ref="DF14" si="315">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -41967,7 +42224,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="313">DM14</f>
+        <f t="shared" ref="DN14" si="316">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -41993,7 +42250,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="314">DU14</f>
+        <f t="shared" ref="DV14" si="317">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -42180,7 +42437,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -42205,7 +42462,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -42230,7 +42487,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -42255,7 +42512,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -42280,7 +42537,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -42305,7 +42562,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -42327,7 +42584,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -42349,7 +42606,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -42373,7 +42630,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -42390,14 +42647,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -42414,14 +42671,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -42436,14 +42693,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -42461,14 +42718,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -42486,14 +42743,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -42511,14 +42768,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -42536,14 +42793,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -42561,14 +42818,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -42586,14 +42843,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -42611,14 +42868,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -42636,7 +42893,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="315">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="318">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -42661,7 +42918,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="316">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="319">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -43944,8 +44201,36 @@
       <c r="ABP14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS14" s="280">
+        <v>1170</v>
+      </c>
+      <c r="ABT14" s="280">
+        <v>1156</v>
+      </c>
+      <c r="ABU14" s="46">
+        <f>ABS14-ABT14</f>
+        <v>14</v>
+      </c>
+      <c r="ABV14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ABW14" s="48">
+        <f>ABU14*ABV14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ABX14" s="49">
+        <f>ABW14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ABY14" s="306">
+        <f>ABX14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ABZ14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -44910,8 +45195,20 @@
       <c r="ABP15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:745" x14ac:dyDescent="0.25">
+      <c r="ABS15" s="152"/>
+      <c r="ABT15" s="313"/>
+      <c r="ABU15" s="46"/>
+      <c r="ABV15" s="48"/>
+      <c r="ABW15" s="48"/>
+      <c r="ABX15" s="49"/>
+      <c r="ABY15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ABZ15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -45751,8 +46048,16 @@
       <c r="ABN16" s="49"/>
       <c r="ABO16" s="306"/>
       <c r="ABP16" s="75"/>
-    </row>
-    <row r="17" spans="2:744" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ABS16" s="152"/>
+      <c r="ABT16" s="313"/>
+      <c r="ABU16" s="46"/>
+      <c r="ABV16" s="48"/>
+      <c r="ABW16" s="48"/>
+      <c r="ABX16" s="49"/>
+      <c r="ABY16" s="306"/>
+      <c r="ABZ16" s="75"/>
+    </row>
+    <row r="17" spans="2:754" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -45815,7 +46120,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -45826,7 +46131,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -45837,7 +46142,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -45848,7 +46153,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -46571,8 +46876,16 @@
       <c r="ABN17" s="72"/>
       <c r="ABO17" s="317"/>
       <c r="ABP17" s="318"/>
-    </row>
-    <row r="18" spans="2:744" x14ac:dyDescent="0.25">
+      <c r="ABS17" s="69"/>
+      <c r="ABT17" s="70"/>
+      <c r="ABU17" s="70"/>
+      <c r="ABV17" s="71"/>
+      <c r="ABW17" s="71"/>
+      <c r="ABX17" s="72"/>
+      <c r="ABY17" s="317"/>
+      <c r="ABZ17" s="318"/>
+    </row>
+    <row r="18" spans="2:754" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -46870,7 +47183,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:744" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:754" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -46899,7 +47212,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:744" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:754" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -46911,7 +47224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:744" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:754" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -46929,7 +47242,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:744" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:754" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -46947,7 +47260,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:744" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:754" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -46973,17 +47286,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="89">
+    <mergeCell ref="AAQ1:AAX1"/>
+    <mergeCell ref="AAH1:AAO1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
     <mergeCell ref="ABI1:ABP1"/>
     <mergeCell ref="AAZ1:ABG1"/>
     <mergeCell ref="ZY1:AAF1"/>
     <mergeCell ref="ZF1:ZM1"/>
     <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="AAQ1:AAX1"/>
-    <mergeCell ref="AAH1:AAO1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
     <mergeCell ref="WU1:XB1"/>
     <mergeCell ref="YW1:ZD1"/>
     <mergeCell ref="VT1:WA1"/>
@@ -46991,6 +47303,7 @@
     <mergeCell ref="XM1:XT1"/>
     <mergeCell ref="YE1:YL1"/>
     <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="XV1:YC1"/>
     <mergeCell ref="OJ1:OQ1"/>
     <mergeCell ref="QP1:QW1"/>
     <mergeCell ref="TR1:TY1"/>
@@ -47047,6 +47360,7 @@
     <mergeCell ref="KI1:KP1"/>
     <mergeCell ref="JS1:JZ1"/>
     <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="ABS1:ABZ1"/>
     <mergeCell ref="OB1:OI1"/>
     <mergeCell ref="TI1:TP1"/>
     <mergeCell ref="VK1:VR1"/>

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ACA$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ACK$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2546,12 +2546,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="ACF10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ACH10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -21465,11 +21505,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ABZ52"/>
+  <dimension ref="B1:ACI52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ABH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ABW9" sqref="ABW9"/>
+      <pane xSplit="3" topLeftCell="ABT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ACJ11" sqref="ACJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21865,9 +21905,13 @@
     <col min="751" max="751" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="753" max="753" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="754" max="754" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="757" max="757" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="760" max="760" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="761" max="761" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="763" max="763" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:763" x14ac:dyDescent="0.25">
       <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
@@ -22758,8 +22802,18 @@
       <c r="ABX1" s="335"/>
       <c r="ABY1" s="335"/>
       <c r="ABZ1" s="336"/>
-    </row>
-    <row r="2" spans="2:754" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACB1" s="337">
+        <v>45992</v>
+      </c>
+      <c r="ACC1" s="335"/>
+      <c r="ACD1" s="335"/>
+      <c r="ACE1" s="335"/>
+      <c r="ACF1" s="335"/>
+      <c r="ACG1" s="335"/>
+      <c r="ACH1" s="335"/>
+      <c r="ACI1" s="336"/>
+    </row>
+    <row r="2" spans="2:763" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24905,8 +24959,32 @@
       <c r="ABZ2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:754" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACB2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ACC2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ACD2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ACE2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ACF2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ACG2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ACH2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ACI2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:763" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -27229,8 +27307,34 @@
         <f>ABY3</f>
         <v>501.88799999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB3" s="279">
+        <v>1079</v>
+      </c>
+      <c r="ACC3" s="279">
+        <v>1064</v>
+      </c>
+      <c r="ACD3" s="135">
+        <f>ACB3-ACC3</f>
+        <v>15</v>
+      </c>
+      <c r="ACE3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACF3" s="136">
+        <f>ACD3*ACE3</f>
+        <v>470.52</v>
+      </c>
+      <c r="ACG3" s="137"/>
+      <c r="ACH3" s="315">
+        <f>ACF3+ACF4</f>
+        <v>627.36</v>
+      </c>
+      <c r="ACI3" s="322">
+        <f>ACH3</f>
+        <v>627.36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -29371,8 +29475,32 @@
       <c r="ABZ4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:754" ht="30" x14ac:dyDescent="0.25">
+      <c r="ACB4" s="280">
+        <v>568</v>
+      </c>
+      <c r="ACC4" s="280">
+        <v>563</v>
+      </c>
+      <c r="ACD4" s="46">
+        <f>ACB4-ACC4</f>
+        <v>5</v>
+      </c>
+      <c r="ACE4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACF4" s="48">
+        <f>ACD4*ACE4</f>
+        <v>156.84</v>
+      </c>
+      <c r="ACG4" s="49"/>
+      <c r="ACH4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ACI4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:763" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -30965,8 +31093,27 @@
         <f>ABY5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB5" s="281"/>
+      <c r="ACC5" s="281"/>
+      <c r="ACD5" s="46">
+        <f t="shared" ref="ACD5" si="158">ACB5-ACC5</f>
+        <v>0</v>
+      </c>
+      <c r="ACE5" s="74"/>
+      <c r="ACF5" s="48">
+        <f t="shared" ref="ACF5" si="159">ACD5*ACE5</f>
+        <v>0</v>
+      </c>
+      <c r="ACG5" s="179"/>
+      <c r="ACH5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ACI5" s="319">
+        <f>ACH5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31816,8 +31963,20 @@
       <c r="ABZ6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB6" s="281"/>
+      <c r="ACC6" s="281"/>
+      <c r="ACD6" s="46"/>
+      <c r="ACE6" s="74"/>
+      <c r="ACF6" s="48"/>
+      <c r="ACG6" s="179"/>
+      <c r="ACH6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ACI6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -31939,7 +32098,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="158">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="160">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -31961,7 +32120,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="159">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="161">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -31983,7 +32142,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="160">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="162">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -32854,7 +33013,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="161">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="163">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -32868,7 +33027,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="162">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="164">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -32882,7 +33041,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="163">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="165">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -32896,7 +33055,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="164">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="166">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -32910,7 +33069,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="165">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="167">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -32924,7 +33083,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="166">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="168">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -32938,7 +33097,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="167">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="169">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -32952,7 +33111,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="168">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="170">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -32966,7 +33125,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="169">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="171">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -32980,7 +33139,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="170">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="172">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -32994,7 +33153,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="171">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="173">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -33008,7 +33167,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="172">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="174">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -33022,7 +33181,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="173">US7-UT7</f>
+        <f t="shared" ref="UU7" si="175">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -33036,7 +33195,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="174">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="176">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -33050,7 +33209,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="175">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="177">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -33064,7 +33223,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="176">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="178">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -33078,7 +33237,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="177">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="179">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -33092,7 +33251,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="178">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="180">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -33106,7 +33265,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="179">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="181">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -33120,7 +33279,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="180">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="182">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -33134,7 +33293,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="181">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="183">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -33148,7 +33307,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="182">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="184">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -33162,7 +33321,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="183">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="185">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -33176,7 +33335,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="184">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="186">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -33190,7 +33349,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="185">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="187">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -33204,7 +33363,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="186">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="188">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -33218,7 +33377,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="187">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="189">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -33232,7 +33391,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="188">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="190">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -33246,7 +33405,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="189">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="191">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -33260,7 +33419,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="190">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="192">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -33274,7 +33433,7 @@
       <c r="AAZ7" s="278"/>
       <c r="ABA7" s="278"/>
       <c r="ABB7" s="46">
-        <f t="shared" ref="ABB7" si="191">AAZ7-ABA7</f>
+        <f t="shared" ref="ABB7" si="193">AAZ7-ABA7</f>
         <v>0</v>
       </c>
       <c r="ABC7" s="48"/>
@@ -33288,7 +33447,7 @@
       <c r="ABI7" s="278"/>
       <c r="ABJ7" s="278"/>
       <c r="ABK7" s="46">
-        <f t="shared" ref="ABK7" si="192">ABI7-ABJ7</f>
+        <f t="shared" ref="ABK7" si="194">ABI7-ABJ7</f>
         <v>0</v>
       </c>
       <c r="ABL7" s="48"/>
@@ -33302,7 +33461,7 @@
       <c r="ABS7" s="278"/>
       <c r="ABT7" s="278"/>
       <c r="ABU7" s="46">
-        <f t="shared" ref="ABU7" si="193">ABS7-ABT7</f>
+        <f t="shared" ref="ABU7" si="195">ABS7-ABT7</f>
         <v>0</v>
       </c>
       <c r="ABV7" s="48"/>
@@ -33313,8 +33472,22 @@
         <v>0</v>
       </c>
       <c r="ABZ7" s="75"/>
-    </row>
-    <row r="8" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB7" s="278"/>
+      <c r="ACC7" s="278"/>
+      <c r="ACD7" s="46">
+        <f t="shared" ref="ACD7" si="196">ACB7-ACC7</f>
+        <v>0</v>
+      </c>
+      <c r="ACE7" s="48"/>
+      <c r="ACF7" s="311"/>
+      <c r="ACG7" s="312"/>
+      <c r="ACH7" s="306">
+        <f>ACG7</f>
+        <v>0</v>
+      </c>
+      <c r="ACI7" s="75"/>
+    </row>
+    <row r="8" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -34197,8 +34370,20 @@
       <c r="ABZ8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB8" s="278"/>
+      <c r="ACC8" s="278"/>
+      <c r="ACD8" s="46"/>
+      <c r="ACE8" s="48"/>
+      <c r="ACF8" s="311"/>
+      <c r="ACG8" s="312"/>
+      <c r="ACH8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ACI8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -34343,7 +34528,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -34370,7 +34555,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -34397,7 +34582,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -34790,7 +34975,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="194">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="197">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -34814,7 +34999,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="195">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="198">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -34836,7 +35021,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="196">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="199">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -34863,7 +35048,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="197">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="200">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -34890,7 +35075,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="198">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="201">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -34914,7 +35099,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="199">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="202">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -34942,7 +35127,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="200">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="203">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -34970,7 +35155,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="201">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="204">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -34998,7 +35183,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="202">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="205">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -35026,7 +35211,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="203">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="206">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -35054,7 +35239,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="204">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="207">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -35082,7 +35267,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="205">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="208">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -35110,7 +35295,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="206">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="209">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -35138,7 +35323,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="207">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="210">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -35166,7 +35351,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="208">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="211">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -35194,7 +35379,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="209">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="212">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -35222,7 +35407,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="210">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="213">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -35249,7 +35434,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="211">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="214">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -35277,7 +35462,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="212">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="215">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -35305,7 +35490,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="213">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="216">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -35334,7 +35519,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="214">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="217">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -35363,7 +35548,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="215">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="218">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -35392,7 +35577,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="216">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="219">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -35421,7 +35606,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="217">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="220">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -35450,7 +35635,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="218">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="221">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -35479,7 +35664,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="219">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="222">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -35508,7 +35693,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="220">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="223">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -35537,7 +35722,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="221">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="224">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -35565,7 +35750,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="222">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="225">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -35593,7 +35778,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="223">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="226">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -35649,7 +35834,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="224">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="227">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -35681,7 +35866,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="225">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="228">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -35708,7 +35893,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="226">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="229">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -35735,7 +35920,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="227">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="230">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -35762,7 +35947,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="228">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="231">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -35789,7 +35974,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="229">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="232">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -35816,7 +36001,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="230">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="233">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -35841,7 +36026,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="231">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="234">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -35866,7 +36051,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="232">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="235">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -35891,7 +36076,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="233">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="236">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -35916,7 +36101,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="234">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="237">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -35941,7 +36126,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="235">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="238">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -35966,7 +36151,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="236">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="239">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -35991,7 +36176,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="237">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="240">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -36016,7 +36201,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="238">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="241">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -36041,7 +36226,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="239">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="242">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -36066,7 +36251,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="240">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="243">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -36091,7 +36276,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="241">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="244">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -36116,7 +36301,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="242">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="245">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -36141,7 +36326,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="243">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="246">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -36166,7 +36351,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="244">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="247">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -36191,7 +36376,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="245">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="248">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -36216,7 +36401,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="246">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="249">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -36241,7 +36426,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="247">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="250">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -36266,7 +36451,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="248">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="251">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -36291,7 +36476,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="249">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="252">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -36316,7 +36501,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="250">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="253">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -36341,7 +36526,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="251">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="254">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -36366,7 +36551,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="252">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="255">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -36572,8 +36757,31 @@
         <f>ABW9</f>
         <v>2203.2000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB9" s="280">
+        <v>56567</v>
+      </c>
+      <c r="ACC9" s="280">
+        <v>56000</v>
+      </c>
+      <c r="ACD9" s="46">
+        <f>ACB9-ACC9</f>
+        <v>567</v>
+      </c>
+      <c r="ACE9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ACF9" s="326">
+        <f>ACD9*ACE9</f>
+        <v>2449.44</v>
+      </c>
+      <c r="ACG9" s="98"/>
+      <c r="ACH9" s="306"/>
+      <c r="ACI9" s="328">
+        <f>ACF9</f>
+        <v>2449.44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -36667,7 +36875,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -36685,7 +36893,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -36703,7 +36911,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -36721,7 +36929,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="253">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="256">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -36739,7 +36947,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="254">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="257">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -36757,7 +36965,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="255">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="258">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -36775,7 +36983,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="256">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="259">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -36793,7 +37001,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="257">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="260">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -36811,7 +37019,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="258">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="261">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -36829,7 +37037,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="259">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="262">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -36847,7 +37055,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="260">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="263">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -36865,7 +37073,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="261">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="264">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -36883,7 +37091,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="262">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="265">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -36901,7 +37109,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="263">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="266">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -36919,7 +37127,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="264">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="267">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -36937,7 +37145,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="265">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="268">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -36955,7 +37163,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="266">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="269">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -36967,13 +37175,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="267">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="270">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -36985,13 +37193,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="268">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="271">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -37003,13 +37211,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="269">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="272">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -37021,13 +37229,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="270">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="273">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -37039,13 +37247,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="271">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="274">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -37057,13 +37265,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="272">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="275">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -37075,13 +37283,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="273">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="276">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -37093,13 +37301,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="274">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="277">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -37111,13 +37319,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="275">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="278">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -37129,13 +37337,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="276">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="279">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -37147,13 +37355,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="277">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="280">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -37165,13 +37373,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="278">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="281">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -37183,13 +37391,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="279">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="282">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -37201,13 +37409,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="280">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="283">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -37219,13 +37427,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="281">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="284">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -37237,13 +37445,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="282">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="285">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -37255,13 +37463,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="283">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="286">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -37279,7 +37487,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="284">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="287">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -37297,7 +37505,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="285">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="288">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -37315,7 +37523,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="286">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="289">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -37326,7 +37534,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="287">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="290">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -37337,7 +37545,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="288">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="291">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -37348,7 +37556,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="289">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="292">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -37359,7 +37567,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="290">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="293">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -37370,7 +37578,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="291">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="294">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -37381,7 +37589,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="292">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="295">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -37392,7 +37600,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="293">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="296">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -37403,7 +37611,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="294">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="297">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -37415,13 +37623,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="295">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="298">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="296">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="299">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -37434,13 +37642,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="297">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="300">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -37453,13 +37661,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="298">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="301">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="299">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="302">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -37472,13 +37680,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="300">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="303">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -37491,7 +37699,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -37507,7 +37715,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -37523,7 +37731,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -37539,7 +37747,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -37555,7 +37763,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -37571,7 +37779,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -37587,7 +37795,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -37603,7 +37811,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -37619,7 +37827,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -37635,7 +37843,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -37651,7 +37859,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -37667,7 +37875,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -37683,7 +37891,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -37699,7 +37907,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -37715,7 +37923,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -37731,7 +37939,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -37747,7 +37955,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -37763,7 +37971,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -37779,7 +37987,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -37795,7 +38003,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -37811,7 +38019,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -37827,7 +38035,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -37843,7 +38051,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -37859,7 +38067,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -37875,7 +38083,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -37891,7 +38099,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -37907,7 +38115,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -37923,7 +38131,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -38004,8 +38212,16 @@
       <c r="ABX10" s="49"/>
       <c r="ABY10" s="306"/>
       <c r="ABZ10" s="75"/>
-    </row>
-    <row r="11" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB10" s="278"/>
+      <c r="ACC10" s="278"/>
+      <c r="ACD10" s="46"/>
+      <c r="ACE10" s="48"/>
+      <c r="ACF10" s="300"/>
+      <c r="ACG10" s="49"/>
+      <c r="ACH10" s="306"/>
+      <c r="ACI10" s="75"/>
+    </row>
+    <row r="11" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -38104,7 +38320,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -38123,7 +38339,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -38142,7 +38358,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -38161,7 +38377,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -38180,7 +38396,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -38199,7 +38415,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -38218,7 +38434,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -38237,7 +38453,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -38256,7 +38472,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -38275,7 +38491,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -38294,7 +38510,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -38313,7 +38529,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -38332,7 +38548,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -38351,7 +38567,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -38370,7 +38586,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="264"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -38389,7 +38605,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="265"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -38408,7 +38624,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="266"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -38421,13 +38637,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -38440,13 +38656,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -38459,13 +38675,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="269"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -38478,13 +38694,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="270"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -38497,13 +38713,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="271"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -38516,13 +38732,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -38535,13 +38751,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -38554,13 +38770,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="274"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -38573,203 +38789,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="275"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="301">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="304">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="276"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="302">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="305">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="277"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="303">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="306">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="304">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="307">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="279"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="305">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="308">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="280"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="306">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="309">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="281"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="307">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="310">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="282"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="308">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="311">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="283"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="309">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="312">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="310">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="313">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="311">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="314">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="285"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -38780,7 +38996,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="286"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -38791,7 +39007,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="287"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -38802,7 +39018,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="288"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -38813,7 +39029,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -38824,7 +39040,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -38835,7 +39051,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -38846,7 +39062,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -38857,7 +39073,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -38868,7 +39084,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -38879,7 +39095,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -38893,7 +39109,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -38907,7 +39123,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -38921,7 +39137,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -39409,8 +39625,16 @@
       <c r="ABX11" s="49"/>
       <c r="ABY11" s="306"/>
       <c r="ABZ11" s="75"/>
-    </row>
-    <row r="12" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB11" s="278"/>
+      <c r="ACC11" s="278"/>
+      <c r="ACD11" s="286"/>
+      <c r="ACE11" s="48"/>
+      <c r="ACF11" s="327"/>
+      <c r="ACG11" s="49"/>
+      <c r="ACH11" s="306"/>
+      <c r="ACI11" s="75"/>
+    </row>
+    <row r="12" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -39519,7 +39743,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -39540,7 +39764,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -39561,7 +39785,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -39850,7 +40074,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -39870,7 +40094,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -39890,7 +40114,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -39910,7 +40134,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -39930,7 +40154,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -39950,7 +40174,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -39970,7 +40194,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -39990,7 +40214,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -40010,7 +40234,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -40023,14 +40247,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -40043,14 +40267,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -40063,14 +40287,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -40083,14 +40307,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -40103,14 +40327,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -40123,14 +40347,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -40143,14 +40367,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -40163,14 +40387,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -40183,14 +40407,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -40203,14 +40427,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -40821,8 +41045,21 @@
         <f>ABY12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:754" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="ACB12" s="278"/>
+      <c r="ACC12" s="278"/>
+      <c r="ACD12" s="46"/>
+      <c r="ACE12" s="48"/>
+      <c r="ACF12" s="48"/>
+      <c r="ACG12" s="49"/>
+      <c r="ACH12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ACI12" s="324">
+        <f>ACH12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:763" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -40923,7 +41160,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -40942,7 +41179,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -40961,7 +41198,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -40980,7 +41217,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -41203,7 +41440,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -41219,7 +41456,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -41235,7 +41472,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -41251,7 +41488,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -41267,7 +41504,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -41283,7 +41520,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -41299,7 +41536,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -41315,7 +41552,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -41331,7 +41568,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -41340,14 +41577,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -41356,14 +41593,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -41372,14 +41609,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -41388,14 +41625,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -41404,14 +41641,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -41420,14 +41657,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -41436,14 +41673,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -41452,14 +41689,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -41468,14 +41705,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -41484,14 +41721,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -41881,8 +42118,16 @@
       <c r="ABX13" s="49"/>
       <c r="ABY13" s="306"/>
       <c r="ABZ13" s="75"/>
-    </row>
-    <row r="14" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB13" s="278"/>
+      <c r="ACC13" s="278"/>
+      <c r="ACD13" s="46"/>
+      <c r="ACE13" s="48"/>
+      <c r="ACF13" s="48"/>
+      <c r="ACG13" s="49"/>
+      <c r="ACH13" s="306"/>
+      <c r="ACI13" s="75"/>
+    </row>
+    <row r="14" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -42016,7 +42261,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -42042,7 +42287,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -42068,7 +42313,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -42094,7 +42339,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -42120,7 +42365,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="312">CE14</f>
+        <f t="shared" ref="CF14" si="315">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -42146,7 +42391,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="313">CO14</f>
+        <f t="shared" ref="CP14" si="316">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -42172,7 +42417,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="314">CW14</f>
+        <f t="shared" ref="CX14" si="317">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -42198,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="315">DE14</f>
+        <f t="shared" ref="DF14" si="318">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -42224,7 +42469,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="316">DM14</f>
+        <f t="shared" ref="DN14" si="319">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -42250,7 +42495,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="317">DU14</f>
+        <f t="shared" ref="DV14" si="320">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -42437,7 +42682,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -42462,7 +42707,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -42487,7 +42732,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -42512,7 +42757,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -42537,7 +42782,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -42562,7 +42807,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -42584,7 +42829,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -42606,7 +42851,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -42630,7 +42875,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -42647,14 +42892,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -42671,14 +42916,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -42693,14 +42938,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -42718,14 +42963,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -42743,14 +42988,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -42768,14 +43013,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -42793,14 +43038,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -42818,14 +43063,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -42843,14 +43088,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -42868,14 +43113,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -42893,7 +43138,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="318">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="321">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -42918,7 +43163,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="319">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="322">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -44229,8 +44474,36 @@
       <c r="ABZ14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB14" s="280">
+        <v>1188</v>
+      </c>
+      <c r="ACC14" s="280">
+        <v>1170</v>
+      </c>
+      <c r="ACD14" s="46">
+        <f>ACB14-ACC14</f>
+        <v>18</v>
+      </c>
+      <c r="ACE14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ACF14" s="48">
+        <f>ACD14*ACE14</f>
+        <v>143.28</v>
+      </c>
+      <c r="ACG14" s="49">
+        <f>ACF14</f>
+        <v>143.28</v>
+      </c>
+      <c r="ACH14" s="306">
+        <f>ACG14</f>
+        <v>143.28</v>
+      </c>
+      <c r="ACI14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -45207,8 +45480,20 @@
       <c r="ABZ15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB15" s="152"/>
+      <c r="ACC15" s="313"/>
+      <c r="ACD15" s="46"/>
+      <c r="ACE15" s="48"/>
+      <c r="ACF15" s="48"/>
+      <c r="ACG15" s="49"/>
+      <c r="ACH15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ACI15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -46056,8 +46341,16 @@
       <c r="ABX16" s="49"/>
       <c r="ABY16" s="306"/>
       <c r="ABZ16" s="75"/>
-    </row>
-    <row r="17" spans="2:754" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACB16" s="152"/>
+      <c r="ACC16" s="313"/>
+      <c r="ACD16" s="46"/>
+      <c r="ACE16" s="48"/>
+      <c r="ACF16" s="48"/>
+      <c r="ACG16" s="49"/>
+      <c r="ACH16" s="306"/>
+      <c r="ACI16" s="75"/>
+    </row>
+    <row r="17" spans="2:763" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -46120,7 +46413,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -46131,7 +46424,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -46142,7 +46435,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -46153,7 +46446,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -46884,8 +47177,16 @@
       <c r="ABX17" s="72"/>
       <c r="ABY17" s="317"/>
       <c r="ABZ17" s="318"/>
-    </row>
-    <row r="18" spans="2:754" x14ac:dyDescent="0.25">
+      <c r="ACB17" s="69"/>
+      <c r="ACC17" s="70"/>
+      <c r="ACD17" s="70"/>
+      <c r="ACE17" s="71"/>
+      <c r="ACF17" s="71"/>
+      <c r="ACG17" s="72"/>
+      <c r="ACH17" s="317"/>
+      <c r="ACI17" s="318"/>
+    </row>
+    <row r="18" spans="2:763" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -47183,7 +47484,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:763" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -47212,7 +47513,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:763" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -47224,7 +47525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:763" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -47242,7 +47543,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:763" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -47260,7 +47561,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:754" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:763" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -47286,32 +47587,56 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="AAQ1:AAX1"/>
-    <mergeCell ref="AAH1:AAO1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
-    <mergeCell ref="ABI1:ABP1"/>
-    <mergeCell ref="AAZ1:ABG1"/>
-    <mergeCell ref="ZY1:AAF1"/>
-    <mergeCell ref="ZF1:ZM1"/>
-    <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="WU1:XB1"/>
-    <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
-    <mergeCell ref="SQ1:SX1"/>
+  <mergeCells count="90">
+    <mergeCell ref="ACB1:ACI1"/>
+    <mergeCell ref="ABS1:ABZ1"/>
+    <mergeCell ref="OB1:OI1"/>
+    <mergeCell ref="TI1:TP1"/>
+    <mergeCell ref="VK1:VR1"/>
+    <mergeCell ref="UJ1:UQ1"/>
+    <mergeCell ref="US1:UZ1"/>
+    <mergeCell ref="OR1:OY1"/>
+    <mergeCell ref="RG1:RN1"/>
+    <mergeCell ref="RY1:SF1"/>
+    <mergeCell ref="OZ1:PG1"/>
+    <mergeCell ref="UA1:UH1"/>
+    <mergeCell ref="SZ1:TG1"/>
+    <mergeCell ref="SH1:SO1"/>
+    <mergeCell ref="RP1:RW1"/>
+    <mergeCell ref="PP1:PW1"/>
+    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
     <mergeCell ref="BA1:BH1"/>
     <mergeCell ref="BY1:CF1"/>
     <mergeCell ref="BQ1:BX1"/>
@@ -47328,54 +47653,31 @@
     <mergeCell ref="DW1:ED1"/>
     <mergeCell ref="DO1:DV1"/>
     <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="ABS1:ABZ1"/>
-    <mergeCell ref="OB1:OI1"/>
-    <mergeCell ref="TI1:TP1"/>
-    <mergeCell ref="VK1:VR1"/>
-    <mergeCell ref="UJ1:UQ1"/>
-    <mergeCell ref="US1:UZ1"/>
-    <mergeCell ref="OR1:OY1"/>
-    <mergeCell ref="RG1:RN1"/>
-    <mergeCell ref="RY1:SF1"/>
-    <mergeCell ref="OZ1:PG1"/>
-    <mergeCell ref="UA1:UH1"/>
-    <mergeCell ref="SZ1:TG1"/>
-    <mergeCell ref="SH1:SO1"/>
-    <mergeCell ref="RP1:RW1"/>
-    <mergeCell ref="PP1:PW1"/>
-    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
+    <mergeCell ref="SQ1:SX1"/>
+    <mergeCell ref="WU1:XB1"/>
+    <mergeCell ref="YW1:ZD1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="XV1:YC1"/>
+    <mergeCell ref="AAQ1:AAX1"/>
+    <mergeCell ref="AAH1:AAO1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
+    <mergeCell ref="ABI1:ABP1"/>
+    <mergeCell ref="AAZ1:ABG1"/>
+    <mergeCell ref="ZY1:AAF1"/>
+    <mergeCell ref="ZF1:ZM1"/>
+    <mergeCell ref="YN1:YU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ACK$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ADC$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2586,12 +2586,92 @@
         </r>
       </text>
     </comment>
+    <comment ref="ACO10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ACQ10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ACX10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ACZ10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -21505,11 +21585,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ACI52"/>
+  <dimension ref="B1:ADA52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ABT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ACJ11" sqref="ACJ11"/>
+      <pane xSplit="3" topLeftCell="ACO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ACT9" sqref="ACT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21909,9 +21989,17 @@
     <col min="760" max="760" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="761" max="761" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="763" max="763" width="12.85546875" customWidth="1"/>
+    <col min="768" max="768" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="13.28515625" customWidth="1"/>
+    <col min="777" max="777" width="12.85546875" customWidth="1"/>
+    <col min="778" max="778" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:781" x14ac:dyDescent="0.25">
       <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
@@ -22803,7 +22891,7 @@
       <c r="ABY1" s="335"/>
       <c r="ABZ1" s="336"/>
       <c r="ACB1" s="337">
-        <v>45992</v>
+        <v>45658</v>
       </c>
       <c r="ACC1" s="335"/>
       <c r="ACD1" s="335"/>
@@ -22812,8 +22900,28 @@
       <c r="ACG1" s="335"/>
       <c r="ACH1" s="335"/>
       <c r="ACI1" s="336"/>
-    </row>
-    <row r="2" spans="2:763" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACK1" s="337">
+        <v>45689</v>
+      </c>
+      <c r="ACL1" s="335"/>
+      <c r="ACM1" s="335"/>
+      <c r="ACN1" s="335"/>
+      <c r="ACO1" s="335"/>
+      <c r="ACP1" s="335"/>
+      <c r="ACQ1" s="335"/>
+      <c r="ACR1" s="336"/>
+      <c r="ACT1" s="337">
+        <v>45717</v>
+      </c>
+      <c r="ACU1" s="335"/>
+      <c r="ACV1" s="335"/>
+      <c r="ACW1" s="335"/>
+      <c r="ACX1" s="335"/>
+      <c r="ACY1" s="335"/>
+      <c r="ACZ1" s="335"/>
+      <c r="ADA1" s="336"/>
+    </row>
+    <row r="2" spans="2:781" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -24983,8 +25091,56 @@
       <c r="ACI2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:763" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACK2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ACL2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ACM2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ACN2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ACO2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ACP2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ACQ2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ACR2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="ACT2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ACU2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ACV2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ACW2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ACX2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ACY2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ACZ2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ADA2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:781" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -27333,8 +27489,60 @@
         <f>ACH3</f>
         <v>627.36</v>
       </c>
-    </row>
-    <row r="4" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK3" s="279">
+        <v>1088</v>
+      </c>
+      <c r="ACL3" s="279">
+        <v>1079</v>
+      </c>
+      <c r="ACM3" s="135">
+        <f>ACK3-ACL3</f>
+        <v>9</v>
+      </c>
+      <c r="ACN3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACO3" s="136">
+        <f>ACM3*ACN3</f>
+        <v>282.31200000000001</v>
+      </c>
+      <c r="ACP3" s="137"/>
+      <c r="ACQ3" s="315">
+        <f>ACO3+ACO4</f>
+        <v>407.78399999999999</v>
+      </c>
+      <c r="ACR3" s="322">
+        <f>ACQ3</f>
+        <v>407.78399999999999</v>
+      </c>
+      <c r="ACT3" s="279">
+        <v>1098</v>
+      </c>
+      <c r="ACU3" s="279">
+        <v>1088</v>
+      </c>
+      <c r="ACV3" s="135">
+        <f>ACT3-ACU3</f>
+        <v>10</v>
+      </c>
+      <c r="ACW3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACX3" s="136">
+        <f>ACV3*ACW3</f>
+        <v>313.68</v>
+      </c>
+      <c r="ACY3" s="137"/>
+      <c r="ACZ3" s="315">
+        <f>ACX3+ACX4</f>
+        <v>407.78399999999999</v>
+      </c>
+      <c r="ADA3" s="322">
+        <f>ACZ3</f>
+        <v>407.78399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -29499,8 +29707,56 @@
       <c r="ACI4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:763" ht="30" x14ac:dyDescent="0.25">
+      <c r="ACK4" s="280">
+        <v>572</v>
+      </c>
+      <c r="ACL4" s="280">
+        <v>568</v>
+      </c>
+      <c r="ACM4" s="46">
+        <f>ACK4-ACL4</f>
+        <v>4</v>
+      </c>
+      <c r="ACN4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACO4" s="48">
+        <f>ACM4*ACN4</f>
+        <v>125.47199999999999</v>
+      </c>
+      <c r="ACP4" s="49"/>
+      <c r="ACQ4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ACR4" s="323">
+        <v>20</v>
+      </c>
+      <c r="ACT4" s="280">
+        <v>575</v>
+      </c>
+      <c r="ACU4" s="280">
+        <v>572</v>
+      </c>
+      <c r="ACV4" s="46">
+        <f>ACT4-ACU4</f>
+        <v>3</v>
+      </c>
+      <c r="ACW4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ACX4" s="48">
+        <f>ACV4*ACW4</f>
+        <v>94.103999999999999</v>
+      </c>
+      <c r="ACY4" s="49"/>
+      <c r="ACZ4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ADA4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:781" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -31112,8 +31368,46 @@
         <f>ACH5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK5" s="281"/>
+      <c r="ACL5" s="281"/>
+      <c r="ACM5" s="46">
+        <f t="shared" ref="ACM5" si="160">ACK5-ACL5</f>
+        <v>0</v>
+      </c>
+      <c r="ACN5" s="74"/>
+      <c r="ACO5" s="48">
+        <f t="shared" ref="ACO5" si="161">ACM5*ACN5</f>
+        <v>0</v>
+      </c>
+      <c r="ACP5" s="179"/>
+      <c r="ACQ5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ACR5" s="319">
+        <f>ACQ5</f>
+        <v>0</v>
+      </c>
+      <c r="ACT5" s="281"/>
+      <c r="ACU5" s="281"/>
+      <c r="ACV5" s="46">
+        <f t="shared" ref="ACV5" si="162">ACT5-ACU5</f>
+        <v>0</v>
+      </c>
+      <c r="ACW5" s="74"/>
+      <c r="ACX5" s="48">
+        <f t="shared" ref="ACX5" si="163">ACV5*ACW5</f>
+        <v>0</v>
+      </c>
+      <c r="ACY5" s="179"/>
+      <c r="ACZ5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ADA5" s="319">
+        <f>ACZ5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -31975,8 +32269,32 @@
       <c r="ACI6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK6" s="281"/>
+      <c r="ACL6" s="281"/>
+      <c r="ACM6" s="46"/>
+      <c r="ACN6" s="74"/>
+      <c r="ACO6" s="48"/>
+      <c r="ACP6" s="179"/>
+      <c r="ACQ6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ACR6" s="323">
+        <v>8.34</v>
+      </c>
+      <c r="ACT6" s="281"/>
+      <c r="ACU6" s="281"/>
+      <c r="ACV6" s="46"/>
+      <c r="ACW6" s="74"/>
+      <c r="ACX6" s="48"/>
+      <c r="ACY6" s="179"/>
+      <c r="ACZ6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ADA6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -32098,7 +32416,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="160">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="164">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -32120,7 +32438,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="161">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="165">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -32142,7 +32460,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="162">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="166">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -33013,7 +33331,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="163">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="167">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -33027,7 +33345,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="164">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="168">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -33041,7 +33359,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="165">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="169">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -33055,7 +33373,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="166">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="170">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -33069,7 +33387,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="167">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="171">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -33083,7 +33401,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="168">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="172">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -33097,7 +33415,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="169">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="173">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -33111,7 +33429,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="170">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="174">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -33125,7 +33443,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="171">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="175">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -33139,7 +33457,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="172">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="176">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -33153,7 +33471,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="173">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="177">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -33167,7 +33485,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="174">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="178">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -33181,7 +33499,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="175">US7-UT7</f>
+        <f t="shared" ref="UU7" si="179">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -33195,7 +33513,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="176">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="180">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -33209,7 +33527,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="177">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="181">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -33223,7 +33541,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="178">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="182">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -33237,7 +33555,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="179">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="183">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -33251,7 +33569,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="180">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="184">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -33265,7 +33583,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="181">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="185">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -33279,7 +33597,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="182">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="186">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -33293,7 +33611,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="183">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="187">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -33307,7 +33625,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="184">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="188">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -33321,7 +33639,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="185">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="189">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -33335,7 +33653,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="186">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="190">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -33349,7 +33667,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="187">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="191">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -33363,7 +33681,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="188">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="192">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -33377,7 +33695,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="189">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="193">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -33391,7 +33709,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="190">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="194">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -33405,7 +33723,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="191">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="195">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -33419,7 +33737,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="192">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="196">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -33433,7 +33751,7 @@
       <c r="AAZ7" s="278"/>
       <c r="ABA7" s="278"/>
       <c r="ABB7" s="46">
-        <f t="shared" ref="ABB7" si="193">AAZ7-ABA7</f>
+        <f t="shared" ref="ABB7" si="197">AAZ7-ABA7</f>
         <v>0</v>
       </c>
       <c r="ABC7" s="48"/>
@@ -33447,7 +33765,7 @@
       <c r="ABI7" s="278"/>
       <c r="ABJ7" s="278"/>
       <c r="ABK7" s="46">
-        <f t="shared" ref="ABK7" si="194">ABI7-ABJ7</f>
+        <f t="shared" ref="ABK7" si="198">ABI7-ABJ7</f>
         <v>0</v>
       </c>
       <c r="ABL7" s="48"/>
@@ -33461,7 +33779,7 @@
       <c r="ABS7" s="278"/>
       <c r="ABT7" s="278"/>
       <c r="ABU7" s="46">
-        <f t="shared" ref="ABU7" si="195">ABS7-ABT7</f>
+        <f t="shared" ref="ABU7" si="199">ABS7-ABT7</f>
         <v>0</v>
       </c>
       <c r="ABV7" s="48"/>
@@ -33475,7 +33793,7 @@
       <c r="ACB7" s="278"/>
       <c r="ACC7" s="278"/>
       <c r="ACD7" s="46">
-        <f t="shared" ref="ACD7" si="196">ACB7-ACC7</f>
+        <f t="shared" ref="ACD7" si="200">ACB7-ACC7</f>
         <v>0</v>
       </c>
       <c r="ACE7" s="48"/>
@@ -33486,8 +33804,36 @@
         <v>0</v>
       </c>
       <c r="ACI7" s="75"/>
-    </row>
-    <row r="8" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK7" s="278"/>
+      <c r="ACL7" s="278"/>
+      <c r="ACM7" s="46">
+        <f t="shared" ref="ACM7" si="201">ACK7-ACL7</f>
+        <v>0</v>
+      </c>
+      <c r="ACN7" s="48"/>
+      <c r="ACO7" s="311"/>
+      <c r="ACP7" s="312"/>
+      <c r="ACQ7" s="306">
+        <f>ACP7</f>
+        <v>0</v>
+      </c>
+      <c r="ACR7" s="75"/>
+      <c r="ACT7" s="278"/>
+      <c r="ACU7" s="278"/>
+      <c r="ACV7" s="46">
+        <f t="shared" ref="ACV7" si="202">ACT7-ACU7</f>
+        <v>0</v>
+      </c>
+      <c r="ACW7" s="48"/>
+      <c r="ACX7" s="311"/>
+      <c r="ACY7" s="312"/>
+      <c r="ACZ7" s="306">
+        <f>ACY7</f>
+        <v>0</v>
+      </c>
+      <c r="ADA7" s="75"/>
+    </row>
+    <row r="8" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -34382,8 +34728,32 @@
       <c r="ACI8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK8" s="278"/>
+      <c r="ACL8" s="278"/>
+      <c r="ACM8" s="46"/>
+      <c r="ACN8" s="48"/>
+      <c r="ACO8" s="311"/>
+      <c r="ACP8" s="312"/>
+      <c r="ACQ8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ACR8" s="323">
+        <v>451.5</v>
+      </c>
+      <c r="ACT8" s="278"/>
+      <c r="ACU8" s="278"/>
+      <c r="ACV8" s="46"/>
+      <c r="ACW8" s="48"/>
+      <c r="ACX8" s="311"/>
+      <c r="ACY8" s="312"/>
+      <c r="ACZ8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ADA8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -34528,7 +34898,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -34555,7 +34925,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -34582,7 +34952,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -34975,7 +35345,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="197">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="203">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -34999,7 +35369,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="198">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="204">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -35021,7 +35391,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="199">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="205">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -35048,7 +35418,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="200">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="206">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -35075,7 +35445,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="201">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="207">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -35099,7 +35469,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="202">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="208">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -35127,7 +35497,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="203">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="209">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -35155,7 +35525,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="204">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="210">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -35183,7 +35553,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="205">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="211">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -35211,7 +35581,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="206">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="212">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -35239,7 +35609,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="207">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="213">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -35267,7 +35637,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="208">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="214">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -35295,7 +35665,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="209">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="215">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -35323,7 +35693,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="210">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="216">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -35351,7 +35721,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="211">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="217">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -35379,7 +35749,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="212">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="218">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -35407,7 +35777,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="213">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="219">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -35434,7 +35804,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="214">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="220">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -35462,7 +35832,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="215">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="221">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -35490,7 +35860,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="216">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="222">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -35519,7 +35889,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="217">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="223">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -35548,7 +35918,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="218">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="224">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -35577,7 +35947,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="219">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="225">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -35606,7 +35976,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="220">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="226">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -35635,7 +36005,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="221">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="227">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -35664,7 +36034,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="222">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="228">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -35693,7 +36063,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="223">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="229">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -35722,7 +36092,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="224">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="230">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -35750,7 +36120,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="225">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="231">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -35778,7 +36148,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="226">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="232">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -35834,7 +36204,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="227">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="233">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -35866,7 +36236,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="228">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="234">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -35893,7 +36263,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="229">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="235">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -35920,7 +36290,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="230">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="236">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -35947,7 +36317,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="231">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="237">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -35974,7 +36344,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="232">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="238">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -36001,7 +36371,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="233">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="239">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -36026,7 +36396,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="234">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="240">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -36051,7 +36421,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="235">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="241">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -36076,7 +36446,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="236">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="242">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -36101,7 +36471,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="237">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="243">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -36126,7 +36496,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="238">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="244">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -36151,7 +36521,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="239">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="245">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -36176,7 +36546,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="240">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="246">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -36201,7 +36571,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="241">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="247">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -36226,7 +36596,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="242">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="248">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -36251,7 +36621,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="243">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="249">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -36276,7 +36646,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="244">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="250">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -36301,7 +36671,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="245">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="251">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -36326,7 +36696,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="246">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="252">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -36351,7 +36721,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="247">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="253">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -36376,7 +36746,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="248">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="254">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -36401,7 +36771,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="249">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="255">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -36426,7 +36796,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="250">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="256">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -36451,7 +36821,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="251">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="257">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -36476,7 +36846,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="252">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="258">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -36501,7 +36871,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="253">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="259">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -36526,7 +36896,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="254">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="260">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -36551,7 +36921,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="255">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="261">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -36780,8 +37150,54 @@
         <f>ACF9</f>
         <v>2449.44</v>
       </c>
-    </row>
-    <row r="10" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK9" s="280">
+        <v>57041</v>
+      </c>
+      <c r="ACL9" s="280">
+        <v>56567</v>
+      </c>
+      <c r="ACM9" s="46">
+        <f>ACK9-ACL9</f>
+        <v>474</v>
+      </c>
+      <c r="ACN9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ACO9" s="326">
+        <f>ACM9*ACN9</f>
+        <v>2047.68</v>
+      </c>
+      <c r="ACP9" s="98"/>
+      <c r="ACQ9" s="306"/>
+      <c r="ACR9" s="328">
+        <f>ACO9</f>
+        <v>2047.68</v>
+      </c>
+      <c r="ACT9" s="280">
+        <v>57484</v>
+      </c>
+      <c r="ACU9" s="280">
+        <v>57041</v>
+      </c>
+      <c r="ACV9" s="46">
+        <f>ACT9-ACU9</f>
+        <v>443</v>
+      </c>
+      <c r="ACW9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ACX9" s="326">
+        <f>ACV9*ACW9</f>
+        <v>1913.7600000000002</v>
+      </c>
+      <c r="ACY9" s="98"/>
+      <c r="ACZ9" s="306"/>
+      <c r="ADA9" s="328">
+        <f>ACX9</f>
+        <v>1913.7600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -36875,7 +37291,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -36893,7 +37309,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -36911,7 +37327,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -36929,7 +37345,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="256">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="262">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -36947,7 +37363,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="257">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="263">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -36965,7 +37381,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="258">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="264">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -36983,7 +37399,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="259">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="265">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -37001,7 +37417,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="260">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="266">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -37019,7 +37435,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="261">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="267">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -37037,7 +37453,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="262">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="268">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -37055,7 +37471,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="263">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="269">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -37073,7 +37489,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="264">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="270">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -37091,7 +37507,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="265">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="271">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -37109,7 +37525,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="266">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="272">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -37127,7 +37543,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="267">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="273">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -37145,7 +37561,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="268">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="274">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -37163,7 +37579,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="269">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="275">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -37175,13 +37591,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="270">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="276">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -37193,13 +37609,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="271">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="277">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -37211,13 +37627,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="272">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="278">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -37229,13 +37645,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="273">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="279">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -37247,13 +37663,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="274">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="280">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -37265,13 +37681,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="275">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="281">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -37283,13 +37699,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="209"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="276">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="282">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -37301,13 +37717,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="210"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="277">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="283">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -37319,13 +37735,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="211"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="278">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="284">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -37337,13 +37753,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="212"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="279">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="285">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -37355,13 +37771,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="213"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="280">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="286">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -37373,13 +37789,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="214"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="281">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="287">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -37391,13 +37807,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="215"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="282">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="288">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -37409,13 +37825,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="216"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="283">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="289">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -37427,13 +37843,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="217"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="284">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="290">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -37445,13 +37861,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="218"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="285">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="291">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -37463,13 +37879,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="219"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="286">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="292">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -37487,7 +37903,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="287">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="293">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -37505,7 +37921,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="288">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="294">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -37523,7 +37939,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="289">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="295">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -37534,7 +37950,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="290">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="296">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -37545,7 +37961,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="291">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="297">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -37556,7 +37972,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="292">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="298">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -37567,7 +37983,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="293">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="299">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -37578,7 +37994,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="294">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="300">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -37589,7 +38005,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="295">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="301">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -37600,7 +38016,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="296">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="302">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -37611,7 +38027,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="297">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="303">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -37623,13 +38039,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="298">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="304">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="299">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="305">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -37642,13 +38058,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="232"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="300">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="306">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -37661,13 +38077,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="301">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="307">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="302">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="308">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -37680,13 +38096,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="227"/>
+        <f t="shared" si="233"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="303">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="309">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -37699,7 +38115,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -37715,7 +38131,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="229"/>
+        <f t="shared" si="235"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -37731,7 +38147,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="230"/>
+        <f t="shared" si="236"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -37747,7 +38163,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="231"/>
+        <f t="shared" si="237"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -37763,7 +38179,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="238"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -37779,7 +38195,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="239"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -37795,7 +38211,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="240"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -37811,7 +38227,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="241"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -37827,7 +38243,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="242"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -37843,7 +38259,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="243"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -37859,7 +38275,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="244"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -37875,7 +38291,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="245"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -37891,7 +38307,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="246"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -37907,7 +38323,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="247"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -37923,7 +38339,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="248"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -37939,7 +38355,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="249"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -37955,7 +38371,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="244"/>
+        <f t="shared" si="250"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -37971,7 +38387,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="245"/>
+        <f t="shared" si="251"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -37987,7 +38403,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="246"/>
+        <f t="shared" si="252"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -38003,7 +38419,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="247"/>
+        <f t="shared" si="253"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -38019,7 +38435,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="248"/>
+        <f t="shared" si="254"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -38035,7 +38451,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="249"/>
+        <f t="shared" si="255"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -38051,7 +38467,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="250"/>
+        <f t="shared" si="256"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -38067,7 +38483,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="251"/>
+        <f t="shared" si="257"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -38083,7 +38499,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="252"/>
+        <f t="shared" si="258"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -38099,7 +38515,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="253"/>
+        <f t="shared" si="259"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -38115,7 +38531,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="254"/>
+        <f t="shared" si="260"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -38131,7 +38547,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="255"/>
+        <f t="shared" si="261"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -38220,8 +38636,24 @@
       <c r="ACG10" s="49"/>
       <c r="ACH10" s="306"/>
       <c r="ACI10" s="75"/>
-    </row>
-    <row r="11" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK10" s="278"/>
+      <c r="ACL10" s="278"/>
+      <c r="ACM10" s="46"/>
+      <c r="ACN10" s="48"/>
+      <c r="ACO10" s="300"/>
+      <c r="ACP10" s="49"/>
+      <c r="ACQ10" s="306"/>
+      <c r="ACR10" s="75"/>
+      <c r="ACT10" s="278"/>
+      <c r="ACU10" s="278"/>
+      <c r="ACV10" s="46"/>
+      <c r="ACW10" s="48"/>
+      <c r="ACX10" s="300"/>
+      <c r="ACY10" s="49"/>
+      <c r="ACZ10" s="306"/>
+      <c r="ADA10" s="75"/>
+    </row>
+    <row r="11" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -38320,7 +38752,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -38339,7 +38771,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -38358,7 +38790,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -38377,7 +38809,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="256"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -38396,7 +38828,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="257"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -38415,7 +38847,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -38434,7 +38866,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -38453,7 +38885,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="260"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -38472,7 +38904,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="261"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -38491,7 +38923,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="262"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -38510,7 +38942,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="263"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -38529,7 +38961,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="264"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -38548,7 +38980,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="265"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -38567,7 +38999,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="266"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -38586,7 +39018,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="267"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -38605,7 +39037,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="268"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -38624,7 +39056,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="269"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -38637,13 +39069,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="270"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -38656,13 +39088,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="271"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -38675,13 +39107,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="272"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -38694,13 +39126,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="273"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -38713,13 +39145,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="274"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -38732,13 +39164,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="275"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -38751,13 +39183,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="276"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -38770,13 +39202,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="277"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -38789,203 +39221,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="278"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="304">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="310">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="279"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="305">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="311">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="280"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="306">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="312">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="281"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="307">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="313">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="282"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="308">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="314">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="283"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="309">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="315">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="284"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="310">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="316">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="285"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="311">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="317">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="286"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="312">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="318">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="287"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="313">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="319">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="314">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="320">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="288"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -38996,7 +39428,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="289"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -39007,7 +39439,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="290"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -39018,7 +39450,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="291"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -39029,7 +39461,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="292"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -39040,7 +39472,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="293"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -39051,7 +39483,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="294"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -39062,7 +39494,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="295"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -39073,7 +39505,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="296"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -39084,7 +39516,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="297"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -39095,7 +39527,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="299"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -39109,7 +39541,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="300"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -39123,7 +39555,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="302"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -39137,7 +39569,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="303"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -39633,8 +40065,24 @@
       <c r="ACG11" s="49"/>
       <c r="ACH11" s="306"/>
       <c r="ACI11" s="75"/>
-    </row>
-    <row r="12" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK11" s="278"/>
+      <c r="ACL11" s="278"/>
+      <c r="ACM11" s="286"/>
+      <c r="ACN11" s="48"/>
+      <c r="ACO11" s="327"/>
+      <c r="ACP11" s="49"/>
+      <c r="ACQ11" s="306"/>
+      <c r="ACR11" s="75"/>
+      <c r="ACT11" s="278"/>
+      <c r="ACU11" s="278"/>
+      <c r="ACV11" s="286"/>
+      <c r="ACW11" s="48"/>
+      <c r="ACX11" s="327"/>
+      <c r="ACY11" s="49"/>
+      <c r="ACZ11" s="306"/>
+      <c r="ADA11" s="75"/>
+    </row>
+    <row r="12" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -39743,7 +40191,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -39764,7 +40212,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -39785,7 +40233,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -40074,7 +40522,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -40094,7 +40542,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -40114,7 +40562,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -40134,7 +40582,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -40154,7 +40602,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -40174,7 +40622,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -40194,7 +40642,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -40214,7 +40662,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -40234,7 +40682,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -40247,14 +40695,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -40267,14 +40715,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -40287,14 +40735,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -40307,14 +40755,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -40327,14 +40775,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -40347,14 +40795,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -40367,14 +40815,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -40387,14 +40835,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -40407,14 +40855,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -40427,14 +40875,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="314"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -41058,8 +41506,34 @@
         <f>ACH12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:763" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="ACK12" s="278"/>
+      <c r="ACL12" s="278"/>
+      <c r="ACM12" s="46"/>
+      <c r="ACN12" s="48"/>
+      <c r="ACO12" s="48"/>
+      <c r="ACP12" s="49"/>
+      <c r="ACQ12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ACR12" s="324">
+        <f>ACQ12</f>
+        <v>35</v>
+      </c>
+      <c r="ACT12" s="278"/>
+      <c r="ACU12" s="278"/>
+      <c r="ACV12" s="46"/>
+      <c r="ACW12" s="48"/>
+      <c r="ACX12" s="48"/>
+      <c r="ACY12" s="49"/>
+      <c r="ACZ12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ADA12" s="324">
+        <f>ACZ12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:781" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -41160,7 +41634,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -41179,7 +41653,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -41198,7 +41672,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -41217,7 +41691,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="256"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -41440,7 +41914,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -41456,7 +41930,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -41472,7 +41946,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -41488,7 +41962,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -41504,7 +41978,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -41520,7 +41994,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -41536,7 +42010,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -41552,7 +42026,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -41568,7 +42042,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -41577,14 +42051,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -41593,14 +42067,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -41609,14 +42083,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -41625,14 +42099,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -41641,14 +42115,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -41657,14 +42131,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -41673,14 +42147,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -41689,14 +42163,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -41705,14 +42179,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -41721,14 +42195,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="314"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -42126,8 +42600,24 @@
       <c r="ACG13" s="49"/>
       <c r="ACH13" s="306"/>
       <c r="ACI13" s="75"/>
-    </row>
-    <row r="14" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK13" s="278"/>
+      <c r="ACL13" s="278"/>
+      <c r="ACM13" s="46"/>
+      <c r="ACN13" s="48"/>
+      <c r="ACO13" s="48"/>
+      <c r="ACP13" s="49"/>
+      <c r="ACQ13" s="306"/>
+      <c r="ACR13" s="75"/>
+      <c r="ACT13" s="278"/>
+      <c r="ACU13" s="278"/>
+      <c r="ACV13" s="46"/>
+      <c r="ACW13" s="48"/>
+      <c r="ACX13" s="48"/>
+      <c r="ACY13" s="49"/>
+      <c r="ACZ13" s="306"/>
+      <c r="ADA13" s="75"/>
+    </row>
+    <row r="14" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -42261,7 +42751,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -42287,7 +42777,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -42313,7 +42803,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -42339,7 +42829,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="256"/>
+        <f t="shared" si="262"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -42365,7 +42855,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="315">CE14</f>
+        <f t="shared" ref="CF14" si="321">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -42391,7 +42881,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="316">CO14</f>
+        <f t="shared" ref="CP14" si="322">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -42417,7 +42907,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="317">CW14</f>
+        <f t="shared" ref="CX14" si="323">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -42443,7 +42933,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="318">DE14</f>
+        <f t="shared" ref="DF14" si="324">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -42469,7 +42959,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="319">DM14</f>
+        <f t="shared" ref="DN14" si="325">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -42495,7 +42985,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="320">DU14</f>
+        <f t="shared" ref="DV14" si="326">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -42682,7 +43172,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="197"/>
+        <f t="shared" si="203"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -42707,7 +43197,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="198"/>
+        <f t="shared" si="204"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -42732,7 +43222,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="199"/>
+        <f t="shared" si="205"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -42757,7 +43247,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="200"/>
+        <f t="shared" si="206"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -42782,7 +43272,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="201"/>
+        <f t="shared" si="207"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -42807,7 +43297,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="202"/>
+        <f t="shared" si="208"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -42829,7 +43319,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="209"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -42851,7 +43341,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="210"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -42875,7 +43365,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="211"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -42892,14 +43382,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="304"/>
+        <f t="shared" si="310"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="212"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -42916,14 +43406,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="305"/>
+        <f t="shared" si="311"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="213"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -42938,14 +43428,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="306"/>
+        <f t="shared" si="312"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="214"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -42963,14 +43453,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="307"/>
+        <f t="shared" si="313"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="215"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -42988,14 +43478,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="308"/>
+        <f t="shared" si="314"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="216"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -43013,14 +43503,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="309"/>
+        <f t="shared" si="315"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="217"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -43038,14 +43528,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="316"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="218"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -43063,14 +43553,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="317"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="219"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -43088,14 +43578,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="318"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="220"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -43113,14 +43603,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="319"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="314"/>
+        <f t="shared" si="320"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -43138,7 +43628,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="321">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="327">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -43163,7 +43653,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="322">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="328">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -44502,8 +44992,64 @@
       <c r="ACI14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK14" s="280">
+        <v>1201</v>
+      </c>
+      <c r="ACL14" s="280">
+        <v>1188</v>
+      </c>
+      <c r="ACM14" s="46">
+        <f>ACK14-ACL14</f>
+        <v>13</v>
+      </c>
+      <c r="ACN14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ACO14" s="48">
+        <f>ACM14*ACN14</f>
+        <v>103.48</v>
+      </c>
+      <c r="ACP14" s="49">
+        <f>ACO14</f>
+        <v>103.48</v>
+      </c>
+      <c r="ACQ14" s="306">
+        <f>ACP14</f>
+        <v>103.48</v>
+      </c>
+      <c r="ACR14" s="324">
+        <v>87.53</v>
+      </c>
+      <c r="ACT14" s="280">
+        <v>1215</v>
+      </c>
+      <c r="ACU14" s="280">
+        <v>1201</v>
+      </c>
+      <c r="ACV14" s="46">
+        <f>ACT14-ACU14</f>
+        <v>14</v>
+      </c>
+      <c r="ACW14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ACX14" s="48">
+        <f>ACV14*ACW14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ACY14" s="49">
+        <f>ACX14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ACZ14" s="306">
+        <f>ACY14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ADA14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -45492,8 +46038,32 @@
       <c r="ACI15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK15" s="152"/>
+      <c r="ACL15" s="313"/>
+      <c r="ACM15" s="46"/>
+      <c r="ACN15" s="48"/>
+      <c r="ACO15" s="48"/>
+      <c r="ACP15" s="49"/>
+      <c r="ACQ15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ACR15" s="323">
+        <v>6.67</v>
+      </c>
+      <c r="ACT15" s="152"/>
+      <c r="ACU15" s="313"/>
+      <c r="ACV15" s="46"/>
+      <c r="ACW15" s="48"/>
+      <c r="ACX15" s="48"/>
+      <c r="ACY15" s="49"/>
+      <c r="ACZ15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ADA15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -46349,8 +46919,24 @@
       <c r="ACG16" s="49"/>
       <c r="ACH16" s="306"/>
       <c r="ACI16" s="75"/>
-    </row>
-    <row r="17" spans="2:763" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ACK16" s="152"/>
+      <c r="ACL16" s="313"/>
+      <c r="ACM16" s="46"/>
+      <c r="ACN16" s="48"/>
+      <c r="ACO16" s="48"/>
+      <c r="ACP16" s="49"/>
+      <c r="ACQ16" s="306"/>
+      <c r="ACR16" s="75"/>
+      <c r="ACT16" s="152"/>
+      <c r="ACU16" s="313"/>
+      <c r="ACV16" s="46"/>
+      <c r="ACW16" s="48"/>
+      <c r="ACX16" s="48"/>
+      <c r="ACY16" s="49"/>
+      <c r="ACZ16" s="306"/>
+      <c r="ADA16" s="75"/>
+    </row>
+    <row r="17" spans="2:781" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -46413,7 +46999,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -46424,7 +47010,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -46435,7 +47021,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -46446,7 +47032,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="256"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -47185,8 +47771,24 @@
       <c r="ACG17" s="72"/>
       <c r="ACH17" s="317"/>
       <c r="ACI17" s="318"/>
-    </row>
-    <row r="18" spans="2:763" x14ac:dyDescent="0.25">
+      <c r="ACK17" s="69"/>
+      <c r="ACL17" s="70"/>
+      <c r="ACM17" s="70"/>
+      <c r="ACN17" s="71"/>
+      <c r="ACO17" s="71"/>
+      <c r="ACP17" s="72"/>
+      <c r="ACQ17" s="317"/>
+      <c r="ACR17" s="318"/>
+      <c r="ACT17" s="69"/>
+      <c r="ACU17" s="70"/>
+      <c r="ACV17" s="70"/>
+      <c r="ACW17" s="71"/>
+      <c r="ACX17" s="71"/>
+      <c r="ACY17" s="72"/>
+      <c r="ACZ17" s="317"/>
+      <c r="ADA17" s="318"/>
+    </row>
+    <row r="18" spans="2:781" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -47484,7 +48086,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:781" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -47513,7 +48115,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:781" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -47525,7 +48127,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:781" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -47543,7 +48145,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:781" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -47561,7 +48163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:763" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:781" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -47587,9 +48189,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="ACB1:ACI1"/>
-    <mergeCell ref="ABS1:ABZ1"/>
+  <mergeCells count="92">
+    <mergeCell ref="ACT1:ADA1"/>
     <mergeCell ref="OB1:OI1"/>
     <mergeCell ref="TI1:TP1"/>
     <mergeCell ref="VK1:VR1"/>
@@ -47604,7 +48205,13 @@
     <mergeCell ref="SH1:SO1"/>
     <mergeCell ref="RP1:RW1"/>
     <mergeCell ref="PP1:PW1"/>
-    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
     <mergeCell ref="NT1:OA1"/>
     <mergeCell ref="IM1:IT1"/>
     <mergeCell ref="HW1:ID1"/>
@@ -47653,13 +48260,6 @@
     <mergeCell ref="DW1:ED1"/>
     <mergeCell ref="DO1:DV1"/>
     <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
     <mergeCell ref="SQ1:SX1"/>
     <mergeCell ref="WU1:XB1"/>
     <mergeCell ref="YW1:ZD1"/>
@@ -47669,6 +48269,8 @@
     <mergeCell ref="YE1:YL1"/>
     <mergeCell ref="WL1:WS1"/>
     <mergeCell ref="XV1:YC1"/>
+    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="ACK1:ACR1"/>
     <mergeCell ref="AAQ1:AAX1"/>
     <mergeCell ref="AAH1:AAO1"/>
     <mergeCell ref="XD1:XK1"/>
@@ -47678,6 +48280,8 @@
     <mergeCell ref="ZY1:AAF1"/>
     <mergeCell ref="ZF1:ZM1"/>
     <mergeCell ref="YN1:YU1"/>
+    <mergeCell ref="ACB1:ACI1"/>
+    <mergeCell ref="ABS1:ABZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\SE_my _script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F76B698-CFA0-4DE7-8507-877607E24E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22.12.2020" sheetId="35" r:id="rId1"/>
@@ -51,9 +52,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ADC$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ADL$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,12 +72,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>RePack by Diakov</author>
   </authors>
   <commentList>
-    <comment ref="K7" authorId="0" shapeId="0">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,14 +108,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>RePack by Diakov</author>
     <author>tc={92005CF1-4D4D-4D02-979A-AEBF1D0B9C5F}</author>
     <author>edik</author>
   </authors>
   <commentList>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -140,25 +141,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="YW4" authorId="1" shapeId="0">
+    <comment ref="YW4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     При оплате указал 518</t>
-        </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0" shapeId="0">
+    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI10" authorId="0" shapeId="0">
+    <comment ref="AI10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ10" authorId="0" shapeId="0">
+    <comment ref="AQ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY10" authorId="0" shapeId="0">
+    <comment ref="AY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG10" authorId="0" shapeId="0">
+    <comment ref="BG10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO10" authorId="0" shapeId="0">
+    <comment ref="BO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW10" authorId="0" shapeId="0">
+    <comment ref="BW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE10" authorId="0" shapeId="0">
+    <comment ref="CE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO10" authorId="0" shapeId="0">
+    <comment ref="CO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW10" authorId="0" shapeId="0">
+    <comment ref="CW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE10" authorId="0" shapeId="0">
+    <comment ref="DE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM10" authorId="0" shapeId="0">
+    <comment ref="DM10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DU10" authorId="0" shapeId="0">
+    <comment ref="DU10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EC10" authorId="0" shapeId="0">
+    <comment ref="EC10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EK10" authorId="0" shapeId="0">
+    <comment ref="EK10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -574,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ES10" authorId="0" shapeId="0">
+    <comment ref="ES10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -600,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FA10" authorId="0" shapeId="0">
+    <comment ref="FA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -626,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI10" authorId="0" shapeId="0">
+    <comment ref="FI10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FQ10" authorId="0" shapeId="0">
+    <comment ref="FQ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -678,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FY10" authorId="0" shapeId="0">
+    <comment ref="FY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -704,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="GG10" authorId="0" shapeId="0">
+    <comment ref="GG10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="GO10" authorId="0" shapeId="0">
+    <comment ref="GO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -756,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="GW10" authorId="0" shapeId="0">
+    <comment ref="GW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -782,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HE10" authorId="0" shapeId="0">
+    <comment ref="HE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -808,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HM10" authorId="0" shapeId="0">
+    <comment ref="HM10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -834,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HU10" authorId="0" shapeId="0">
+    <comment ref="HU10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="IC10" authorId="0" shapeId="0">
+    <comment ref="IC10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -886,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="IK10" authorId="0" shapeId="0">
+    <comment ref="IK10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -912,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="IS10" authorId="0" shapeId="0">
+    <comment ref="IS10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -938,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JA10" authorId="0" shapeId="0">
+    <comment ref="JA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JI10" authorId="0" shapeId="0">
+    <comment ref="JI10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
       <text>
         <r>
           <rPr>
@@ -990,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JQ10" authorId="0" shapeId="0">
+    <comment ref="JQ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JY10" authorId="0" shapeId="0">
+    <comment ref="JY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="KG10" authorId="0" shapeId="0">
+    <comment ref="KG10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="KO10" authorId="0" shapeId="0">
+    <comment ref="KO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="KW10" authorId="0" shapeId="0">
+    <comment ref="KW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="LE10" authorId="0" shapeId="0">
+    <comment ref="LE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="LM10" authorId="0" shapeId="0">
+    <comment ref="LM10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="LU10" authorId="0" shapeId="0">
+    <comment ref="LU10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="MC10" authorId="0" shapeId="0">
+    <comment ref="MC10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ML10" authorId="0" shapeId="0">
+    <comment ref="ML10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="MT10" authorId="0" shapeId="0">
+    <comment ref="MT10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="NB10" authorId="0" shapeId="0">
+    <comment ref="NB10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="NJ10" authorId="0" shapeId="0">
+    <comment ref="NJ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="NR10" authorId="0" shapeId="0">
+    <comment ref="NR10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="NZ10" authorId="0" shapeId="0">
+    <comment ref="NZ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="OH10" authorId="0" shapeId="0">
+    <comment ref="OH10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1406,7 +1397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="OP10" authorId="0" shapeId="0">
+    <comment ref="OP10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1432,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="OX10" authorId="0" shapeId="0">
+    <comment ref="OX10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="PF10" authorId="0" shapeId="0">
+    <comment ref="PF10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1484,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="PN10" authorId="0" shapeId="0">
+    <comment ref="PN10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="PV10" authorId="0" shapeId="0">
+    <comment ref="PV10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="QE10" authorId="0" shapeId="0">
+    <comment ref="QE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="QM10" authorId="0" shapeId="0">
+    <comment ref="QM10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1588,7 +1579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="QV10" authorId="0" shapeId="0">
+    <comment ref="QV10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1614,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="RD10" authorId="0" shapeId="0">
+    <comment ref="RD10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1640,7 +1631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="RM10" authorId="0" shapeId="0">
+    <comment ref="RM10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1666,7 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="RV10" authorId="0" shapeId="0">
+    <comment ref="RV10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="SE10" authorId="0" shapeId="0">
+    <comment ref="SE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1718,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="SN10" authorId="0" shapeId="0">
+    <comment ref="SN10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1744,7 +1735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="SW10" authorId="0" shapeId="0">
+    <comment ref="SW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1770,7 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="TF10" authorId="0" shapeId="0">
+    <comment ref="TF10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1796,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="TO10" authorId="0" shapeId="0">
+    <comment ref="TO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1822,7 +1813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="TX10" authorId="0" shapeId="0">
+    <comment ref="TX10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000043000000}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="UG10" authorId="0" shapeId="0">
+    <comment ref="UG10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1874,7 +1865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="UP10" authorId="0" shapeId="0">
+    <comment ref="UP10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000045000000}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="UY10" authorId="0" shapeId="0">
+    <comment ref="UY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000046000000}">
       <text>
         <r>
           <rPr>
@@ -1926,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="VH10" authorId="0" shapeId="0">
+    <comment ref="VH10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000047000000}">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="VQ10" authorId="0" shapeId="0">
+    <comment ref="VQ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000048000000}">
       <text>
         <r>
           <rPr>
@@ -1978,7 +1969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="VZ10" authorId="0" shapeId="0">
+    <comment ref="VZ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000049000000}">
       <text>
         <r>
           <rPr>
@@ -2004,7 +1995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="WI10" authorId="0" shapeId="0">
+    <comment ref="WI10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -2030,7 +2021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="WR10" authorId="0" shapeId="0">
+    <comment ref="WR10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -2056,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="XA10" authorId="0" shapeId="0">
+    <comment ref="XA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -2082,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="XJ10" authorId="0" shapeId="0">
+    <comment ref="XJ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -2108,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="XS10" authorId="0" shapeId="0">
+    <comment ref="XS10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -2134,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="YB10" authorId="0" shapeId="0">
+    <comment ref="YB10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="YK10" authorId="0" shapeId="0">
+    <comment ref="YK10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000050000000}">
       <text>
         <r>
           <rPr>
@@ -2186,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="YT10" authorId="0" shapeId="0">
+    <comment ref="YT10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000051000000}">
       <text>
         <r>
           <rPr>
@@ -2212,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ZC10" authorId="0" shapeId="0">
+    <comment ref="ZC10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000052000000}">
       <text>
         <r>
           <rPr>
@@ -2238,7 +2229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ZL10" authorId="0" shapeId="0">
+    <comment ref="ZL10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000053000000}">
       <text>
         <r>
           <rPr>
@@ -2264,7 +2255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ZV10" authorId="0" shapeId="0">
+    <comment ref="ZV10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000054000000}">
       <text>
         <r>
           <rPr>
@@ -2290,7 +2281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AAE10" authorId="0" shapeId="0">
+    <comment ref="AAE10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000055000000}">
       <text>
         <r>
           <rPr>
@@ -2316,7 +2307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AAL10" authorId="2" shapeId="0">
+    <comment ref="AAL10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000056000000}">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AAN10" authorId="0" shapeId="0">
+    <comment ref="AAN10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000057000000}">
       <text>
         <r>
           <rPr>
@@ -2366,7 +2357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AAU10" authorId="2" shapeId="0">
+    <comment ref="AAU10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000058000000}">
       <text>
         <r>
           <rPr>
@@ -2390,7 +2381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AAW10" authorId="0" shapeId="0">
+    <comment ref="AAW10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000059000000}">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABD10" authorId="2" shapeId="0">
+    <comment ref="ABD10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005A000000}">
       <text>
         <r>
           <rPr>
@@ -2440,7 +2431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABF10" authorId="0" shapeId="0">
+    <comment ref="ABF10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005B000000}">
       <text>
         <r>
           <rPr>
@@ -2466,7 +2457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABM10" authorId="2" shapeId="0">
+    <comment ref="ABM10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005C000000}">
       <text>
         <r>
           <rPr>
@@ -2480,7 +2471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABO10" authorId="0" shapeId="0">
+    <comment ref="ABO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005D000000}">
       <text>
         <r>
           <rPr>
@@ -2506,7 +2497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABW10" authorId="2" shapeId="0">
+    <comment ref="ABW10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -2520,7 +2511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ABY10" authorId="0" shapeId="0">
+    <comment ref="ABY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00005F000000}">
       <text>
         <r>
           <rPr>
@@ -2546,7 +2537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACF10" authorId="2" shapeId="0">
+    <comment ref="ACF10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000060000000}">
       <text>
         <r>
           <rPr>
@@ -2560,7 +2551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACH10" authorId="0" shapeId="0">
+    <comment ref="ACH10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000061000000}">
       <text>
         <r>
           <rPr>
@@ -2586,7 +2577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACO10" authorId="2" shapeId="0">
+    <comment ref="ACO10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000062000000}">
       <text>
         <r>
           <rPr>
@@ -2600,7 +2591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACQ10" authorId="0" shapeId="0">
+    <comment ref="ACQ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000063000000}">
       <text>
         <r>
           <rPr>
@@ -2626,7 +2617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACX10" authorId="2" shapeId="0">
+    <comment ref="ACX10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000064000000}">
       <text>
         <r>
           <rPr>
@@ -2640,7 +2631,47 @@
         </r>
       </text>
     </comment>
-    <comment ref="ACZ10" authorId="0" shapeId="0">
+    <comment ref="ACZ10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000065000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ADG10" authorId="2" shapeId="0" xr:uid="{CC15A305-39F0-487B-8411-BB6544F2BAF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ADI10" authorId="0" shapeId="0" xr:uid="{4F9125F1-5FF1-47B5-9837-D815644B6F59}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -3390,12 +3421,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₴_-;\-* #,##0.00\ _₴_-;_-* &quot;-&quot;??\ _₴_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₴_-;\-* #,##0.00\ _₴_-;_-* &quot;-&quot;??\ _₴_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* &quot;-&quot;??_₴_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -4364,7 +4395,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4372,13 +4403,13 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4391,58 +4422,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4454,11 +4485,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4471,47 +4502,47 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4538,10 +4569,10 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4552,7 +4583,7 @@
     <xf numFmtId="1" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4568,48 +4599,48 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4617,52 +4648,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4683,43 +4714,43 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
@@ -4738,17 +4769,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4757,16 +4788,16 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4775,13 +4806,13 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4790,66 +4821,66 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4857,31 +4888,31 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1"/>
@@ -4894,7 +4925,7 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4907,111 +4938,111 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="41" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -5027,13 +5058,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5042,55 +5073,55 @@
     <xf numFmtId="1" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5108,28 +5139,28 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5201,9 +5232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5241,9 +5272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5278,7 +5309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5313,7 +5344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5494,7 +5525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -6060,7 +6091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6466,7 +6497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7308,7 +7339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7759,7 +7790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8117,7 +8148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8494,7 +8525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9068,7 +9099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9693,7 +9724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A2:Y46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10409,7 +10440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A2:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11066,7 +11097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11594,7 +11625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12250,7 +12281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A2:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12990,7 +13021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A2:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13709,7 +13740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14445,7 +14476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A2:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15146,7 +15177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A2:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15786,7 +15817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A2:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16455,7 +16486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A2:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17224,7 +17255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17834,7 +17865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18419,7 +18450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18845,7 +18876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19417,7 +19448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19915,7 +19946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20373,7 +20404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20774,7 +20805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21185,7 +21216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -21572,7 +21603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21584,12 +21615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ADA52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:ADJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ACO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ACT9" sqref="ACT9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="ACT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ADC10" sqref="ADC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21997,9 +22028,11 @@
     <col min="778" max="778" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="781" max="781" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:790" x14ac:dyDescent="0.25">
       <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
@@ -22920,8 +22953,18 @@
       <c r="ACY1" s="335"/>
       <c r="ACZ1" s="335"/>
       <c r="ADA1" s="336"/>
-    </row>
-    <row r="2" spans="2:781" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ADC1" s="337">
+        <v>45748</v>
+      </c>
+      <c r="ADD1" s="335"/>
+      <c r="ADE1" s="335"/>
+      <c r="ADF1" s="335"/>
+      <c r="ADG1" s="335"/>
+      <c r="ADH1" s="335"/>
+      <c r="ADI1" s="335"/>
+      <c r="ADJ1" s="336"/>
+    </row>
+    <row r="2" spans="2:790" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -25139,8 +25182,32 @@
       <c r="ADA2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:781" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ADC2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ADD2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ADE2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ADF2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ADG2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ADH2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="ADI2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="ADJ2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:790" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -27541,8 +27608,34 @@
         <f>ACZ3</f>
         <v>407.78399999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC3" s="279">
+        <v>1110</v>
+      </c>
+      <c r="ADD3" s="279">
+        <v>1098</v>
+      </c>
+      <c r="ADE3" s="135">
+        <f>ADC3-ADD3</f>
+        <v>12</v>
+      </c>
+      <c r="ADF3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ADG3" s="136">
+        <f>ADE3*ADF3</f>
+        <v>376.416</v>
+      </c>
+      <c r="ADH3" s="137"/>
+      <c r="ADI3" s="315">
+        <f>ADG3+ADG4</f>
+        <v>533.25599999999997</v>
+      </c>
+      <c r="ADJ3" s="322">
+        <f>ADI3</f>
+        <v>533.25599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -29755,8 +29848,32 @@
       <c r="ADA4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:781" ht="30" x14ac:dyDescent="0.25">
+      <c r="ADC4" s="280">
+        <v>580</v>
+      </c>
+      <c r="ADD4" s="280">
+        <v>575</v>
+      </c>
+      <c r="ADE4" s="46">
+        <f>ADC4-ADD4</f>
+        <v>5</v>
+      </c>
+      <c r="ADF4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ADG4" s="48">
+        <f>ADE4*ADF4</f>
+        <v>156.84</v>
+      </c>
+      <c r="ADH4" s="49"/>
+      <c r="ADI4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="ADJ4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:790" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -31406,8 +31523,27 @@
         <f>ACZ5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC5" s="281"/>
+      <c r="ADD5" s="281"/>
+      <c r="ADE5" s="46">
+        <f t="shared" ref="ADE5" si="164">ADC5-ADD5</f>
+        <v>0</v>
+      </c>
+      <c r="ADF5" s="74"/>
+      <c r="ADG5" s="48">
+        <f t="shared" ref="ADG5" si="165">ADE5*ADF5</f>
+        <v>0</v>
+      </c>
+      <c r="ADH5" s="179"/>
+      <c r="ADI5" s="195">
+        <v>0</v>
+      </c>
+      <c r="ADJ5" s="319">
+        <f>ADI5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -32293,8 +32429,20 @@
       <c r="ADA6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC6" s="281"/>
+      <c r="ADD6" s="281"/>
+      <c r="ADE6" s="46"/>
+      <c r="ADF6" s="74"/>
+      <c r="ADG6" s="48"/>
+      <c r="ADH6" s="179"/>
+      <c r="ADI6" s="195">
+        <v>0</v>
+      </c>
+      <c r="ADJ6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -32416,7 +32564,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="164">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="166">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -32438,7 +32586,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="165">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="167">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -32460,7 +32608,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="166">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="168">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -33331,7 +33479,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="167">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="169">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -33345,7 +33493,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="168">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="170">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -33359,7 +33507,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="169">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="171">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -33373,7 +33521,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="170">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="172">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -33387,7 +33535,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="171">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="173">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -33401,7 +33549,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="172">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="174">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -33415,7 +33563,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="173">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="175">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -33429,7 +33577,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="174">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="176">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -33443,7 +33591,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="175">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="177">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -33457,7 +33605,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="176">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="178">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -33471,7 +33619,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="177">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="179">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -33485,7 +33633,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="178">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="180">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -33499,7 +33647,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="179">US7-UT7</f>
+        <f t="shared" ref="UU7" si="181">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -33513,7 +33661,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="180">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="182">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -33527,7 +33675,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="181">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="183">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -33541,7 +33689,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="182">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="184">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -33555,7 +33703,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="183">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="185">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -33569,7 +33717,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="184">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="186">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -33583,7 +33731,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="185">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="187">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -33597,7 +33745,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="186">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="188">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -33611,7 +33759,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="187">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="189">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -33625,7 +33773,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="188">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="190">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -33639,7 +33787,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="189">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="191">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -33653,7 +33801,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="190">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="192">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -33667,7 +33815,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="191">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="193">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -33681,7 +33829,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="192">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="194">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -33695,7 +33843,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="193">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="195">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -33709,7 +33857,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="194">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="196">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -33723,7 +33871,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="195">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="197">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -33737,7 +33885,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="196">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="198">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -33751,7 +33899,7 @@
       <c r="AAZ7" s="278"/>
       <c r="ABA7" s="278"/>
       <c r="ABB7" s="46">
-        <f t="shared" ref="ABB7" si="197">AAZ7-ABA7</f>
+        <f t="shared" ref="ABB7" si="199">AAZ7-ABA7</f>
         <v>0</v>
       </c>
       <c r="ABC7" s="48"/>
@@ -33765,7 +33913,7 @@
       <c r="ABI7" s="278"/>
       <c r="ABJ7" s="278"/>
       <c r="ABK7" s="46">
-        <f t="shared" ref="ABK7" si="198">ABI7-ABJ7</f>
+        <f t="shared" ref="ABK7" si="200">ABI7-ABJ7</f>
         <v>0</v>
       </c>
       <c r="ABL7" s="48"/>
@@ -33779,7 +33927,7 @@
       <c r="ABS7" s="278"/>
       <c r="ABT7" s="278"/>
       <c r="ABU7" s="46">
-        <f t="shared" ref="ABU7" si="199">ABS7-ABT7</f>
+        <f t="shared" ref="ABU7" si="201">ABS7-ABT7</f>
         <v>0</v>
       </c>
       <c r="ABV7" s="48"/>
@@ -33793,7 +33941,7 @@
       <c r="ACB7" s="278"/>
       <c r="ACC7" s="278"/>
       <c r="ACD7" s="46">
-        <f t="shared" ref="ACD7" si="200">ACB7-ACC7</f>
+        <f t="shared" ref="ACD7" si="202">ACB7-ACC7</f>
         <v>0</v>
       </c>
       <c r="ACE7" s="48"/>
@@ -33807,7 +33955,7 @@
       <c r="ACK7" s="278"/>
       <c r="ACL7" s="278"/>
       <c r="ACM7" s="46">
-        <f t="shared" ref="ACM7" si="201">ACK7-ACL7</f>
+        <f t="shared" ref="ACM7" si="203">ACK7-ACL7</f>
         <v>0</v>
       </c>
       <c r="ACN7" s="48"/>
@@ -33821,7 +33969,7 @@
       <c r="ACT7" s="278"/>
       <c r="ACU7" s="278"/>
       <c r="ACV7" s="46">
-        <f t="shared" ref="ACV7" si="202">ACT7-ACU7</f>
+        <f t="shared" ref="ACV7" si="204">ACT7-ACU7</f>
         <v>0</v>
       </c>
       <c r="ACW7" s="48"/>
@@ -33832,8 +33980,22 @@
         <v>0</v>
       </c>
       <c r="ADA7" s="75"/>
-    </row>
-    <row r="8" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC7" s="278"/>
+      <c r="ADD7" s="278"/>
+      <c r="ADE7" s="46">
+        <f t="shared" ref="ADE7" si="205">ADC7-ADD7</f>
+        <v>0</v>
+      </c>
+      <c r="ADF7" s="48"/>
+      <c r="ADG7" s="311"/>
+      <c r="ADH7" s="312"/>
+      <c r="ADI7" s="306">
+        <f>ADH7</f>
+        <v>0</v>
+      </c>
+      <c r="ADJ7" s="75"/>
+    </row>
+    <row r="8" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -34752,8 +34914,20 @@
       <c r="ADA8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC8" s="278"/>
+      <c r="ADD8" s="278"/>
+      <c r="ADE8" s="46"/>
+      <c r="ADF8" s="48"/>
+      <c r="ADG8" s="311"/>
+      <c r="ADH8" s="312"/>
+      <c r="ADI8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="ADJ8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -34898,7 +35072,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -34925,7 +35099,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -34952,7 +35126,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -35345,7 +35519,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="203">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="206">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -35369,7 +35543,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="204">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="207">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -35391,7 +35565,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="205">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="208">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -35418,7 +35592,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="206">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="209">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -35445,7 +35619,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="207">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="210">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -35469,7 +35643,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="208">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="211">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -35497,7 +35671,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="209">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="212">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -35525,7 +35699,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="210">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="213">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -35553,7 +35727,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="211">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="214">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -35581,7 +35755,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="212">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="215">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -35609,7 +35783,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="213">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="216">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -35637,7 +35811,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="214">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="217">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -35665,7 +35839,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="215">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="218">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -35693,7 +35867,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="216">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="219">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -35721,7 +35895,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="217">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="220">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -35749,7 +35923,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="218">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="221">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -35777,7 +35951,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="219">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="222">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -35804,7 +35978,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="220">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="223">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -35832,7 +36006,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="221">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="224">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -35860,7 +36034,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="222">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="225">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -35889,7 +36063,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="223">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="226">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -35918,7 +36092,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="224">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="227">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -35947,7 +36121,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="225">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="228">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -35976,7 +36150,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="226">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="229">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -36005,7 +36179,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="227">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="230">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -36034,7 +36208,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="228">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="231">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -36063,7 +36237,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="229">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="232">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -36092,7 +36266,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="230">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="233">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -36120,7 +36294,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="231">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="234">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -36148,7 +36322,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="232">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="235">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -36204,7 +36378,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="233">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="236">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -36236,7 +36410,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="234">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="237">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -36263,7 +36437,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="235">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="238">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -36290,7 +36464,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="236">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="239">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -36317,7 +36491,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="237">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="240">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -36344,7 +36518,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="238">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="241">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -36371,7 +36545,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="239">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="242">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -36396,7 +36570,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="240">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="243">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -36421,7 +36595,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="241">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="244">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -36446,7 +36620,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="242">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="245">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -36471,7 +36645,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="243">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="246">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -36496,7 +36670,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="244">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="247">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -36521,7 +36695,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="245">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="248">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -36546,7 +36720,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="246">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="249">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -36571,7 +36745,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="247">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="250">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -36596,7 +36770,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="248">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="251">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -36621,7 +36795,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="249">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="252">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -36646,7 +36820,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="250">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="253">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -36671,7 +36845,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="251">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="254">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -36696,7 +36870,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="252">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="255">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -36721,7 +36895,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="253">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="256">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -36746,7 +36920,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="254">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="257">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -36771,7 +36945,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="255">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="258">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -36796,7 +36970,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="256">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="259">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -36821,7 +36995,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="257">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="260">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -36846,7 +37020,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="258">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="261">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -36871,7 +37045,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="259">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="262">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -36896,7 +37070,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="260">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="263">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -36921,7 +37095,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="261">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="264">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -37196,8 +37370,31 @@
         <f>ACX9</f>
         <v>1913.7600000000002</v>
       </c>
-    </row>
-    <row r="10" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC9" s="280">
+        <v>57935</v>
+      </c>
+      <c r="ADD9" s="280">
+        <v>57484</v>
+      </c>
+      <c r="ADE9" s="46">
+        <f>ADC9-ADD9</f>
+        <v>451</v>
+      </c>
+      <c r="ADF9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ADG9" s="326">
+        <f>ADE9*ADF9</f>
+        <v>1948.3200000000002</v>
+      </c>
+      <c r="ADH9" s="98"/>
+      <c r="ADI9" s="306"/>
+      <c r="ADJ9" s="328">
+        <f>ADG9</f>
+        <v>1948.3200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -37291,7 +37488,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -37309,7 +37506,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -37327,7 +37524,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -37345,7 +37542,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="262">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="265">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -37363,7 +37560,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="263">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="266">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -37381,7 +37578,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="264">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="267">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -37399,7 +37596,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="265">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="268">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -37417,7 +37614,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="266">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="269">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -37435,7 +37632,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="267">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="270">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -37453,7 +37650,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="268">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="271">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -37471,7 +37668,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="269">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="272">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -37489,7 +37686,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="270">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="273">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -37507,7 +37704,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="271">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="274">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -37525,7 +37722,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="272">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="275">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -37543,7 +37740,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="273">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="276">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -37561,7 +37758,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="274">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="277">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -37579,7 +37776,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="275">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="278">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -37591,13 +37788,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="276">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="279">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -37609,13 +37806,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="277">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="280">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -37627,13 +37824,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="278">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="281">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -37645,13 +37842,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="279">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="282">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -37663,13 +37860,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="280">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="283">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -37681,13 +37878,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="281">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="284">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -37699,13 +37896,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="282">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="285">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -37717,13 +37914,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="283">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="286">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -37735,13 +37932,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="284">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="287">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -37753,13 +37950,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="285">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="288">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -37771,13 +37968,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="286">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="289">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -37789,13 +37986,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="287">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="290">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -37807,13 +38004,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="288">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="291">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -37825,13 +38022,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="289">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="292">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -37843,13 +38040,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="290">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="293">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -37861,13 +38058,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="291">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="294">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -37879,13 +38076,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="292">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="295">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -37903,7 +38100,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="293">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="296">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -37921,7 +38118,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="294">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="297">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -37939,7 +38136,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="295">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="298">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -37950,7 +38147,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="296">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="299">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -37961,7 +38158,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="297">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="300">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -37972,7 +38169,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="298">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="301">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -37983,7 +38180,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="299">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="302">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -37994,7 +38191,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="300">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="303">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -38005,7 +38202,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="301">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="304">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -38016,7 +38213,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="302">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="305">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -38027,7 +38224,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="303">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="306">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -38039,13 +38236,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="304">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="307">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="305">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="308">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -38058,13 +38255,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="306">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="309">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -38077,13 +38274,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="307">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="310">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="308">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="311">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -38096,13 +38293,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="309">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="312">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -38115,7 +38312,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -38131,7 +38328,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -38147,7 +38344,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -38163,7 +38360,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -38179,7 +38376,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -38195,7 +38392,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -38211,7 +38408,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -38227,7 +38424,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -38243,7 +38440,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -38259,7 +38456,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -38275,7 +38472,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -38291,7 +38488,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -38307,7 +38504,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -38323,7 +38520,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -38339,7 +38536,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -38355,7 +38552,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -38371,7 +38568,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -38387,7 +38584,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -38403,7 +38600,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -38419,7 +38616,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -38435,7 +38632,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -38451,7 +38648,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -38467,7 +38664,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -38483,7 +38680,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -38499,7 +38696,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -38515,7 +38712,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -38531,7 +38728,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -38547,7 +38744,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -38652,8 +38849,16 @@
       <c r="ACY10" s="49"/>
       <c r="ACZ10" s="306"/>
       <c r="ADA10" s="75"/>
-    </row>
-    <row r="11" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC10" s="278"/>
+      <c r="ADD10" s="278"/>
+      <c r="ADE10" s="46"/>
+      <c r="ADF10" s="48"/>
+      <c r="ADG10" s="300"/>
+      <c r="ADH10" s="49"/>
+      <c r="ADI10" s="306"/>
+      <c r="ADJ10" s="75"/>
+    </row>
+    <row r="11" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -38752,7 +38957,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -38771,7 +38976,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -38790,7 +38995,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -38809,7 +39014,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -38828,7 +39033,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -38847,7 +39052,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="264"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -38866,7 +39071,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="265"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -38885,7 +39090,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="266"/>
+        <f t="shared" si="269"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -38904,7 +39109,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -38923,7 +39128,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -38942,7 +39147,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="269"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -38961,7 +39166,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="270"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -38980,7 +39185,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="271"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -38999,7 +39204,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -39018,7 +39223,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -39037,7 +39242,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="274"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -39056,7 +39261,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="275"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -39069,13 +39274,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="276"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -39088,13 +39293,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="277"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -39107,13 +39312,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -39126,13 +39331,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="279"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -39145,13 +39350,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="280"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -39164,13 +39369,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="281"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -39183,13 +39388,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="282"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -39202,13 +39407,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="283"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -39221,203 +39426,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="310">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="313">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="285"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="311">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="314">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="286"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="312">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="315">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="287"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="313">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="316">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="288"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="314">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="317">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="315">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="318">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="316">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="319">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="317">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="320">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="318">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="321">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="319">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="322">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="320">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="323">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -39428,7 +39633,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -39439,7 +39644,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -39450,7 +39655,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -39461,7 +39666,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -39472,7 +39677,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -39483,7 +39688,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -39494,7 +39699,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -39505,7 +39710,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -39516,7 +39721,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -39527,7 +39732,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -39541,7 +39746,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -39555,7 +39760,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -39569,7 +39774,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -40081,8 +40286,16 @@
       <c r="ACY11" s="49"/>
       <c r="ACZ11" s="306"/>
       <c r="ADA11" s="75"/>
-    </row>
-    <row r="12" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC11" s="278"/>
+      <c r="ADD11" s="278"/>
+      <c r="ADE11" s="286"/>
+      <c r="ADF11" s="48"/>
+      <c r="ADG11" s="327"/>
+      <c r="ADH11" s="49"/>
+      <c r="ADI11" s="306"/>
+      <c r="ADJ11" s="75"/>
+    </row>
+    <row r="12" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -40191,7 +40404,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -40212,7 +40425,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -40233,7 +40446,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -40522,7 +40735,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -40542,7 +40755,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -40562,7 +40775,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -40582,7 +40795,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -40602,7 +40815,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -40622,7 +40835,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -40642,7 +40855,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -40662,7 +40875,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -40682,7 +40895,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -40695,14 +40908,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -40715,14 +40928,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -40735,14 +40948,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -40755,14 +40968,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -40775,14 +40988,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -40795,14 +41008,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -40815,14 +41028,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -40835,14 +41048,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -40855,14 +41068,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -40875,14 +41088,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -41532,8 +41745,21 @@
         <f>ACZ12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:781" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="ADC12" s="278"/>
+      <c r="ADD12" s="278"/>
+      <c r="ADE12" s="46"/>
+      <c r="ADF12" s="48"/>
+      <c r="ADG12" s="48"/>
+      <c r="ADH12" s="49"/>
+      <c r="ADI12" s="306">
+        <v>35</v>
+      </c>
+      <c r="ADJ12" s="324">
+        <f>ADI12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:790" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -41634,7 +41860,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -41653,7 +41879,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -41672,7 +41898,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -41691,7 +41917,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -41914,7 +42140,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -41930,7 +42156,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -41946,7 +42172,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -41962,7 +42188,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -41978,7 +42204,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -41994,7 +42220,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -42010,7 +42236,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -42026,7 +42252,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -42042,7 +42268,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -42051,14 +42277,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -42067,14 +42293,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -42083,14 +42309,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -42099,14 +42325,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -42115,14 +42341,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -42131,14 +42357,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -42147,14 +42373,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -42163,14 +42389,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -42179,14 +42405,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -42195,14 +42421,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -42616,8 +42842,16 @@
       <c r="ACY13" s="49"/>
       <c r="ACZ13" s="306"/>
       <c r="ADA13" s="75"/>
-    </row>
-    <row r="14" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC13" s="278"/>
+      <c r="ADD13" s="278"/>
+      <c r="ADE13" s="46"/>
+      <c r="ADF13" s="48"/>
+      <c r="ADG13" s="48"/>
+      <c r="ADH13" s="49"/>
+      <c r="ADI13" s="306"/>
+      <c r="ADJ13" s="75"/>
+    </row>
+    <row r="14" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -42751,7 +42985,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -42777,7 +43011,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -42803,7 +43037,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -42829,7 +43063,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -42855,7 +43089,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="321">CE14</f>
+        <f t="shared" ref="CF14" si="324">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -42881,7 +43115,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="322">CO14</f>
+        <f t="shared" ref="CP14" si="325">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -42907,7 +43141,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="323">CW14</f>
+        <f t="shared" ref="CX14" si="326">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -42933,7 +43167,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="324">DE14</f>
+        <f t="shared" ref="DF14" si="327">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -42959,7 +43193,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="325">DM14</f>
+        <f t="shared" ref="DN14" si="328">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -42985,7 +43219,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="326">DU14</f>
+        <f t="shared" ref="DV14" si="329">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -43172,7 +43406,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -43197,7 +43431,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -43222,7 +43456,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -43247,7 +43481,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -43272,7 +43506,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -43297,7 +43531,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -43319,7 +43553,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -43341,7 +43575,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -43365,7 +43599,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -43382,14 +43616,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -43406,14 +43640,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -43428,14 +43662,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -43453,14 +43687,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -43478,14 +43712,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -43503,14 +43737,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -43528,14 +43762,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -43553,14 +43787,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -43578,14 +43812,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -43603,14 +43837,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -43628,7 +43862,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="327">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="330">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -43653,7 +43887,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="328">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="331">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -45048,8 +45282,36 @@
       <c r="ADA14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC14" s="280">
+        <v>1215</v>
+      </c>
+      <c r="ADD14" s="280">
+        <v>1215</v>
+      </c>
+      <c r="ADE14" s="46">
+        <f>ADC14-ADD14</f>
+        <v>0</v>
+      </c>
+      <c r="ADF14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ADG14" s="48">
+        <f>ADE14*ADF14</f>
+        <v>0</v>
+      </c>
+      <c r="ADH14" s="49">
+        <f>ADG14</f>
+        <v>0</v>
+      </c>
+      <c r="ADI14" s="306">
+        <f>ADH14</f>
+        <v>0</v>
+      </c>
+      <c r="ADJ14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -46062,8 +46324,20 @@
       <c r="ADA15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC15" s="152"/>
+      <c r="ADD15" s="313"/>
+      <c r="ADE15" s="46"/>
+      <c r="ADF15" s="48"/>
+      <c r="ADG15" s="48"/>
+      <c r="ADH15" s="49"/>
+      <c r="ADI15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="ADJ15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -46935,8 +47209,16 @@
       <c r="ACY16" s="49"/>
       <c r="ACZ16" s="306"/>
       <c r="ADA16" s="75"/>
-    </row>
-    <row r="17" spans="2:781" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="ADC16" s="152"/>
+      <c r="ADD16" s="313"/>
+      <c r="ADE16" s="46"/>
+      <c r="ADF16" s="48"/>
+      <c r="ADG16" s="48"/>
+      <c r="ADH16" s="49"/>
+      <c r="ADI16" s="306"/>
+      <c r="ADJ16" s="75"/>
+    </row>
+    <row r="17" spans="2:790" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -46999,7 +47281,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -47010,7 +47292,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -47021,7 +47303,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -47032,7 +47314,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -47787,8 +48069,16 @@
       <c r="ACY17" s="72"/>
       <c r="ACZ17" s="317"/>
       <c r="ADA17" s="318"/>
-    </row>
-    <row r="18" spans="2:781" x14ac:dyDescent="0.25">
+      <c r="ADC17" s="69"/>
+      <c r="ADD17" s="70"/>
+      <c r="ADE17" s="70"/>
+      <c r="ADF17" s="71"/>
+      <c r="ADG17" s="71"/>
+      <c r="ADH17" s="72"/>
+      <c r="ADI17" s="317"/>
+      <c r="ADJ17" s="318"/>
+    </row>
+    <row r="18" spans="2:790" x14ac:dyDescent="0.25">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -48086,7 +48376,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:790" x14ac:dyDescent="0.25">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -48115,7 +48405,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:790" x14ac:dyDescent="0.25">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -48127,7 +48417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:790" x14ac:dyDescent="0.25">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -48145,7 +48435,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:790" x14ac:dyDescent="0.25">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -48163,7 +48453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:781" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:790" x14ac:dyDescent="0.25">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -48189,7 +48479,84 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="93">
+    <mergeCell ref="ADC1:ADJ1"/>
+    <mergeCell ref="VB1:VI1"/>
+    <mergeCell ref="ACK1:ACR1"/>
+    <mergeCell ref="AAQ1:AAX1"/>
+    <mergeCell ref="AAH1:AAO1"/>
+    <mergeCell ref="XD1:XK1"/>
+    <mergeCell ref="ZP1:ZW1"/>
+    <mergeCell ref="ABI1:ABP1"/>
+    <mergeCell ref="AAZ1:ABG1"/>
+    <mergeCell ref="ZY1:AAF1"/>
+    <mergeCell ref="ZF1:ZM1"/>
+    <mergeCell ref="YN1:YU1"/>
+    <mergeCell ref="ACB1:ACI1"/>
+    <mergeCell ref="ABS1:ABZ1"/>
+    <mergeCell ref="WU1:XB1"/>
+    <mergeCell ref="YW1:ZD1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="XV1:YC1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="ND1:NK1"/>
+    <mergeCell ref="KA1:KH1"/>
+    <mergeCell ref="MV1:NC1"/>
+    <mergeCell ref="MF1:MM1"/>
+    <mergeCell ref="LW1:MD1"/>
+    <mergeCell ref="LO1:LV1"/>
+    <mergeCell ref="KY1:LF1"/>
+    <mergeCell ref="MN1:MU1"/>
+    <mergeCell ref="CI1:CP1"/>
+    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="DO1:DV1"/>
+    <mergeCell ref="DG1:DN1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
+    <mergeCell ref="SQ1:SX1"/>
     <mergeCell ref="ACT1:ADA1"/>
     <mergeCell ref="OB1:OI1"/>
     <mergeCell ref="TI1:TP1"/>
@@ -48206,82 +48573,6 @@
     <mergeCell ref="RP1:RW1"/>
     <mergeCell ref="PP1:PW1"/>
     <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="ND1:NK1"/>
-    <mergeCell ref="KA1:KH1"/>
-    <mergeCell ref="MV1:NC1"/>
-    <mergeCell ref="MF1:MM1"/>
-    <mergeCell ref="LW1:MD1"/>
-    <mergeCell ref="LO1:LV1"/>
-    <mergeCell ref="KY1:LF1"/>
-    <mergeCell ref="MN1:MU1"/>
-    <mergeCell ref="CI1:CP1"/>
-    <mergeCell ref="DW1:ED1"/>
-    <mergeCell ref="DO1:DV1"/>
-    <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="SQ1:SX1"/>
-    <mergeCell ref="WU1:XB1"/>
-    <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="VB1:VI1"/>
-    <mergeCell ref="ACK1:ACR1"/>
-    <mergeCell ref="AAQ1:AAX1"/>
-    <mergeCell ref="AAH1:AAO1"/>
-    <mergeCell ref="XD1:XK1"/>
-    <mergeCell ref="ZP1:ZW1"/>
-    <mergeCell ref="ABI1:ABP1"/>
-    <mergeCell ref="AAZ1:ABG1"/>
-    <mergeCell ref="ZY1:AAF1"/>
-    <mergeCell ref="ZF1:ZM1"/>
-    <mergeCell ref="YN1:YU1"/>
-    <mergeCell ref="ACB1:ACI1"/>
-    <mergeCell ref="ABS1:ABZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
@@ -48295,7 +48586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -48307,7 +48598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -49072,7 +49363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49659,7 +49950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50096,7 +50387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Бюджет.xlsx
+++ b/Бюджет.xlsx
@@ -51,7 +51,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22.12.2020'!$A$1:$M$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$ADT$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Комуналка-3'!$A$1:$AEC$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2746,12 +2746,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="ADY10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Нужно заплатить с учетом прошлошого</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AEA10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RePack by Diakov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма на сайте (16150)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="238">
   <si>
     <t>Статья расхода</t>
   </si>
@@ -21665,11 +21705,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ADS52"/>
+  <dimension ref="B1:AEB52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ACT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ADL9" sqref="ADL9"/>
+      <pane xSplit="3" topLeftCell="ADL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AEC21" sqref="AEC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22082,9 +22122,13 @@
     <col min="796" max="796" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="798" max="798" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="799" max="799" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="8.90625" customWidth="1"/>
+    <col min="805" max="805" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="808" max="808" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:808" x14ac:dyDescent="0.35">
       <c r="E1" s="334" t="s">
         <v>54</v>
       </c>
@@ -23025,8 +23069,18 @@
       <c r="ADQ1" s="335"/>
       <c r="ADR1" s="335"/>
       <c r="ADS1" s="336"/>
-    </row>
-    <row r="2" spans="2:799" ht="252.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="ADU1" s="337">
+        <v>45839</v>
+      </c>
+      <c r="ADV1" s="335"/>
+      <c r="ADW1" s="335"/>
+      <c r="ADX1" s="335"/>
+      <c r="ADY1" s="335"/>
+      <c r="ADZ1" s="335"/>
+      <c r="AEA1" s="335"/>
+      <c r="AEB1" s="336"/>
+    </row>
+    <row r="2" spans="2:808" ht="252.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
@@ -25292,8 +25346,32 @@
       <c r="ADS2" s="133" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:799" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="ADU2" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="ADV2" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="ADW2" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="ADX2" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="ADY2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="ADZ2" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="AEA2" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="AEB2" s="133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:808" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="46">
         <v>800000690090</v>
       </c>
@@ -27746,8 +27824,34 @@
         <f>ADR3</f>
         <v>439.15199999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU3" s="279">
+        <v>1143</v>
+      </c>
+      <c r="ADV3" s="279">
+        <v>1120</v>
+      </c>
+      <c r="ADW3" s="135">
+        <f>ADU3-ADV3</f>
+        <v>23</v>
+      </c>
+      <c r="ADX3" s="136">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ADY3" s="136">
+        <f>ADW3*ADX3</f>
+        <v>721.46399999999994</v>
+      </c>
+      <c r="ADZ3" s="137"/>
+      <c r="AEA3" s="315">
+        <f>ADY3+ADY4</f>
+        <v>941.04</v>
+      </c>
+      <c r="AEB3" s="322">
+        <f>AEA3</f>
+        <v>941.04</v>
+      </c>
+    </row>
+    <row r="4" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B4" s="46"/>
       <c r="C4" s="47" t="s">
         <v>53</v>
@@ -30008,8 +30112,32 @@
       <c r="ADS4" s="323">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:799" ht="29" x14ac:dyDescent="0.35">
+      <c r="ADU4" s="280">
+        <v>591</v>
+      </c>
+      <c r="ADV4" s="280">
+        <v>584</v>
+      </c>
+      <c r="ADW4" s="46">
+        <f>ADU4-ADV4</f>
+        <v>7</v>
+      </c>
+      <c r="ADX4" s="48">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="ADY4" s="48">
+        <f>ADW4*ADX4</f>
+        <v>219.57599999999999</v>
+      </c>
+      <c r="ADZ4" s="49"/>
+      <c r="AEA4" s="306" t="s">
+        <v>118</v>
+      </c>
+      <c r="AEB4" s="323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:808" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="74">
         <v>1010006090</v>
       </c>
@@ -31697,8 +31825,27 @@
         <f>ADR5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU5" s="281"/>
+      <c r="ADV5" s="281"/>
+      <c r="ADW5" s="46">
+        <f t="shared" ref="ADW5" si="168">ADU5-ADV5</f>
+        <v>0</v>
+      </c>
+      <c r="ADX5" s="74"/>
+      <c r="ADY5" s="48">
+        <f t="shared" ref="ADY5" si="169">ADW5*ADX5</f>
+        <v>0</v>
+      </c>
+      <c r="ADZ5" s="179"/>
+      <c r="AEA5" s="195">
+        <v>0</v>
+      </c>
+      <c r="AEB5" s="319">
+        <f>AEA5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B6" s="74">
         <v>1010006090</v>
       </c>
@@ -32608,8 +32755,20 @@
       <c r="ADS6" s="323">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="7" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU6" s="281"/>
+      <c r="ADV6" s="281"/>
+      <c r="ADW6" s="46"/>
+      <c r="ADX6" s="74"/>
+      <c r="ADY6" s="48"/>
+      <c r="ADZ6" s="179"/>
+      <c r="AEA6" s="195">
+        <v>0</v>
+      </c>
+      <c r="AEB6" s="323">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B7" s="46">
         <v>18300690090</v>
       </c>
@@ -32731,7 +32890,7 @@
         <v>166.14</v>
       </c>
       <c r="AZ7" s="99">
-        <f t="shared" ref="AZ7:AZ17" si="168">AY7</f>
+        <f t="shared" ref="AZ7:AZ17" si="170">AY7</f>
         <v>166.14</v>
       </c>
       <c r="BA7" s="67"/>
@@ -32753,7 +32912,7 @@
         <v>260.38</v>
       </c>
       <c r="BH7" s="99">
-        <f t="shared" ref="BH7:BH17" si="169">BG7</f>
+        <f t="shared" ref="BH7:BH17" si="171">BG7</f>
         <v>260.38</v>
       </c>
       <c r="BI7" s="67"/>
@@ -32775,7 +32934,7 @@
         <v>242.38</v>
       </c>
       <c r="BP7" s="99">
-        <f t="shared" ref="BP7:BP17" si="170">BO7</f>
+        <f t="shared" ref="BP7:BP17" si="172">BO7</f>
         <v>242.38</v>
       </c>
       <c r="BQ7" s="67"/>
@@ -33646,7 +33805,7 @@
       <c r="QP7" s="278"/>
       <c r="QQ7" s="278"/>
       <c r="QR7" s="46">
-        <f t="shared" ref="QR7" si="171">QP7-QQ7</f>
+        <f t="shared" ref="QR7" si="173">QP7-QQ7</f>
         <v>0</v>
       </c>
       <c r="QS7" s="48"/>
@@ -33660,7 +33819,7 @@
       <c r="QX7" s="278"/>
       <c r="QY7" s="278"/>
       <c r="QZ7" s="46">
-        <f t="shared" ref="QZ7" si="172">QX7-QY7</f>
+        <f t="shared" ref="QZ7" si="174">QX7-QY7</f>
         <v>0</v>
       </c>
       <c r="RA7" s="48"/>
@@ -33674,7 +33833,7 @@
       <c r="RG7" s="278"/>
       <c r="RH7" s="278"/>
       <c r="RI7" s="46">
-        <f t="shared" ref="RI7" si="173">RG7-RH7</f>
+        <f t="shared" ref="RI7" si="175">RG7-RH7</f>
         <v>0</v>
       </c>
       <c r="RJ7" s="48"/>
@@ -33688,7 +33847,7 @@
       <c r="RP7" s="278"/>
       <c r="RQ7" s="278"/>
       <c r="RR7" s="46">
-        <f t="shared" ref="RR7" si="174">RP7-RQ7</f>
+        <f t="shared" ref="RR7" si="176">RP7-RQ7</f>
         <v>0</v>
       </c>
       <c r="RS7" s="48"/>
@@ -33702,7 +33861,7 @@
       <c r="RY7" s="278"/>
       <c r="RZ7" s="278"/>
       <c r="SA7" s="46">
-        <f t="shared" ref="SA7" si="175">RY7-RZ7</f>
+        <f t="shared" ref="SA7" si="177">RY7-RZ7</f>
         <v>0</v>
       </c>
       <c r="SB7" s="48"/>
@@ -33716,7 +33875,7 @@
       <c r="SH7" s="278"/>
       <c r="SI7" s="278"/>
       <c r="SJ7" s="46">
-        <f t="shared" ref="SJ7" si="176">SH7-SI7</f>
+        <f t="shared" ref="SJ7" si="178">SH7-SI7</f>
         <v>0</v>
       </c>
       <c r="SK7" s="48"/>
@@ -33730,7 +33889,7 @@
       <c r="SQ7" s="278"/>
       <c r="SR7" s="278"/>
       <c r="SS7" s="46">
-        <f t="shared" ref="SS7" si="177">SQ7-SR7</f>
+        <f t="shared" ref="SS7" si="179">SQ7-SR7</f>
         <v>0</v>
       </c>
       <c r="ST7" s="48"/>
@@ -33744,7 +33903,7 @@
       <c r="SZ7" s="278"/>
       <c r="TA7" s="278"/>
       <c r="TB7" s="46">
-        <f t="shared" ref="TB7" si="178">SZ7-TA7</f>
+        <f t="shared" ref="TB7" si="180">SZ7-TA7</f>
         <v>0</v>
       </c>
       <c r="TC7" s="48"/>
@@ -33758,7 +33917,7 @@
       <c r="TI7" s="278"/>
       <c r="TJ7" s="310"/>
       <c r="TK7" s="46">
-        <f t="shared" ref="TK7" si="179">TI7-TJ7</f>
+        <f t="shared" ref="TK7" si="181">TI7-TJ7</f>
         <v>0</v>
       </c>
       <c r="TL7" s="48"/>
@@ -33772,7 +33931,7 @@
       <c r="TR7" s="278"/>
       <c r="TS7" s="310"/>
       <c r="TT7" s="46">
-        <f t="shared" ref="TT7" si="180">TR7-TS7</f>
+        <f t="shared" ref="TT7" si="182">TR7-TS7</f>
         <v>0</v>
       </c>
       <c r="TU7" s="48"/>
@@ -33786,7 +33945,7 @@
       <c r="UA7" s="278"/>
       <c r="UB7" s="310"/>
       <c r="UC7" s="46">
-        <f t="shared" ref="UC7" si="181">UA7-UB7</f>
+        <f t="shared" ref="UC7" si="183">UA7-UB7</f>
         <v>0</v>
       </c>
       <c r="UD7" s="48"/>
@@ -33800,7 +33959,7 @@
       <c r="UJ7" s="278"/>
       <c r="UK7" s="310"/>
       <c r="UL7" s="46">
-        <f t="shared" ref="UL7" si="182">UJ7-UK7</f>
+        <f t="shared" ref="UL7" si="184">UJ7-UK7</f>
         <v>0</v>
       </c>
       <c r="UM7" s="48"/>
@@ -33814,7 +33973,7 @@
       <c r="US7" s="278"/>
       <c r="UT7" s="310"/>
       <c r="UU7" s="46">
-        <f t="shared" ref="UU7" si="183">US7-UT7</f>
+        <f t="shared" ref="UU7" si="185">US7-UT7</f>
         <v>0</v>
       </c>
       <c r="UV7" s="48"/>
@@ -33828,7 +33987,7 @@
       <c r="VB7" s="278"/>
       <c r="VC7" s="310"/>
       <c r="VD7" s="46">
-        <f t="shared" ref="VD7" si="184">VB7-VC7</f>
+        <f t="shared" ref="VD7" si="186">VB7-VC7</f>
         <v>0</v>
       </c>
       <c r="VE7" s="48"/>
@@ -33842,7 +34001,7 @@
       <c r="VK7" s="278"/>
       <c r="VL7" s="278"/>
       <c r="VM7" s="46">
-        <f t="shared" ref="VM7" si="185">VK7-VL7</f>
+        <f t="shared" ref="VM7" si="187">VK7-VL7</f>
         <v>0</v>
       </c>
       <c r="VN7" s="48"/>
@@ -33856,7 +34015,7 @@
       <c r="VT7" s="278"/>
       <c r="VU7" s="278"/>
       <c r="VV7" s="46">
-        <f t="shared" ref="VV7" si="186">VT7-VU7</f>
+        <f t="shared" ref="VV7" si="188">VT7-VU7</f>
         <v>0</v>
       </c>
       <c r="VW7" s="48"/>
@@ -33870,7 +34029,7 @@
       <c r="WC7" s="278"/>
       <c r="WD7" s="278"/>
       <c r="WE7" s="46">
-        <f t="shared" ref="WE7" si="187">WC7-WD7</f>
+        <f t="shared" ref="WE7" si="189">WC7-WD7</f>
         <v>0</v>
       </c>
       <c r="WF7" s="48"/>
@@ -33884,7 +34043,7 @@
       <c r="WL7" s="278"/>
       <c r="WM7" s="278"/>
       <c r="WN7" s="46">
-        <f t="shared" ref="WN7" si="188">WL7-WM7</f>
+        <f t="shared" ref="WN7" si="190">WL7-WM7</f>
         <v>0</v>
       </c>
       <c r="WO7" s="48"/>
@@ -33898,7 +34057,7 @@
       <c r="WU7" s="278"/>
       <c r="WV7" s="278"/>
       <c r="WW7" s="46">
-        <f t="shared" ref="WW7" si="189">WU7-WV7</f>
+        <f t="shared" ref="WW7" si="191">WU7-WV7</f>
         <v>0</v>
       </c>
       <c r="WX7" s="48"/>
@@ -33912,7 +34071,7 @@
       <c r="XD7" s="278"/>
       <c r="XE7" s="278"/>
       <c r="XF7" s="46">
-        <f t="shared" ref="XF7" si="190">XD7-XE7</f>
+        <f t="shared" ref="XF7" si="192">XD7-XE7</f>
         <v>0</v>
       </c>
       <c r="XG7" s="48"/>
@@ -33926,7 +34085,7 @@
       <c r="XM7" s="278"/>
       <c r="XN7" s="278"/>
       <c r="XO7" s="46">
-        <f t="shared" ref="XO7" si="191">XM7-XN7</f>
+        <f t="shared" ref="XO7" si="193">XM7-XN7</f>
         <v>0</v>
       </c>
       <c r="XP7" s="48"/>
@@ -33940,7 +34099,7 @@
       <c r="XV7" s="278"/>
       <c r="XW7" s="278"/>
       <c r="XX7" s="46">
-        <f t="shared" ref="XX7" si="192">XV7-XW7</f>
+        <f t="shared" ref="XX7" si="194">XV7-XW7</f>
         <v>0</v>
       </c>
       <c r="XY7" s="48"/>
@@ -33954,7 +34113,7 @@
       <c r="YE7" s="278"/>
       <c r="YF7" s="278"/>
       <c r="YG7" s="46">
-        <f t="shared" ref="YG7" si="193">YE7-YF7</f>
+        <f t="shared" ref="YG7" si="195">YE7-YF7</f>
         <v>0</v>
       </c>
       <c r="YH7" s="48"/>
@@ -33968,7 +34127,7 @@
       <c r="YN7" s="278"/>
       <c r="YO7" s="278"/>
       <c r="YP7" s="46">
-        <f t="shared" ref="YP7" si="194">YN7-YO7</f>
+        <f t="shared" ref="YP7" si="196">YN7-YO7</f>
         <v>0</v>
       </c>
       <c r="YQ7" s="48"/>
@@ -33982,7 +34141,7 @@
       <c r="YW7" s="278"/>
       <c r="YX7" s="278"/>
       <c r="YY7" s="46">
-        <f t="shared" ref="YY7" si="195">YW7-YX7</f>
+        <f t="shared" ref="YY7" si="197">YW7-YX7</f>
         <v>0</v>
       </c>
       <c r="YZ7" s="48"/>
@@ -33996,7 +34155,7 @@
       <c r="ZF7" s="278"/>
       <c r="ZG7" s="278"/>
       <c r="ZH7" s="46">
-        <f t="shared" ref="ZH7" si="196">ZF7-ZG7</f>
+        <f t="shared" ref="ZH7" si="198">ZF7-ZG7</f>
         <v>0</v>
       </c>
       <c r="ZI7" s="48"/>
@@ -34010,7 +34169,7 @@
       <c r="ZP7" s="278"/>
       <c r="ZQ7" s="278"/>
       <c r="ZR7" s="46">
-        <f t="shared" ref="ZR7" si="197">ZP7-ZQ7</f>
+        <f t="shared" ref="ZR7" si="199">ZP7-ZQ7</f>
         <v>0</v>
       </c>
       <c r="ZS7" s="48"/>
@@ -34024,7 +34183,7 @@
       <c r="ZY7" s="278"/>
       <c r="ZZ7" s="278"/>
       <c r="AAA7" s="46">
-        <f t="shared" ref="AAA7" si="198">ZY7-ZZ7</f>
+        <f t="shared" ref="AAA7" si="200">ZY7-ZZ7</f>
         <v>0</v>
       </c>
       <c r="AAB7" s="48"/>
@@ -34038,7 +34197,7 @@
       <c r="AAH7" s="278"/>
       <c r="AAI7" s="278"/>
       <c r="AAJ7" s="46">
-        <f t="shared" ref="AAJ7" si="199">AAH7-AAI7</f>
+        <f t="shared" ref="AAJ7" si="201">AAH7-AAI7</f>
         <v>0</v>
       </c>
       <c r="AAK7" s="48"/>
@@ -34052,7 +34211,7 @@
       <c r="AAQ7" s="278"/>
       <c r="AAR7" s="278"/>
       <c r="AAS7" s="46">
-        <f t="shared" ref="AAS7" si="200">AAQ7-AAR7</f>
+        <f t="shared" ref="AAS7" si="202">AAQ7-AAR7</f>
         <v>0</v>
       </c>
       <c r="AAT7" s="48"/>
@@ -34066,7 +34225,7 @@
       <c r="AAZ7" s="278"/>
       <c r="ABA7" s="278"/>
       <c r="ABB7" s="46">
-        <f t="shared" ref="ABB7" si="201">AAZ7-ABA7</f>
+        <f t="shared" ref="ABB7" si="203">AAZ7-ABA7</f>
         <v>0</v>
       </c>
       <c r="ABC7" s="48"/>
@@ -34080,7 +34239,7 @@
       <c r="ABI7" s="278"/>
       <c r="ABJ7" s="278"/>
       <c r="ABK7" s="46">
-        <f t="shared" ref="ABK7" si="202">ABI7-ABJ7</f>
+        <f t="shared" ref="ABK7" si="204">ABI7-ABJ7</f>
         <v>0</v>
       </c>
       <c r="ABL7" s="48"/>
@@ -34094,7 +34253,7 @@
       <c r="ABS7" s="278"/>
       <c r="ABT7" s="278"/>
       <c r="ABU7" s="46">
-        <f t="shared" ref="ABU7" si="203">ABS7-ABT7</f>
+        <f t="shared" ref="ABU7" si="205">ABS7-ABT7</f>
         <v>0</v>
       </c>
       <c r="ABV7" s="48"/>
@@ -34108,7 +34267,7 @@
       <c r="ACB7" s="278"/>
       <c r="ACC7" s="278"/>
       <c r="ACD7" s="46">
-        <f t="shared" ref="ACD7" si="204">ACB7-ACC7</f>
+        <f t="shared" ref="ACD7" si="206">ACB7-ACC7</f>
         <v>0</v>
       </c>
       <c r="ACE7" s="48"/>
@@ -34122,7 +34281,7 @@
       <c r="ACK7" s="278"/>
       <c r="ACL7" s="278"/>
       <c r="ACM7" s="46">
-        <f t="shared" ref="ACM7" si="205">ACK7-ACL7</f>
+        <f t="shared" ref="ACM7" si="207">ACK7-ACL7</f>
         <v>0</v>
       </c>
       <c r="ACN7" s="48"/>
@@ -34136,7 +34295,7 @@
       <c r="ACT7" s="278"/>
       <c r="ACU7" s="278"/>
       <c r="ACV7" s="46">
-        <f t="shared" ref="ACV7" si="206">ACT7-ACU7</f>
+        <f t="shared" ref="ACV7" si="208">ACT7-ACU7</f>
         <v>0</v>
       </c>
       <c r="ACW7" s="48"/>
@@ -34150,7 +34309,7 @@
       <c r="ADC7" s="278"/>
       <c r="ADD7" s="278"/>
       <c r="ADE7" s="46">
-        <f t="shared" ref="ADE7" si="207">ADC7-ADD7</f>
+        <f t="shared" ref="ADE7" si="209">ADC7-ADD7</f>
         <v>0</v>
       </c>
       <c r="ADF7" s="48"/>
@@ -34164,7 +34323,7 @@
       <c r="ADL7" s="278"/>
       <c r="ADM7" s="278"/>
       <c r="ADN7" s="46">
-        <f t="shared" ref="ADN7" si="208">ADL7-ADM7</f>
+        <f t="shared" ref="ADN7" si="210">ADL7-ADM7</f>
         <v>0</v>
       </c>
       <c r="ADO7" s="48"/>
@@ -34175,8 +34334,22 @@
         <v>0</v>
       </c>
       <c r="ADS7" s="75"/>
-    </row>
-    <row r="8" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU7" s="278"/>
+      <c r="ADV7" s="278"/>
+      <c r="ADW7" s="46">
+        <f t="shared" ref="ADW7" si="211">ADU7-ADV7</f>
+        <v>0</v>
+      </c>
+      <c r="ADX7" s="48"/>
+      <c r="ADY7" s="311"/>
+      <c r="ADZ7" s="312"/>
+      <c r="AEA7" s="306">
+        <f>ADZ7</f>
+        <v>0</v>
+      </c>
+      <c r="AEB7" s="75"/>
+    </row>
+    <row r="8" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B8" s="46">
         <v>18300690090</v>
       </c>
@@ -35119,8 +35292,20 @@
       <c r="ADS8" s="323">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU8" s="278"/>
+      <c r="ADV8" s="278"/>
+      <c r="ADW8" s="46"/>
+      <c r="ADX8" s="48"/>
+      <c r="ADY8" s="311"/>
+      <c r="ADZ8" s="312"/>
+      <c r="AEA8" s="307">
+        <v>451.5</v>
+      </c>
+      <c r="AEB8" s="323">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B9" s="46">
         <v>8071090</v>
       </c>
@@ -35265,7 +35450,7 @@
         <v>731.34</v>
       </c>
       <c r="AZ9" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>731.34</v>
       </c>
       <c r="BA9" s="76">
@@ -35292,7 +35477,7 @@
         <v>570.20000000000005</v>
       </c>
       <c r="BH9" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>570.20000000000005</v>
       </c>
       <c r="BI9" s="76">
@@ -35319,7 +35504,7 @@
         <v>795.6</v>
       </c>
       <c r="BP9" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>795.6</v>
       </c>
       <c r="BQ9" s="76">
@@ -35712,7 +35897,7 @@
         <v>0.9</v>
       </c>
       <c r="GE9" s="48">
-        <f t="shared" ref="GE9:GE14" si="209">GC9*GD9</f>
+        <f t="shared" ref="GE9:GE14" si="212">GC9*GD9</f>
         <v>90</v>
       </c>
       <c r="GF9" s="98">
@@ -35736,7 +35921,7 @@
         <v>0.9</v>
       </c>
       <c r="GM9" s="48">
-        <f t="shared" ref="GM9:GM14" si="210">GK9*GL9</f>
+        <f t="shared" ref="GM9:GM14" si="213">GK9*GL9</f>
         <v>90</v>
       </c>
       <c r="GN9" s="98">
@@ -35758,7 +35943,7 @@
         <v>0.9</v>
       </c>
       <c r="GU9" s="48">
-        <f t="shared" ref="GU9:GU14" si="211">GS9*GT9</f>
+        <f t="shared" ref="GU9:GU14" si="214">GS9*GT9</f>
         <v>90</v>
       </c>
       <c r="GV9" s="98">
@@ -35785,7 +35970,7 @@
         <v>0.9</v>
       </c>
       <c r="HC9" s="48">
-        <f t="shared" ref="HC9:HC14" si="212">HA9*HB9</f>
+        <f t="shared" ref="HC9:HC14" si="215">HA9*HB9</f>
         <v>90</v>
       </c>
       <c r="HD9" s="98">
@@ -35812,7 +35997,7 @@
         <v>0.9</v>
       </c>
       <c r="HK9" s="48">
-        <f t="shared" ref="HK9:HK14" si="213">HI9*HJ9</f>
+        <f t="shared" ref="HK9:HK14" si="216">HI9*HJ9</f>
         <v>90</v>
       </c>
       <c r="HL9" s="98">
@@ -35836,7 +36021,7 @@
         <v>0.9</v>
       </c>
       <c r="HS9" s="48">
-        <f t="shared" ref="HS9:HS14" si="214">HQ9*HR9</f>
+        <f t="shared" ref="HS9:HS14" si="217">HQ9*HR9</f>
         <v>90</v>
       </c>
       <c r="HT9" s="98">
@@ -35864,7 +36049,7 @@
         <v>0.9</v>
       </c>
       <c r="IA9" s="48">
-        <f t="shared" ref="IA9:IA14" si="215">HY9*HZ9</f>
+        <f t="shared" ref="IA9:IA14" si="218">HY9*HZ9</f>
         <v>90</v>
       </c>
       <c r="IB9" s="98">
@@ -35892,7 +36077,7 @@
         <v>0.9</v>
       </c>
       <c r="II9" s="48">
-        <f t="shared" ref="II9:II14" si="216">IG9*IH9</f>
+        <f t="shared" ref="II9:II14" si="219">IG9*IH9</f>
         <v>90</v>
       </c>
       <c r="IJ9" s="98">
@@ -35920,7 +36105,7 @@
         <v>0.9</v>
       </c>
       <c r="IQ9" s="48">
-        <f t="shared" ref="IQ9:IQ14" si="217">IO9*IP9</f>
+        <f t="shared" ref="IQ9:IQ14" si="220">IO9*IP9</f>
         <v>90</v>
       </c>
       <c r="IR9" s="98">
@@ -35948,7 +36133,7 @@
         <v>0.9</v>
       </c>
       <c r="IY9" s="48">
-        <f t="shared" ref="IY9:IY14" si="218">IW9*IX9</f>
+        <f t="shared" ref="IY9:IY14" si="221">IW9*IX9</f>
         <v>90</v>
       </c>
       <c r="IZ9" s="98">
@@ -35976,7 +36161,7 @@
         <v>0.9</v>
       </c>
       <c r="JG9" s="48">
-        <f t="shared" ref="JG9:JG14" si="219">JE9*JF9</f>
+        <f t="shared" ref="JG9:JG14" si="222">JE9*JF9</f>
         <v>90</v>
       </c>
       <c r="JH9" s="98">
@@ -36004,7 +36189,7 @@
         <v>0.9</v>
       </c>
       <c r="JO9" s="48">
-        <f t="shared" ref="JO9:JO14" si="220">JM9*JN9</f>
+        <f t="shared" ref="JO9:JO14" si="223">JM9*JN9</f>
         <v>90</v>
       </c>
       <c r="JP9" s="98">
@@ -36032,7 +36217,7 @@
         <v>0.9</v>
       </c>
       <c r="JW9" s="48">
-        <f t="shared" ref="JW9:JW14" si="221">JU9*JV9</f>
+        <f t="shared" ref="JW9:JW14" si="224">JU9*JV9</f>
         <v>90</v>
       </c>
       <c r="JX9" s="98">
@@ -36060,7 +36245,7 @@
         <v>0.9</v>
       </c>
       <c r="KE9" s="48">
-        <f t="shared" ref="KE9:KE14" si="222">KC9*KD9</f>
+        <f t="shared" ref="KE9:KE14" si="225">KC9*KD9</f>
         <v>90</v>
       </c>
       <c r="KF9" s="98">
@@ -36088,7 +36273,7 @@
         <v>0.9</v>
       </c>
       <c r="KM9" s="48">
-        <f t="shared" ref="KM9:KM14" si="223">KK9*KL9</f>
+        <f t="shared" ref="KM9:KM14" si="226">KK9*KL9</f>
         <v>90</v>
       </c>
       <c r="KN9" s="98">
@@ -36116,7 +36301,7 @@
         <v>0.9</v>
       </c>
       <c r="KU9" s="48">
-        <f t="shared" ref="KU9:KU14" si="224">KS9*KT9</f>
+        <f t="shared" ref="KU9:KU14" si="227">KS9*KT9</f>
         <v>90</v>
       </c>
       <c r="KV9" s="98">
@@ -36144,7 +36329,7 @@
         <v>0.9</v>
       </c>
       <c r="LC9" s="48">
-        <f t="shared" ref="LC9:LC14" si="225">LA9*LB9</f>
+        <f t="shared" ref="LC9:LC14" si="228">LA9*LB9</f>
         <v>90</v>
       </c>
       <c r="LD9" s="98">
@@ -36171,7 +36356,7 @@
         <v>0.9</v>
       </c>
       <c r="LK9" s="48">
-        <f t="shared" ref="LK9:LK14" si="226">LI9*LJ9</f>
+        <f t="shared" ref="LK9:LK14" si="229">LI9*LJ9</f>
         <v>90</v>
       </c>
       <c r="LL9" s="98">
@@ -36199,7 +36384,7 @@
         <v>0.9</v>
       </c>
       <c r="LS9" s="48">
-        <f t="shared" ref="LS9" si="227">LQ9*LR9</f>
+        <f t="shared" ref="LS9" si="230">LQ9*LR9</f>
         <v>90</v>
       </c>
       <c r="LT9" s="98">
@@ -36227,7 +36412,7 @@
         <v>0.9</v>
       </c>
       <c r="MA9" s="48">
-        <f t="shared" ref="MA9" si="228">LY9*LZ9</f>
+        <f t="shared" ref="MA9" si="231">LY9*LZ9</f>
         <v>90</v>
       </c>
       <c r="MB9" s="98">
@@ -36256,7 +36441,7 @@
         <v>1.68</v>
       </c>
       <c r="MJ9" s="48">
-        <f t="shared" ref="MJ9" si="229">MH9*MI9</f>
+        <f t="shared" ref="MJ9" si="232">MH9*MI9</f>
         <v>967.68</v>
       </c>
       <c r="MK9" s="98">
@@ -36285,7 +36470,7 @@
         <v>1.68</v>
       </c>
       <c r="MR9" s="48">
-        <f t="shared" ref="MR9" si="230">MP9*MQ9</f>
+        <f t="shared" ref="MR9" si="233">MP9*MQ9</f>
         <v>787.92</v>
       </c>
       <c r="MS9" s="98">
@@ -36314,7 +36499,7 @@
         <v>1.68</v>
       </c>
       <c r="MZ9" s="48">
-        <f t="shared" ref="MZ9" si="231">MX9*MY9</f>
+        <f t="shared" ref="MZ9" si="234">MX9*MY9</f>
         <v>907.19999999999993</v>
       </c>
       <c r="NA9" s="98">
@@ -36343,7 +36528,7 @@
         <v>1.68</v>
       </c>
       <c r="NH9" s="48">
-        <f t="shared" ref="NH9" si="232">NF9*NG9</f>
+        <f t="shared" ref="NH9" si="235">NF9*NG9</f>
         <v>712.31999999999994</v>
       </c>
       <c r="NI9" s="98">
@@ -36372,7 +36557,7 @@
         <v>1.68</v>
       </c>
       <c r="NP9" s="48">
-        <f t="shared" ref="NP9" si="233">NN9*NO9</f>
+        <f t="shared" ref="NP9" si="236">NN9*NO9</f>
         <v>779.52</v>
       </c>
       <c r="NQ9" s="98">
@@ -36401,7 +36586,7 @@
         <v>1.68</v>
       </c>
       <c r="NX9" s="48">
-        <f t="shared" ref="NX9" si="234">NV9*NW9</f>
+        <f t="shared" ref="NX9" si="237">NV9*NW9</f>
         <v>1286.8799999999999</v>
       </c>
       <c r="NY9" s="98">
@@ -36430,7 +36615,7 @@
         <v>1.68</v>
       </c>
       <c r="OF9" s="48">
-        <f t="shared" ref="OF9" si="235">OD9*OE9</f>
+        <f t="shared" ref="OF9" si="238">OD9*OE9</f>
         <v>749.28</v>
       </c>
       <c r="OG9" s="98">
@@ -36459,7 +36644,7 @@
         <v>1.68</v>
       </c>
       <c r="ON9" s="48">
-        <f t="shared" ref="ON9" si="236">OL9*OM9</f>
+        <f t="shared" ref="ON9" si="239">OL9*OM9</f>
         <v>588</v>
       </c>
       <c r="OO9" s="98">
@@ -36487,7 +36672,7 @@
         <v>1.44</v>
       </c>
       <c r="OV9" s="48">
-        <f t="shared" ref="OV9" si="237">OT9*OU9</f>
+        <f t="shared" ref="OV9" si="240">OT9*OU9</f>
         <v>360</v>
       </c>
       <c r="OW9" s="98">
@@ -36515,7 +36700,7 @@
         <v>1.44</v>
       </c>
       <c r="PD9" s="48">
-        <f t="shared" ref="PD9:PD10" si="238">PB9*PC9</f>
+        <f t="shared" ref="PD9:PD10" si="241">PB9*PC9</f>
         <v>360</v>
       </c>
       <c r="PE9" s="98">
@@ -36571,7 +36756,7 @@
         <v>1.44</v>
       </c>
       <c r="PT9" s="48">
-        <f t="shared" ref="PT9:PT10" si="239">PR9*PS9</f>
+        <f t="shared" ref="PT9:PT10" si="242">PR9*PS9</f>
         <v>360</v>
       </c>
       <c r="PU9" s="98">
@@ -36603,7 +36788,7 @@
         <v>1.44</v>
       </c>
       <c r="QC9" s="48">
-        <f t="shared" ref="QC9:QC10" si="240">QA9*QB9</f>
+        <f t="shared" ref="QC9:QC10" si="243">QA9*QB9</f>
         <v>360</v>
       </c>
       <c r="QD9" s="98">
@@ -36630,7 +36815,7 @@
         <v>1.44</v>
       </c>
       <c r="QK9" s="48">
-        <f t="shared" ref="QK9:QK10" si="241">QI9*QJ9</f>
+        <f t="shared" ref="QK9:QK10" si="244">QI9*QJ9</f>
         <v>360</v>
       </c>
       <c r="QL9" s="98">
@@ -36657,7 +36842,7 @@
         <v>1.44</v>
       </c>
       <c r="QT9" s="48">
-        <f t="shared" ref="QT9:QT10" si="242">QR9*QS9</f>
+        <f t="shared" ref="QT9:QT10" si="245">QR9*QS9</f>
         <v>360</v>
       </c>
       <c r="QU9" s="98">
@@ -36684,7 +36869,7 @@
         <v>1.44</v>
       </c>
       <c r="RB9" s="48">
-        <f t="shared" ref="RB9:RB10" si="243">QZ9*RA9</f>
+        <f t="shared" ref="RB9:RB10" si="246">QZ9*RA9</f>
         <v>360</v>
       </c>
       <c r="RC9" s="98">
@@ -36711,7 +36896,7 @@
         <v>1.44</v>
       </c>
       <c r="RK9" s="48">
-        <f t="shared" ref="RK9:RK10" si="244">RI9*RJ9</f>
+        <f t="shared" ref="RK9:RK10" si="247">RI9*RJ9</f>
         <v>360</v>
       </c>
       <c r="RL9" s="98">
@@ -36738,7 +36923,7 @@
         <v>1.44</v>
       </c>
       <c r="RT9" s="48">
-        <f t="shared" ref="RT9:RT10" si="245">RR9*RS9</f>
+        <f t="shared" ref="RT9:RT10" si="248">RR9*RS9</f>
         <v>360</v>
       </c>
       <c r="RU9" s="98"/>
@@ -36763,7 +36948,7 @@
         <v>1.44</v>
       </c>
       <c r="SC9" s="48">
-        <f t="shared" ref="SC9:SC10" si="246">SA9*SB9</f>
+        <f t="shared" ref="SC9:SC10" si="249">SA9*SB9</f>
         <v>360</v>
       </c>
       <c r="SD9" s="98"/>
@@ -36788,7 +36973,7 @@
         <v>1.44</v>
       </c>
       <c r="SL9" s="48">
-        <f t="shared" ref="SL9:SL10" si="247">SJ9*SK9</f>
+        <f t="shared" ref="SL9:SL10" si="250">SJ9*SK9</f>
         <v>360</v>
       </c>
       <c r="SM9" s="98"/>
@@ -36813,7 +36998,7 @@
         <v>1.44</v>
       </c>
       <c r="SU9" s="48">
-        <f t="shared" ref="SU9:SU10" si="248">SS9*ST9</f>
+        <f t="shared" ref="SU9:SU10" si="251">SS9*ST9</f>
         <v>360</v>
       </c>
       <c r="SV9" s="98"/>
@@ -36838,7 +37023,7 @@
         <v>1.44</v>
       </c>
       <c r="TD9" s="48">
-        <f t="shared" ref="TD9:TD10" si="249">TB9*TC9</f>
+        <f t="shared" ref="TD9:TD10" si="252">TB9*TC9</f>
         <v>360</v>
       </c>
       <c r="TE9" s="98"/>
@@ -36863,7 +37048,7 @@
         <v>1.44</v>
       </c>
       <c r="TM9" s="48">
-        <f t="shared" ref="TM9:TM10" si="250">TK9*TL9</f>
+        <f t="shared" ref="TM9:TM10" si="253">TK9*TL9</f>
         <v>360</v>
       </c>
       <c r="TN9" s="98"/>
@@ -36888,7 +37073,7 @@
         <v>1.44</v>
       </c>
       <c r="TV9" s="48">
-        <f t="shared" ref="TV9:TV10" si="251">TT9*TU9</f>
+        <f t="shared" ref="TV9:TV10" si="254">TT9*TU9</f>
         <v>360</v>
       </c>
       <c r="TW9" s="98"/>
@@ -36913,7 +37098,7 @@
         <v>1.44</v>
       </c>
       <c r="UE9" s="48">
-        <f t="shared" ref="UE9:UE10" si="252">UC9*UD9</f>
+        <f t="shared" ref="UE9:UE10" si="255">UC9*UD9</f>
         <v>360</v>
       </c>
       <c r="UF9" s="98"/>
@@ -36938,7 +37123,7 @@
         <v>1.44</v>
       </c>
       <c r="UN9" s="48">
-        <f t="shared" ref="UN9:UN10" si="253">UL9*UM9</f>
+        <f t="shared" ref="UN9:UN10" si="256">UL9*UM9</f>
         <v>360</v>
       </c>
       <c r="UO9" s="98"/>
@@ -36963,7 +37148,7 @@
         <v>1.44</v>
       </c>
       <c r="UW9" s="48">
-        <f t="shared" ref="UW9:UW10" si="254">UU9*UV9</f>
+        <f t="shared" ref="UW9:UW10" si="257">UU9*UV9</f>
         <v>360</v>
       </c>
       <c r="UX9" s="98"/>
@@ -36988,7 +37173,7 @@
         <v>1.44</v>
       </c>
       <c r="VF9" s="48">
-        <f t="shared" ref="VF9:VF10" si="255">VD9*VE9</f>
+        <f t="shared" ref="VF9:VF10" si="258">VD9*VE9</f>
         <v>360</v>
       </c>
       <c r="VG9" s="98"/>
@@ -37013,7 +37198,7 @@
         <v>1.44</v>
       </c>
       <c r="VO9" s="48">
-        <f t="shared" ref="VO9:VO10" si="256">VM9*VN9</f>
+        <f t="shared" ref="VO9:VO10" si="259">VM9*VN9</f>
         <v>360</v>
       </c>
       <c r="VP9" s="98"/>
@@ -37038,7 +37223,7 @@
         <v>1.44</v>
       </c>
       <c r="VX9" s="48">
-        <f t="shared" ref="VX9:VX10" si="257">VV9*VW9</f>
+        <f t="shared" ref="VX9:VX10" si="260">VV9*VW9</f>
         <v>360</v>
       </c>
       <c r="VY9" s="98"/>
@@ -37063,7 +37248,7 @@
         <v>1.44</v>
       </c>
       <c r="WG9" s="48">
-        <f t="shared" ref="WG9:WG10" si="258">WE9*WF9</f>
+        <f t="shared" ref="WG9:WG10" si="261">WE9*WF9</f>
         <v>360</v>
       </c>
       <c r="WH9" s="98"/>
@@ -37088,7 +37273,7 @@
         <v>1.44</v>
       </c>
       <c r="WP9" s="48">
-        <f t="shared" ref="WP9:WP10" si="259">WN9*WO9</f>
+        <f t="shared" ref="WP9:WP10" si="262">WN9*WO9</f>
         <v>360</v>
       </c>
       <c r="WQ9" s="98"/>
@@ -37113,7 +37298,7 @@
         <v>1.44</v>
       </c>
       <c r="WY9" s="48">
-        <f t="shared" ref="WY9:WY10" si="260">WW9*WX9</f>
+        <f t="shared" ref="WY9:WY10" si="263">WW9*WX9</f>
         <v>360</v>
       </c>
       <c r="WZ9" s="98"/>
@@ -37138,7 +37323,7 @@
         <v>1.44</v>
       </c>
       <c r="XH9" s="48">
-        <f t="shared" ref="XH9:XH10" si="261">XF9*XG9</f>
+        <f t="shared" ref="XH9:XH10" si="264">XF9*XG9</f>
         <v>360</v>
       </c>
       <c r="XI9" s="98"/>
@@ -37163,7 +37348,7 @@
         <v>1.44</v>
       </c>
       <c r="XQ9" s="48">
-        <f t="shared" ref="XQ9:XQ10" si="262">XO9*XP9</f>
+        <f t="shared" ref="XQ9:XQ10" si="265">XO9*XP9</f>
         <v>360</v>
       </c>
       <c r="XR9" s="98"/>
@@ -37188,7 +37373,7 @@
         <v>1.44</v>
       </c>
       <c r="XZ9" s="48">
-        <f t="shared" ref="XZ9:XZ10" si="263">XX9*XY9</f>
+        <f t="shared" ref="XZ9:XZ10" si="266">XX9*XY9</f>
         <v>360</v>
       </c>
       <c r="YA9" s="98"/>
@@ -37213,7 +37398,7 @@
         <v>1.44</v>
       </c>
       <c r="YI9" s="48">
-        <f t="shared" ref="YI9:YI10" si="264">YG9*YH9</f>
+        <f t="shared" ref="YI9:YI10" si="267">YG9*YH9</f>
         <v>360</v>
       </c>
       <c r="YJ9" s="98"/>
@@ -37238,7 +37423,7 @@
         <v>1.44</v>
       </c>
       <c r="YR9" s="48">
-        <f t="shared" ref="YR9:YR10" si="265">YP9*YQ9</f>
+        <f t="shared" ref="YR9:YR10" si="268">YP9*YQ9</f>
         <v>360</v>
       </c>
       <c r="YS9" s="98"/>
@@ -37263,7 +37448,7 @@
         <v>1.44</v>
       </c>
       <c r="ZA9" s="48">
-        <f t="shared" ref="ZA9:ZA10" si="266">YY9*YZ9</f>
+        <f t="shared" ref="ZA9:ZA10" si="269">YY9*YZ9</f>
         <v>360</v>
       </c>
       <c r="ZB9" s="98"/>
@@ -37288,7 +37473,7 @@
         <v>1.44</v>
       </c>
       <c r="ZJ9" s="48">
-        <f t="shared" ref="ZJ9:ZJ10" si="267">ZH9*ZI9</f>
+        <f t="shared" ref="ZJ9:ZJ10" si="270">ZH9*ZI9</f>
         <v>360</v>
       </c>
       <c r="ZK9" s="98"/>
@@ -37609,8 +37794,31 @@
         <f>ADP9</f>
         <v>1823.0400000000002</v>
       </c>
-    </row>
-    <row r="10" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU9" s="280">
+        <v>58974</v>
+      </c>
+      <c r="ADV9" s="280">
+        <v>58357</v>
+      </c>
+      <c r="ADW9" s="46">
+        <f>ADU9-ADV9</f>
+        <v>617</v>
+      </c>
+      <c r="ADX9" s="48">
+        <v>4.32</v>
+      </c>
+      <c r="ADY9" s="326">
+        <f>ADW9*ADX9</f>
+        <v>2665.44</v>
+      </c>
+      <c r="ADZ9" s="98"/>
+      <c r="AEA9" s="306"/>
+      <c r="AEB9" s="328">
+        <f>ADY9</f>
+        <v>2665.44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="228"/>
@@ -37704,7 +37912,7 @@
       <c r="AX10" s="49"/>
       <c r="AY10" s="99"/>
       <c r="AZ10" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BA10" s="67"/>
@@ -37722,7 +37930,7 @@
       <c r="BF10" s="49"/>
       <c r="BG10" s="99"/>
       <c r="BH10" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="BI10" s="67"/>
@@ -37740,7 +37948,7 @@
       <c r="BN10" s="49"/>
       <c r="BO10" s="99"/>
       <c r="BP10" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="67"/>
@@ -37758,7 +37966,7 @@
       <c r="BV10" s="49"/>
       <c r="BW10" s="99"/>
       <c r="BX10" s="99">
-        <f t="shared" ref="BX10:BX17" si="268">BW10</f>
+        <f t="shared" ref="BX10:BX17" si="271">BW10</f>
         <v>0</v>
       </c>
       <c r="BY10" s="67"/>
@@ -37776,7 +37984,7 @@
       <c r="CD10" s="49"/>
       <c r="CE10" s="99"/>
       <c r="CF10" s="99">
-        <f t="shared" ref="CF10:CF11" si="269">CE10</f>
+        <f t="shared" ref="CF10:CF11" si="272">CE10</f>
         <v>0</v>
       </c>
       <c r="CI10" s="67"/>
@@ -37794,7 +38002,7 @@
       <c r="CN10" s="49"/>
       <c r="CO10" s="99"/>
       <c r="CP10" s="99">
-        <f t="shared" ref="CP10:CP11" si="270">CO10</f>
+        <f t="shared" ref="CP10:CP11" si="273">CO10</f>
         <v>0</v>
       </c>
       <c r="CQ10" s="67"/>
@@ -37812,7 +38020,7 @@
       <c r="CV10" s="49"/>
       <c r="CW10" s="99"/>
       <c r="CX10" s="99">
-        <f t="shared" ref="CX10:CX11" si="271">CW10</f>
+        <f t="shared" ref="CX10:CX11" si="274">CW10</f>
         <v>0</v>
       </c>
       <c r="CY10" s="67"/>
@@ -37830,7 +38038,7 @@
       <c r="DD10" s="49"/>
       <c r="DE10" s="99"/>
       <c r="DF10" s="142">
-        <f t="shared" ref="DF10:DF11" si="272">DE10</f>
+        <f t="shared" ref="DF10:DF11" si="275">DE10</f>
         <v>0</v>
       </c>
       <c r="DG10" s="67"/>
@@ -37848,7 +38056,7 @@
       <c r="DL10" s="49"/>
       <c r="DM10" s="128"/>
       <c r="DN10" s="140">
-        <f t="shared" ref="DN10:DN11" si="273">DM10</f>
+        <f t="shared" ref="DN10:DN11" si="276">DM10</f>
         <v>0</v>
       </c>
       <c r="DO10" s="67"/>
@@ -37866,7 +38074,7 @@
       <c r="DT10" s="49"/>
       <c r="DU10" s="128"/>
       <c r="DV10" s="140">
-        <f t="shared" ref="DV10:DV11" si="274">DU10</f>
+        <f t="shared" ref="DV10:DV11" si="277">DU10</f>
         <v>0</v>
       </c>
       <c r="DW10" s="67"/>
@@ -37884,7 +38092,7 @@
       <c r="EB10" s="49"/>
       <c r="EC10" s="128"/>
       <c r="ED10" s="140">
-        <f t="shared" ref="ED10:ED11" si="275">EC10</f>
+        <f t="shared" ref="ED10:ED11" si="278">EC10</f>
         <v>0</v>
       </c>
       <c r="EE10" s="67"/>
@@ -37902,7 +38110,7 @@
       <c r="EJ10" s="49"/>
       <c r="EK10" s="128"/>
       <c r="EL10" s="140">
-        <f t="shared" ref="EL10:EL11" si="276">EK10</f>
+        <f t="shared" ref="EL10:EL11" si="279">EK10</f>
         <v>0</v>
       </c>
       <c r="EM10" s="67"/>
@@ -37920,7 +38128,7 @@
       <c r="ER10" s="49"/>
       <c r="ES10" s="128"/>
       <c r="ET10" s="140">
-        <f t="shared" ref="ET10:ET11" si="277">ES10</f>
+        <f t="shared" ref="ET10:ET11" si="280">ES10</f>
         <v>0</v>
       </c>
       <c r="EU10" s="67"/>
@@ -37938,7 +38146,7 @@
       <c r="EZ10" s="49"/>
       <c r="FA10" s="128"/>
       <c r="FB10" s="140">
-        <f t="shared" ref="FB10:FB11" si="278">FA10</f>
+        <f t="shared" ref="FB10:FB11" si="281">FA10</f>
         <v>0</v>
       </c>
       <c r="FC10" s="67"/>
@@ -37956,7 +38164,7 @@
       <c r="FH10" s="49"/>
       <c r="FI10" s="128"/>
       <c r="FJ10" s="140">
-        <f t="shared" ref="FJ10:FJ11" si="279">FI10</f>
+        <f t="shared" ref="FJ10:FJ11" si="282">FI10</f>
         <v>0</v>
       </c>
       <c r="FK10" s="67"/>
@@ -37974,7 +38182,7 @@
       <c r="FP10" s="49"/>
       <c r="FQ10" s="128"/>
       <c r="FR10" s="182">
-        <f t="shared" ref="FR10:FR11" si="280">FQ10</f>
+        <f t="shared" ref="FR10:FR11" si="283">FQ10</f>
         <v>0</v>
       </c>
       <c r="FS10" s="67"/>
@@ -37992,7 +38200,7 @@
       <c r="FX10" s="49"/>
       <c r="FY10" s="128"/>
       <c r="FZ10" s="182">
-        <f t="shared" ref="FZ10:FZ11" si="281">FY10</f>
+        <f t="shared" ref="FZ10:FZ11" si="284">FY10</f>
         <v>0</v>
       </c>
       <c r="GA10" s="67"/>
@@ -38004,13 +38212,13 @@
         <v>1.68</v>
       </c>
       <c r="GE10" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>549.36</v>
       </c>
       <c r="GF10" s="49"/>
       <c r="GG10" s="128"/>
       <c r="GH10" s="182">
-        <f t="shared" ref="GH10:GH11" si="282">GG10</f>
+        <f t="shared" ref="GH10:GH11" si="285">GG10</f>
         <v>0</v>
       </c>
       <c r="GI10" s="67"/>
@@ -38022,13 +38230,13 @@
         <v>1.68</v>
       </c>
       <c r="GM10" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>366.24</v>
       </c>
       <c r="GN10" s="49"/>
       <c r="GO10" s="128"/>
       <c r="GP10" s="182">
-        <f t="shared" ref="GP10:GP11" si="283">GO10</f>
+        <f t="shared" ref="GP10:GP11" si="286">GO10</f>
         <v>0</v>
       </c>
       <c r="GQ10" s="67"/>
@@ -38040,13 +38248,13 @@
         <v>1.68</v>
       </c>
       <c r="GU10" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>349.44</v>
       </c>
       <c r="GV10" s="49"/>
       <c r="GW10" s="128"/>
       <c r="GX10" s="182">
-        <f t="shared" ref="GX10:GX11" si="284">GW10</f>
+        <f t="shared" ref="GX10:GX11" si="287">GW10</f>
         <v>0</v>
       </c>
       <c r="GY10" s="67"/>
@@ -38058,13 +38266,13 @@
         <v>1.68</v>
       </c>
       <c r="HC10" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>349.44</v>
       </c>
       <c r="HD10" s="49"/>
       <c r="HE10" s="128"/>
       <c r="HF10" s="182">
-        <f t="shared" ref="HF10:HF11" si="285">HE10</f>
+        <f t="shared" ref="HF10:HF11" si="288">HE10</f>
         <v>0</v>
       </c>
       <c r="HG10" s="67"/>
@@ -38076,13 +38284,13 @@
         <v>1.68</v>
       </c>
       <c r="HK10" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>428.4</v>
       </c>
       <c r="HL10" s="49"/>
       <c r="HM10" s="128"/>
       <c r="HN10" s="182">
-        <f t="shared" ref="HN10:HN11" si="286">HM10</f>
+        <f t="shared" ref="HN10:HN11" si="289">HM10</f>
         <v>0</v>
       </c>
       <c r="HO10" s="67"/>
@@ -38094,13 +38302,13 @@
         <v>1.68</v>
       </c>
       <c r="HS10" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>643.43999999999994</v>
       </c>
       <c r="HT10" s="49"/>
       <c r="HU10" s="128"/>
       <c r="HV10" s="182">
-        <f t="shared" ref="HV10:HV11" si="287">HU10</f>
+        <f t="shared" ref="HV10:HV11" si="290">HU10</f>
         <v>0</v>
       </c>
       <c r="HW10" s="67"/>
@@ -38112,13 +38320,13 @@
         <v>1.68</v>
       </c>
       <c r="IA10" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>742.56</v>
       </c>
       <c r="IB10" s="49"/>
       <c r="IC10" s="128"/>
       <c r="ID10" s="182">
-        <f t="shared" ref="ID10:ID11" si="288">IC10</f>
+        <f t="shared" ref="ID10:ID11" si="291">IC10</f>
         <v>0</v>
       </c>
       <c r="IE10" s="67"/>
@@ -38130,13 +38338,13 @@
         <v>1.68</v>
       </c>
       <c r="II10" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>841.68</v>
       </c>
       <c r="IJ10" s="49"/>
       <c r="IK10" s="128"/>
       <c r="IL10" s="182">
-        <f t="shared" ref="IL10:IL11" si="289">IK10</f>
+        <f t="shared" ref="IL10:IL11" si="292">IK10</f>
         <v>0</v>
       </c>
       <c r="IM10" s="67"/>
@@ -38148,13 +38356,13 @@
         <v>1.68</v>
       </c>
       <c r="IQ10" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>804.71999999999991</v>
       </c>
       <c r="IR10" s="49"/>
       <c r="IS10" s="128"/>
       <c r="IT10" s="182">
-        <f t="shared" ref="IT10:IT11" si="290">IS10</f>
+        <f t="shared" ref="IT10:IT11" si="293">IS10</f>
         <v>0</v>
       </c>
       <c r="IU10" s="67"/>
@@ -38166,13 +38374,13 @@
         <v>1.68</v>
       </c>
       <c r="IY10" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>880.31999999999994</v>
       </c>
       <c r="IZ10" s="49"/>
       <c r="JA10" s="128"/>
       <c r="JB10" s="182">
-        <f t="shared" ref="JB10:JB11" si="291">JA10</f>
+        <f t="shared" ref="JB10:JB11" si="294">JA10</f>
         <v>0</v>
       </c>
       <c r="JC10" s="67"/>
@@ -38184,13 +38392,13 @@
         <v>1.68</v>
       </c>
       <c r="JG10" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>994.56</v>
       </c>
       <c r="JH10" s="49"/>
       <c r="JI10" s="128"/>
       <c r="JJ10" s="231">
-        <f t="shared" ref="JJ10:JJ11" si="292">JI10</f>
+        <f t="shared" ref="JJ10:JJ11" si="295">JI10</f>
         <v>0</v>
       </c>
       <c r="JK10" s="67"/>
@@ -38202,13 +38410,13 @@
         <v>1.68</v>
       </c>
       <c r="JO10" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>981.12</v>
       </c>
       <c r="JP10" s="49"/>
       <c r="JQ10" s="128"/>
       <c r="JR10" s="231">
-        <f t="shared" ref="JR10:JR11" si="293">JQ10</f>
+        <f t="shared" ref="JR10:JR11" si="296">JQ10</f>
         <v>0</v>
       </c>
       <c r="JS10" s="67"/>
@@ -38220,13 +38428,13 @@
         <v>1.68</v>
       </c>
       <c r="JW10" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>420</v>
       </c>
       <c r="JX10" s="49"/>
       <c r="JY10" s="128"/>
       <c r="JZ10" s="231">
-        <f t="shared" ref="JZ10:JZ11" si="294">JY10</f>
+        <f t="shared" ref="JZ10:JZ11" si="297">JY10</f>
         <v>0</v>
       </c>
       <c r="KA10" s="67"/>
@@ -38238,13 +38446,13 @@
         <v>1.68</v>
       </c>
       <c r="KE10" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>431.76</v>
       </c>
       <c r="KF10" s="49"/>
       <c r="KG10" s="128"/>
       <c r="KH10" s="231">
-        <f t="shared" ref="KH10:KH11" si="295">KG10</f>
+        <f t="shared" ref="KH10:KH11" si="298">KG10</f>
         <v>0</v>
       </c>
       <c r="KI10" s="67"/>
@@ -38256,13 +38464,13 @@
         <v>1.68</v>
       </c>
       <c r="KM10" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>431.76</v>
       </c>
       <c r="KN10" s="49"/>
       <c r="KO10" s="128"/>
       <c r="KP10" s="231">
-        <f t="shared" ref="KP10:KP11" si="296">KO10</f>
+        <f t="shared" ref="KP10:KP11" si="299">KO10</f>
         <v>0</v>
       </c>
       <c r="KQ10" s="67"/>
@@ -38274,13 +38482,13 @@
         <v>1.68</v>
       </c>
       <c r="KU10" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>341.03999999999996</v>
       </c>
       <c r="KV10" s="49"/>
       <c r="KW10" s="128"/>
       <c r="KX10" s="231">
-        <f t="shared" ref="KX10:KX11" si="297">KW10</f>
+        <f t="shared" ref="KX10:KX11" si="300">KW10</f>
         <v>0</v>
       </c>
       <c r="KY10" s="67"/>
@@ -38292,13 +38500,13 @@
         <v>1.68</v>
       </c>
       <c r="LC10" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>431.76</v>
       </c>
       <c r="LD10" s="49"/>
       <c r="LE10" s="128"/>
       <c r="LF10" s="231">
-        <f t="shared" ref="LF10:LF11" si="298">LE10</f>
+        <f t="shared" ref="LF10:LF11" si="301">LE10</f>
         <v>0</v>
       </c>
       <c r="LG10" s="67"/>
@@ -38316,7 +38524,7 @@
       <c r="LL10" s="49"/>
       <c r="LM10" s="128"/>
       <c r="LN10" s="231">
-        <f t="shared" ref="LN10:LN11" si="299">LM10</f>
+        <f t="shared" ref="LN10:LN11" si="302">LM10</f>
         <v>0</v>
       </c>
       <c r="LO10" s="67"/>
@@ -38334,7 +38542,7 @@
       <c r="LT10" s="49"/>
       <c r="LU10" s="128"/>
       <c r="LV10" s="231">
-        <f t="shared" ref="LV10:LV11" si="300">LU10</f>
+        <f t="shared" ref="LV10:LV11" si="303">LU10</f>
         <v>0</v>
       </c>
       <c r="LW10" s="278"/>
@@ -38352,7 +38560,7 @@
       <c r="MB10" s="49"/>
       <c r="MC10" s="231"/>
       <c r="MD10" s="250">
-        <f t="shared" ref="MD10:MD11" si="301">MC10</f>
+        <f t="shared" ref="MD10:MD11" si="304">MC10</f>
         <v>0</v>
       </c>
       <c r="MF10" s="278"/>
@@ -38363,7 +38571,7 @@
       <c r="MK10" s="49"/>
       <c r="ML10" s="231"/>
       <c r="MM10" s="250">
-        <f t="shared" ref="MM10:MM11" si="302">ML10</f>
+        <f t="shared" ref="MM10:MM11" si="305">ML10</f>
         <v>0</v>
       </c>
       <c r="MN10" s="278"/>
@@ -38374,7 +38582,7 @@
       <c r="MS10" s="49"/>
       <c r="MT10" s="231"/>
       <c r="MU10" s="250">
-        <f t="shared" ref="MU10:MU11" si="303">MT10</f>
+        <f t="shared" ref="MU10:MU11" si="306">MT10</f>
         <v>0</v>
       </c>
       <c r="MV10" s="278"/>
@@ -38385,7 +38593,7 @@
       <c r="NA10" s="49"/>
       <c r="NB10" s="231"/>
       <c r="NC10" s="250">
-        <f t="shared" ref="NC10:NC11" si="304">NB10</f>
+        <f t="shared" ref="NC10:NC11" si="307">NB10</f>
         <v>0</v>
       </c>
       <c r="ND10" s="278"/>
@@ -38396,7 +38604,7 @@
       <c r="NI10" s="49"/>
       <c r="NJ10" s="231"/>
       <c r="NK10" s="250">
-        <f t="shared" ref="NK10:NK11" si="305">NJ10</f>
+        <f t="shared" ref="NK10:NK11" si="308">NJ10</f>
         <v>0</v>
       </c>
       <c r="NL10" s="278"/>
@@ -38407,7 +38615,7 @@
       <c r="NQ10" s="49"/>
       <c r="NR10" s="231"/>
       <c r="NS10" s="250">
-        <f t="shared" ref="NS10:NS11" si="306">NR10</f>
+        <f t="shared" ref="NS10:NS11" si="309">NR10</f>
         <v>0</v>
       </c>
       <c r="NT10" s="278"/>
@@ -38418,7 +38626,7 @@
       <c r="NY10" s="49"/>
       <c r="NZ10" s="231"/>
       <c r="OA10" s="250">
-        <f t="shared" ref="OA10:OA11" si="307">NZ10</f>
+        <f t="shared" ref="OA10:OA11" si="310">NZ10</f>
         <v>0</v>
       </c>
       <c r="OB10" s="278"/>
@@ -38429,7 +38637,7 @@
       <c r="OG10" s="49"/>
       <c r="OH10" s="231"/>
       <c r="OI10" s="250">
-        <f t="shared" ref="OI10:OI11" si="308">OH10</f>
+        <f t="shared" ref="OI10:OI11" si="311">OH10</f>
         <v>0</v>
       </c>
       <c r="OJ10" s="278"/>
@@ -38440,7 +38648,7 @@
       <c r="OO10" s="49"/>
       <c r="OP10" s="231"/>
       <c r="OQ10" s="250">
-        <f t="shared" ref="OQ10:OQ11" si="309">OP10</f>
+        <f t="shared" ref="OQ10:OQ11" si="312">OP10</f>
         <v>0</v>
       </c>
       <c r="OR10" s="278"/>
@@ -38452,13 +38660,13 @@
         <v>1.68</v>
       </c>
       <c r="OV10" s="48">
-        <f t="shared" ref="OV10" si="310">OT10*OU10</f>
+        <f t="shared" ref="OV10" si="313">OT10*OU10</f>
         <v>504</v>
       </c>
       <c r="OW10" s="49"/>
       <c r="OX10" s="231"/>
       <c r="OY10" s="250">
-        <f t="shared" ref="OY10:OY11" si="311">OX10</f>
+        <f t="shared" ref="OY10:OY11" si="314">OX10</f>
         <v>0</v>
       </c>
       <c r="OZ10" s="278"/>
@@ -38471,13 +38679,13 @@
         <v>1.68</v>
       </c>
       <c r="PD10" s="48">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>369.59999999999997</v>
       </c>
       <c r="PE10" s="49"/>
       <c r="PF10" s="231"/>
       <c r="PG10" s="250">
-        <f t="shared" ref="PG10:PG11" si="312">PF10</f>
+        <f t="shared" ref="PG10:PG11" si="315">PF10</f>
         <v>0</v>
       </c>
       <c r="PH10" s="278"/>
@@ -38490,13 +38698,13 @@
         <v>1.68</v>
       </c>
       <c r="PL10" s="48">
-        <f t="shared" ref="PL10" si="313">PJ10*PK10</f>
+        <f t="shared" ref="PL10" si="316">PJ10*PK10</f>
         <v>443.52</v>
       </c>
       <c r="PM10" s="49"/>
       <c r="PN10" s="231"/>
       <c r="PO10" s="250">
-        <f t="shared" ref="PO10:PO11" si="314">PN10</f>
+        <f t="shared" ref="PO10:PO11" si="317">PN10</f>
         <v>0</v>
       </c>
       <c r="PP10" s="278"/>
@@ -38509,13 +38717,13 @@
         <v>1.68</v>
       </c>
       <c r="PT10" s="48">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>530.88</v>
       </c>
       <c r="PU10" s="49"/>
       <c r="PV10" s="231"/>
       <c r="PW10" s="250">
-        <f t="shared" ref="PW10:PW11" si="315">PV10</f>
+        <f t="shared" ref="PW10:PW11" si="318">PV10</f>
         <v>0</v>
       </c>
       <c r="PY10" s="278"/>
@@ -38528,7 +38736,7 @@
         <v>1.68</v>
       </c>
       <c r="QC10" s="48">
-        <f t="shared" si="240"/>
+        <f t="shared" si="243"/>
         <v>401.52</v>
       </c>
       <c r="QD10" s="49"/>
@@ -38544,7 +38752,7 @@
         <v>1.68</v>
       </c>
       <c r="QK10" s="48">
-        <f t="shared" si="241"/>
+        <f t="shared" si="244"/>
         <v>367.91999999999996</v>
       </c>
       <c r="QL10" s="49"/>
@@ -38560,7 +38768,7 @@
         <v>1.68</v>
       </c>
       <c r="QT10" s="48">
-        <f t="shared" si="242"/>
+        <f t="shared" si="245"/>
         <v>388.08</v>
       </c>
       <c r="QU10" s="49"/>
@@ -38576,7 +38784,7 @@
         <v>1.68</v>
       </c>
       <c r="RB10" s="48">
-        <f t="shared" si="243"/>
+        <f t="shared" si="246"/>
         <v>299.03999999999996</v>
       </c>
       <c r="RC10" s="49"/>
@@ -38592,7 +38800,7 @@
         <v>1.68</v>
       </c>
       <c r="RK10" s="48">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>248.64</v>
       </c>
       <c r="RL10" s="49"/>
@@ -38608,7 +38816,7 @@
         <v>1.68</v>
       </c>
       <c r="RT10" s="48">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>304.08</v>
       </c>
       <c r="RU10" s="49"/>
@@ -38624,7 +38832,7 @@
         <v>1.68</v>
       </c>
       <c r="SC10" s="48">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>527.52</v>
       </c>
       <c r="SD10" s="49"/>
@@ -38640,7 +38848,7 @@
         <v>1.68</v>
       </c>
       <c r="SL10" s="48">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>223.44</v>
       </c>
       <c r="SM10" s="49"/>
@@ -38656,7 +38864,7 @@
         <v>1.68</v>
       </c>
       <c r="SU10" s="48">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>414.96</v>
       </c>
       <c r="SV10" s="49"/>
@@ -38672,7 +38880,7 @@
         <v>1.68</v>
       </c>
       <c r="TD10" s="48">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>487.2</v>
       </c>
       <c r="TE10" s="49"/>
@@ -38688,7 +38896,7 @@
         <v>1.68</v>
       </c>
       <c r="TM10" s="48">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>551.04</v>
       </c>
       <c r="TN10" s="49"/>
@@ -38704,7 +38912,7 @@
         <v>1.68</v>
       </c>
       <c r="TV10" s="48">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>220.07999999999998</v>
       </c>
       <c r="TW10" s="49"/>
@@ -38720,7 +38928,7 @@
         <v>1.68</v>
       </c>
       <c r="UE10" s="48">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>530.88</v>
       </c>
       <c r="UF10" s="49"/>
@@ -38736,7 +38944,7 @@
         <v>1.68</v>
       </c>
       <c r="UN10" s="48">
-        <f t="shared" si="253"/>
+        <f t="shared" si="256"/>
         <v>483.84</v>
       </c>
       <c r="UO10" s="49"/>
@@ -38752,7 +38960,7 @@
         <v>1.68</v>
       </c>
       <c r="UW10" s="48">
-        <f t="shared" si="254"/>
+        <f t="shared" si="257"/>
         <v>349.44</v>
       </c>
       <c r="UX10" s="49"/>
@@ -38768,7 +38976,7 @@
         <v>1.68</v>
       </c>
       <c r="VF10" s="48">
-        <f t="shared" si="255"/>
+        <f t="shared" si="258"/>
         <v>354.47999999999996</v>
       </c>
       <c r="VG10" s="49"/>
@@ -38784,7 +38992,7 @@
         <v>1.68</v>
       </c>
       <c r="VO10" s="48">
-        <f t="shared" si="256"/>
+        <f t="shared" si="259"/>
         <v>231.84</v>
       </c>
       <c r="VP10" s="49"/>
@@ -38800,7 +39008,7 @@
         <v>1.68</v>
       </c>
       <c r="VX10" s="48">
-        <f t="shared" si="257"/>
+        <f t="shared" si="260"/>
         <v>252</v>
       </c>
       <c r="VY10" s="49"/>
@@ -38816,7 +39024,7 @@
         <v>1.68</v>
       </c>
       <c r="WG10" s="48">
-        <f t="shared" si="258"/>
+        <f t="shared" si="261"/>
         <v>310.8</v>
       </c>
       <c r="WH10" s="49"/>
@@ -38832,7 +39040,7 @@
         <v>1.68</v>
       </c>
       <c r="WP10" s="48">
-        <f t="shared" si="259"/>
+        <f t="shared" si="262"/>
         <v>228.48</v>
       </c>
       <c r="WQ10" s="49"/>
@@ -38848,7 +39056,7 @@
         <v>1.68</v>
       </c>
       <c r="WY10" s="48">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>406.56</v>
       </c>
       <c r="WZ10" s="49"/>
@@ -38864,7 +39072,7 @@
         <v>1.68</v>
       </c>
       <c r="XH10" s="48">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>342.71999999999997</v>
       </c>
       <c r="XI10" s="49"/>
@@ -38880,7 +39088,7 @@
         <v>1.68</v>
       </c>
       <c r="XQ10" s="48">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>588</v>
       </c>
       <c r="XR10" s="49"/>
@@ -38896,7 +39104,7 @@
         <v>1.68</v>
       </c>
       <c r="XZ10" s="48">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>477.12</v>
       </c>
       <c r="YA10" s="49"/>
@@ -38912,7 +39120,7 @@
         <v>1.68</v>
       </c>
       <c r="YI10" s="48">
-        <f t="shared" si="264"/>
+        <f t="shared" si="267"/>
         <v>383.03999999999996</v>
       </c>
       <c r="YJ10" s="49"/>
@@ -38928,7 +39136,7 @@
         <v>1.68</v>
       </c>
       <c r="YR10" s="48">
-        <f t="shared" si="265"/>
+        <f t="shared" si="268"/>
         <v>270.48</v>
       </c>
       <c r="YS10" s="49"/>
@@ -38944,7 +39152,7 @@
         <v>1.68</v>
       </c>
       <c r="ZA10" s="48">
-        <f t="shared" si="266"/>
+        <f t="shared" si="269"/>
         <v>772.8</v>
       </c>
       <c r="ZB10" s="49"/>
@@ -38960,7 +39168,7 @@
         <v>1.68</v>
       </c>
       <c r="ZJ10" s="48">
-        <f t="shared" si="267"/>
+        <f t="shared" si="270"/>
         <v>-235.2</v>
       </c>
       <c r="ZK10" s="49"/>
@@ -39081,8 +39289,16 @@
       <c r="ADQ10" s="49"/>
       <c r="ADR10" s="306"/>
       <c r="ADS10" s="75"/>
-    </row>
-    <row r="11" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU10" s="278"/>
+      <c r="ADV10" s="278"/>
+      <c r="ADW10" s="46"/>
+      <c r="ADX10" s="48"/>
+      <c r="ADY10" s="300"/>
+      <c r="ADZ10" s="49"/>
+      <c r="AEA10" s="306"/>
+      <c r="AEB10" s="75"/>
+    </row>
+    <row r="11" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B11" s="46">
         <v>402780</v>
       </c>
@@ -39181,7 +39397,7 @@
       <c r="AX11" s="49"/>
       <c r="AY11" s="99"/>
       <c r="AZ11" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BA11" s="67"/>
@@ -39200,7 +39416,7 @@
       <c r="BF11" s="49"/>
       <c r="BG11" s="99"/>
       <c r="BH11" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="BI11" s="67"/>
@@ -39219,7 +39435,7 @@
       <c r="BN11" s="49"/>
       <c r="BO11" s="99"/>
       <c r="BP11" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="67"/>
@@ -39238,7 +39454,7 @@
       <c r="BV11" s="49"/>
       <c r="BW11" s="99"/>
       <c r="BX11" s="99">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="BY11" s="67"/>
@@ -39257,7 +39473,7 @@
       <c r="CD11" s="49"/>
       <c r="CE11" s="99"/>
       <c r="CF11" s="99">
-        <f t="shared" si="269"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="CI11" s="67"/>
@@ -39276,7 +39492,7 @@
       <c r="CN11" s="49"/>
       <c r="CO11" s="99"/>
       <c r="CP11" s="99">
-        <f t="shared" si="270"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="67"/>
@@ -39295,7 +39511,7 @@
       <c r="CV11" s="49"/>
       <c r="CW11" s="99"/>
       <c r="CX11" s="99">
-        <f t="shared" si="271"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="CY11" s="67"/>
@@ -39314,7 +39530,7 @@
       <c r="DD11" s="49"/>
       <c r="DE11" s="99"/>
       <c r="DF11" s="142">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="DG11" s="67"/>
@@ -39333,7 +39549,7 @@
       <c r="DL11" s="49"/>
       <c r="DM11" s="128"/>
       <c r="DN11" s="140">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="DO11" s="67"/>
@@ -39352,7 +39568,7 @@
       <c r="DT11" s="49"/>
       <c r="DU11" s="128"/>
       <c r="DV11" s="140">
-        <f t="shared" si="274"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="DW11" s="67"/>
@@ -39371,7 +39587,7 @@
       <c r="EB11" s="49"/>
       <c r="EC11" s="128"/>
       <c r="ED11" s="140">
-        <f t="shared" si="275"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="EE11" s="67"/>
@@ -39390,7 +39606,7 @@
       <c r="EJ11" s="49"/>
       <c r="EK11" s="128"/>
       <c r="EL11" s="140">
-        <f t="shared" si="276"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="EM11" s="67"/>
@@ -39409,7 +39625,7 @@
       <c r="ER11" s="49"/>
       <c r="ES11" s="128"/>
       <c r="ET11" s="140">
-        <f t="shared" si="277"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="EU11" s="67"/>
@@ -39428,7 +39644,7 @@
       <c r="EZ11" s="49"/>
       <c r="FA11" s="128"/>
       <c r="FB11" s="140">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="FC11" s="67"/>
@@ -39447,7 +39663,7 @@
       <c r="FH11" s="49"/>
       <c r="FI11" s="128"/>
       <c r="FJ11" s="140">
-        <f t="shared" si="279"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="FK11" s="67"/>
@@ -39466,7 +39682,7 @@
       <c r="FP11" s="49"/>
       <c r="FQ11" s="128"/>
       <c r="FR11" s="182">
-        <f t="shared" si="280"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="FS11" s="67"/>
@@ -39485,7 +39701,7 @@
       <c r="FX11" s="49"/>
       <c r="FY11" s="128"/>
       <c r="FZ11" s="182">
-        <f t="shared" si="281"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="GA11" s="67"/>
@@ -39498,13 +39714,13 @@
         <v>1.68</v>
       </c>
       <c r="GE11" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="GF11" s="49"/>
       <c r="GG11" s="128"/>
       <c r="GH11" s="182">
-        <f t="shared" si="282"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="GI11" s="67"/>
@@ -39517,13 +39733,13 @@
         <v>1.68</v>
       </c>
       <c r="GM11" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="GN11" s="49"/>
       <c r="GO11" s="128"/>
       <c r="GP11" s="182">
-        <f t="shared" si="283"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="GQ11" s="67"/>
@@ -39536,13 +39752,13 @@
         <v>1.68</v>
       </c>
       <c r="GU11" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="GV11" s="49"/>
       <c r="GW11" s="128"/>
       <c r="GX11" s="182">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="GY11" s="67"/>
@@ -39555,13 +39771,13 @@
         <v>1.68</v>
       </c>
       <c r="HC11" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="HD11" s="49"/>
       <c r="HE11" s="128"/>
       <c r="HF11" s="182">
-        <f t="shared" si="285"/>
+        <f t="shared" si="288"/>
         <v>0</v>
       </c>
       <c r="HG11" s="67"/>
@@ -39574,13 +39790,13 @@
         <v>1.68</v>
       </c>
       <c r="HK11" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="HL11" s="49"/>
       <c r="HM11" s="128"/>
       <c r="HN11" s="182">
-        <f t="shared" si="286"/>
+        <f t="shared" si="289"/>
         <v>0</v>
       </c>
       <c r="HO11" s="67"/>
@@ -39593,13 +39809,13 @@
         <v>1.68</v>
       </c>
       <c r="HS11" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="HT11" s="49"/>
       <c r="HU11" s="128"/>
       <c r="HV11" s="182">
-        <f t="shared" si="287"/>
+        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="HW11" s="67"/>
@@ -39612,13 +39828,13 @@
         <v>1.68</v>
       </c>
       <c r="IA11" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="IB11" s="49"/>
       <c r="IC11" s="128"/>
       <c r="ID11" s="182">
-        <f t="shared" si="288"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="IE11" s="67"/>
@@ -39631,13 +39847,13 @@
         <v>1.68</v>
       </c>
       <c r="II11" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="IJ11" s="49"/>
       <c r="IK11" s="128"/>
       <c r="IL11" s="182">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="IM11" s="67"/>
@@ -39650,203 +39866,203 @@
         <v>1.68</v>
       </c>
       <c r="IQ11" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="IR11" s="49"/>
       <c r="IS11" s="128"/>
       <c r="IT11" s="182">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="IU11" s="67"/>
       <c r="IV11" s="67"/>
       <c r="IW11" s="46">
-        <f t="shared" ref="IW11:IW14" si="316">IU11-IV11</f>
+        <f t="shared" ref="IW11:IW14" si="319">IU11-IV11</f>
         <v>0</v>
       </c>
       <c r="IX11" s="48">
         <v>1.68</v>
       </c>
       <c r="IY11" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="IZ11" s="49"/>
       <c r="JA11" s="128"/>
       <c r="JB11" s="182">
-        <f t="shared" si="291"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="JC11" s="67"/>
       <c r="JD11" s="67"/>
       <c r="JE11" s="46">
-        <f t="shared" ref="JE11:JE14" si="317">JC11-JD11</f>
+        <f t="shared" ref="JE11:JE14" si="320">JC11-JD11</f>
         <v>0</v>
       </c>
       <c r="JF11" s="48">
         <v>1.68</v>
       </c>
       <c r="JG11" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="JH11" s="49"/>
       <c r="JI11" s="128"/>
       <c r="JJ11" s="231">
-        <f t="shared" si="292"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="JK11" s="67"/>
       <c r="JL11" s="67"/>
       <c r="JM11" s="46">
-        <f t="shared" ref="JM11:JM14" si="318">JK11-JL11</f>
+        <f t="shared" ref="JM11:JM14" si="321">JK11-JL11</f>
         <v>0</v>
       </c>
       <c r="JN11" s="48">
         <v>1.68</v>
       </c>
       <c r="JO11" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="JP11" s="49"/>
       <c r="JQ11" s="128"/>
       <c r="JR11" s="231">
-        <f t="shared" si="293"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="JS11" s="67"/>
       <c r="JT11" s="67"/>
       <c r="JU11" s="46">
-        <f t="shared" ref="JU11:JU14" si="319">JS11-JT11</f>
+        <f t="shared" ref="JU11:JU14" si="322">JS11-JT11</f>
         <v>0</v>
       </c>
       <c r="JV11" s="48">
         <v>1.68</v>
       </c>
       <c r="JW11" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>0</v>
       </c>
       <c r="JX11" s="49"/>
       <c r="JY11" s="128"/>
       <c r="JZ11" s="231">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="KA11" s="67"/>
       <c r="KB11" s="67"/>
       <c r="KC11" s="46">
-        <f t="shared" ref="KC11:KC14" si="320">KA11-KB11</f>
+        <f t="shared" ref="KC11:KC14" si="323">KA11-KB11</f>
         <v>0</v>
       </c>
       <c r="KD11" s="48">
         <v>1.68</v>
       </c>
       <c r="KE11" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="KF11" s="49"/>
       <c r="KG11" s="128"/>
       <c r="KH11" s="231">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0</v>
       </c>
       <c r="KI11" s="67"/>
       <c r="KJ11" s="67"/>
       <c r="KK11" s="46">
-        <f t="shared" ref="KK11:KK14" si="321">KI11-KJ11</f>
+        <f t="shared" ref="KK11:KK14" si="324">KI11-KJ11</f>
         <v>0</v>
       </c>
       <c r="KL11" s="48">
         <v>1.68</v>
       </c>
       <c r="KM11" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="KN11" s="49"/>
       <c r="KO11" s="128"/>
       <c r="KP11" s="231">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="KQ11" s="67"/>
       <c r="KR11" s="67"/>
       <c r="KS11" s="46">
-        <f t="shared" ref="KS11:KS14" si="322">KQ11-KR11</f>
+        <f t="shared" ref="KS11:KS14" si="325">KQ11-KR11</f>
         <v>0</v>
       </c>
       <c r="KT11" s="48">
         <v>1.68</v>
       </c>
       <c r="KU11" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="KV11" s="49"/>
       <c r="KW11" s="128"/>
       <c r="KX11" s="231">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0</v>
       </c>
       <c r="KY11" s="67"/>
       <c r="KZ11" s="67"/>
       <c r="LA11" s="46">
-        <f t="shared" ref="LA11:LA14" si="323">KY11-KZ11</f>
+        <f t="shared" ref="LA11:LA14" si="326">KY11-KZ11</f>
         <v>0</v>
       </c>
       <c r="LB11" s="48">
         <v>1.68</v>
       </c>
       <c r="LC11" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="LD11" s="49"/>
       <c r="LE11" s="128"/>
       <c r="LF11" s="231">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="LG11" s="67"/>
       <c r="LH11" s="67"/>
       <c r="LI11" s="46">
-        <f t="shared" ref="LI11:LI14" si="324">LG11-LH11</f>
+        <f t="shared" ref="LI11:LI14" si="327">LG11-LH11</f>
         <v>0</v>
       </c>
       <c r="LJ11" s="48">
         <v>1.68</v>
       </c>
       <c r="LK11" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="LL11" s="49"/>
       <c r="LM11" s="128"/>
       <c r="LN11" s="231">
-        <f t="shared" si="299"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="LO11" s="67"/>
       <c r="LP11" s="67"/>
       <c r="LQ11" s="46">
-        <f t="shared" ref="LQ11:LQ14" si="325">LO11-LP11</f>
+        <f t="shared" ref="LQ11:LQ14" si="328">LO11-LP11</f>
         <v>0</v>
       </c>
       <c r="LR11" s="48">
         <v>1.68</v>
       </c>
       <c r="LS11" s="48">
-        <f t="shared" ref="LS11:LS14" si="326">LQ11*LR11</f>
+        <f t="shared" ref="LS11:LS14" si="329">LQ11*LR11</f>
         <v>0</v>
       </c>
       <c r="LT11" s="49"/>
       <c r="LU11" s="128"/>
       <c r="LV11" s="231">
-        <f t="shared" si="300"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="LW11" s="278"/>
@@ -39857,7 +40073,7 @@
       <c r="MB11" s="49"/>
       <c r="MC11" s="231"/>
       <c r="MD11" s="250">
-        <f t="shared" si="301"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="MF11" s="278"/>
@@ -39868,7 +40084,7 @@
       <c r="MK11" s="49"/>
       <c r="ML11" s="231"/>
       <c r="MM11" s="250">
-        <f t="shared" si="302"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="MN11" s="278"/>
@@ -39879,7 +40095,7 @@
       <c r="MS11" s="49"/>
       <c r="MT11" s="231"/>
       <c r="MU11" s="250">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="MV11" s="278"/>
@@ -39890,7 +40106,7 @@
       <c r="NA11" s="49"/>
       <c r="NB11" s="231"/>
       <c r="NC11" s="250">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0</v>
       </c>
       <c r="ND11" s="278"/>
@@ -39901,7 +40117,7 @@
       <c r="NI11" s="49"/>
       <c r="NJ11" s="231"/>
       <c r="NK11" s="250">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="NL11" s="278"/>
@@ -39912,7 +40128,7 @@
       <c r="NQ11" s="49"/>
       <c r="NR11" s="231"/>
       <c r="NS11" s="250">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="NT11" s="278"/>
@@ -39923,7 +40139,7 @@
       <c r="NY11" s="49"/>
       <c r="NZ11" s="231"/>
       <c r="OA11" s="250">
-        <f t="shared" si="307"/>
+        <f t="shared" si="310"/>
         <v>0</v>
       </c>
       <c r="OB11" s="278"/>
@@ -39934,7 +40150,7 @@
       <c r="OG11" s="49"/>
       <c r="OH11" s="231"/>
       <c r="OI11" s="250">
-        <f t="shared" si="308"/>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="OJ11" s="278"/>
@@ -39945,7 +40161,7 @@
       <c r="OO11" s="49"/>
       <c r="OP11" s="231"/>
       <c r="OQ11" s="250">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="OR11" s="278"/>
@@ -39956,7 +40172,7 @@
       <c r="OW11" s="49"/>
       <c r="OX11" s="231"/>
       <c r="OY11" s="250">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="OZ11" s="278"/>
@@ -39970,7 +40186,7 @@
       <c r="PE11" s="49"/>
       <c r="PF11" s="231"/>
       <c r="PG11" s="250">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="PH11" s="278"/>
@@ -39984,7 +40200,7 @@
       <c r="PM11" s="49"/>
       <c r="PN11" s="231"/>
       <c r="PO11" s="250">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="PP11" s="278"/>
@@ -39998,7 +40214,7 @@
       <c r="PU11" s="49"/>
       <c r="PV11" s="231"/>
       <c r="PW11" s="250">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="PY11" s="278"/>
@@ -40526,8 +40742,16 @@
       <c r="ADQ11" s="49"/>
       <c r="ADR11" s="306"/>
       <c r="ADS11" s="75"/>
-    </row>
-    <row r="12" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU11" s="278"/>
+      <c r="ADV11" s="278"/>
+      <c r="ADW11" s="286"/>
+      <c r="ADX11" s="48"/>
+      <c r="ADY11" s="327"/>
+      <c r="ADZ11" s="49"/>
+      <c r="AEA11" s="306"/>
+      <c r="AEB11" s="75"/>
+    </row>
+    <row r="12" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B12" s="46">
         <v>7046</v>
       </c>
@@ -40636,7 +40860,7 @@
         <v>15</v>
       </c>
       <c r="AZ12" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>15</v>
       </c>
       <c r="BA12" s="67"/>
@@ -40657,7 +40881,7 @@
         <v>15</v>
       </c>
       <c r="BH12" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>15</v>
       </c>
       <c r="BI12" s="67"/>
@@ -40678,7 +40902,7 @@
         <v>15</v>
       </c>
       <c r="BP12" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>15</v>
       </c>
       <c r="BQ12" s="67"/>
@@ -40967,7 +41191,7 @@
         <v>1.68</v>
       </c>
       <c r="GE12" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="GF12" s="49"/>
@@ -40987,7 +41211,7 @@
         <v>1.68</v>
       </c>
       <c r="GM12" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="GN12" s="49"/>
@@ -41007,7 +41231,7 @@
         <v>1.68</v>
       </c>
       <c r="GU12" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="GV12" s="49"/>
@@ -41027,7 +41251,7 @@
         <v>1.68</v>
       </c>
       <c r="HC12" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="HD12" s="49"/>
@@ -41047,7 +41271,7 @@
         <v>1.68</v>
       </c>
       <c r="HK12" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="HL12" s="49"/>
@@ -41067,7 +41291,7 @@
         <v>1.68</v>
       </c>
       <c r="HS12" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="HT12" s="49"/>
@@ -41087,7 +41311,7 @@
         <v>1.68</v>
       </c>
       <c r="IA12" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="IB12" s="49"/>
@@ -41107,7 +41331,7 @@
         <v>1.68</v>
       </c>
       <c r="II12" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="IJ12" s="49"/>
@@ -41127,7 +41351,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ12" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="IR12" s="49"/>
@@ -41140,14 +41364,14 @@
       <c r="IU12" s="67"/>
       <c r="IV12" s="67"/>
       <c r="IW12" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="IX12" s="48">
         <v>1.68</v>
       </c>
       <c r="IY12" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="IZ12" s="49"/>
@@ -41160,14 +41384,14 @@
       <c r="JC12" s="67"/>
       <c r="JD12" s="67"/>
       <c r="JE12" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="JF12" s="48">
         <v>1.68</v>
       </c>
       <c r="JG12" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="JH12" s="49"/>
@@ -41180,14 +41404,14 @@
       <c r="JK12" s="67"/>
       <c r="JL12" s="67"/>
       <c r="JM12" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="JN12" s="48">
         <v>1.68</v>
       </c>
       <c r="JO12" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="JP12" s="49"/>
@@ -41200,14 +41424,14 @@
       <c r="JS12" s="67"/>
       <c r="JT12" s="67"/>
       <c r="JU12" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="JV12" s="48">
         <v>1.68</v>
       </c>
       <c r="JW12" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>0</v>
       </c>
       <c r="JX12" s="49"/>
@@ -41220,14 +41444,14 @@
       <c r="KA12" s="67"/>
       <c r="KB12" s="67"/>
       <c r="KC12" s="46">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="KD12" s="48">
         <v>1.68</v>
       </c>
       <c r="KE12" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="KF12" s="49"/>
@@ -41240,14 +41464,14 @@
       <c r="KI12" s="67"/>
       <c r="KJ12" s="67"/>
       <c r="KK12" s="46">
-        <f t="shared" si="321"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="KL12" s="48">
         <v>1.68</v>
       </c>
       <c r="KM12" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="KN12" s="49"/>
@@ -41260,14 +41484,14 @@
       <c r="KQ12" s="67"/>
       <c r="KR12" s="67"/>
       <c r="KS12" s="46">
-        <f t="shared" si="322"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="KT12" s="48">
         <v>1.68</v>
       </c>
       <c r="KU12" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="KV12" s="49"/>
@@ -41280,14 +41504,14 @@
       <c r="KY12" s="67"/>
       <c r="KZ12" s="67"/>
       <c r="LA12" s="46">
-        <f t="shared" si="323"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="LB12" s="48">
         <v>1.68</v>
       </c>
       <c r="LC12" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="LD12" s="49"/>
@@ -41300,14 +41524,14 @@
       <c r="LG12" s="67"/>
       <c r="LH12" s="67"/>
       <c r="LI12" s="46">
-        <f t="shared" si="324"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="LJ12" s="48">
         <v>1.68</v>
       </c>
       <c r="LK12" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="LL12" s="49"/>
@@ -41320,14 +41544,14 @@
       <c r="LO12" s="67"/>
       <c r="LP12" s="67"/>
       <c r="LQ12" s="46">
-        <f t="shared" si="325"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="LR12" s="48">
         <v>1.68</v>
       </c>
       <c r="LS12" s="48">
-        <f t="shared" si="326"/>
+        <f t="shared" si="329"/>
         <v>0</v>
       </c>
       <c r="LT12" s="49"/>
@@ -42003,8 +42227,21 @@
         <f>ADR12</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:799" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="ADU12" s="278"/>
+      <c r="ADV12" s="278"/>
+      <c r="ADW12" s="46"/>
+      <c r="ADX12" s="48"/>
+      <c r="ADY12" s="48"/>
+      <c r="ADZ12" s="49"/>
+      <c r="AEA12" s="306">
+        <v>35</v>
+      </c>
+      <c r="AEB12" s="324">
+        <f>AEA12</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:808" ht="28.5" x14ac:dyDescent="0.35">
       <c r="B13" s="46">
         <v>21502</v>
       </c>
@@ -42105,7 +42342,7 @@
       <c r="AX13" s="49"/>
       <c r="AY13" s="99"/>
       <c r="AZ13" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BA13" s="67"/>
@@ -42124,7 +42361,7 @@
       <c r="BF13" s="49"/>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="BI13" s="67"/>
@@ -42143,7 +42380,7 @@
       <c r="BN13" s="49"/>
       <c r="BO13" s="99"/>
       <c r="BP13" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="67"/>
@@ -42162,7 +42399,7 @@
       <c r="BV13" s="49"/>
       <c r="BW13" s="99"/>
       <c r="BX13" s="99">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="BY13" s="67"/>
@@ -42385,7 +42622,7 @@
         <v>1.68</v>
       </c>
       <c r="GE13" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="GF13" s="49"/>
@@ -42401,7 +42638,7 @@
         <v>1.68</v>
       </c>
       <c r="GM13" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="GN13" s="49"/>
@@ -42417,7 +42654,7 @@
         <v>1.68</v>
       </c>
       <c r="GU13" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="GV13" s="49"/>
@@ -42433,7 +42670,7 @@
         <v>1.68</v>
       </c>
       <c r="HC13" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="HD13" s="49"/>
@@ -42449,7 +42686,7 @@
         <v>1.68</v>
       </c>
       <c r="HK13" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="HL13" s="49"/>
@@ -42465,7 +42702,7 @@
         <v>1.68</v>
       </c>
       <c r="HS13" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="HT13" s="49"/>
@@ -42481,7 +42718,7 @@
         <v>1.68</v>
       </c>
       <c r="IA13" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="IB13" s="49"/>
@@ -42497,7 +42734,7 @@
         <v>1.68</v>
       </c>
       <c r="II13" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="IJ13" s="49"/>
@@ -42513,7 +42750,7 @@
         <v>1.68</v>
       </c>
       <c r="IQ13" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="IR13" s="49"/>
@@ -42522,14 +42759,14 @@
       <c r="IU13" s="67"/>
       <c r="IV13" s="67"/>
       <c r="IW13" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="IX13" s="48">
         <v>1.68</v>
       </c>
       <c r="IY13" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="IZ13" s="49"/>
@@ -42538,14 +42775,14 @@
       <c r="JC13" s="67"/>
       <c r="JD13" s="67"/>
       <c r="JE13" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="JF13" s="48">
         <v>1.68</v>
       </c>
       <c r="JG13" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="JH13" s="49"/>
@@ -42554,14 +42791,14 @@
       <c r="JK13" s="67"/>
       <c r="JL13" s="67"/>
       <c r="JM13" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="JN13" s="48">
         <v>1.68</v>
       </c>
       <c r="JO13" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="JP13" s="49"/>
@@ -42570,14 +42807,14 @@
       <c r="JS13" s="67"/>
       <c r="JT13" s="67"/>
       <c r="JU13" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="JV13" s="48">
         <v>1.68</v>
       </c>
       <c r="JW13" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>0</v>
       </c>
       <c r="JX13" s="49"/>
@@ -42586,14 +42823,14 @@
       <c r="KA13" s="67"/>
       <c r="KB13" s="67"/>
       <c r="KC13" s="46">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="KD13" s="48">
         <v>1.68</v>
       </c>
       <c r="KE13" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>0</v>
       </c>
       <c r="KF13" s="49"/>
@@ -42602,14 +42839,14 @@
       <c r="KI13" s="67"/>
       <c r="KJ13" s="67"/>
       <c r="KK13" s="46">
-        <f t="shared" si="321"/>
+        <f t="shared" si="324"/>
         <v>0</v>
       </c>
       <c r="KL13" s="48">
         <v>1.68</v>
       </c>
       <c r="KM13" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="KN13" s="49"/>
@@ -42618,14 +42855,14 @@
       <c r="KQ13" s="67"/>
       <c r="KR13" s="67"/>
       <c r="KS13" s="46">
-        <f t="shared" si="322"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="KT13" s="48">
         <v>1.68</v>
       </c>
       <c r="KU13" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="KV13" s="49"/>
@@ -42634,14 +42871,14 @@
       <c r="KY13" s="67"/>
       <c r="KZ13" s="67"/>
       <c r="LA13" s="46">
-        <f t="shared" si="323"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="LB13" s="48">
         <v>1.68</v>
       </c>
       <c r="LC13" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="LD13" s="49"/>
@@ -42650,14 +42887,14 @@
       <c r="LG13" s="67"/>
       <c r="LH13" s="67"/>
       <c r="LI13" s="46">
-        <f t="shared" si="324"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="LJ13" s="48">
         <v>1.68</v>
       </c>
       <c r="LK13" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="LL13" s="49"/>
@@ -42666,14 +42903,14 @@
       <c r="LO13" s="67"/>
       <c r="LP13" s="67"/>
       <c r="LQ13" s="46">
-        <f t="shared" si="325"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="LR13" s="48">
         <v>1.68</v>
       </c>
       <c r="LS13" s="48">
-        <f t="shared" si="326"/>
+        <f t="shared" si="329"/>
         <v>0</v>
       </c>
       <c r="LT13" s="49"/>
@@ -43103,8 +43340,16 @@
       <c r="ADQ13" s="49"/>
       <c r="ADR13" s="306"/>
       <c r="ADS13" s="75"/>
-    </row>
-    <row r="14" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU13" s="278"/>
+      <c r="ADV13" s="278"/>
+      <c r="ADW13" s="46"/>
+      <c r="ADX13" s="48"/>
+      <c r="ADY13" s="48"/>
+      <c r="ADZ13" s="49"/>
+      <c r="AEA13" s="306"/>
+      <c r="AEB13" s="75"/>
+    </row>
+    <row r="14" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B14" s="46">
         <v>330152984</v>
       </c>
@@ -43238,7 +43483,7 @@
         <v>118.2843</v>
       </c>
       <c r="AZ14" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>118.2843</v>
       </c>
       <c r="BA14" s="67">
@@ -43264,7 +43509,7 @@
         <v>90.452700000000007</v>
       </c>
       <c r="BH14" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>90.452700000000007</v>
       </c>
       <c r="BI14" s="67">
@@ -43290,7 +43535,7 @@
         <v>118.2843</v>
       </c>
       <c r="BP14" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>118.2843</v>
       </c>
       <c r="BQ14" s="67">
@@ -43316,7 +43561,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="BX14" s="99">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>132.20010000000002</v>
       </c>
       <c r="BY14" s="67">
@@ -43342,7 +43587,7 @@
         <v>97.410600000000002</v>
       </c>
       <c r="CF14" s="99">
-        <f t="shared" ref="CF14" si="327">CE14</f>
+        <f t="shared" ref="CF14" si="330">CE14</f>
         <v>97.410600000000002</v>
       </c>
       <c r="CI14" s="67">
@@ -43368,7 +43613,7 @@
         <v>111.32640000000001</v>
       </c>
       <c r="CP14" s="99">
-        <f t="shared" ref="CP14" si="328">CO14</f>
+        <f t="shared" ref="CP14" si="331">CO14</f>
         <v>111.32640000000001</v>
       </c>
       <c r="CQ14" s="67">
@@ -43394,7 +43639,7 @@
         <v>118.2843</v>
       </c>
       <c r="CX14" s="99">
-        <f t="shared" ref="CX14" si="329">CW14</f>
+        <f t="shared" ref="CX14" si="332">CW14</f>
         <v>118.2843</v>
       </c>
       <c r="CY14" s="67">
@@ -43420,7 +43665,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="142">
-        <f t="shared" ref="DF14" si="330">DE14</f>
+        <f t="shared" ref="DF14" si="333">DE14</f>
         <v>0</v>
       </c>
       <c r="DG14" s="67">
@@ -43446,7 +43691,7 @@
         <v>83.494799999999998</v>
       </c>
       <c r="DN14" s="140">
-        <f t="shared" ref="DN14" si="331">DM14</f>
+        <f t="shared" ref="DN14" si="334">DM14</f>
         <v>83.494799999999998</v>
       </c>
       <c r="DO14" s="67">
@@ -43472,7 +43717,7 @@
         <v>132.20010000000002</v>
       </c>
       <c r="DV14" s="140">
-        <f t="shared" ref="DV14" si="332">DU14</f>
+        <f t="shared" ref="DV14" si="335">DU14</f>
         <v>132.20010000000002</v>
       </c>
       <c r="DW14" s="67">
@@ -43659,7 +43904,7 @@
         <v>8.5489200000000007</v>
       </c>
       <c r="GE14" s="48">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>136.78272000000001</v>
       </c>
       <c r="GF14" s="49"/>
@@ -43684,7 +43929,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GM14" s="48">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>117.9984</v>
       </c>
       <c r="GN14" s="49"/>
@@ -43709,7 +43954,7 @@
         <v>7.3749000000000002</v>
       </c>
       <c r="GU14" s="48">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>88.498800000000003</v>
       </c>
       <c r="GV14" s="49"/>
@@ -43734,7 +43979,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HC14" s="48">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>94.00500000000001</v>
       </c>
       <c r="HD14" s="49"/>
@@ -43759,7 +44004,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HK14" s="48">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>81.471000000000004</v>
       </c>
       <c r="HL14" s="49"/>
@@ -43784,7 +44029,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="HS14" s="48">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>106.539</v>
       </c>
       <c r="HT14" s="49"/>
@@ -43806,7 +44051,7 @@
         <v>6.2670000000000003</v>
       </c>
       <c r="IA14" s="48">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>94.00500000000001</v>
       </c>
       <c r="IB14" s="49"/>
@@ -43828,7 +44073,7 @@
         <v>6.9139920000000004</v>
       </c>
       <c r="II14" s="48">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>117.53786400000001</v>
       </c>
       <c r="IJ14" s="49"/>
@@ -43852,7 +44097,7 @@
         <v>5.8684919999999998</v>
       </c>
       <c r="IQ14" s="48">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IR14" s="49"/>
@@ -43869,14 +44114,14 @@
         <v>507</v>
       </c>
       <c r="IW14" s="46">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>15</v>
       </c>
       <c r="IX14" s="48">
         <v>5.8684919999999998</v>
       </c>
       <c r="IY14" s="48">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>88.027379999999994</v>
       </c>
       <c r="IZ14" s="49"/>
@@ -43893,14 +44138,14 @@
         <v>522</v>
       </c>
       <c r="JE14" s="46">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>17</v>
       </c>
       <c r="JF14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JG14" s="48">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>73.543223999999995</v>
       </c>
       <c r="JH14" s="49"/>
@@ -43915,14 +44160,14 @@
         <v>539</v>
       </c>
       <c r="JM14" s="46">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>18</v>
       </c>
       <c r="JN14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JO14" s="48">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>77.869295999999991</v>
       </c>
       <c r="JP14" s="49"/>
@@ -43940,14 +44185,14 @@
         <v>557</v>
       </c>
       <c r="JU14" s="46">
-        <f t="shared" si="319"/>
+        <f t="shared" si="322"/>
         <v>6</v>
       </c>
       <c r="JV14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="JW14" s="48">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>25.956432</v>
       </c>
       <c r="JX14" s="49"/>
@@ -43965,14 +44210,14 @@
         <v>563</v>
       </c>
       <c r="KC14" s="46">
-        <f t="shared" si="320"/>
+        <f t="shared" si="323"/>
         <v>8</v>
       </c>
       <c r="KD14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KE14" s="48">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>34.608575999999999</v>
       </c>
       <c r="KF14" s="49"/>
@@ -43990,14 +44235,14 @@
         <v>571</v>
       </c>
       <c r="KK14" s="46">
-        <f t="shared" si="321"/>
+        <f t="shared" si="324"/>
         <v>6</v>
       </c>
       <c r="KL14" s="48">
         <v>4.3260719999999999</v>
       </c>
       <c r="KM14" s="48">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>25.956432</v>
       </c>
       <c r="KN14" s="49"/>
@@ -44015,14 +44260,14 @@
         <v>577</v>
       </c>
       <c r="KS14" s="46">
-        <f t="shared" si="322"/>
+        <f t="shared" si="325"/>
         <v>9</v>
       </c>
       <c r="KT14" s="48">
         <v>5.5</v>
       </c>
       <c r="KU14" s="48">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>49.5</v>
       </c>
       <c r="KV14" s="49"/>
@@ -44040,14 +44285,14 @@
         <v>586</v>
       </c>
       <c r="LA14" s="46">
-        <f t="shared" si="323"/>
+        <f t="shared" si="326"/>
         <v>11</v>
       </c>
       <c r="LB14" s="48">
         <v>5.5</v>
       </c>
       <c r="LC14" s="48">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>60.5</v>
       </c>
       <c r="LD14" s="49"/>
@@ -44065,14 +44310,14 @@
         <v>597</v>
       </c>
       <c r="LI14" s="46">
-        <f t="shared" si="324"/>
+        <f t="shared" si="327"/>
         <v>14</v>
       </c>
       <c r="LJ14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LK14" s="48">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>94.822000000000003</v>
       </c>
       <c r="LL14" s="49"/>
@@ -44090,14 +44335,14 @@
         <v>611</v>
       </c>
       <c r="LQ14" s="46">
-        <f t="shared" si="325"/>
+        <f t="shared" si="328"/>
         <v>17</v>
       </c>
       <c r="LR14" s="48">
         <v>6.7729999999999997</v>
       </c>
       <c r="LS14" s="48">
-        <f t="shared" si="326"/>
+        <f t="shared" si="329"/>
         <v>115.14099999999999</v>
       </c>
       <c r="LT14" s="49"/>
@@ -44115,7 +44360,7 @@
         <v>628</v>
       </c>
       <c r="LY14" s="46">
-        <f t="shared" ref="LY14" si="333">LW14-LX14</f>
+        <f t="shared" ref="LY14" si="336">LW14-LX14</f>
         <v>12</v>
       </c>
       <c r="LZ14" s="48">
@@ -44140,7 +44385,7 @@
         <v>640</v>
       </c>
       <c r="MH14" s="46">
-        <f t="shared" ref="MH14" si="334">MF14-MG14</f>
+        <f t="shared" ref="MH14" si="337">MF14-MG14</f>
         <v>12</v>
       </c>
       <c r="MI14" s="48">
@@ -45591,8 +45836,36 @@
       <c r="ADS14" s="324">
         <v>87.53</v>
       </c>
-    </row>
-    <row r="15" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU14" s="280">
+        <v>1257</v>
+      </c>
+      <c r="ADV14" s="280">
+        <v>1243</v>
+      </c>
+      <c r="ADW14" s="46">
+        <f>ADU14-ADV14</f>
+        <v>14</v>
+      </c>
+      <c r="ADX14" s="48">
+        <v>7.96</v>
+      </c>
+      <c r="ADY14" s="48">
+        <f>ADW14*ADX14</f>
+        <v>111.44</v>
+      </c>
+      <c r="ADZ14" s="49">
+        <f>ADY14</f>
+        <v>111.44</v>
+      </c>
+      <c r="AEA14" s="306">
+        <f>ADZ14</f>
+        <v>111.44</v>
+      </c>
+      <c r="AEB14" s="324">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B15" s="229">
         <v>330152984</v>
       </c>
@@ -46629,8 +46902,20 @@
       <c r="ADS15" s="323">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="16" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU15" s="152"/>
+      <c r="ADV15" s="313"/>
+      <c r="ADW15" s="46"/>
+      <c r="ADX15" s="48"/>
+      <c r="ADY15" s="48"/>
+      <c r="ADZ15" s="49"/>
+      <c r="AEA15" s="306">
+        <v>6.67</v>
+      </c>
+      <c r="AEB15" s="323">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B16" s="46">
         <v>301033</v>
       </c>
@@ -47518,8 +47803,16 @@
       <c r="ADQ16" s="49"/>
       <c r="ADR16" s="306"/>
       <c r="ADS16" s="75"/>
-    </row>
-    <row r="17" spans="2:799" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="ADU16" s="152"/>
+      <c r="ADV16" s="313"/>
+      <c r="ADW16" s="46"/>
+      <c r="ADX16" s="48"/>
+      <c r="ADY16" s="48"/>
+      <c r="ADZ16" s="49"/>
+      <c r="AEA16" s="306"/>
+      <c r="AEB16" s="75"/>
+    </row>
+    <row r="17" spans="2:808" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
         <v>56</v>
@@ -47582,7 +47875,7 @@
       <c r="AX17" s="72"/>
       <c r="AY17" s="102"/>
       <c r="AZ17" s="99">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BA17" s="69"/>
@@ -47593,7 +47886,7 @@
       <c r="BF17" s="72"/>
       <c r="BG17" s="102"/>
       <c r="BH17" s="99">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="BI17" s="69"/>
@@ -47604,7 +47897,7 @@
       <c r="BN17" s="72"/>
       <c r="BO17" s="102"/>
       <c r="BP17" s="99">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="69"/>
@@ -47615,7 +47908,7 @@
       <c r="BV17" s="72"/>
       <c r="BW17" s="102"/>
       <c r="BX17" s="99">
-        <f t="shared" si="268"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="BY17" s="69"/>
@@ -48386,8 +48679,16 @@
       <c r="ADQ17" s="72"/>
       <c r="ADR17" s="317"/>
       <c r="ADS17" s="318"/>
-    </row>
-    <row r="18" spans="2:799" x14ac:dyDescent="0.35">
+      <c r="ADU17" s="69"/>
+      <c r="ADV17" s="70"/>
+      <c r="ADW17" s="70"/>
+      <c r="ADX17" s="71"/>
+      <c r="ADY17" s="71"/>
+      <c r="ADZ17" s="72"/>
+      <c r="AEA17" s="317"/>
+      <c r="AEB17" s="318"/>
+    </row>
+    <row r="18" spans="2:808" x14ac:dyDescent="0.35">
       <c r="B18" s="74"/>
       <c r="C18" s="47" t="s">
         <v>208</v>
@@ -48685,7 +48986,7 @@
         <v>4718.3940000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:808" x14ac:dyDescent="0.35">
       <c r="FH19" s="191" t="s">
         <v>175</v>
       </c>
@@ -48714,7 +49015,7 @@
         <v>1494.84</v>
       </c>
     </row>
-    <row r="20" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:808" x14ac:dyDescent="0.35">
       <c r="FJ20" s="184">
         <f>FJ18+FJ19</f>
         <v>4782.152</v>
@@ -48726,7 +49027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:808" x14ac:dyDescent="0.35">
       <c r="FI21" s="187" t="s">
         <v>176</v>
       </c>
@@ -48744,7 +49045,7 @@
         <v>125.47199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:808" x14ac:dyDescent="0.35">
       <c r="FI22" s="190" t="s">
         <v>177</v>
       </c>
@@ -48762,7 +49063,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:799" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:808" x14ac:dyDescent="0.35">
       <c r="FI23" s="185" t="s">
         <v>178</v>
       </c>
@@ -48788,7 +49089,86 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
+    <mergeCell ref="ADU1:AEB1"/>
+    <mergeCell ref="ADL1:ADS1"/>
+    <mergeCell ref="ACT1:ADA1"/>
+    <mergeCell ref="OB1:OI1"/>
+    <mergeCell ref="TI1:TP1"/>
+    <mergeCell ref="VK1:VR1"/>
+    <mergeCell ref="UJ1:UQ1"/>
+    <mergeCell ref="US1:UZ1"/>
+    <mergeCell ref="OR1:OY1"/>
+    <mergeCell ref="RG1:RN1"/>
+    <mergeCell ref="RY1:SF1"/>
+    <mergeCell ref="OZ1:PG1"/>
+    <mergeCell ref="UA1:UH1"/>
+    <mergeCell ref="SZ1:TG1"/>
+    <mergeCell ref="SH1:SO1"/>
+    <mergeCell ref="RP1:RW1"/>
+    <mergeCell ref="PP1:PW1"/>
+    <mergeCell ref="OJ1:OQ1"/>
+    <mergeCell ref="QP1:QW1"/>
+    <mergeCell ref="TR1:TY1"/>
+    <mergeCell ref="PH1:PO1"/>
+    <mergeCell ref="QG1:QN1"/>
+    <mergeCell ref="PY1:QF1"/>
+    <mergeCell ref="QX1:RE1"/>
+    <mergeCell ref="SQ1:SX1"/>
+    <mergeCell ref="NT1:OA1"/>
+    <mergeCell ref="IM1:IT1"/>
+    <mergeCell ref="HW1:ID1"/>
+    <mergeCell ref="NL1:NS1"/>
+    <mergeCell ref="JK1:JR1"/>
+    <mergeCell ref="KI1:KP1"/>
+    <mergeCell ref="JS1:JZ1"/>
+    <mergeCell ref="JC1:JJ1"/>
+    <mergeCell ref="GQ1:GX1"/>
+    <mergeCell ref="GA1:GH1"/>
+    <mergeCell ref="LG1:LN1"/>
+    <mergeCell ref="FC1:FJ1"/>
+    <mergeCell ref="FK1:FR1"/>
+    <mergeCell ref="HO1:HV1"/>
+    <mergeCell ref="IE1:IL1"/>
+    <mergeCell ref="IU1:JB1"/>
+    <mergeCell ref="KQ1:KX1"/>
+    <mergeCell ref="FS1:FZ1"/>
+    <mergeCell ref="GI1:GP1"/>
+    <mergeCell ref="HG1:HN1"/>
+    <mergeCell ref="GY1:HF1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="EU1:FB1"/>
+    <mergeCell ref="CY1:DF1"/>
+    <mergeCell ref="EM1:ET1"/>
+    <mergeCell ref="CQ1:CX1"/>
+    <mergeCell ref="EE1:EL1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BY1:CF1"/>
+    <mergeCell ref="BQ1:BX1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="ND1:NK1"/>
+    <mergeCell ref="KA1:KH1"/>
+    <mergeCell ref="MV1:NC1"/>
+    <mergeCell ref="MF1:MM1"/>
+    <mergeCell ref="LW1:MD1"/>
+    <mergeCell ref="LO1:LV1"/>
+    <mergeCell ref="KY1:LF1"/>
+    <mergeCell ref="MN1:MU1"/>
+    <mergeCell ref="CI1:CP1"/>
+    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="DO1:DV1"/>
+    <mergeCell ref="DG1:DN1"/>
+    <mergeCell ref="VT1:WA1"/>
+    <mergeCell ref="WC1:WJ1"/>
+    <mergeCell ref="XM1:XT1"/>
+    <mergeCell ref="YE1:YL1"/>
+    <mergeCell ref="WL1:WS1"/>
+    <mergeCell ref="XV1:YC1"/>
     <mergeCell ref="ADC1:ADJ1"/>
     <mergeCell ref="VB1:VI1"/>
     <mergeCell ref="ACK1:ACR1"/>
@@ -48805,84 +49185,6 @@
     <mergeCell ref="ABS1:ABZ1"/>
     <mergeCell ref="WU1:XB1"/>
     <mergeCell ref="YW1:ZD1"/>
-    <mergeCell ref="VT1:WA1"/>
-    <mergeCell ref="WC1:WJ1"/>
-    <mergeCell ref="XM1:XT1"/>
-    <mergeCell ref="YE1:YL1"/>
-    <mergeCell ref="WL1:WS1"/>
-    <mergeCell ref="XV1:YC1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BY1:CF1"/>
-    <mergeCell ref="BQ1:BX1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="ND1:NK1"/>
-    <mergeCell ref="KA1:KH1"/>
-    <mergeCell ref="MV1:NC1"/>
-    <mergeCell ref="MF1:MM1"/>
-    <mergeCell ref="LW1:MD1"/>
-    <mergeCell ref="LO1:LV1"/>
-    <mergeCell ref="KY1:LF1"/>
-    <mergeCell ref="MN1:MU1"/>
-    <mergeCell ref="CI1:CP1"/>
-    <mergeCell ref="DW1:ED1"/>
-    <mergeCell ref="DO1:DV1"/>
-    <mergeCell ref="DG1:DN1"/>
-    <mergeCell ref="EU1:FB1"/>
-    <mergeCell ref="CY1:DF1"/>
-    <mergeCell ref="EM1:ET1"/>
-    <mergeCell ref="CQ1:CX1"/>
-    <mergeCell ref="EE1:EL1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="GQ1:GX1"/>
-    <mergeCell ref="GA1:GH1"/>
-    <mergeCell ref="LG1:LN1"/>
-    <mergeCell ref="FC1:FJ1"/>
-    <mergeCell ref="FK1:FR1"/>
-    <mergeCell ref="HO1:HV1"/>
-    <mergeCell ref="IE1:IL1"/>
-    <mergeCell ref="IU1:JB1"/>
-    <mergeCell ref="KQ1:KX1"/>
-    <mergeCell ref="FS1:FZ1"/>
-    <mergeCell ref="GI1:GP1"/>
-    <mergeCell ref="HG1:HN1"/>
-    <mergeCell ref="GY1:HF1"/>
-    <mergeCell ref="NT1:OA1"/>
-    <mergeCell ref="IM1:IT1"/>
-    <mergeCell ref="HW1:ID1"/>
-    <mergeCell ref="NL1:NS1"/>
-    <mergeCell ref="JK1:JR1"/>
-    <mergeCell ref="KI1:KP1"/>
-    <mergeCell ref="JS1:JZ1"/>
-    <mergeCell ref="JC1:JJ1"/>
-    <mergeCell ref="OJ1:OQ1"/>
-    <mergeCell ref="QP1:QW1"/>
-    <mergeCell ref="TR1:TY1"/>
-    <mergeCell ref="PH1:PO1"/>
-    <mergeCell ref="QG1:QN1"/>
-    <mergeCell ref="PY1:QF1"/>
-    <mergeCell ref="QX1:RE1"/>
-    <mergeCell ref="SQ1:SX1"/>
-    <mergeCell ref="ADL1:ADS1"/>
-    <mergeCell ref="ACT1:ADA1"/>
-    <mergeCell ref="OB1:OI1"/>
-    <mergeCell ref="TI1:TP1"/>
-    <mergeCell ref="VK1:VR1"/>
-    <mergeCell ref="UJ1:UQ1"/>
-    <mergeCell ref="US1:UZ1"/>
-    <mergeCell ref="OR1:OY1"/>
-    <mergeCell ref="RG1:RN1"/>
-    <mergeCell ref="RY1:SF1"/>
-    <mergeCell ref="OZ1:PG1"/>
-    <mergeCell ref="UA1:UH1"/>
-    <mergeCell ref="SZ1:TG1"/>
-    <mergeCell ref="SH1:SO1"/>
-    <mergeCell ref="RP1:RW1"/>
-    <mergeCell ref="PP1:PW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
